--- a/ESFP_youtube_comments.xlsx
+++ b/ESFP_youtube_comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C42ECB6-C0B5-4FA3-99F7-C3CE6A0DC3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76ED57C-15B3-462B-A0E7-AE45CE2AFE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,2692 +20,3734 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="1079">
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ진짜 너무 소름 끼쳐요... 아니 진짜 거짓말이 아니라 옷 스타일이나 머리 길이, 모자도 저런 거 있는 거 같은데... 이게 무슨 일이야...</t>
-  </si>
-  <si>
-    <t>엣프제 국룰은 남들 얘기 다 들어주고 공감해주고 감정이입쩔지만 그래도 인생에 제일 중요한건 나 자신이라 나를 힘들게 만드는건 칼같이 선긋고 싫어함ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ나빼고 뭘 한다? 내가 중심이아니다? 개빡치고 분함</t>
-  </si>
-  <si>
-    <t>저거 보고 써보는 엣프제 특
-- 안친한 사람이 나에 대해 아는 건 꺼려함 근데 친한 애한텐 다 드러냄
-- 인서타 스토리 올리고 누가 봤는지 다봄 ( 다들 그러는줄 알았는데 나만 보는거였음) -&gt; 여기서 포인트는 필요이상으로 많이 확인해본다는거랑 누가보는지 리스트자체를 확인하는거 스캔으로 확인하는거 노 허용
-- 인맥 생각보다 많지 않음 왜냐하면 얉은 관계 싫어함 근데 깊은 관계가 좀 많은것 같긴함..ㅋㅋ
-- 아무감정 없는 이성이랑 잘 지냄 거의 광대임 근데 내가 좋아한다는거 인지하면 갑자기 뚝딱번째 감각됨 이것저것 다 재다가 그 이성이 다른 사람이랑 커플되면 갑자기 확식음 걍 안좋아했던 사람처럼
-- 엣프제 덧글 잘 안쓰는 이유 써놓고 반응없으면 괜한 말 했나 하고 삭제하는거… it is me.. 조아요잇거나 덧글 잇으면 삭제안함 ㅋㅋ 힛
-- 혼자 여행갈때도 계획세움 몇시에 뭐하고 몇시에 뭐할지 정해놓고 딱맞으면 이게 나지 하면서 뿌듯해하면서 생색쟁이
-- 다른 mbti꺼 잘 안보는데 다른애들꺼 mbti 외운 다음에 걍 링크만 보내줌 거기에 리액션해주면 뭐라도 된 마냥 뿌듯함 근데 보지는 않음 귀찮아
-- 유교보이 걸스 왕 많음 생각보다 보수적인데 절대다수에 따르는 것일뿐 애들이 좋다니까? 굳이 말해서 긁어부스럼 만들고싶어히지않음
-- 공공장소에서 큰소리로 따지는 모습보면 굳이,,? 왜저럴까 라는 생각뿐 걍 둥글둥글하게 살면 안되나 라고 생각함
--  처럼 말끝마다 이상한 표정지으면서 친한 사람들 웃겨하는거 좋아함
-- 우울해도 자고일어나면 갑자기 비장해짐 ; 뭐든 할 수 있을것 같음 하지만 늦잠 자면 역시 난 쓰레기라고 생각함
-- 용기내서 써봄.. 반응해됴..
-- 막상 나보다 말 많으면 가만히 있음 그래서 주변 친구 mbti 비중 80퍼센트가 i로 시작함 그리고 isfp 친구가 거의 절반
-- 그리고 할말 많아.. 모든 인생이 컨텐츠야. 나만 이렇게 인생을 다이나믹하게 사나라고 생각함
-- 강유미 말투 걍 나임 습관성 뭐야 하는 사람 나</t>
-  </si>
-  <si>
-    <t>혹쉬 이것도 공감하려낭...?
-그 esfj가 계획 틀어지는 거 극혐한다고 알려져있긴한데
-난 갠적으로 계획보단 내 루틴 틀어지는게 너무 스트레스임</t>
-  </si>
-  <si>
-    <t>근데 엣프제 은근 손절잘함 
-엣프제가 배려도 잘하고 인간관계 항상 긍정적으로 유지하려고 하는데  만약  그 평화로운 관계를 망가뜨리는 사람이 있다 ?! 뒤도안돌아보고 손절합니다.. 엣프제 은근 손절 기준 명확하고 많이하는편인거같음.. 내 평화로운 인간관계 이상한애 하나로 더럽힐 수 없다..  신경쓰고싶지도 않아..</t>
-  </si>
-  <si>
-    <t>엣프제가 말하는 엣프제 댓글이 많이 없는 이유 : 쓰고 나서 이게 맞나? 싶고 뭔가 다시 읽으니까 별로라서 결국 지움</t>
-  </si>
-  <si>
-    <t>내가 생각하는 엣프제 특징
-- 내 주관 절대 없지 않음 이성적 판단도 가능하고 호불호도 뚜렷하지만 정말 허용못하는 범위가 아니면 그냥 남들한테 먼저 양보하는 편 ㅋㅋ 절대 양보 못하는 선이 30퍼센트 정도 있다면 나머지 70퍼센트는 이래도 좋고 저래도 좋기 때문에 딱히 의견 반박 안하고 굳이 목소리 내서 긁어부스럼 안하려고 함 
-- 욕심도 많고 이것저것 하고싶은 일도 많음 감정적인 부분이나 인간관계에서는 FJ이지만 일적으로는 ESTJ적인 면모도 강하고 책임감도 강하고 일 욕심도 많은 계획형 워커홀릭임 ㅋㅋ
-- 리액션 잘해줌 상대가 슬퍼하거나 화가 나있으면상대가 듣고싶어할만한 말들과 반응 총집합해서 다 해줌 위로도 해주고 해결책도 제시해주고 같이 화내주고 내 일인 것 마냥 내가 대신 가서 해결해주겠다면서 난리치고 기쁜 일이면 니 일인데 내가 더 좋다면서 진심으로 당사자보다 더 난리쳐쥼 막상 내 일이면 그냥 무덤덤함 
-- 나는 되게 아싸구나 나 생각보다 조용하구나 생각하지만 막상 친구 오랜만에 만나면 친구는 어색해하는데 나 혼자 와랄라 말 많아지고 말 존나 끊임없이 하고 친구한테 자존감 높여주는 말 마구마구 하고 옴 근데 나보다 말 많은 친구 만나면 아 난 역시 i인가 이런 생각함
-- 남들 눈치 많이 보고 눈치도 빠름 그래서 알바가면 빠르게 적응하고 완벽주의 성향도 있어서 최대한 센스있게 혼자서 터득하려고 노력함 실수하면 상대한테 엄청 미안해하고 단어선택도 엄청 조심조심함 오지랖 오지게 넓어서 내가 자기검열 하지 않으면 오지랖 육지랖 칠지랖까지 감 
-- 한번 섭섭하면 정말 눈물 펑펑 터질 정도로 서운해하는데 대화로 잘 풀면 금방 잊어버림 그대신 미안하다는 사과를 못받고 애매하게 푼 거 같으면 겉으로는 다 풀린 척 하지만 속으론 미안하다는 말 못들었다는 게 응어리 져서 혼자 맘에 담아두고 있음 ㅠ 근데 엣프제들한텐 사과만 제대로 하면 뒤끝 없이 정말 다시 헤헤 거리는 단순한 면이 있음 
-원래 댓글 안달고 댓글 눈팅만 하는데 오늘은 너무 반가워서 적고 가봅니다 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>남자 Esfj
-1. 멍석 깔아주면 엄청 잘함. 평소엔 소심하다가 친한 친구들이나 리더쉽 발휘해야할 때 엄청나게 잘함
-2. 책임감 엄청 남. 내가 안하면 안되는 것. 다른 사람 손 빌리는 거 싫어서 내가 반장하면 부반장 할 일 없음
-3. 남 눈치 너무 봄. 애들이 걱정좀 생각좀 그만하래 카톡 답장 늦는거 1 없어지는거 내가 쓴 내용에 대한 반응, 다 중요.. 그래서 댓글 쉽게 안남기고 남기게 되면 아주 시리우스하고 진심을 다해서 씀 
-(지금도 자기 일보직전에 이거보다가 일어나서 맘잡고 쓰는즁)
-4, 남자앤데 꼼꼼하다 섬세하다 그래서 좀 여성스럽다 하는 말 꽤 듣고 그래서 인기 많음 여사친도 많고 어딜가나 두루두루 잘지낸다는 얘기 많이 들음. 학교다닐때 우리반은 나때매 여자남자 같이 다 친했음..ㅎㅎㅎ
-*여자애들이랑 급식먹는거 상관없는데 또 남눈치 극도로 보니까 결국엔 남자애들 여자애들 다 불러서 급식실에서 같이먹었음 ㅎㅎㅎㅎ
-5. 은근 내자랑? 하는거 있고 내 성과에 대해 인정받기를 엄청 원함. 돈보단 명예인듯. 그래서 사람들에게 늘 잘보이려고 하고 선물도 많이 주고 잘 챙기려고 노력함. 그래도 그런거 인정받은거 부끄러운 척 하고 겸손하게 하려고 함.
-6. 삐지면 답 없음 작년부터 친구 두명한테 삐져있는데 아직 그 속마음 얘기 못했고 아직도 삐져있지만 걔네 둘은 제대로 모르는 상태
-7. 속앓이 많이 함. 이제껏 많이 아팠던 것 잔병들 대부분 심리적 원인이었음. 화장실 엄청 자주 가고 위경련 소화불량..다 마음의 병. 그만큼 사람들 때매 쉽게 힘들고 상처 넘 많이받고 고민 넘 많이함
-8. 난 그래서 오하려 나 자신에 대한 사랑이 넘 부족한 것 같음. 그래서 애인도 없음.. 내 사람들 챙기기 넘 바쁨. 그래서 가끔 많이 외로움. 애인 생기면 끔찍히 잘해줄거임 ㅜ
-에프제들은 너무 따뜻하고 내사람들을 위해 이몸바쳐 진심을 쏟아붓는 사람들.
-나포함 우리에프제들 모두 근심걱정 좀 줄이고 더 행복합시다 ️
-반응 10개 안해주면..지울거야ㅜㅜ
-계속 확인할거야 ㅜㅜ매일</t>
-  </si>
-  <si>
-    <t>ESFJ를 가장 크게 갉아먹는 감정 소외감
-나도 인간관계에 좀 쿨하고 싶당..!</t>
-  </si>
-  <si>
-    <t>9:59 
-와 엣프제하면 사람들이 사교적이어서 아무나불러도되는쥴아는데 친구의 선이 명확해서 조금만 어색해도 같이노는거 진짜 개시러함...와 유미언니 천재세요?</t>
-  </si>
-  <si>
-    <t>ESFJ 남편만나서 너무 행복한
-저 INFJ가 본 엣프제 모습은
-정말 같이 있으면 좋은 에너지를 받고
-배려 너무 잘해주고 선하고 듬직합니다.
-같이 있으면 힐링이 된달까 ㅋㅋㅋ
-첫인상은 조용해보였는데 의외로
-애교많고 말도많고 텐션이 높은편ㅋㅋ
-대신 단점은 본인이 혼자 속앓이를 많이 해서
-속병이 날까 걱정이 돼요.
-그레서 제가 항상 살피고 많이 경청합니다.
-엣프제님들 ~~ 태어나줘서 고마워용</t>
-  </si>
-  <si>
-    <t>아 여행계획 짤 때 진짜 소름돋습니다 ㅎㅎㅎㅎㅎㅎㅎㅎ너무 저를 보는것 같아여</t>
-  </si>
-  <si>
-    <t>Esfj는 사람이 진짜 따뜻함... 내 마음을 공감해주고 계속 배려하고 신경써주는게 내가 다 느껴져서 뭔가 계속 고마움,, 글고 편견도 없고 빼는 것 없이 내가 하자는 거 다 해주고 암튼 활발하고 자상한 엣프제 너무 좋앙</t>
-  </si>
-  <si>
-    <t>3:53 esfj 공감와르르,,,,,만약 선물 없었으면 카페에서부터 그날 밤까지 계속 우울그자체,,,나만 빼고 왜 놀러갔지 나는 얘네 선물두 만들구 얘네좋아하는데 얘들은 그게 아닌가,,,,내가 실수한 적 있었나 고민만 하다가 혼자 죠르륵 눈물흘리며 잠듦,,,,선물받았을때 내가 이렇게 좋은 애들을 오해했구나 싶어서 미안해서 눈물남 ㅠㅠㅠㅠㅠㅠㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>ESFJ 아주 개인적인 생각 특징
--친구 고민들어줄때 머리를 쥐어짜내서 좋은말 띵언을함 
--누가 갑자기 너 내얘기 했어? 라고 물어보면 (안했어도) 당황+두근거림+불안 증세가 일어남 ㅋㅋ
--인간관계가 조금이라도 틀어지면 아주 스트레스를 하루종일 받음
--가끔가다가 얘가 진짜 나랑 친한애가 맞나하고 생각에 빠질때가 있음
--내가 하고싶은게있어도 친구가 딴거하자하면 쿨하게 남의말에 따름
--짝사랑과 헌신적인사랑 오지게함
--친구랑 만나면 항상 이제 뭐할꺼야?라는 질문을 많이함(모르겠다하면 답답한데 티안냄 ㅋㅋ)
--여행계획은 당연한거고 다이어리쓰는거나 휴대폰 캘린더 쓰는거 개좋아함 (근데 계획대로실천안함)
--친한친구들 사이에서는 관심종자인데 낯선사람들 사이에서는 관심받기싫어함
--갑분싸 개극혐함 분위기 안좋아지는 순간 진짜 뛰쳐나가고싶어짐 
--친구비밀을 지켜줘야겟다했지만 나도모르게 말해버리고 ㅈ댓다싶음 
--주위에서 항상 답답하다 호구같다 착하다 대신말해줄까 화좀내라는 말 개마니들음
-지극히 개인적인 의견 ,, 좋은것같지만 뒤에서는 많이 
-아파하는 타입 ㅠㅠㅠ 홧병걸릴것같은 스타일 
-이게 나야 ,,</t>
-  </si>
-  <si>
-    <t>댓글보니까 너무 슬프다... 내가 중심이고 싶으면서도 나보다 남한테 맞춰주는 삶인 엣프제라니..근데 그게 그냥 엣프제에 천성인것같기도 하구...지난일 돌이켜 보니 그렇게도 느껴지고..괜히 울컥하네..흐읍 맘아파... 
-댓글보던 엣프제 1인...</t>
-  </si>
-  <si>
-    <t>ESFJ =인간관계에 1순위로 둠
-친구랑 싸우거나 관계 틀어지면 하루종일 생각함 
-남한테 선물 주는거 되게 좋아함
-친구 고민상담 겁나 잘해주고 리액션좋음
-유행 뒤쳐지면 안되고 친구들이 나빼고 놀러가면 빡침
-유머러스해서 인맥 꽤 있음
-상처안받는것 같아도 한마디가 박혀서 상처 받으면 집에서 우울함
-친구랑 통화하면 기분좋아짐
-여행가면 몇시에 여길가고 뭘먹을지 다 계획함
-수다 떠는거 겁나 좋아함
-요즘 이슈 다 알아야함
-주위 친구들은 나보고 낯안가린다고하지만 처음엔 겁나 낯가림 (먼저 말거는 이유는 어색한 분위기가 싫어서ㅎ)
-질투 많음
-mbti 과몰입</t>
-  </si>
-  <si>
-    <t xml:space="preserve">몇번을 해도 엣프제인 사람이 생각하는 엣프제를 적어보자면,
-1. 그러고 싶지 않은데 눈치가 너무 빠름
-(미세한 표정과 워딩 말투 등등을 통해 그 사람의 감정변화가 읽힘)
--&gt;그래서 말 돌려하는 사람들 싫어함
-원하는거, 요구하고 싶은게 있으면 직접 말해줬으면 좋겠음
-사람을 감정적으로 괴롭히는거, 피마르게 하는거 진짜 혐오
-2.친구를 너무 좋아함. 친구 없이 못산다
-때때로 가족보다 중요할 때도 있음
-가족 = 친구, 친구 = 가족 인셈
-내 옆에 있어주고, 나를 생각해주는 사람들이 가족이라 생각
-3.그치만 내가 생각하는 '친구'는 조금 특별함
-ESFJ 에게 '친구' 는 문자 그 이상의 의미
-실제로 몇 없음, 마음 내어주기까지 수 년이 걸림
-4. 누구와도 말을 잘 하기 때문에 (스몰토크 장인)
-사람들은 나와 친하다고 생각함, 그래서 선 넘는 경우 다분
-그럴 때마다 '나 너랑 그렇게 안친한데' 생각함
-친구 외 사람들은 지인 or 아는사람 정도
-5. 세상에 재미있는게 너무 많음
-이것도 하고 싶고 저것도 하고 싶고..
-하고 싶다, 할 것이라 이야기 한건 꼭 해야되는 성격
-말보다 행동 먼저! 말하기 전에 이미 하고 있음
-6. 뭘 그냥 항상 나눠줌
-나누는 그 자체를 즐기고, 좋은건 같이 해야함
-나중에 내가 뭘 줬는지 기억 못하고, 무언가 바라면서 행동해본적이 별로 없음
-(계산 안함)
-7.기억을 잘함, 세심함
-친구들이 좋아하는 것, 재미있어 하는 것에 빠삭함
-무의식 중에 항상 친구들이 있어서,특정 물건이나 장소 등을 봤을 때 그걸 좋아하는 친구가 생각남
--&gt;선물 고르기 정말 쉬움
-8.민폐끼치는걸 병적으로 싫어함
-누군가와 같이 일해야하면 상대방을 먼저 생각
-이사람이 어떻게 하면 일처리를 빠르고 쉽게 할 수 있을지 고민함
-일이 아니더라도, 타인을 번거롭게 하는 것,
-다른 사람의 시간을 낭비하게 하는 것 정말 싫어요
-9.관종, 개그욕심
-웃겨야 된다는 묘한 강박이 있음
-다른 사람을 개그 소재로 쓰는 것 혐오함,자조적인 개그를 많이 하는 편
-오늘도 어딘가에서 눈치보고 있을 엣프제들 화이팅 </t>
-  </si>
-  <si>
-    <t>사람들 기분 맞춰주고 분위기띄우면서 마냥 밝게 있다가 현타올 때 있음..
-하지만 금방 또 사소한거에 기분좋아져서 헬렐레 ㅋㅋ</t>
-  </si>
-  <si>
-    <t>ISTP인 내가 찐친 ESFJ 보고 느낌점
-1.만날 때 명확한 시간과 장소 그리고 그 날 뭐 하고 어디서 밥 먹고 그 후에 뭐하자고 구체적인 계획안을 미리 말하고 만남. 그 후99% 계획본 무조건 실행됨(정말 불가피하고 무슨 일이 일어나지 않는이상)
-2. 5년을 넘게 주기적으로 많이 만났지만 내가 모르는 친구, 지인이 너무 많음.. 그리고 그 사람들과 만나면서 느꼈던 유용한 정보, 맛집 등 나한테도 같이 공유해줌.
-3.인간관계에 대해 정말 정말 너무 중요시 여김. 
-간혹 이 친구가 우울하고 고민이 있을 때 얘기 들어보면 10에 9은 인간관계에 관련된 이야기임. 그리고 이 친구가 한 번 마음 단단히 먹고 삐지면 2-3달은 연락안됨. 그 후 스스로 진정이 되면 연락이 다시 옴.
-4.고민을 진짜 상담사 뺨 칠 정도로 잘 들어줌.
-고민상담 후 해결방안, 조언 등 자기입장에서도 생각하면서 조리있게 잘 정리하여 논리적으로 잘 설명함. 이 친구에게 고민을 얘기하면 심각하게 고민 했던것도 단순하게 생각이 바뀜..개신기
-5. 정말 하고싶은게 있으면 무조건 해야됨..
-이 친구가 인스타에 연예인이 올린 사진을 보고 똑같이 따라해보고 싶다고해서 사정사정 부탁해서 귀찮지만 같이 찍어줌. (정말 디테일하고 정교하게 장비,조명,각도,의상,포즈, 등 고려해서 원하는 사진 나올 때 까지 찍는다고 100번은 넘게 찍은 듯
-6. 이 친구에겐 어중간한 인간관계가 없음. 정말 마음 잘 맞는다고 생각하는 소수 몇 명만 사귀고  그 사람들만 만남 그 외엔 친구 없음. 뒤죽박죽 섞여있는 위화감 조성 그룹 개극혐함.
-7.(진짜 제일 신기한거)자기가 한 말은 꼭 지킴.. 못 지킬 말을 애초에 말 절때 안함. 자기가 계획했던거와 목표가 있으면 무조건 행동으로 옮기고 그 결과물을 보여줌.. 개신기,,
-8. 말 빨 절때 안 짐.
-사회생활에서 서비스직 종사자들이 조금이라도 선을 넘거나 불쾌하게 하면 그 자리에서 똑같이 되 돌려줌. 그리고 절때 안질려고함. 상대방이 꼬리내리고 굴복하며 죄송하다고 할 때까지 무차별 언어폭행으로 개팸.(물론 욕은 안함) 그 후 이기면 말빨배틀 승리에 희열과 온 갖 통쾌함을 다 느낌 그 날 하루 기분 개좋음.
-9. 자기가 보고 인상깊었던 것이나 재밌었던 것들 무조건 공유해줌. 혼자 절때 못즐김. 같이 즐겨야됨
-노래,춤,재밌던 유투브 영상, 그리고 마음에 들었던 취임새나 유행어 틈 말 때마다 따라함.. 은근 중독성있음
-10. 사진 찍어서 추억을 남기는 걸 정말 중요시 여김.
-이 친구 만나면 그 날에 사진 한 두장 이상은 무조건 찍어야 됨.(인생네컷 보면 그냥 못 지나감) 그래서 그런지 옛날 사진도 엄청 많고 그 사진보면 그 날에 뭐했는지 세세한것도 아련하게 생각남.. 싱기방기
-11. 정리정돈, 청결에 강박증있음.
-친구 집 방 보면 정말 정리정돈이 너무 잘 되어있고, 더러운거 개 극혐함.. 특히 국물있는 음식 먹을 때 무조건 개인접시에 퍼서 먹어야 됨..남이랑  같이 입에 들어가는거랑 입는거는 절대적으로 싫어하고 엄청 예민함 (개인 영역 철저)
-개인으로ESFJ 친구 만나면서 느꼈던 점들 적어봤네요.. 이 영상보면서 정말 소름 돋았습니다.. mbti는 과학인듯</t>
-  </si>
-  <si>
-    <t>esfj가 쓰는 엣프제 특징
-1. 남 눈치엄청보고 예민함 눈치 엄청 빠른데 모르는척하는경우가 많음
-2. 중재 잘함 근데 오바하면 주변에서 눈치챔 과할때가있음
-(도덕적 잣대가 높은편이라 이런걸로 못된짓은 안함)
-3. 이런거 쓰는 와중에도 내가 잘못쓰고있는거아닌가;; 이상하게 보면 어쩌지 걱정
-4. 잘 미안해하고 애초부터 조심하려고 노력함
-5. 남한테 잘해주는만큼 상대방도 잘해주면 좋겠음 (준만큼 받고싶음)
-6. 친구가 나를 제일 친하다고 하면 너무 행복함
-7. 흑백논리가 좀 있음 그래도 이해되면 인정하는편
-8. 엄청 인싸일거같은데 막상그렇지도않음
-9. 이런거 원래 절대안씀
-10. 세상의중심은 나 자존감 별로 안높아보이는데 자존감 높음
-11. 안좋아하면 관심없음 좋아하면 무대뽀 무조건 직진 좋아하는사람은 꼭 겟해야함
-12. 기분이 들쑥날쑥한 좋았다가 나빳다가 엄청 왓다갓다하는편 티 안내려고 노력함
-13. 워낙 유명한 특징인 리액션장인... 그냥 나도 재밌고 좋아서 리액션하는건데 다들 장인이라고해줌 
-14. 쇼핑할때 겁나 꼼꼼함
-15. 좋아하는 유튜버 연예인 자주바뀜
-16. 밖에서 사람들만나고오면 기분좋긴한데 개인시간도 필요함
-17. 주장도 잘 받아들이고 유한편인데 내가 하고자하는거 매우정확(겉으론 안그래보임) 은근히 고집셈
-18. 기본적인 베이스는 긍정적인 편인데 우울해하기도함 왜냐하면 모든것을 고려하는 성격이라 막막함에 우울해짐 하지만 금방 타파하려고 노력해서 또 긍정적인편~</t>
-  </si>
-  <si>
-    <t>개인적으로 한국살기 제일 좋은 성격 아닐까 싶은게 esfj ㅋㅋㅋㅋ 인싸지 친절하지 성실하지 배려잘하지..</t>
-  </si>
-  <si>
-    <t>본인 엣프제 성격 적어봄..
-(다르다고 토달지 않기로 해요☆)
-1. 부끄럼 생각보다 많음 
-인정받고 싶지만
-대놓고 판 깔아주면 넘 부끄러움
-2. 자기주장 잘 안하는편인데 도덕, 예의 관련해서는 결단력있음 (저번에 회식끝나고 차 태워다주겠다길래 술 드셨잖아요 저 음주운전 차 안타요 걍 직설적으로 얘기함.. 평소라면 절대 직설화법 안씀)
-3. 일할때 책임감+열정파워+오지랖(남 일 도우다가 점점 내 일이 되어감)
-4. 선물, 손편지, 카톡이모티콘 필수
-5. 은근 집순이기질 
-6. 굉장히 보수적. 이성볼때도 뭔가 특출나게 하나 가지고 있는것보다
-부족한게 하나라도 없는걸 원함
-(외모,성격,능력,가정환경 등 다 골고루 평범하길 원함. 외모만 잘생기고 능력 없다? 호감 가질순 있어도 사귀진 않음)
-7. 좋게말하면 정직 나쁘게 말하면 좀 융통성 없음
-8. 토론, 심오한주제, 철학적인 얘기 싫어함 그냥 사람 살아가는 얘기, 일상토크가 좋음 ㅠㅠ 
-9. 고마워 미안해 사랑해 등 표현 엄청 잘함 대신 한만큼 상대방도 해주길 바람
-10. 그냥 다 퍼주는 것 같아보여도 은근 계산적임. 과연 내가 받은 도움이 이 가격대에 적정한가? 도움을 돈으로 환산해서 선물함 
-11. 친구들끼리 밥 먹고 더치할때
-송금 엄청 빨리함. 친구가 달라고 하기도 전에 얼마 나왔어? 계좌 보내줘!!! 먼저 선수침 
-12. 엣프제가 엣프제 칭찬하는 것도 좋지만 다른유형이 엣프제 천사라고 해주면 뿌듯+행복지수 최고치 찍음 
-쓰고나니 또 지우고 싶은데
-엣프제들은  읽겠죠?? ㅎㅎ
-엣프제 사랑해용</t>
-  </si>
-  <si>
-    <t>진짜 유튜브 댓글 처음 써본다… 여기는 엣프제들만 있다고 생각하니까 맘 편히 쓰게되네 ㅋㅋㅋㅋ 나보고 성격 되게 좋아보인다 착하다 그래주는 사람들 다들 너무 고맙지만 난 이런 내 성격 때문에 스트레스 이기도 함… 타인을 너무 신경쓰게 되고 어떤 사람이 한 명이라도 날 싫어하는걸 알게 되면 너무너무 스트레스임 그리고 자주 우울감에 빠지는거 같고 남한테 상처주는게 너무너무 싫어서 계속 배려하다보니까 내가 너무 피곤해지는 느낌 ㅜㅜ</t>
-  </si>
-  <si>
-    <t>몇번을 해도 확신의 엣프제인 1인인데 약간 찐친은 아니고 꽤친한 친구를 만난 저를 보는거같아욬(찐친은 할말 다함) 제 특성으로 엣프제 말하자면 약간 흘러가는 대로 평화롭게 살고싶은데 재미가 없으면 안됨 주목도 종종 받아야하는 관종임. 은근 낯가리는데 상대방도 불편할까봐 존나 아무말함 그래서 말 ㅈㄴ많고 인싸처럼 보임 말 저렇게 쏟아붓고 집가면 집에서 또 충전시간 필요(은근 집순이임) 다 맞춰주는것 같지만 은근 고집 주관 있어서 속으로 선 어느정도 긋고 재고 따지기도 함.. 근데 그 선이 존나 관용적이라 그래그래 너희 의견 다말해 다 괜차나~ 이런느낌ㅋㅋ 남의 평가와 묘사에 예민해서 일단 이 영상 나오자마자 호다닥 보고 댓글 다는 나는야 엣프제^^..가끔 내 스스로 호구같아 스트레스 받지만 내 엠비티아이에는 만족하는 모순적인 엣프제 설명이었습니다 또 말 길게해버렸네</t>
-  </si>
-  <si>
-    <t>내가 제일 가까이 지내는 뼛속까지 esfj 특징
-1. 아는 것이 많음 (예: 여러가지 취미 갖기위해 클래스 다니는정도?)
-2. 소외감 느끼는거 싫어함 ( 본인 빼고 단톡방있고 본인빼고 놀러다니는 거)
-️이거 찐 3. 모든 사람들과 잘 지내려고 함 (웬만해선 손절 안 함) + 친구와 안 맞는 점이 있다고 해서 그 안 맞는 점을 말하지 않음.
-4. 본인 친구들이 아는 거 다 알아야 함.</t>
-  </si>
-  <si>
-    <t>엣프제 특징 하나 더! 현실적인 면이 있어서 유독 자기랑 말 안 통하거나 상대가 말한 것에 대하여 두번이상 물음표되면(상식적으로 이해 안 되는 말이나 상황에 맞지 않는 드립 같은 거) 조금씩 경계하다가 아예 말 안 섞음</t>
-  </si>
-  <si>
-    <t>esfj는 항상 어느 모임에 끼어있기를 바라지만..그 모임에 가는걸 귀찮아하지 '아 ㅅㅂ 준비 존나 긔찬긔찬'이러고 가면 존나 잘놈 제일 잘놀고 제일 시끄러움</t>
-  </si>
-  <si>
-    <t>지나가던 ESFJ가 쓰는 엣프제 특징
-이런거에 댓글 잘 안씀 ( 댓글 보기만하고 넘김 )
-찐친한테는 절대 저렇게 안반겨줌 어 왔냐? 가자~
-몇명을 깊게 사귀기보단 폭 넓게 사귀는 편
-= 친구들 무리가 개많음ㅋㅋㅋㅋ
-주변에 엔프피 친구들 겁나 많음
-리더쉽 오지고 실행력 개쩔고 ㅈㄴ앞서감 ( 여행가자는 한마디에 장소부터 이동편 날씨 다 알아봄 )
-친구들 만나는 것도 좋아하지만 집에서 혼자 시간 보내는 것도 좋아함
-하고싶은거 개많음 진짜 하고싶은건 꼭 함 ( 시작했는데 내가 생각했던거랑 많이 달라 괜히 했나? 후회함 ㅋㅋㅋ )
-남한테 피해주는거 누구보다 극혐함 ( 같이있는 친구가 남한테 피해주는것도 개싫어함 ) 
-내가 생각하는 상식선을 넘어가면 ㅈㄴ화남 = 누군가 내가 생각하는 상식선을 넘어버리는 짓을 하면 못참음
-+집순이 엣프제는 나가긴 귀찮고 친구는 만나고 싶어서 자기집으로 부름 ㅋㅋㅋㅋㅋㅋㅋㅋ 엣프제 집 거의 아지트ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ESFJ 의 멀티태스킹 능력과 타인의 니즈를 빠르게 캐치하고 심지어 충족까지 시켜주는 재능을 존경합니다! -인프피</t>
-  </si>
-  <si>
-    <t>나 엣프제
-1. 친구 많은데 친구 중에서도 찐으로 편하고 친하다고 생각하는 친구가 따로 있음
-2. 왠만하면 사람 안불편해하는데 유독 불편한 사람들이 있음 (특히 말 많이 안하고 표정도 없고 리액션도 없어서 뭔 생각하는지 모르겠는 사람)
-3. 조금이라도 불편한 사람이랑 단둘이 만나는거 극혐 심지어 카톡도 싫음 (불편한 상황 자체가 싫은듯)
-4. 그래서 평소 연락 만남은 1번에서 찐으로 편한사람 2번 해당 안하는 사람 위주
-5. 아예 모두가 서로 낯선자리가면 또 MC보면서 엄청 잘놈 어색한 분위기 극혐
-6. 친한 사람들 사이에서 관종+또라이
-7. 친구들끼리 여행갈때 아주 자연스럽게 구체적 계획 다 짜고 총무&amp;회장&amp;게임부장 다하고 있음 친구들 역할 정해줌
-8. 주말엔 나가야함 광합성 하면서 사람만나고 맛난거 먹고 재밌게 놀고싶음
-9. 밖에서 쓸데 없는 말 많이 했다 싶으면 집와서 내가 뭔 짓을 한거지 -&gt; 아냐 이래이래서 괜찮을거야 -&gt; 내가 뭔 짓을 한거지 무한반복
-10. 누가 나한테 쎄하다 싶어도 9번 무한반복
-11. 오지랖+잔소리 대장임
-12. 누가 나 오해하는거 억울한 상황 극혐
-13. 인간관계 원만하면 난 세상에서 젤 행복한 사람
-14. 그래도 ((((((나)))))) 라서 극도로 내 삶과 행복에 피해끼치는 이기적인 인간 있으면 손절침
-15. 까탈스러운거 싫음 세상 모두가 둥글둥글 이해하면서 행복하게 살았으면 좋겠음
-16. 웃긴거좋고 내가 남 웃기는것도 좋음 근데 나보다 말 많고 나보다 웃긴 사람 있으면 급 생기 잃음
-17. 눈치 진짜 엄청 빠름 알면서도 상황 분위기 봐가면서 모르는척 함
-18. 계획 책임감 워커홀릭
-19. 우리집 다 불러서 요리해주고 노는거 최고~!
-20. 가만히 있는게 죄같음 컬러링 뜨개질 다이어리꾸미기 미니어처만들기 등 별의별 취미생활은 다 가지고 있는데 진득하게 안함
-유미언니 영상 항상 재밌게보는데 진짜 너무 공감되고 재밌어서 깔깔거리면서 봤어용  역시 최고</t>
-  </si>
-  <si>
-    <t>ESFJ면서 ESFJ가 하는 이야기 들으면 뭔가 그동안 인간관계에서 서러웠던거 생각나서 눈물남ㅜㅜ
-다른 성격을 이해하면서도 서운한건 어쩔 수 없는듯..</t>
-  </si>
-  <si>
-    <t>ESFJ가 너무 가식적인거 같지만.. 진심 80으로 저런 리액션 하는거에요..</t>
-  </si>
-  <si>
-    <t>나 esfj인데 이 영상 댓글 주기적으로 보러 옴... 
-남들이 날 어떻게 생각하는지 항상 궁금한데 좋은 얘기가 많아서 왠지 기분 좋음
-그리고 다른 곳에서 보기 힘들었던 esfj 댓글이 많다!</t>
-  </si>
-  <si>
-    <t>사람들이 친구많다고 인싸라고 본인은 그렇게 생각 안함. 그냥 모든사람들한테 일반적으로 친절하고 리액션 잘해줘서 그런듯….
-얕은 관계 깊은 관계 바운더리 확실하게 그어 놓음. 얕은 관계의 사람들에게도 잘해주긴하지만 깊은 관계에 있는 사람들한테 내가 쏟는 시간 감정 정성 비교하면 암것도 아님.
-그리고 내 mbti보다 내주변사람 mbti 보는게 더 재밌음</t>
-  </si>
-  <si>
-    <t>리액션 잘해주고 잘 공감해주는거는 맞아요. 하지만 저렇게 친구든 누구든 지인들 만나고 돌아오면 에너지 방전되서 저같은 경우는 꼭 혼자만의 시간을 갖고 본인의 루틴으로 재충전해야해요. 다른 사람들이 볼 때는 사람들 만나고 대화하는거 좋아한다고 착각? 하실 수도 있는데 사실 약속 생기고 사람만나는 거 너무 피곤해요 ㅠㅠ 뭔가 약속이 생기면 그날 나의 일상 루틴이 깨지는 상황이기때문에 그게 내가 필요로해서  잡은 약속이 아닌경우에는 사실 굉장히 스트레스고 약속이 깨지길 바랄때가 많아요 실상 만나면 또 잼있게 잘 놀고 리액션 잘해주지만요 ㅋㅋ 저만 그런가요? 그래서 스스로가 나서서 잡는 약속이나 모임은 잘 없는 것 같아요 (약속 피곤해요..아마도 본인이 또 얼마나 열심히 리액션하고 맞춰주고 할지가 예상이 되기때문인 것 같아요..)하지만 사람들 사이에서 잘 융화되고 많은 경우 꼭 모임의 분위기메이커가 되어있는지라 남들은 우리를 볼 때 활발하고 외향적으로 보는데 사실 esfj인분들 본인 스스로는 낯가림도 있고 내향적이라 생각하는 분들 많지 않나요?ㅋㅋ 암튼 “혼자”서 내 루틴, 내 계획대로 사부작 사부작 하는 것들을 좋아하고 사람많고 시끄러운곳 좋아하지 않으나 수다떠는 것은 또 좋아하고 남들 잘 챙기고 기본적인 예의범절 공중도덕 지키지 않는 거 딱 질색 (극혐)하는 지나가는 esfj였습니다. ㅎㅎ</t>
-  </si>
-  <si>
-    <t>소외 왕따 배척 오해 불화 &lt;- esfj의 역린인걸 딱 잡아내셨네요 ㅎㅎㅎ 게다가 착장도 꾸안꾸 깔맞춤좋아하고 아무리 스포티하게 입어도 반드시 악세사리나 화장은 여성스러움을 표현해야하는것도 ㅎㅎ 감정표현 특히 고맙고 맛있고 반갑고 이런 긍정적 감정 격한것도ㅇㅇ 계획세울때 공평하게 역할분담 스무스하게 잘하는것도 넘나 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>제가 아는 esfj 진짜 성격 너무 좋고 착하고 사랑스러워요 모두가 사랑할거 같은 성격이에요 저도 그 친구 너무 좋아하구요  같이 있으면 밝은 에너지가 넘치고 칭찬해주면 칭찬한 사람이 더 기분 좋아지게 엄청 좋아해주고 ㅎㅎ 그친구 땜에 엣프제가 성격 제일 좋구나 생각해요 엄청 꼼꼼한면도 있어요</t>
-  </si>
-  <si>
-    <t>ESFJ 인간이 갑자기 삘 받아 쓰는 엣프제 
-1. 남한테 상처주는거 완전 싫어함
-나로인해 피해 입는거도 개싫어함
-2. 소외감 느끼면 혼자 자기전에 울정도임(운다.. 속은 겁나 여린사람이라..)
-그래서 소외되는 사람 잘챙겨.. 내가 그 입장이면 너무 슬프고 불안한거 아니까
-3. 두루두루 친하게 지내는거 좋아해서 얉은 인간관계 많음
-그래서 싫어하는 사람도 거의 없음, 그냥 관심 없음ㅎ
-4. 학급에서 (등 자주 접하는 공간) 안좋아하는 사람이 있다면 아예 말을 안검 대화를 시도조차 안하는, 갈등상황을 애초에 안만듬 완전 평화주의자~~
-5. 은근 좋고 싫고가 분명하다
-근데 진짜 꼭 이 선택지로 해야한다가 아니라면 다 다른사람 의견 따름 꼭 해야한다는 비율도 한 30%?
-6. 배려심이 깊은편이라 남 의견을 더 따르는 편 친구가 뭐뭐할래? 하면 그래! 이거어때? 하면 그래~ 이러고 그래 겁나 많이 한다
-7. 확실한거 좋아함 결론 짓기를 좋아한다. 친구가 뭔 얘기 하면 그래서? 그래서 어떻게 됐어? 완전 그래서충ㅋㅋㅋㅋㅋㅋ
-8. 진짜 내가봐도 리액션 굿~.. 내가 너의 말에 집중하고 있다는 것을 온몸을 다해 표현함(고개 끄덕이기, 눈 마주치기, 대화내용 간단 정리, 되묻기, 표정으로 공감하기 등)
-9. 또 설명충이라 말 겁나 김. 오늘 있었던 이 완벽한 일을 하나하나 상황 설명 다하는편ㅋㅋㅋㅋ 상대가 지칠 수 있음
-10. 인싸중아싸 아싸중인싸임ㄹㅇ 엣프제특징 시끄럽고 활발해보이지만 찐 E인간들 나보다 시끄러운 인간들 사이에선 조용함.
-11. 어색한거 뒤~~지게 싫어해서 아무말 막 하다가 그 상황이 너무 아무말잔치됨
-12. 계획 세우는거 좋아하는데 그이유가 하나하나 달성할때마다 미친듯이 뿌듯해 자기애 겁나 올라간다
-13. 근데 엣프제가 j중에 젤 p래여. ㅇㅇ게으른 j인간^^
-14. 하나에 꽃히면 그거만 바라봄. (먹을거나 게임?) 근데 한번 질리면 쳐다도 안봄
-15. 이상한거에 괜히 과몰입하고 개진심이다... 예를들어 (이건 이상한거 아닌데!) 나 이 댓글 쓰는거 상상도 못해봤는데 지금 컴터 앞에 자리잡고 엄청 열심히 쓰는중..
-16. 아 그리고 편견이 없는편 그럴 수 있지~ 하고 넘어가고 그래라~하면서 굳이 꼬투리 안잡음 쿨녀st
-17. 근데 남 눈치 많이 본다는거... 이런거 또 신경쓰는 나 자신이 싫어서 알빠야? 세상아 덤벼라ㅋ 내멋대로 산다 이러고 자기자신감 잘 올려줌 근데 남 엄청 신경쓴다는거..
-18. 아 선물 주는거 좋아함 받은 사람이 좋아해주고 감동받아 하는 모습보면 뿌듯!해지고 나도 기분이 좋아지니까ㅎㅎ 근데 고맙다는 표현 잘 안하는 친구한테는 또 안주고 싶고 완전 서운하고 속상함.. 내가 생각해서 줬는데! 이런?..
-19. 긍정적인 인간 나자신한테도 친구들한테도 계속 긍정적방향 심어주는!!</t>
-  </si>
-  <si>
-    <t>제가 찐 엣프제인데 한 번 적어보겠습니댜
-1. 생각보다 친구들 많지는 않음..
-2. 스트레스받으면 즉흥적이라도 친구 불러서 잠깐이라도 얘기해야함 
-3. 감정기복이 ㄹㅇㄹㅇ 심함 낮에는 방방뛰어다니고 자존감 업에 즐거워하다가 밤에 갑자기 내가 너무 나댔나..? 흠 어제 00이랑 전화했을때 말투가 좀 띄거웠는데 내가 뭐 잘못했나?.. 이러면서 한없이 우울해져요
-4. 남눈치 너무 많이보고 은근 부끄럼쟁이ㅋㅋ 
-5. 반 대표나 회장 부회장같은거 하고싶어함</t>
-  </si>
-  <si>
-    <t>ESFJ 특징 : ESFJ 영상 나오면 뭐 쓸지 다 계획해놨었는데 막상 쓰려니 부끄러워서 못씀</t>
-  </si>
-  <si>
-    <t>세상에 모든 엣프제!! 늘 잘못한 거 없나 확인하고 걱정하고... 생각이 너무 많아서 힘들때도 많지만... 엣프제들 충분히 잘하고 있고 충분히 멋진 사람이에요! 
-항상 남들을 많이 고려하니까 이 영상을 보는 순간만큼은 자신들만 생각했으면 좋겠네용
-나 자신한테 말하고 싶었던 거 써봐용 히히
-(요즘 많이 지친 ESFJ가)</t>
-  </si>
-  <si>
-    <t>남자 esfj입니다
-1. 머릿속에 항상 계획이 있음. 집앞 마트갈때도 가서 양상추 집은다음 고기집고 음료수 집은다음 봉투에 넣어와야지 이런 생각함
-2. 시간약속 잘지키려 노력하지만 친구모임에서 주인공하고싶어서 종종 늦참하려함
-3. 무조건 남 웃겨야 됌. 얼마전에 면접보는데도 면접관 웃겼음. 떨어졌는데도 뿌듯함
-4. 지적받으면 조옷나 속상함. 헬스장에서 피티받다 자세 지적받았는데 하루종일 그생각만 남
-+ 다음 피티까지 열심히 운동해서 칭찬받았을 때 뒤지게 기쁨
-5. 인간관계 시뮬레이션 쥰내돌림. "얘가 이러면 난 이렇게 말해서 웃겨야지" 이런식으로 인간관계에 대한 대응을 혼자서 알파고마냥 훈련하고 실습함
-6. 친구들이 나빼고 뭐한다? 티는 안내도 그 순간부터 그생각만 남. 
-7. 취미같은거 하고싶은게 많은데 장벽을 못넘고 포기함. 집에 미디건반, 기타, 책, 올리브유 썩어가는중
-8. 조용한 모임에서 쥰내떠들고 시끄러운 모임에서 죽닥치고있음. 강약약강임
-9. 남 시선에 매우 신경씀. 쓰레기 분리수거할때도 옷 차려입고감
-10. 남 얘기에 공감해주려고 노력하는데 사실 내가 생각해둔게 있으면 귓등으로도 안듣는중 + 그와중에 리액션은 해줌 ㅋㅋ
-11. 싸우는 꼴 보기 싫은데 내 잣대에 어긋나는 행동 보면 빡이 너무 침
-12. 어떻게 하면 상대방이 눈물흘리다 익사해버릴 선물을 줄지 고민 오지게 하다가 결국 기프티콘 보냄
-13. 과제같은거 다하고 친구들한테 뿌림 + 개인교습해줌 
-14. 입이 무거운 편이라 1:1로 한얘기는 단체에서 안하는 편</t>
-  </si>
-  <si>
-    <t>1. 리액션은 산소와도 같다... 없으면 안댐.... 내 몸과 같은 존재ㅎㅎ 모든 내 제스처 표정 상대에게 반응함~ 알지알지~!!!! 공감해주기 세상 바쁨...제일바쁨 
-2. 사람들 눈치 엄청 많이봄... 상대 감정이 나보다 중요할때가 많음.... 인정은 하다가도 가끔 현타옴....!!!!
-내가왜이래야하는가!!!!!! 현타오다가도 금방 잊고 그래도 어쩔수없이 상대 반응 눈치 많이 봄ㅋㅋㅋ걍 숙명인가봐.. 
-3. 맘먹고 사교적인 사회생활 하는때가 많음... 그러다가끔 겁나 피로해짐.... 이때 우울함... 귀찮음 다 안하고 싶음 연락와서 기쁘게 반응 해야하는것도 귀찮아져서 연락 안오면 좋겠다.....싶다가도 연락오면 겁나 세상 기다린듯이 리액션함.... 
-4. 보이는거 엄청 신경씀 외모 태도 자세 평판 등등 남들의 평가가 중요함.... 그러다가 또 현타옴....왜 나는 자꾸 이런걸 신경쓰는가 싶다가도 어쩔수없음.....
-5. 감정기복 심한데 상대에 맞춰 상대에 따라 잘 보여주기때문에 남들한테 피해끼치는거 일절 없음.....힘들다 말하는것도 듣는사람은 어떻게 받아들일까 생각 먼저하니까.... ㅋ 
-6. 억울한것 못참음!!! 내가 안한걸 했다고 하면 세상 좌절함.... 왜냐 남이 나를 어떻게 생각하는지가 중요하기때문에 내가 무슨 잘못을 하지않앗다면 세상끝날듯이 우울함.... 
-7. 진짜 쓸데없이 모든 사람한테 친절함 친절병 장난아님.... 왜이럴까 싶음.... 모두에게 잘보이고싶음 진짜 쓸데없음.... 
-8.텍스트 이모티콘 ^^ 이런거에
-민감함..... 무슨뜻인지 온갖 해석을 다함...
-피곤할때 나도좀 그만하고 싶은데.... 잘안대.......... 휴</t>
-  </si>
-  <si>
-    <t>ESFJ  외모까지 평균이상이면… 워낙 성격이 리액션좋고 친절하고 .. 선물주는거 챙겨주는거 좋아해서ㅠ 이성한테 짝사랑 당하는 편이 많음…</t>
-  </si>
-  <si>
-    <t>공감 여부에 상관없이 끄덕이는 고개..  
-상대방 표정이나 기분을 살피면서 눈치코치 나오는 내 리액션.. 남들은 분위기 메이커라고 하지만 누구보다 낯가리는 잇프제 여러분 사랑해요!! 상대방이 싫다가도 사연을 알면 마음이 가요.. 저도 이런 제가 싫어요.. 동정심이 사라졌으면 좋겠어요</t>
-  </si>
-  <si>
-    <t>esfj 사람들은 다 너무 착해요 
-그냥 이미지가 다 착해요 
-말해보면 더 따숩고 착해요 
-혼자 스트레스 받는게 많을텐데 
-조금은 털어놓고 행복하게 지냅시당</t>
-  </si>
-  <si>
-    <t>나도 ESFJ여서 공감되서 댓글 달아방
- 내가 어디가서든 꼭 듣는 말이 두가지가 있는데 "너는 어디가서든 누구에게든 사랑받을거야~"
-"너는 말을 참 예쁘게 하는군아~"
-아마 esfj들은 이 두 글중 한개는 꼭 있을거야
-왜냐...내가 만났던 esfj들은 밝고 착하고 사랑스러웠거든...</t>
-  </si>
-  <si>
-    <t>존버는 승리한다...ESFJ보려구 언니채널 하루에 몇십번씩 들락날락....</t>
-  </si>
-  <si>
-    <t>오해받거나 남들이 상처주는말 하면
-천둥번개 와르르 + 지진 ㅋㄱㅋㄱㅋㄱㅋㄱㅋㄱㅋㄱㅋㄱㅋㄱㅋㄱㅋㄱㅋㄱㅅㅋ 진짜....
-+신경쓰여서 아무일 안잡힘 해결될 계획을 만든다...</t>
-  </si>
-  <si>
-    <t>여러분덜 진짜 주변에 엣프제가 있다? 그 사람이 나 챙겨주는거에 고마워해주고 기억해주고 이벤트나 생일때 주인공 만빵 되는 서프라이즈를 해준다면 님들 죽고나서도 평생 챙겨주게될거예여..</t>
-  </si>
-  <si>
-    <t>엣프제인데 나이드니 집콕도 좋아짐ㅋㅋㅋㅋ근데 나가놀면 더 활력up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잇프피들은 침대에만 누워있는거로 영상 날먹 가능인데.,,., 언니 존버중입니다 </t>
-  </si>
-  <si>
-    <t>헐 대박 미췬; 착장부터.....아는 사람.....확신의 ESFJ......</t>
-  </si>
-  <si>
-    <t>9:30 실제로 안볼거여도 친구 기분 좋게 해주려고 꼭 저렇게 말함.. 너무 공감</t>
-  </si>
-  <si>
-    <t>엣프제 화 진짜 잘 안냄 서운해도 티안냄 속앓이 많이함
-엔팁으로 너무 답답함 언젠가 터질까봐 불안함
-잘못한거있으면 바로 사과하고싶은데
-내가 알아서 일부러 잘못한것도 아닌데 나중에 쏟아내듯 화내면
-엔팁으로썬 오히려 서운..;;ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ
-진짜 착하고 배려잘하고 재밌는 엣프제 사랑해요우</t>
-  </si>
-  <si>
-    <t>INTJ 언니가 ESFJ 동생 보면서 느낀 점
-1. 약속잡고 놀고 돌아와서 또 약속잡음
-2. 첫만남 얘기할 때부터 쎄했던 애들한테 나중에 심한 말(내 기준 그냥 하는 말)듣고 집와서 자기가 잘못한거냐고 울면서 물어봄
-3. 빈말인 약속 절대 안함. 그자리에서 장소 시간까지 캘박해야함
-4. 내가 책읽고 재밌다고 얘기해준거 1도 재미없다고 귀막고 있다가 기억해서 지 친구들한테 얘기해주고 애들 반응 나한테 말해줌(안궁금)
-5. 지가 나한테 공격한거 반으로 돌려주면 상처받음
-6. 그래놓고 상처 안받은 척 오짐
-7. 그러고 친구한테 가서 속상했다고 얘기하고 와서 친구들도 언니가 너무했다고 돌려말함
-8. 밖에 안나가면 미침
-9. 한 번 나가면 12시간 동안 안들어오고 8시간 자고 1시간 꾸미고 또나감
-10. 유행은 안따르는데 자신만의 감성이 있음
-11. 놀라면 눈이랑 입 동시에 커짐
-12. 술먹으면 세상 서러워짐
-13. 반려동물 관련해선 거의 수의사임
-14. 근데 자기 몸 어디 안좋은지 왜 아픈지는 모름
-15. 자꾸 뭐 만들어서 나눠주는데 맨날 항목이 바뀜
-16. T들끼리 늘 하던 팩폭 사이에서 싸움난줄 알고 눈 엄청 굴림
-17. N의 생각을 그럴 수 있지라고 말은 하는데 누구보다 이해 못하는 것 같음
-18. 가끔 자기 N같다고 상상한 거 말하는데 나 8살 때쯤 하던 상상임
-19. 친구 손절했다고 DM 보여주면 심해야 읽씹 보통은 손절했는지도 의문인 순한 맛 내용뿐
-20. 운동이든 동아리든 가는 곳마다 친구 만들어서 옴</t>
-  </si>
-  <si>
-    <t>와... 쿠킹클래스 다닌다는 것부터 넘 소름;; 취미재벌인 것도 존똑... 엣프제는 그냥 가만히 있는 건 시간이 아깝다고 생각들어서 뭐라도 하려고 해서 취미가 겁나 많음... 그리고 친구들한테 이것저것 선물 주는거 짱 좋아함... 전혀 아깝지 않음... 근데 난 이렇게 잘 챙겨주고 잘해주는데 상대방은 별로 안 친하게 생각했으면 핵서운...</t>
-  </si>
-  <si>
-    <t>엣프제 나만 그런건지 모르겠는데 내가 서운하다고 여러번 말했던거하면 순간적으로 확 열받음... 그리고 되게 옭고 그름이 확실한 타입 그래서 주변 친구들이 한번씩 이해가 잘 안감... 그렇지만 인간관계를 위해서 그냥 넘어가기도 하고... 뭐 그런 엣프제에요~!</t>
-  </si>
-  <si>
-    <t>난 혼자다.
-혼자라 생각해야 인간관계에 상처도 안받고 감정소비도 
-안할 것 같다. 사실 나는 인간관계가 나의 커리우먼보다 더 중요한 성격이지만 그 인간관계 때문에 내 자신이 망가진다 생각이 들면 포기할 만큼 나는 내 자신이 중요한 인생을 살고싶다. 너무 남을 믿지말고 내 자신만 믿고 살고 너무 남을 의지하지말고 내 자신을 의지하자. 그래야 단단해지고 멋진 인생을 살 수 있을 것 같다. 어떤한 상대방 때문에 내가 망가진다 생각이 들면 가차없이 버리는게 내 자신한테는 좋지만 마음이 너무 불편하고 신경쓰이는게 esfj 인 것 같다 ㅜㅜ</t>
-  </si>
-  <si>
-    <t>유형이 똑같아도 사람은 다 다르니까 별로 공감 안될 줄 알았는데 보는내내 소름돋았자나요 헤헤 
-엣프제가 주변인에게 배려하는 걸 가장 큰 보람으로 느끼는 거 넘 잘 표현해주신 것 같아요ㅋㅋㅋㅋ! 사소한 기억력 좋은 것부터 눈치 빨라서 상대방 기분 잘 파악하는 게 엣프제의 장점이죠ㅎㅎ
-은숙이 챙겨주는 것두 본인이 소외당하는 걸 싫어해서 그런지 다른 사람 절대절대절대 소외 안시킴..ㅠㅠㅠ
-엣프제 줏대가 없어 보여도 그건 또 아니예요 나름 강단있답니당 나보다 남 의견이 먼저여서 그런거지! (내가 말한 의견으로 확정되어도 좀 찝찝함 다른 사람들은 정말로 괜찮았던걸까? 이런식으로) 
-글구 엣프제가 워낙 다른 사람 시선 많이 신경쓰다보니까 유미언니 영상 보는내내 이 영상 다른 유형 사람들이 보면 어떻게 볼까 생각했는데 마지막에 그 특징도 잡아주셔서 깜짝 놀랐어요!ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>infj로써 esfj를 보면 저 삶의 에너지는 어디에서 나오는지 신기할때가 있음 뭔가 나는 집에서 기운을 충전해야 하는데 이사람들은 태양열로 자가발전하나 느낄때가 있음</t>
-  </si>
-  <si>
-    <t>손절 안치는 ESFJ가 손절쳤으면 이미 공공의적이 많았던 사람인건 확실합니다. 한없이 퍼주기 좋아하는데 거의 뭐 머리채 잡고 끌고 가주다가 ESFJ가 놓으니 바로 타인들은 물론 친구들한테 손절 당하는 애들 많이봤어요 있을때 잘합시다. ㅎ ㅅ ㅎ</t>
-  </si>
-  <si>
-    <t>남한테 선물하는 거 자체가 행복인데 무슨 의도를 가지고 그러는 줄 알 때 너무 슬픔 ㅅㅂ ㅠㅠ</t>
-  </si>
-  <si>
-    <t>구냥 나는…
-1.가만히 있는 것처럼 보이지만 남들 기분 파악 너무 빨리 되고 눈치도 너무 빨라서 굳이 알고 싶지 않은데도 눈치 빨라서 알게 되는 경우가 넘 많음..ㅠ 그래두 눈치 빠른 거 티 안 내려고 하는 편.. 
-2. 그리고 천둥번개 치는 거 표현하신 게 진짜 소름 돋음 영상에서 나 빼고 여행간 것처럼 서운하거나 소외되는 느낌 받으면 억장 와르르고 이외에도 신경 쓰이는 일 생기면 머리에서 혼자 천둥치고 아무 말도 안 들려서 가만히 심신 안정할 시간 필요함..ㅠㅠ 
-3. 근데 또 혼자 있는 시간에 사람들한테 치인 거 충전 되어서 약속 있는 다음날에는 무조건 쉬는 날 있어야 함 
-4. 기분이 표정에 바로 드러나는 편이고, 이걸 잘 알고 있어서 티 안 내려고 노력함……
-5. 그리고 사진 찍는 거 완전 조아해여…. 찍히는 거 좋아하는 만큼 사진 잘 찍어줌… 
-6. 좋아하는 게 굉장히 많아서 취미도 다양하고 다양한 거 만드는 거 좋아하구 만든 거 지인들한테 선물하는 게 젤 뿌듯함.. 만들면서 막 좋아하겠지..ㅎㅎ 이렇게 상상하면서 만들어여.. 손편지 써주는 것두 좋아하구… 감성 좋다는 소리 많이 들어요…. 
-7. 그리고 친구들이랑 약속 잡을 때 무조건 내가 계획 다 짜고 카페 밥집 이동 경로 다 내가 알아보고 주도적으로 추진함 그래서 사실 계획파도 좋지만 내 계획 가만히 따라주는 친구들이 좋음
-8. 고민 들어주는 거 좋아하구 입이 진짜 무거움 사람들이 활발하면 입 안 무겁다고 생각하는데 진짜 남한테 들은 비밀이나 이야기 함부로 이야기 안 하고 상대 고민에 감정이입해서 도와주고 싶어서 엄청 노력함 말 하는 것도 좋아하는 만큼 가만히 경청하는 것두 좋아해여..
-9. 맛있는 거 좋아하고 그걸로 기분 푸는 거 진ㅁ쟈… 디저트 조아함……..
-10. 편견 없이 사람을 바라보는 것을 좋아함 이해할 수 없는 행동을 하는 사람을 봤을 때는 처음에는 왜 저러지…? 하고 생각하다가 그 사람이 그래야만 하는 이유를 꼭 찾으려고 함 이유가 있어야 함 근데 이유 없는 것 같으면 이해 못함
-11. 그래서 사람과 연 끊는 걸 못 하는데 그럼에도 인연을 끊은 사람들이 있다면 진짜 관계 진전을 못하겠다는 판단이 들어서 끊은 관계들.. 인생과 사람 사이에는 일정한 선이 있다고 생각하는데 내가 정한 마지노선을 계속 넘으면 보고싶지 않음 발전도 없고 변화도 없는 사람들이랑은 굳이 인연을 이어가고 싶지 않음
-12. 그리고 이 세상에서 주인공은 항상 나였으면 좋겠어 주인공 되는 게 제일 재밌고 제일 좋음 그래서 뭐든 최고가 되려고 그만큼 노력함 사람 관계를 잘하는 이유도 이것과 연관이 있지 않을까 싶음 사람들 사이에서 항상 중심에서 주목받는 인물로만 자리잡아 왔음</t>
-  </si>
-  <si>
-    <t>으아 사교적 외교관들!! 반가웡 ㅎㅎ
-내 주변에서 가장 부지런하고 사교적인 사람들,, 
-부지런한 인싸유형</t>
-  </si>
-  <si>
-    <t>엣프제 짝사랑중인 엥뿌삐....
-엣프제는 모두에게 친절해...
-엥뿌삐는 슬퍼... 나한테만 친절하라구...</t>
-  </si>
-  <si>
-    <t>Esfj 확실히 온라인 아싸인게 댓글 수 제일 적어 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ESFJ 특징
-- 진짜 취미부자 사부작 사부작 뭐 만들어서 나눠주고 선물하기 좋아함
-- 아무도 나를 상처 입히지 못한다. 하지만 친구들이 나 빼고 놀러갔다 왔다고....? (청천벽력)
-- 놀러가는거 주도하는거 좋아함. 계획 예약 결제 총무 전부 다 함 ㅋㅋㅋ 
-- 자취방에 친구들 불러서 맛있는거 해주고 술 먹고 노는게 세계 최고의 꿀잼
-- mbti 밈에서 늘 제외되는 유형 ㅠㅠ ESFJ도 mbti 좋아한다구욧!!
-역시 강유미님 인류학자이십니다...</t>
-  </si>
-  <si>
-    <t>엣프제 그 자체인 순간들 
-0:53 자꾸 뭔가 사람들 웃겨야 될거같고 기쁘게 해야될거같은 중압감 느끼는거 = 엣프제 그 자체
-2:06 새롭게 배우는건 쓸데없이 많음, 근데 정작 공들여서 진득하게 하는거 없음. 했다는거에 의의를 둔다 ㅇㅇ
-2:52 엣프제는 진짜도 '진짜'라고 얘기하지 않음. "지인~~~~짜!!!!!!!!!!!!!"
- 인싸인 내가 빠진 여행은 있을 수 없다. 나빼고 너네들이 행복할 수 있다고?? 재밌었다고???
- 취향 명확한 엣프제는 아무 선물이나 맘에 들어하지 않음. 앞에서는 기뻐하지만 집에 가면 옷장행.
- 여행 얘기 나오는 순간 머릿속에 수만가지 여행계획 시뮬레이션과 시나리오가 돌아가는 중
- 제발 우리끼리 여행가자 모르는 사람 굳이 껴야 하니 엣프제 어색해 죽어
- 너가 화난건 무조건 너의 오해라고 생각하는 엣프제, 사연 구구절절한거마저 엣프제 그 자체...
- 거의 피날레. 정곡 찔려서 너무 웃음. 바쁘다 바빠 현대 엣프제. 트렌드 따라가랴 친구들 공감대 맞춰주랴</t>
-  </si>
-  <si>
-    <t>지나가다가 웃고 가는 ESFJ 입니다 ️
-엣프제들의 가장 큰 장점: 다른사람을 생각해주고 배려해주고
-잘 챙겨주고 친절하고 따뜻하다 !
-엣프제들의 가장 큰 단점: 다른사람들을 너무 신경쓰고 생각
-하고 걱정이 많고 상대방이 기분 나쁠까봐 들어주기 싫은
-사람들의 부탁을 거절하지 못한다 !
-결론은 엣프제들은 천사들이라는거 기억해주세용 -☆♡</t>
-  </si>
-  <si>
-    <t>상대방이 무슨 말이나 행동하면 그걸 자꾸 해석하게되고 부정적인건지 긍정적인건지 자꾸 상상?생각하게됨…내가 나를 힘들게 하는 스타일..
-직장서 혼나면 하 나 왜이러지 왜이렇게 바보같지 빠가사리.. 개짜증나.. 이러다가 그래 괜찮아 ! 다음부터 안그러면되지! 다음부터 조심하면되지! 괜찮아! 하다가 또 하.. 앞으로 계속 나를
-그런 사람으로 보는거아닐까.. 그럼어쩌지.. 아냐! 맞아..아냐!! 맞아.. 의 반복.. 저만그런건가요..</t>
-  </si>
-  <si>
-    <t>9:03 이부분 댓글이 거의 없는데
-esfj인 제 생각으로는 일단 갑자기 친구가 유튜브를 한다고 함.. 친구 상처 받지않게, 무안하지않게 본능적으로 리액션은 해주는데 정작 큰 관심은 없음 ㅠㅠ "아하?"정도?
-그래도 티나지 않게 반응은 해줘야되니까 "와 대박!!!집에가서 좋아요 누를게" 라고 말하는데 집가선 절대 들어가보지도 않는... 관심이 크게 없으면 실행하지도 않는.. 그런 제 마음과 같을까요..?</t>
-  </si>
-  <si>
-    <t>ESFJ는 진짜 모난 구석이 없달까. 남의 말을 꼬아듣지 않고 있는 그대로 받아들여서 개인적으로 제일 좋아하는 유형 ㅋㅋ</t>
-  </si>
-  <si>
-    <t>esfj가 하루하루 열심히 사는 이유... 주변 사람한테 썰풀고 머하고 사는지 자기보고해야됨ㅋㅋ</t>
-  </si>
-  <si>
-    <t>본인 intp, 여친 esfj. 여친 보면 그냥 나랑 종족이 다른 외계인같음ㅋㅋ둘 장점만 합쳐놓으면 세계 정복도 가능하다고 생각함.  혼자서 팔딱팔딱 뛰면서 말을 쉬지않고 쫑알쭁알 하는데 귀여워서 사귐</t>
-  </si>
-  <si>
-    <t>ESFJ인 언니를 둔 동생입니다. 
-진짜 17분 동안 저희 언니가 유미님한테 빙의된 줄 알았어요...어떻게 사람을 이렇게 잘 따라하시죠??? 친구 만나자마자 존나게 신나서 일단 포옹 때리는거부터 한 번 열리면 닫힐 줄 모르는 미친 주둥이와 오바쎄바 쩌는 혜자 리액션까지...특히 친구들한테 선물 받을때 선물 자체보다 친구들의 정성이 담긴 거~ 이 대사 진짜 저희 언니 그 자체라 육성으로 으아아악 소리 내면서 미치게 웃었어요ㅠㅠㅠㅠ 역시 하버드 모방학과 수석졸업 인류학자 강유미!!! 와중에 그 ENFP인 러쉬 언냐랑 친구라는 유미버스 디테일까지...진짜 정말 너무 잘하셨어요!!! 그 철수영희 같이 웃고 있는 참잘했어요 도장 세번 꽝꽝꽝에 포옹 꽈악 뽀뽀 쪽이에요
-+ 제 mbti는 러쉬 언냐 스테파니씨와 같습니다!</t>
-  </si>
-  <si>
-    <t>시작부터 17분동안 끝없는 에너지와 어떤 상황에서도 나오는 리액션이 너무 신기한 INTP.</t>
-  </si>
-  <si>
-    <t>저는 남자 ESFJ인데 느끼는건
-ESFJ는 확실히 여자가 엄청 많습니다. ㅇㅅㅇ</t>
-  </si>
-  <si>
-    <t>친구로 만나면 너무 좋은유형임 하지만 직장동료로 만나면 파벌형성 뒷담이심한편임 
-남자친구로 만나보니 살짝 기빨리지만 자상하고 공감능력최상</t>
-  </si>
-  <si>
-    <t>역할 분담하는거 ㅋㅋㅋㅋㅋ공감, 소외된 사람이 자꾸 보이는거 완전 ㅜㅜ공감하고 말걸어주고 챙겨주고 싶어요!! ㅋㅋㅋㅋ브이하는거랑 마지막에 킬포 ㅋㅋㅋㅋ댓글 원래 안 남기는데 유미언니 영상 올리면 꼭 댓글 달아야지 하고 혼자 약속함</t>
-  </si>
-  <si>
-    <t>헉 취미생활로 보석그림액자랑 핸폰가방 만든거  친구들에게  줬는데   완전 공감! 리액션을 보기위해서라도  조건없이 주게되요  완전 나보는거 같오 ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>11:24 여기서 진짜 100퍼 공감함 억울한거 진짜 못참음</t>
-  </si>
-  <si>
-    <t>지나가던 엣프제 ..사서걱정많이한다 아직 닥치지않은일에 엄청 걱정하고 불안해한다. 걱정충 불안충 계획충 소리 많이들음..모 아니면 도 중간이없다는 소리도 많이들어요 반응이 극과극인편</t>
-  </si>
-  <si>
-    <t>오해나 갈등 생겼을 때 구구절절 설명해야되는 거ㅠㅠ 남들은 변명이라 하지만 엣프제에겐 넘나 필요한 과정이랍니다,,</t>
-  </si>
-  <si>
-    <t>6:52 
-7:33 
-엣프제 관심있는 거 많고 사소한거 잘기억해서 잡지식 개많음. 글고 아는 거 나왔을 때 꼭 말해줘야 함 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>마지막에 못된유머 싫어하는거 존똑…상처받는거 시룸 일반적이지않은거싫은거 개공감ㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>근데 진짜 ESFJ는 ㅈㄴ착함</t>
-  </si>
-  <si>
-    <t>타인에게 상처를 안주려고 늘 애쓰는 
-하지만 상처는 또 잘 받는..
-다른 사람들 때문에 늘 울고 웃는 우리들 
-소소한 취미들로 하루하루 잘 이겨내보아요 
-사랑해 엣프제️ 댓글보고 위로받은 엣프제가️</t>
-  </si>
-  <si>
-    <t>나도 댓글 원래 진짜 안다는데 엣프제들 많으니까 써본다,,
--다들 좋아하면 직진이라는데 그 좋아하기까지 많은걸 따짐. 그 기준들 중에서 뭐하나라도 만족못하면 계속 그냥 지켜보기만 하거나 점점 관심 없어져감. 근데 남친 없어도 잘 맞는 솔로 친구들 있으면 딱히 안외로워서 괜찮음. 
--혼자하든 같이 팀플을 하든 완전 계획형. 내가 할일 리스트 써서 보내줌. 내가 주도하는거 좋아함. 
--친구들한테 웬만해선 맞춰주지만 고집도 은근 쎔. 그래서 내 주장대로 할때도 있음.
--딱히 낯가리는 것 같지 않음. 새로운 사람과 빠르게 친해질 자신 있음. 
--친구는 깊게 조금만 사귀는게 좋음. 내 기준에서 재미없는 친구는 점점 멀어짐.. 그리고 자기 행동의 문제점을 모르는 사람 싫어하고 그래도 그걸 말해주진 않고 서서히 멀어지려함. 
--취미 자주 바뀌고 다양하게 해보려는거 좋음. 근데 그건 취미일뿐 일상에선 내가 원래 하던대로 아는대로 규칙대로 하려는게 더 강함. 
--웃는 상임. 남들 웃기는거 좋고 감정기복 딱히 없음. 걱정도 딱히 없고 그냥 흘러가는대로 재밌게 잘 사는듯. 
--친구가 날 친한 친구로 생각한다는 말을 직접 하면 기분 너무 좋움 ㅎㅎ
-다들 공감해죠️ 쓰다보니 엄청 많이 썼네,,?</t>
-  </si>
-  <si>
-    <t>12년지기 ESFJ를 곁에 둔 ISFP로서 바라본 특징
-1. 무친 계획력
-→ 내가 ‘1일차 : 바다에서 놀기, 2일차 : 계곡에서 놀기’ 이런 식으로 계획 짜면 그게 계획이냐면서 자기 계획 보여줌. 근데 매우 놀라움. 몇 시부터 몇 시까지 뭐하고 어저고 저저고... 이래서 J인가 싶음.
-2. 자기 사람이라고 생각되면 진짜 ㄹㅇ 다 퍼줌.
-→ 생일 때 비싼 지갑(내기준 비싸다고 생각됨) 사줘서 놀라면서 왜 이렇게 비싼 거 사주냐고 하니까 얼마 안 한다 그럼.
-2-1. 정성 가득한 선물 너무 좋아함.
-→ 물론 싫어하는 사람은 없겠지만은, 난 생일 때 손편지에 직접 손수 그린 그림에 목걸이, 팔찌 이런 거 줬는데 엄청 감동 받아하고 자기 방 벽에 붙여두고 손편지 읽으면서 욺ㅋㅋㅋ 나도 울 뻔 ㅋㅋㅋㅋ
-3. 인스타 스토리 올리고 휴대폰 보고 있을 때, 뭐 하나? 하면서 훔쳐보면 항상 누가 스토리 봤는지 확인함.
-→ 난 올린 것도 까먹고 있는데 얘는 무슨 수시로 확인함. 스토리 확인 집착광공 같음. 그러다가 좋아하는 애가 확인했으면 그런 거 좋아함 ㅋㅋㅋ 귀여운 자식
-4. 연락 엄청 좋아함.
-→ 나한테 영통 수시로 걸고 톡도 바쁘거나 약속 없음 칼답하고... 되게 연락을 좋아하고 그러는 친구. 정작 난 답장이 좀 많이 느리고 먼저 잘 안 해줌. 미안하다 친구야...ㅎㅎ
-5. 처음 보는 친구인데도 서스럼 없이 먼저 말 걺
-→ 내 친구 처음 소개 시켜줬던 적이 있는데, 서로 어색해하면 어떡해 하면서 걱정했었음. 근데 얘가 먼저 말도 걸고 웃기면서 분위기 잘 풀더라고. ㅇㅇ 대학 오티에서도 엄청 나대고 그랬다고 함. 나는 그런 거 어떻게 하냐면서 물어보니까 하나도 안 떨리고 재밌다고 함.
-6. 되게되게 친절함.
-→ 모든 사람들이 그러겠지만, 얘는 되게 상냥한 것 같음. 나랑은 친해서 욕도 하고 나보고 맨날 돼지라고 하지만, 어르신•애기들 할 것 없이 되게 상냥하고 친절함. 애기를 엄청 좋아함. 애기가 자기 바지에 똥 쌌는데도 별로 안 빡쳐보였음.
-7. 웃김
-→ 말 하는 게 너무 웃김. 진짜 ㄹㅇ로 웃김. 내 친구 중에서 얘가 제일 웃김. 언어유희도 장난 아님.
-예시 :
-나 - 야 나 살 밴다 (카톡으로 보냈는데 ‘뺀다’는 걸 오타 냄)
-얘 - 뭐? 살이 배로 된다고? (2배, 3배 등등)
-안 웃길 수도 있겠지만 난 진짜 개웃김. 이런 게 너무 많음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ아 생각해도 웃기네
-8. 남을 수단으로서 사용하는 걸? 싫어하는 것 같음
-→ 무슨 뜻이냐면, 내 또다른 친구 A가 있다고 치면 걔는 항상 자기 어디 돌아다닐 때마다 나한테 전화 걸고 집 도착하면 끊고 그럼 ㅇㅇ 근데 내 친구는 그런 거 싫다그럼. 날 이용?하는 것 같다고...히히
-9. 너무 웃겨서 처음엔 진지한 얘기 같은 거 잘 못하겠다고 생각했어서 잘 못 털어놨었는데, 알고 보니 되게 잘 들어주고 그럼. 되게 고맙고 미안했음.
-10. 놓쳐선 안 될 인연이라고 생각함.
-→ 친구야 쓰릉한다♡ 얼굴 보곤 말 못하니까 여기서 말한다 ^___^</t>
-  </si>
-  <si>
-    <t>다른 mbti 유형에선 정말 많이 보이던데 엣프제 영상에는 공감 포인트 댓글이 별로 없는 것 같아서 적어봅니다
-1. 일단 만나면 꺄~~~~~~~~~ 얼마만이야~~~~~~~ 난리난리남 진짜 반가움!! (막상 평소에 연락 엄청 자주 하는 스타일은 아님.. 근데 만나면 진짜 반가움) 
-2. "백신 맞으니까 모임도 하고 너무 좋다" --&gt; 진심입니다... 코로나블루 최약체 ESFJ 드디어 살맛 납니다 ㅠㅠㅠㅠㅠㅠㅠㅠ!!!!!!!! 좋아하는 사람들, 친구들, 첨보는 사람 등등과의 각종 모임 커몬!!! 
-3. 코로나 겪는 사이 취미부자에서 취미재벌 된것도 ㄹㅇ 저예요... 최근 뜨개질 수세미, 프랑스자수 손거울, 파우치 등등 만들었어요ㅎㅎㅎㅎㅎㅎ
-4.사운드 빌 틈 없이 "응응 마자마자 ㅋㅋㅋㅋㅋ ㅎㅎㅎㅎㅎ" 리액션 부자
-5. 단톡방에 없었던 얘기 친구들끼리 하고 나빼고 어디 갔다하면 진짜 상처 ㅠㅠ 얘드라 내가 일정이 안될것 같아두 너네끼리 모일 때 나한테 말이라도 해줭.... ㅠㅠㅠㅠㅠㅠ
-6. 선물 받았는데 내취향 좀 아니어도 진심 고맙게 받음 ㅠㅠㅠ 넘 고마워서 광광 우러요 ㅜㅜㅜㅜㅜ
-7. 친구들이랑 여행계획 짤때 역할 분담 잘해요... 팀플할때도 늘 그랬음ㅋㅋㅋㅋㅋㅋ
-8. 친구가 유튜브 한다하면 바로 가서 구독 눌러요 조아요 진심 다눌러요 ㅋㅋㅋㅋㅋ
-9. 성격 잘 안맞는 사람 있더라도 친구들 얘기 듣고 납득되면 같이 놀수있고 또 친구들도 별로라고 하면 "그래 나도 상관 없어!" 하고 걍 맞춤ㅋㅋㅋㅋ 애들끼리 싸우면 무족권 나서서 중재하고 공감해줌
-10. 잘 안맞는 사람이라고 느끼는 순간 : 다같이 뭐 할때 혼자 빠져서 다른 선택하는 사람, 내가 신나서 추천해서 같이 뭐 먹거나 영화보거나 했는데 별로라고 얘기하는 사람 (이미 다 먹었고 다 봐놓고 굳이 내앞에서 싫다고 하면 나는 마상 ㅜㅜㅠ)
-11. 속상해도 맛있는거 먹으면 금방 풀림, 뒤끝 없음 ㅎㅎ 사이 틀어지더라도 화해하고자 하는 의지가 강해서 어떻게하면 풀수있을지 진짜 고민하고 실행함.
-12. 콘텐츠 볼때 혹시나 상처받거나 부정적인 영향 받을 누군가가 생각나서 불편하면 잘 못받아들이겠고 좀 걱정됨.
-13. 온라인 세상에 미련과 관심이 별로 없음, 남들 아는건 봐야 직성이 풀리지만 굳이 정성들여 댓글 안씀. 커뮤니티 활동 같은거 거의 안함. 실체가 있는 오프라인 모임이 좋음ㅋㅋㅋ
-14. 남들이 나를 어떻게 보고 어떻게 생각하는지에 예민함.
-유튭 보다가 이렇게 긴 댓글 남기는것도 처음이네요 ㅎㅎㅎ 천재적인 콘텐츠 기획하고 연기까지 찰떡으로 해주신 강유미님 감사합니다 덕분에 다른 사람들을 이해하는 데에 많은 도움이 됐어요</t>
-  </si>
-  <si>
-    <t>진짜 눈치빠르고 남들이 어떤습관가지고 있는지 기분어떤지 지금 심리가뭘지 짧은순간에 다 파악되는데 모르는척하고 상대방은 그냥한말인데도 나혼자 다시 시뮬레이션돌리면서 계속 곱씹고 ... 그리고 친구 생일같은것도 되게 잘챙겨줌 기억해두고 근데 상대방이 내가한것만큼 계속 안해준다? 그러면 바로 나도안해줘버림 좋아하는사람있으면 바로 직진 꼭 가져야댐</t>
-  </si>
-  <si>
-    <t>저는 진짜 엣프제가 찐 인싸라고 생각... 저는 많은 사람들과 함께하면 기빨리던데 모두와 두루두루 잘 지내는 엣프제 진짜 존경합니다ㅠ</t>
-  </si>
-  <si>
-    <t>개인적으로 겪어본 esfj들은 잔소리 좀 심하고, 우지라퍼들,감정을 외향으로 쓰는게 메인기능이라 
-기쁘고 기분나쁜거 얼굴에 심하게 드러나고,남들에게 내 감정 강요함. 내가 이렇게 즐거운데 넌 왜 안 즐거워?이런 식. 자신에 대한 평에 민감하고 인정받기위해 사는 느낌. 리액션 좋고,사람 기쁘게 해주는게 중요한 유형이니 좋은 사람으로 비춰지는게 특징. 사바사니 좋은 사람들도 많겠지만.</t>
-  </si>
-  <si>
-    <t>엣프제 특징:
-나만 빼고 뭐하면 안됨
-모든걸 일단 내가 알아야함</t>
-  </si>
-  <si>
-    <t>찐 esfj 인데 댓글들 공감 ㅋㅋㅋ 이건 진짜 찐친들 만낫을때가 아니라 그냥 좀 좋아하는 친한 친구들 만났을때임 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>esfj와 결혼 준비 중인 infp입니다
-각자 지인에게 돌릴 청첩장 몇 장 필요한지 말하는데 친구에게150장 줘야한다고 말합니다.. 전 5장만 있어도 되는데요..</t>
-  </si>
-  <si>
-    <t>진심 유미언니 가까운 사람 중에 ESFJ 있다고 확신합니다.. 보다가 약간 동족혐오와서 영상 중간에 몇 번 멈췄다ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>뼛속까지 엣프제 특징(사바사 주의)
-- 배려심 오짐. 근데 은근 보상심리 있어서 내가 해준만큼 상대방이 안 해주면 서운하고 현타옴 ㅋㅋ
-- 내가 모임 이끌어야됨 내가 제일 튀어야됨
-- 친한친구가 난테 속 이야기 안 해주면 좀 서운함 ㅎ 친군데 그런 것도 안 알려주구 쳇 이런 느낌 ?
-- 오지랖이 넓음 내 주변사람 일은 다 알고싶음 ㅋㅋ 근데 그만큼 의리도 개쩌는 유형. 내 사람 건드는 거 허용 못 함 내 사람 뭔일 있으면 내가 발 벗고 나서야됨
-- 나 빼고 놀러간다 나 빼고 모인다 이거 진짜 너무 싫음 모임에 내가 절대 빠질 수는 없는 것임 그게 진리인 것임
-- 쌉 계획충 ㅋㅋ 계획 틀어지는 거 절대 용납 xxxxx 
-- 리더기질 있음 이끄는 거 좋아함
-- 인간관계 스트레스에 제일 취약한 유형이 아닐까 싶음..
-- 관계 틀어지는 거 용납 못 함 틀어지면 걍 난리남 
-- 상대방에 대한 기억력이 진짜 좋음.
-- 뒤끝 있음 ^^ 상대방이 사과 제대로 안 하면 맘에 고이고이 모셔두는 편 ㅋㅋ
-- 상처를 좀 잘 받는 편 .. ㅎ 
-- 중재자 역할 잘함. 싸움 싫음. 평화 찬양!
-- 주변사람 정말 잘 챙겨준다.. 
-- 의견충돌 있을 때, 그냥 내가 상대방 맞춰주자 주의
-- 동정심이 정말 강한 유형 같음 불쌍한 사람들 보면 못 지나치겠음 ㅠ
-- 리액션 삽부자 ㅋㅋ 
-- 고민상담 들어주기 만렙</t>
-  </si>
-  <si>
-    <t>본인 Esfj.. 
-- 엣프제인데 요즘 쌈닭됨. 사람을 잘 용서하고 많이 사랑하지만 날 우습게 보거나 하대하면 거기서 끝인거임. 뭘더바래. 해줄만큼 해줬는데
-- 좋게 말하면 착하거고 같은말로 개호구형ㅠ
-- 친한 사람한테는 열라 징징댐 근데 첫인상 차가워보인단 소리, 입만 열면 깬다는 소리 개많이 들음..
-- 남한테! 진심으로! 걱정! 해줌! 괜히 하는 말이 아니라 진심으로 자기 마음 다 퍼줌. 남들이 기뻐하면 본인 자랑거리로 여김. (하..)
-- 남한테 쓴소리, 거절 진짜 내 스스로가 멍청하다 싶을만큼 겁나 못함. 그런 본인 스스로가 싫은걸로 연결됨
-- 인싸 중에 아싸에 가깝다하는데 왜냐? 인간관계 피로도 개 오짐. 다 잘해주고 싶으니까.
-- 오해받는 부분 개 싫어하는거 인정. 사실 걔를 위해 말 못한게 거의 대부분이고 진심으로 잘해주고 싶었기 때문. 남들한테 험담 잘 안하는거 사실. 근데 사람이라면 오해받는건 누구나 다 싫어하지 않나..?
-- 전 여행 아무 일정 안짜고 가는걸 선호합니다. 여행별 성격이 다른듯
-- 사람을 선하다 생각하는 존재임 그러다 상처받으면 개 슬픔 우울감.  왜 엣프제 밝다 생각하는거지? 내적우울감 개심함
-- 마지막 . 따돌린다 생각안하고 Intp가 가장 먼저 나왔으니 정반대인 esfj가 늦게 나올거라 생각. 나름 참을성있게 잘 참은거같음.</t>
-  </si>
-  <si>
-    <t>댓글 절대 안쓰는 엣프제인데 여기 엣프제들이 다 모여 있다고 생각하니까 너무 행복해~!~!~!~!! 사랑해 엣프제!!!!! 행복하자️️️️</t>
-  </si>
-  <si>
-    <t>몰라나그냥지금여기엣프제들벌써다사랑하고있음 꼬옥 안아주고싶다 세심하고 다정한 엣프제들 행복했음 좋겠어 상처 넘 받지말고!!! 나에게도하는소리
-이 댓도 올릴까말까 개고민중 반응 없음 지울듯ㅎㅎ</t>
-  </si>
-  <si>
-    <t>isfp인데... 갠적으로 esfj넘 잘맞는다고 생각.. 물론 사바사지만... 뭔가 공통점도 많고 쿵짝이 잘맞는것 같아요,, 제일 친한 친구중에 한명이 esfj라 그런가ㅋㅋㅋㅋㅋ암튼 잘 맞는 mbti중 하나인것 같아요</t>
-  </si>
-  <si>
-    <t>제 남친이 (esfj)그래요 연애초반에 별것도아닌 정말 사소한 오해가 생겼는데 , 전 (intj)화도안났고 별거아니니까 걍 귀찮아서 말 안하고 잠이들었는데 남친은 밤새 잠못자고 혼자 뒤척뒤척, 눈물까지…. ㅋㅋ 참고로 애 아닙니다 삼십후반이에요 ㅠㅠ 밖에서,친구들사이애선 대장역할만 하는 남친의 또다른 모습을 보고 놀랬던 기억이…
-esfj들 베풀기 젛아하고 착함 ㅋㅋ 재밌으면서 귀엽?다해야하나 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>intp의 고독사를 막아줄 유일한 희망 ESFJ...</t>
-  </si>
-  <si>
-    <t>댓글 잘 안달지만 고민하다 댓글 단거 사람들이 공감해주면 엄청 뿌듯해함ㅋㅋㅋㅋㅋㅋㅋ그리고 인스타 스토리 엣프제만 확인하는거 맞아요.....? 누가 내꺼 훔쳐보는지 아이디 일일이 하나하나 다 확인하는게 엣프제뿐이라구요?ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ충격</t>
-  </si>
-  <si>
-    <t>친한 언니 엣프제인데 밝고 너무 좋은 사람... 같이 있으면 행복하고 T없이맑은 느낌</t>
-  </si>
-  <si>
-    <t>친구걱정 + 리액션부자 + 분위기 메이커 + 그러다보니 중재자역할하고있음 + 자연스레 리더쉽발휘하고있음 + 정작본인은 남들은 리더쉽있다하지만 리더쉽없다 생각함 단지 내가 정말답답해서 하다보니 그렇다 생각함 + 취미부자 + 뭐든다하고싶음 + 남한테 나눠주는거 겁나좋아함 + 나빼면 세상서운하지만 티안내려고함 그러나 종일 신경쓰임 + 챙겨주면 또 잊음 + 계획안세우면 미침 계획세우고 뭐든 분단위마다 일정 다맞게 해야 속시원함 + 댓글 다는거 세상귀찮아서 보기만함+원래엠비티아이 노관심인데 주변에서 하도해서 관심뒤늦게가짐 + 근데 또 막상 겁나기다림 + 좋게나오길 바람ㅋㅋ ㄹㅇ 그냥 유미씨 저아니냐구요ㅠㅠ</t>
-  </si>
-  <si>
-    <t>뭐라 콕 찝어 말하기는 어려운데 그냥 저를 보는 것 같아서 웃겨욬ㅋㅋㅋㅋ친구들 뭐 나눠주는 것도 좋아하고,,,리액션도,,,대화 흐름까지 전부 똑같아서 그냥 재밌어요ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>와 진짜 ㅋㅋㅋㅋㅋㅋㅋㅋ 자기 취미생활로 만들게 된거 선물해줬는데 좋아하고 감동받으면 더 뿌듯해하는거 ,
-나 빼고 간것 같아 속상했는데 선물사줘서 좀 풀렸다가 선물이 내가 썩 좋아하는게 아닌걸 알고 나는 이렇게까지 챙겨주고 기억해주는데 내가 좋아하는거 모르나?ㅠ 그래도 챙겨준 정성에 집중해서 고마워함 
-그리고 최대한 아는 지식 끄집어내서 정보공유해주고  도와줄라하는거 진짜 웃기다</t>
-  </si>
-  <si>
-    <t>지나가는 ESFJ인간 용기내서 써봐여(t유형)
--눈치빠름, 상대방 표정이나 말투 그날의 분위기(?) 이런거보고  화났는지 왜 기분이 안좋은지 대강 빨리 눈치채고 혼자 뭐 잘못했는지 고민해하고 계속 고민하다가 세상 조심스럽게 물어봄 ex) 혹시 기분 안좋아? 내가 뭐 기분 나쁘게 한거있어?? ㅠㅠ 말해주라 .. 
-- 서프라이즈 해주고 상대방 반응 볼때 기뻐하면 나도 세상 행복해짐 
-- 스윗의 표본임 
- 남친생기면 모든 포커스는 남친이고 , 뭐필요한지  항상 그 누구보다 빠르게 챙겨줌, 친구한테도 해당함  
--짝사랑 전문 
- 다른 애들 연애 상담은 잘해주는데 내 연애는 고자 ,,  근데 내가 누구 좋아하는지 주변사람들은 다 앎 ,, 나만 티안난다고 생각함 
-- 내편인거 좋아함 
- 내사람이다 생각하면 정말 헌신적으로 다하고 다 퍼주고 뭔짓을 해도 "내친구니까 괜찮아" 마인드. 대신 내가 이렇게 하는 만큼 상대방이 안해주면 세상 서운하고 우울하고 다함 
--표현잘함 
-애인한테도 장문으로 편지써주는거 좋아함 ,, 
- 친구한테도 가끔 표현같은거 잘하고 또 나도 듣고싶어함 뭔가 우리가 이만큼 친하다는 사실을 인정받고 확인 받고 싶어함.
-- 사람 만나는 거 조아함 그런데 나만의 시간도 필요함 
-사람들이랑 잘 지내지만, 좀 안 친한 사람들이랑 만나거나 어색한 사람들이랑 만나면 겉으론 잘 지내지만 기빨린 느낌듦 ,, 혼자서 휴식하고 생각정리 할 시간 필요,,,
-대신 정말 찐친이랑 만나면 그것보다 더한 힐링은 없음 ㅠㅠ ️
--생각 진짜  많음 ( 그 생각들의  90퍼는걱정임)
-하루에도  수많은 걱정과 일어나지 않은 일들에 대한 걱정, 미래에 대한 걱정, 그리고 오늘 하루를 마무리 하면서 실수한 적 없는지 한번더 곱씹고 생각하고 걱정하고 잠 ㅋㅋㅋㅋㅋ
-그리고 실수 하거나 그런게 생각나면  그 주변 사람들이 날 어떻게 생각할지 등등 매우 걱정이 많음 ,,, 
--계획 세우는거 개조아함 
-맨날 다이어리나 종이나 아이패드나 뭐든 꺼내서  매달 일정부터 정해놈 ,, 일정 정하고 그다음 하루 어떻게 보낼지 정함 근데 막상 지키지 않음 ㅋㅋㅋㅋ 그리고 죄책감 엄청 듦 ,,, 
--고집이 셈 
- 겉으로는 상대방한테 맞춰주고 거의 져 주긴하지만 뚝심 오져서 아닌건 아닌거고 확실하게 구분할때 있음 ,, 정말 좋아하는 사람이면 맞춰주지만 그래도 내 의견 꼭 말함 ....
--리액션 퀸/킹
-뭐든 일단 끄덕이고 봄 ㅋㅋㅋㅋㅋㅋ
-친구가 말하는거에 다 반응해줌 그이유에는 상대방이 무안해할까봐 그런거 보면 마음아파짐 그래서 그럴일 없게 다 대꾸해주고 반응해주려고함 
--남한테 피해주는거 싫어함 
-정말 남한테 피해주는거 싫어함,,
-길가다가 사람들 싸우는거보거나 민폐끼치는 행동 하는거 싫어함,, 그냥 넘어갈수 있는 부분은 다 참고 넘어가려함 ,,, 그리고 식당같은데서 음식에 이물질 나오면 그냥 컴플레인 안하고  왠만하면 그냥 다음에 안오고말지 하고 조용히 이물질 빼고 넘김 ,,, 
--내친구들 사이에 일어나는 모든 일 다 알아야 직성이 풀림 
--소외당하면 세상이 무너짐 
-티는 바로 또 못내는데 집가서 혼자 곱씹어서 생각하다가 불안해하다가 갑자기 슬퍼지고 다 함 ㅋㅋㅋㅋ큐ㅠㅜㅜ
--감정이입 최고잘함 
-친한 사람이 우울해하거나  슬퍼하거나 화나면  내가 그사람이 돼서 해결방안 제시해주고 내 일보다 더 신경쓰고 열심히 해결해주려하고 그리고 그사람 감정=나 이렇게 돼버림 ... 
--사실 댓글도 처음 써봤어요,,, ㅎㅎ 여기서만 글을 세번정도 썼다 지웠다 하다가 다른 엣프제분들 글보고 힘입어서 걍 지르는 중 ,,, ,,
-*혹시 공감 못하시는 부분이 있더라도 이해해주세여 ,,, ㅎㅎㅎ ㅜㅜ 
-+esfj는 매우 마음도 여리고 눈치도 많이봐여,,눈치를 많이 보기때문에 센스 넘치게 됀 부분도 없지 않아 크답니댜,,, 그리고 인간관계가 이세상의 전부라고 해도 무방할 정도로 사람을 좋아하지만 사람한테 많이 상처를 받으면 가차없이 끊어냅니다( 그 바운더리를 넘는 사람은 진짜 어마어마하게 선을 넘는거,,) 손절 잘침 ㅎㅎ ,,,내 사람이다 라고 생각하면 끝까지 가고 절대 상처 안주려 하고 이해하려하고  배려하려고 노력하는 편입니다,,, 그러니까 옙흐게 봐주세요,, 
-모든 Esfj 분들 화잇띵 ...!️️</t>
-  </si>
-  <si>
-    <t>아니 소름 돋아요 처음에 볼 때는 너무 애교사랑둥이라 '으으음... 비슷한가?' 하다가 1분만 보니까 애교사랑둥이인 거만 빼면 저랑 너무 똑같아서 ㅋㅋㅋㅋㅋㅋ 다른 mbti들도 본인 영상 볼 때 이런 느낌이었던 건가요... 'ㅁ' 하나하나 다 너무 똑같아서 소름,,, 반응 
-삶의 의미 = 친구 및 인간관계... 인간관계 문제 생기면 세상 무너짐 친구들끼리 나 빼고 논 사실 알면 하늘 무너지는 거... 2000% 현실고증 저기서 근데 또 티내면 친구들이 부담스러워 할까봐 티도 못내고 혼자 집 가서 한참동안 우울우울 함.
-그리고 친구랑도 친구들끼리도 싸우는 거 세상에서 제일 싫음. 다같이 따뜻하게 재밌게 지냈음 좋겠음. 웬만큼 큰 문제가 아니면 사람들이 다 역지사지해서 서로 이해할 수 있으면 좋겠는데... 가 디폴트. 맨날 누가 싸웠다거나 화났다거나 하면 상대방 입장이랑 당사자 입장 둘다 대입해봐서 그 사람도 사정이 ~했을 거야 하면서 설득함
-사실 새로운 사람 사귀는 거 좀 불편한데 그래도 뭐 같이 논다하면 '너네가 좋으면 나도 좋으니까 불러!' 하는 것도 진짜 똑같아요... 저게 진짜 싫은데 괜찮은 척 하는 게 아니라 진짜 친구들이 즐거워하는 게 내가 기쁜 거라 괜찮아하는 게 포인트 ㅠㅠ 친구 하나하나 너무 소중해 피플 엣프제들...
-여행 계획 세우는 거 그냥 저 갖다 놓은 줄 알았어요. 계획형인데 완전 딱.딱. 이거.저거. 하는 게 아니라 친구들 역할 분배하고 적당히 유하게 정할 거 정하는 거... 유미님 최고bb</t>
-  </si>
-  <si>
-    <t>드디어 esfj ㅋㅋㅋㅋㅋㅋㅋ 친구는 intp 인데 절 되게 신기한 생명체로 보면서 관찰하는 재미가 있다고 합니다.. esfj는 남의 섬세한 표정변화에 되게 신경많이 쓰고 나때문인가 하고 눈치보는데 매사 무표정인 intp랑 있으면 눈치가 안보여서 앞에서 마음껏 깨방정 떠는게 참 씐나요!! intp 는 제 깨방정에 호응은 전혀 없지만 그래도 기분에 업다운도 크게없고 차분한 intp랑 있으면 마음이 편해욬ㅋㅋ</t>
-  </si>
-  <si>
-    <t>여기 다 엣프제만 있어서 너무 행복.. 댓글 읽는 내내 쌉공감 돼서 부랄떨려 ㅠㅅㅠ</t>
-  </si>
-  <si>
-    <t>평소에 나도 나를 잘 몰라~ 나 하나도 안 착해 난 이중인격 아닐까? 라고 생각하는 사람인데 최근에 나 자신에 대해 좀 알고 싶어서 mbti를 찾아보기 시작했어요.. 첨엔 유형별 특징 반응 대처 이런거 보다가 저랑 같은 유형이신 분들이 얘기하거나 그러는게 너무 저같고 공감되고 재밌어서 이 영상까지 보게 됐는데 중간중간 정말 소름이 돋았네요..ㅋㅋㅋㅋ
-제 성격으로 살면서 제일 힘들고 스트레스 받는건 진짜 틀어진 인간관계가 아닐까.. 특히 정말 가까웠던 친구나 가족이랑 트러블이 있을때면 뭘해도 우울하더라구요.. 엣프제 중에서도 t인 저는 트러블이 나면 계속 내가 상처받은 것보단 그거때문에 제가 욱해서 했던 말들에 후회를 하면서 아 내가 왜 그랬을까 조금만 더 부드럽게 말할 수 있지 않았을까하면서 자꾸 자책을 하는데.. 근데 머리로는 답답했던 것도 맞고 잘못한 것도 맞는데 내가 왜 이렇게 우울해하고 스트레스 받아하지? 하면서 계속 왔다갔다 너무 힘들어요.. 그후로 자연스럽게 얘기하면서 풀어지면 잊긴 하지만.. 그래도 그 기간동안 계속 생각나고 스트레스 받는게 넘 힘들지 않나..ㅎ.ㅎ.ㅎ
-아 그리고 영상 찾아보면서 엣프제는 왜 이렇게 없징.. 저분들 중에 엣프제가 없어..? 왜..? 많은 유형이라며? 이러면서 되게 의아했는데 어디서 보니까 엣프제는 이런거에 별 관심 없다고 그러더라고요 ㅋㅋㅋㅋㅋ근데 저도 할말이 없는게 지금은 저의 성격에 대해 좀 알고 싶어서 찾아보고있는거지.. mbti 한창 검사받고 유행할때 저는 아 그거 귀찮아 뭐하러해 알아서 뭐해라고 했던.. ㅎㅎ 댓글들도 보면 엣프제 댓글은 겨우 찾는 수준이고 그랬는데 여기엔 댓글이 그래도 많아서 반가웠어요.. 그리고 다들 저처럼 댓글 잘 안다시는 성격이라는거 보고 아.. 맞어 나부터가 댓글 잘안달면서 왜 찾고있었지? 싶었어요 ㅋㅋㅋㅋ 다른분들이 성격 정리해주신거 보면서 또 공감하고.. 근데 진짜 제가 찾아본것 중에 제일 공감했던건 손절이었어요
-모든 사람을 다 좋아하지도 않지만 또 마음에 안 드는 부분이 있어도 그냥 다른 부분을 보면서 애써 무시하려고 하는편이라 웬만하면 지인들끼리 다 아니까 손절하는 사람 없는데 그런 내가 손절을 한다? 이건 진짜 그사람이 선 쎄게 넘어서 나를 상처받게해서 난 쟤랑 도저히 웃으면서 지낼 수가 없다 싶어서 손절하는거.. 제가 제일 싫어하는게 앞뒤다른건데 앞에서는 다정하게 대하고 난 너랑 놀고싶어~ 너랑 노는게 좋아 같이 놀자 같이 이거하자 뭐하자 해놓고 뒤에선 한심해하고 이새끼저새끼하는걸 알게된순간.. 와 진짜 그때 그 배신감은..ㅋㅋ 저는 아무리 친한 사이라고 해도 지켜야될 선은 있다고 생각해서 저한테 막말하는거(욕 특히 년년거리는거) 개싫어함.. 하여튼 그렇게 해서 손절한 애가 있는데 걔랑 친구랑 아직 연락하고 있는거 보면 좀.. 가끔 서운할 때 있어요 ㅋㅋㅋ 다들 그렇죠..? 나한테 상처줬던 앤데.. 앞뒤가 저렇게 다른앤데.. 왜 계속 같이 놀지..? 하는.. 
-아무튼 엣프제인 저는 댓글 달아야징~ 하면서 이 댓글 하나도 어떻게 남길지 하나하나 계획하면서 썼다는거 ㅋㅋㅋㅋㅋㅋㅋ 한번 댓글 달면 짧게 잘 못다는거.. 그럼 이만.. 다들 행복하세요.......꼬옥</t>
-  </si>
-  <si>
-    <t>약간 영혼없는 높은텐션과 계속 굴러가는 눈알... 남들이 기대하니까 더 올라가는 텐션 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 나야나..... 아니 esfj가 어떻게 앞뒤가 달라?????? 존니 투명인간 수준인데..</t>
-  </si>
-  <si>
-    <t>14:53의외로 성격이 단순한 엣프제를 너무 잘보여주는 대사...ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅜㅜ</t>
-  </si>
-  <si>
-    <t>나esfj인데 심심하면 맨날댓글 보고잇음 기분좋다 ㅜ</t>
-  </si>
-  <si>
-    <t>Infp인 내가 유일하게 인간관계 하며 진심과 유머를 나눌 수 있는 지인이 있는데..esfj! 세심하고 배려심 있는데 디게 웃김. 깊이있는 이야기 할땐 또 깊이 있음. 그리고 디게 이거저거 잘챙겨주고 퍼줄라 하고 뭘 바래서 해주는 그런 스타일이 절대 아님 정이 넘쳐남. 그렇다고 남들한테 다그런건 아닌거 같고 자기 통하는 사람한텐 정말 잘해주는 타입 같다. 반면에 다른 esfj도 있는데 친하지 않아서 잘은 모르지만 그냥 너무 이벤트형 같은 사람이란 생각이.들기도...모임에서 자기가 중심이 되야하는게 강한거 같고 정치질을 잘하는 거 같음.그모임 구성원이 다 i이인데 주변에 이런사람들만 두고 지내는게 특징. 하여간 같은 esfj라도 나하고의 관계에서 다르게 느껴지는 듯. 그래도 esfj들 넘 매력적인 사람들 임에는 틀림없음!!</t>
-  </si>
-  <si>
-    <t>와 진짜 딱 나다 이렇게는 아니지만 흐름이 뭔가 저 같아요ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 저는 esfj-a인데 기본 표정이 웃상인 것, 표정 관리 안 되는 거랑 분위기 흐름 읽기, 사소한 것도 계획 세우기, 맘 상한 것도 금방 풀리는 단순함, 내가 메인이 되어야 하는 것, 귀 얇은 거 등등... 엣프제 어떻게 나올지 첫 영상부터 계속 기대했는데 감사해요 언니 재밌게 잘 봤어요️‍️‍️‍️‍</t>
-  </si>
-  <si>
-    <t>1:13 근황 물어보고 괜찮다는 답변 들었을 때 
-'다행이다' 이 멘트 개인적으로 나랑 개 똑같아서 
-개소름 돋았음...</t>
-  </si>
-  <si>
-    <t>근데..약간 감정없이 공감하고 조용한거 못견디는거가 특징맞는거죠? 가끔 무슨소리하는지 저도 저를 잘 모를때가 있어서요ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>지나가는 intj인데 intj 영상에서 로봇처럼 묘사된 거 '으잉 아닌데 나름 인간적인데' 했는데.. 이 ESFJ 영상 보니 로봇이라 봐도 되겠네 싶네요 ㅋㅋㅋㅋ 잘 모르는(?) 유형이지만 참 사랑스러운 분들인 것 같습니다.</t>
-  </si>
-  <si>
-    <t>13:27 돈까스 혼자 먹는거 라스에서 장동민 씨가 말한 썰이네요 ㅋㅋㅋㅋ 다 같이 설렁탕 먹으러 가자 했는데 유미님만 돈까스 먹겠다고 빠지신 거 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>와 진짜 나다.... 그냥 나를 찍어놨다... 하지만 소외될만한 모임은 애초에 끼지 않는 나... 얕은 연은 얕게만... 소외될 일이 없게 하는 나...</t>
-  </si>
-  <si>
-    <t>제 남동생이 ESFJ인데 저는 일평생 걔가 이해가 안 됐거든요? 그런데 mbti 확인한 이후에 알게됐어요.
-전 INTP거든요. 정반대인 거죠...
-제가 동생들을 사랑하는 맏이이긴하지만 살가운 성격은 절대 아닌데,,, 얜 나한테 왜 이렇게 잘해주지? 왜 날 맹목적으로 좋아해주지? 늘 의문이었는데 원래 그런 성격이었던 것...
-상처 잘 받지만 또 그만큼 타인을 잘 보듬어주는 아이... 상처 100번 줘도 1번 잘해주면 폭풍 감동 받는 이상한 애.....
-7살 많은 누나한테 먹을 거 사주는 남동생이라고요ㅋㅋㅋㅋ 심지어 지는 군인이고 저는 직장인인뎈ㅋㅋㅋㅋ 군대 안에 있다가 갑자기 카톡해서는 삼남매 세트 잠옷 사줘욬ㅋㅋㅋㅋㅋㅋ
-최고의 남동생...♡</t>
-  </si>
-  <si>
-    <t>저는 예의없는거/말함부로 하는사람 정말정말 싫어해요! 그리고 진짜 고치고 싶은점이기도 한데 오지랖? 약간 동정심 관련한 오지랖이 넓어서 길 걸어갈때 불편한 어르신분들, 몸 불편하신 분들 보면 너무 신경쓰이고 마음 불편하고 혼자 걱정하고 난리ㅠㅠ 그래서 웬만하면 주위사람 잘안보고 걷기도해요..ㅠ</t>
-  </si>
-  <si>
-    <t>친구랑 갈등있을때마다 천둥치고 무너져내리는거 개공감ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그치만 저는 그런 일 있으면 그때부터 밥이든 뭐든 일절 안들어가요 그거 해결될때까진..... 근데 스토리상 스벅에서 일하던 동료들 만난거 같은데 그럼 가능ㅋㅋㅋㅋㅋㅋ 왜냐면 더는 안볼거니까 그나마 몇시간 우울하다가 벗어날수 있어요. 만약 내 찐친이랑 틀어졌다...? 그 날로 저는 식음을 전폐하고 발만 동동 구르고 있을거에요ㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>엣프제 친구를 둔 인프피로서.... 나한테 맨날 잘해주고 내가 이상한 소리 해도 리액션 잘해주고 히히 아싸랑 잘 놀아주는 인싸 친구 너무 좋아요</t>
-  </si>
-  <si>
-    <t>저희 엄마가 esfj인데요, 엄청 친화력 좋고 이야기 잘 들어주고 매사에 적극적이고 사회생활 만랩입니다.
-근데요. 이런 점 보고 누가 만만하게 여긴다?! 예의없이 군다?! 순둥이 웰시코기에서 바로 맹견으로 변합니다. 건들면 기냥.... 그날은 마라맛을 보게되는거에요...항상 화나있는 entj나 estj보다 이런게 더 무서워요....</t>
-  </si>
-  <si>
-    <t>아잠깐 근데 왜 아무도 여행준비하면서 다른사람들한테 일분배시키는거 안짚어줌? 그게 찐인데. 프로젝트 하면 다른 사람들 할 일 정해주고 남는거 대충 내가 다 하는 포지션.</t>
-  </si>
-  <si>
-    <t>드디어 ESFJ-!!!!!!!!!
-엣프제 뜨기 전까진 주변 사람들 유형 영상 보면서 끄덕끄덕 하고 링크 공유해주면서 기다렸어요..ㅎㅎㅎ
-보는 내내 소름 돋았어요...ㅎ 부끄럽기도 하면서 뿌듯(?)하기도 하고...ㅎ
-말하면서도 주변 신경 쓰고, 작은 거 하나하나 다 캐치하고 내가 다 해결해주고 싶고 ㅋㅋㅋㅋㅋ..
-머리칼, 옷매무새 계속 정리하고ㅋㅋㅋㅋㅋㅋㅋ
-착장 스타일도 너무 비슷해서 소름 ㅇㅅㅇ...
-댓글들 하나하나 보는데 세상 반가운 느낌 ㅠㅠㅠㅠ
-다른 mbti 영상 보면 댓글에 esfj는 정말 극소수여서 공감대를 찾을 수 없었는데(물론 나도 안씀ㅋ) 여긴 넘쳐나는 칭긔칭긔들 ㅠㅠㅠㅠㅠㅠㅠ
-우리 엣프제들-! 
-살면서 상처받는 일들이 참 많은데, 그럼에도 불구하고 언제나 내 편이 되어주는 사람들이 분명 곁에 있다는 것을 잊지말고 으쌰으쌰 잘 살아가보자구요!!!!! 
-사랑해요 칭긔칭긔들-!!!!!!!!!
-——— 세상 사람들이 서로 배려하고 존중하고 선했으면 좋겠다고 생각하며 살아가는 엣프제 1ㅅ..,</t>
-  </si>
-  <si>
-    <t>아 선물 내가 원하던거랑 다른건데 ...그래도 고마우니까.!! &lt;&lt; 개똑같음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ESFJ 너무 조아요..♡♡
-설명만 읽어봐도 성격 좋고 실제로도 진짜 좋은 사람이고♡♡
--지나가던 ISFJ가..</t>
-  </si>
-  <si>
-    <t>지나가는 엣프제가 쓰는 엣프제 특징️
-1. 모임 주도하는거 좋아함. 자진해서 친구들한테 일정 물어봐서 약속을 잡는다
-2. 친구가 엣프제는 모르는 친구 얘기 하면 나도 친해지고 싶다 생각함. 엣프제에게 "내 친구 부를까?" 하면 좋아함
-3. 엣프제가 하는 공감과 리액션은 ㄹㅇ임. 상대방이 말할때 '나라면, 나였다면' 마인드가 기본 바탕
-4. J이지만 은근히 즉흥적임. 당일 약속 은근 많이 잡음
-5. 인스타 친구 많을 것 같지만 생각보다 많지 않음. 연락 안한지 오래된 사람이나 별로 안 친한 사람들과 친구 잘 하지 않기 때문
-6. MBTI 밈을 좋아하지만 엣프제꺼가 별로 없어서 아쉬워함. 내가 만들어볼까 싶지만 안함
-7. 친구들한테 MBTI 밈 보여주는거 좋아함. 내꺼와 친구들꺼 다 확인하고 캡쳐해서 친구들한테 카톡으로 보냄. 친구들이 공감하면 세상 뿌듯
-8. 처음 만나는 사람 있으면 말 걸고 싶음. 정적을 싫어하기도 하지만 그 사람에 대해 알고싶은 마음도 있음
-9. 신중한 편. 그래서 이거 메모장에 혼자 정리하고, 몇번 읽어보고 수정한 후 올림. * '별로인가?' 라는 생각에 삭제할 수 있음 주의</t>
-  </si>
-  <si>
-    <t>와 드디어 엣프제ㅠㅠ 인팁 나올때부터 존버하던거 성공ㅠㅠㅠㅠ 심지어 오늘 올라올거 같다고 생각하고 있었는데 너무 좋다 진짜.. 3:41 와 진짜 진심으로 너무 서운함 감정이입 확되네.. 에바야 ㄹㅇㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅋ 저 ESFJ인데 영상보면서 댓글까지 정주행 햇네욤 다들 그러신가요? ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ ㄹㅇ 저같아서 영상에서 천둥번개칠때 그 상황에 저도 심장떨렸어욬ㅋㅋㅋ 말하는것도 남 눈치보는것도 딱 저네욬ㅋㅋㅋㅋㅋㅋㅋ 아 진짜 너무 공감 ㅠ</t>
-  </si>
-  <si>
-    <t>취미 부자에서 취미 재벌되는거 너무 웃겨 ㅋㅋㅋㅋㅋ 내친구랑 존똑 ㅋㅋㅋㅋ 가만히 못있는 엣프젴ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">세상에 엣프제가 이리도 많았던건가요? ㅠㅠ 성인되고 동족을 만난적이 없어서 왜 나같은 사람 없어어엉 하고 살았는데 ㅠㅠ 다들 어디 숨어 계셨던거냐구요 넘나 반가우면서 아쉬움 힝 ㅠㅠ 엣프제 친구 만나고 격하게 만나고 싶댜!!!!!! </t>
-  </si>
-  <si>
-    <t>드디어 어딜가나 댓글없는 인싸 엣프제의 등장이군요 끼약 &gt;&lt;</t>
-  </si>
-  <si>
-    <t>10:45 바쁘게 움직이는 눈  사교적 외교관의 숙명 같아요ㅠ 눈치보고 분위기 맞춰주고ㅋㅋ</t>
-  </si>
-  <si>
-    <t>인프피인데…. 나랑 제일 안맞는 유형이당…..^^;;;
-내가 가장 불편해 했던 이들이 이 유형에 해당하는듯….^^;;;;;남얘기 너무 많이 하고-…뭔가 너무 무리짓고 다니면서 좀 개인주의적인 사람들 소외감 느끼게 만듬^^;;;</t>
-  </si>
-  <si>
-    <t>저희 엄마가 엣프제인데 진짜 너무 똑같애서 보는내내 엄청 웃었어요..ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 본인이 잇프제인데 엄마가 진짜 빽도 엄청 넓고 친화력도 금방금방되는 성격이거든요 근데 엄마한테 피해를 주거나 아님 엄마가 소중하게 생각하는 사람한테 피해를 주면 그 사람 가챠없이 차버리는것도 맞고 고민잘들어주는것등등 진짜 딱 저희 엄마입니다..제가 자꾸 눈치를 봐서 여러 쓸데없는 생각이 들면 엄마가 말로 해결해주고 친구처럼 대해주시니깐 엄마가 더 편하고 그런것같아용ㅎㅎ 전국에 엣프제들 사랑합니다!</t>
-  </si>
-  <si>
-    <t>0:18~0:19, 0:25 "완전", "진짜", "너무" 등 강하고 확정적인 부사 쓰는거 고증 미쳤어욬ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ㅠ_ㅠ 저 infj는 esfj 친구가 옆에서 수다 떠는거 듣고 있는걸 좋아해요.... 이런저런 이야기 보따리 풀어주는게 재밌음.... ㅋㅋㅋㅋㅋㅋㅋㅋ 난 할 얘기가 별로 없는데 ㅋㅋㅋㅋㅋ 그리고 웃음도 많아서 같이 있으면 편함 !!!!!</t>
-  </si>
-  <si>
-    <t>11:17 갑자기? 내가 왜? 가 진짜 제 모습 보는것같아서 소름이에요ㅋㅋㅋㅋ그 뒤에 관계 틀어져서 청천벽력 되는것도 너무 똑같음ㅋㅋㅋㅠㅠ 유미언니 최고</t>
-  </si>
-  <si>
-    <t>ESFJ 친구가 진짜 인생전부라고 할 정도로 친구좋아하긴 하는데 
-어색하고 별로 안 친한 친구랑 단 둘이 어디 놀러가거나 둘이만 있는거 진짜 극혐함  (나한테 왜 같이 가자고 하지??..?너 나랑 별로 안 친한데?!..?얘는 나랑 안 어색하다고 생각하나??)이 생각 꼭 함 그래서 진짜 만난지 오래된 친구가 만나자고 하면 말만 그니까 우리 대체 언제 봐~ㅠ하지 어색할까봐 속으로 사실 별로 안만나고 싶음</t>
-  </si>
-  <si>
-    <t>역쉬 인프피들 베스트푸랜드 엣프제 보러 왔을 줄 알았어!!!!! 
-인프피가 아무말이나 해도 리액션해주고 이런 건 이해 못하겠지 하는 말에도 그럴 수 있지로 받아주는 착하고 배려심 넘치고 귀여운 말랑쫀쫀 엣프제... 너무 사랑함...
-서로 진짜 잘 맞는 궁합인 것 같음...
-엣프제 사랑훼.............</t>
-  </si>
-  <si>
-    <t>송은이님이 esfj 전형인거같더라구요 사람 좋아하구 어울리는거 좋아하구 ㅋㅋㅋ 열심히 사는 느낌 ㅋㅋㅋ 저는 isfj인데 하나 다른데 왜케 다를까요(송은이님 estj시래요 뒤늦게 수정합니다 ㅎㅎ)</t>
-  </si>
-  <si>
-    <t>아 마지막 ㅋㅋㅋㅋㅋㅋㅋㅋ 머리에 척화비있는거같은 저 반보수적인느낌 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 머릿속에 정리된게 한가지로 확실하게되면 ㅋㅋㅋㅋ대놓고 말하는거까지..... 완벽한 엣프제....</t>
-  </si>
-  <si>
-    <t>찐친들 만나면 딱 이렇게 신나고 높은 텐션이 나오지만 회사에서는 급격히 텐션 낮아지는 esfj 없나요ㅋ…ㅠㅠ 모든 긍정에너지는 친구들 만났을때 나와요</t>
-  </si>
-  <si>
-    <t>눈팅하며 존버하던 ESFJ등판이요ㅋㅋ친구들이 서프라이즈 해줄때 같이 눈물 흘림^_ㅜ 맛있는거 먹으면 금방 풀리는거랑 쿠키영상 폭풍공감ㅋㅋㅋ세상 사람들 아무도 상처받지 말고 행복했으면 유미님께 제 유튜브 첫 댓글을 바칩니다</t>
-  </si>
-  <si>
-    <t>리액션에 공감부자 그게 바로 나..^^ 선물 고마워 칭구들아 여행가서까지 내 생각해주는 고마운 내 칭구들 맘엔 안들지만 사랑해ㅠㅠ 항상 칭구들 만나면 나서서 계획짜고 의견 취합하고ㅋㅋㅋㅋㅋ 애엄마 되고나선 많이 바꼈지만 그 시절 생각나네여ㅠㅠ</t>
-  </si>
-  <si>
-    <t>ENFP인데요 ESFJ 너무 사랑해요♡ 계획도 잘짜고 규칙 잘지키는데 사교성이좋고 활발한 사람들이라. 무슨일을 하더라도 다들 잘하더라구요 ㅠㅠ 존경하고 사랑함니다 ♡</t>
-  </si>
-  <si>
-    <t>질문이요! 저 esfj인데, 여러 사람 함께 만나는거 별로 안좋아해요. 다 신경써야하고( 안쓰려고 해도 신경이 쓰임) 소외된 사람 챙겨야하고.. 뭐 이러는게 스스로 너무 피곤해서 소수로 만나는걸 좋아하는데 다른 esfj님들도 그런가요?</t>
-  </si>
-  <si>
-    <t>유행하는 밈 다알아야하는거 개킹받는다 진짜... 그시절유행하는 유행어, 드라마 영화 알고 누가말하면 공감해야함 내가모르는거 있을수없음.</t>
-  </si>
-  <si>
-    <t>사랑스러운 내 틴구 나왔넴.... 슬픈 일 있을 때 엄청 우울해하다가도 금방 다시 발랄해지는 틴구... 엄청 단순해... ㅎㅎㅎ엄청 잘 웃고 솔직하고 등등등등.... ㅋㅋㅋㅋㅋ 저는 infj....</t>
-  </si>
-  <si>
-    <t>안녕하세요! 안 궁금하시겠지만 ESFJ입니다! :) 조금 주관적인 부분이 많습니다!
-전혀 안 궁금하시겠지만 엣프제 특징 조금만 말해보자면
-1. 계획을 정말 칼같이 세우는데 꼭 본인이 계획 세워야겠다고 생각하지 않아도 "몸"이 직접 계획을 세움
-2. 남을 욕하지 못해 본인을 자책할 때가 많음. 은근 우울해지기도 하지만
-3. 남을 도울 때 세상 가장 행복하고 내 자신이 살아있음을 느낌. 남을 돕는 인생=내 인생..... 그리고 실제로 내 도움이 다른 친구들에게 도움이 되는 것 같은 게 느껴졌어요!!
-4. 날 힘들게 하는 무언가가 있으면 그 관계를 명확하게 정리한 뒤 바로 손절....
-5. 이건 저만 그런지 모르겠지만 아무리 그 사람이 저를 힘들게 하고 싫어해도 한 번이라도 사과해주면 진짜 다 풀림... 저 사람도 저 사람 나름의 고충이 있을 걸 생각하니까 용서가 됌
-6. 내 인생 이야기를 말로 하라고 하면 진짜로 다 말할 수 있음. 컨텐츠가 난무하는 사람이고 말을 참 조리있게 하는 듯!
-7. 취미가 미친듯이 많음... 특히나 할 일 없으면 취미 무조건 만들어냄. 그리고 약간 서정적이고 감성적인 걸 되게 좋아함. 트렌드세터여야 하고 남보다 앞서나가고 좀 힙한 감성의 취미를 좋아하는 것 같아요!
-8. 남 눈치를 미친듯이 봅니다.... 남은 별 거 아니지만 표정 한 번 바뀌어도 그날 하루종일 머리 붙잡고 우울스펙트럼... 그래놓고는 혼자 화나고 슬프고 다 함 모든 경우의 수를 생각함...^^
-10. 그래서 내가 조금 안 좋아도 남이 좋으면 참,,,, 즇다,,,^^ (그치만 엣프제에겐 선이 있는데 그 선을 넘으면 아까도 말했지만 가차없이 빠이빠이*^^*)
-감사합니다!</t>
-  </si>
-  <si>
-    <t>주위에 엣프제 없어서 공감대 형성 안돼서 속상했는데 여기 엣프제 많아서 너무 좋자너… 그래도 우선 mbti에 진심인 편이라 나랑 달라도 겁나 설명해줌 ㅋㅋㅋㅋㅋ 여기 댓글들 어떻게 특징이 다 나인지 개똑같음 걍 여기 사람들 다 나임 ㅋㅋㅋㅋㅋㅋㅋㄹㅈㄷ 유미님 말투 완전 일상 속 내 말툰데 대박</t>
-  </si>
-  <si>
-    <t>숨길수없는 리더쉽,,,,</t>
-  </si>
-  <si>
-    <t>ENTP인 나도 말하는거 좋아하는데 ESFJ친구 만나면 말 1도 못 꺼냄... 진짜 말 많고 근데 엣프제 친구 에피소드 재밌어서 그저 듣게 되고 리액션만 하고 오게 됌ㅋㅋㅋㅋㅋㅋㅋ 그리고 사람 기억할때 별명으로 기억하던데 이거 엣프제 국룰일줄은 몰랐네ㅋㅌㅌㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>다른걸 떠나서
-남한테 피해입히는 거 극혐한다는거 대공감...</t>
-  </si>
-  <si>
-    <t>Esfj 이별인데 차였을 때 대처방법? 극복방법 좀 누가 써줬음 좋겠다ㅠㅠ 인간관계 1순위인데 그 중 애인? 진짜 세상 무너지게 아프고 세상 불행한 이 기분..</t>
-  </si>
-  <si>
-    <t>나만 그런지 모르겠는데 커뮤같은 곳에 댓글 거의 안달아요ㅋㅋㅋㅋㅋ유미 언니 엠비티아이 특집(?) 시작할 때부터 엣프제 엄청 기다리면서 친구들한테 "야 빨리 엣프제 나왔음 좋겠당ㅠㅠ"이러고 혼자 엄청 기다리고 그러면서도 댓글에 '언니 엣프제도 해줘요&gt;.&lt;'이런거 일절 안함ㅋㅋㅋㅋㅋㅋㅋㅋ익명(?)커뮤에서는 댓글 거의 안달지만 인스타에 친구들이 글올리면 주접댓글 폭발 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>언니!!!!!! ENFJ 존버합니다!!!!!!!
-다음화에 안나와도 상관 없으니까
-이왕 늦게나올거
-제일 마지막 피날레로 장식해주세요
-️‍️‍️‍</t>
-  </si>
-  <si>
-    <t>지나가던 ESFJ 공감하다 울고 가욬ㅋㅋㅋㅋㅋ 친구들 만나자마자 포옹부터 때리고 턱괴고 눈마주치면서 듣는 거랑 리액션 엄청 큰 것도 완전 저예요ㅋㅋㅋ 강아지 얘기 열심히 하다 옷 잘못 입히면 뭐 난다...?라고 하는 거까지... 주제에 맞춰서 머릿속에 이런저런 공통주제를 찾다가 주의사항 같은 게 기억나면 바로 말해주고 걱정하거든요ㅋㅋㅋㅋ 친구가 뭐 부탁하면 싫은 척 장난하다가 다 들어주고.... 맨 마지막에 넷상에서 아싸인가?하는 거랑 나쁘게 표현되지 않았음 좋겠다....까지ㅋㅋㅋㅋ 밑에 댓글에 친구들 유형 다 기억하고 링크 보내준다고 했는데 저 친구들한테 유형별로 링크 따서 보내줬어요ㅠㅠㅠㅠㅠ 왜 내가 저기 있니...</t>
-  </si>
-  <si>
-    <t>나 esfj 인ㄷ 3:53에서 부터 서운함..
-개인적으로
-친구랑 만난다 그러면 30분전에 준비 끝나고 10~5분전에 도착해서 천천히 오라고 말함
-심지어 친구들 주려고 에코백도 주고 그랬는데....나 빼고 단톡방 파고 여행도 다녀오고..
-당일날 사과 안해주면 계속 신경 쓰이고 집 가는길에 단톡방 보면서 "혹시 내가 거절한 거 있나"뒤져봐야됨....</t>
-  </si>
-  <si>
-    <t>엣프제 얘기는 엠비티아이 영상 어딜가나 잘 없어서 슬펐는데 여기 다같이 모여 있으니까 넘 좋당</t>
-  </si>
-  <si>
-    <t>착장부터 대박 나임
-대화하면서 계속 눈알 돌리고 다른 사람 눈치 분위기 다 살피는거 완전 공감 ㅠㅠ 
-4:02 마음속으로 천둥번개치고 세상 다 무너지는거 격공이요...ㅋㅋ
-5:55 집에 놀러오라는거 ㅋㅋㅋㅋ 친구들 집에 한 번 이상은 다 불렀어요. 5번 이사하는 동안 5번 집들이 함  음식 물론 내가 다 요리해서 ㅎㅎ</t>
-  </si>
-  <si>
-    <t>모든사람과 사이좋게 지내고픈 관심종자ㅠ esfj 나야나ㅜㅜ 세상살이 힘들어도 남한테 또 정베풀고 받고 사는게 세상뿌듯</t>
-  </si>
-  <si>
-    <t>본인 최근에 엣프제로 바뀐 사람인데 ㄹㅇ 리액션 부자는 맞는듯 하다못해 안친한 같은반 애가 쟤는 리액션이 너무 과해;;라는 소리도 들었음...다들리게 말해ㅠ 겁나 상처야 내가 뭘했다고 진짜 너희한테 무슨 피해를 줬는데 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>한시도 입을 가만있지 못하고
-리액션 부자에 ㅋㅋ
-'로보트 팀장님' 이라고 친구의 상사
-별명 기억하기 ㅋㅋㅋㅋ
-이것도 내가 만들었고 ㅋㅋ
-저것도 내가 만들었고ㅋ
-(내손에서 탄생한 것에 대한 자부심 쁌쁌~)
-세상이 무너질 때는
-나빼고 놀러 갔을때
-나빼고 놀러간 얘기할때
-나빼고 놀러간다는 일정 얘기할때
-ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ
-아싸도 관종도 아닌데 난
-'나빼고' 를 왜케 싫어하는겨 ㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>아니 성격같은건 인터넷에 떠돌아다니는 해석 보면 알수 있다쳐도 미묘한 말투나 제스쳐가 그냥 저랑 존똑인데요...? 
-0:45 여기 말투
- 말하다가 웃음섞는거
- 말하다가 웃는거
- 진~짜이쁜거야 말투
- 말투
- 상황설명할때 맨날 재연하는데.. 어케 아셧지?
- 모야~ 나 구독할래 왜 말안해쏘
-ㅇㅁ튼.. 더 많은데 여기까지만 쓸게요... 솔직히 mbti 시리즈 나올때 제 성격유형은 잘 표현 못할거라고 생각했는데,,,, 대박입니당</t>
-  </si>
-  <si>
-    <t>진짜 엣프제
-난 완전 다이나믹한 인생을 사는구나 인생이 매번 레전드야 라고 생각하고 또 친구들한테 무조건 내 썰 풀어줘야함… 꼭 누구 한명 한테는 썰을 풀어야함 필수</t>
-  </si>
-  <si>
-    <t>Esfj인 사람으로써 이거보면서 웃고있고 뭔가 신기함!! 그리고 누가 나를 생각해주는것 같아서? 약간 감동..</t>
-  </si>
-  <si>
-    <t>여행계획세울때 구체적인거 다 정하는 총무역할., 진짜 기다린만큼 너무 감동적이에요..</t>
-  </si>
-  <si>
-    <t>인프피가 생각하는 딱 성격좋은 엠비티아이 유형 ㅋㅋㅋ너무 밝고 착해서 좋아요</t>
-  </si>
-  <si>
-    <t>나 esfj인데 ...친구만날때랑 헤어질때 소오름임ㅋㅋㅋㅋㅋㅋㅋㅋ걍 친구들이랑 내모습임ㅋㅋㅋㅋㅋㅋ만날때 보고시펐어~~~하면서 안고 헤어질때 잘가~~~또봐!!하고 안음ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>esfj 오해받는것도 엄청 싫어한답니당ㅎㅎㅎ</t>
-  </si>
-  <si>
-    <t>ESTJ ENFJ ISFP 세개 남았네요
-전 ISFP지만 여전히 누워서 기다려요......댓글 다는거 너무 어색해서 썼다 지웠다 300번 하다가 이제 씁니다</t>
-  </si>
-  <si>
-    <t>하 진짜 너무 똑같애서 소롬 ㅠ ㅋㅋㅋㅋㅋ 뭔지알지 이 단어 오질라게 쓰는 데 너무 웃겨요 ㅠㅠ ㅋㅋㅋㅋㅋ 인스타 스토리도 간지나게 사진만 딱 하나 올리고싶은데 정신차리고 보면 몇줄 글씨 써내려가고있고 .. 모든 상황을 다 말하고 쓰고싶은 할말 많은 엣프제 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>헐 뭐 자랑할때 맨날  나 00했당~ 이러면서 브이 양손 흔드는데 초반에 똑같이 나와서 보고 개소름 돋았어요 똑가텨..!!</t>
-  </si>
-  <si>
-    <t>엣프제 친구 두고있는데.. 정말 귀엽고 다정하고 너무착해서 걱정까지됩니닼ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>아니 말도 안돼 유미님 esfj아니고서야 어떻게 이렇게 정확해......... 17분 내내 내 인생을 본 기분.....</t>
-  </si>
-  <si>
-    <t>엣프제 어떻게 그려질지 엣프제 시리즈만 기다렸던 귀여운 엣프제들 모두 빠르게 보고있쥬??ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 나이먹으면서 내 기분 아닌 남 먼저 생각하는거 엄청 고치고 싶으면서도 ㅜㅜ 이런저런 엣프제 특징에 만족하는 귀여운 엣프제들 내일도 타인 기분도 지켜주며 내 기분 좋아지며 힘내자 ㅋㅋㅋㅋㅋㅋ️</t>
-  </si>
-  <si>
-    <t>아니 왜 엣프제들은 다 징징이냐고ㅠㅠㅋㅋㅋㅋㅋ 귀여워죽겠어</t>
-  </si>
-  <si>
-    <t>누가 뭐가르쳐주면 못알아들으면서 고개끄덕이는게 나만그런게 아니였군뇨....?
-(이 댓글 쓰기까지 삭제를 한5번 한 20번 검사 16번 엣프제나온 나 엣프제, 4번은 엔프제.. ᴛᴍɪ ㅈㅅ~~)</t>
-  </si>
-  <si>
-    <t>취미생활 진득하게는 못하지만 이것저것 해서 남들한테 나눠주고 반응보는 것에 큰 기쁨을 얻는 내 모습을 보는 것 같군요... 소외되는게 진짜 너무 슬프고 서운한 거 격공.. 엣프제 올라오기만을 기다린 보람이 있다 ㅌㅌㅋㅋㅋ 진짜 특징 정확하게 잡는 거 대단한 거 같아요 ㅌㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>사실 잇프피 침대에 누워있는거밖에 할게 없어서 안올라오는게 아닌지........언니.... 잇프피 기다리고있어...... 물론 침대에 누워있는거밖에 할게없겟지만.....기다리고있어...</t>
-  </si>
-  <si>
-    <t>와 엣프제들 눈치 진짜 빠른거 나만 그런 줄ㅋㅋㅋㅋㅋㅋ 아무말 없어도 상황파악 겁나 빨리됨</t>
-  </si>
-  <si>
-    <t>저는 INTJ 여자인데.. 엣프제의 밝은 분위기와 인간미가 부럽습니다. 
-엣프제가 INTJ랑 있으면 재미없어하고 지루해하지 않을까 생각도 들어요</t>
-  </si>
-  <si>
-    <t>와..esfj 짱신기해 이 성격에 대해 생각해본 적이 없어서 그런가.. 친화력 넘치는 멍뭉이들 같다 ㅋㅋㅋㅋㅋ
-모두에게 친절하고 나 빼고 간식 먹으면 동공지진 오면서 삐지다가 챙겨주면 뒹굴뒹굴 하면서 꼬리 흔드는 댕댕이 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>와...진심 존버 성공 ㅠㅠㅠㅠㅠㅠ 눈물날뻔
-곧 계모임 만나는데 미래의 내모습이넼ㅋㅋㅋㅋㅋㅋㅋ몇분 안봤는데 어디서 본거같네 진짜...... 나네...</t>
-  </si>
-  <si>
-    <t>지나가는 esfj 입니다 스트레스받으면 친구랑 만나서 수다떨고 사람들만나서 힐링하는 편임ㅋㅋㅋㅋ 감정기복도 좀 있고 하이텐션인편인데 집에혼자잇을때 혼잣말많이함ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>우리가 뒷담 잘까는 유형이라....ㅋㅋㅋ 이미 esfj한테 잘못을 많이 했으니 주변 친구들을 내편으로 만드는중인거지 뒷담이아닐텐데 ㅋㅋㅋ  생각보다 무서운 유형임... 눈치가 빠르고 사람 마음을 잘 알아서 내편으로 만들 수 있음 ...  또한 현실적이어서 웃는 얼굴로 손절함 대신 이렇게 까지는 진~~~~~짜 웬만하면 절대로 진짜 엄청난 일이 아니고서야 안그러는데 친구에게 어떤 선을 넘었길래 우리한테 뒷담을 까이지... 쉽지 않은데 진짜... ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>와 언니 .. INFP에 달았던 저의 댓글을 보기라도 하신듯 ESFJ 올려주시다니 .. 살앙해요 
-맨날 뭐 만들고나서 친구들한테 이거 이뿌지 나중에 이거 만들어줄게 이러고 보여주고 만들어주고ㅋㅋㅋㅋㅋ  주고 나서 친구들이 좋아해주면 완전 뿌듯 (*¯︶¯*)
-친구들이 뭔가 나빼고 자기들끼리 더 친한것 같으면 질투나고 속상하고 ㅠ 난 누가 더 좋고 그런거 없이 똑같이 좋아하는데 왜 쟤네둘은 더 친해보이는지 ㅠ 자기들끼리 놀러가거나 뭐 커플템 맞추고 그러면 서로 더 자주 만나고 친한가보다 머리로는 이해하는데 마음으론 이해안돼 ㅠ 나도 그런거 조아하는데!!!! 만약 한 무리에서 나랑 다른애 두명이 유독 친한거 같으면 다른 친구들 눈치보임.. 내가 그러면 속상하고 소외감 들고 싫었으니까 내 친구는 안속상하면 좋겠고 ㅠㅠ 의도한게 아닌데 어쩌지 .. ㅠㅠ 이러고ㅋㅋㅋㅋㅋ
-칭구들 만나는거 너무 좋아해서 맨날 만난날 다음 만날 날짜까지 정해야 마음 편함ㅋㅋㅋㅋ 주기적으로 보고싶어 내칭구들  여행 가자는말도 맨날 입버릇처럼 함 ㅠㅠ 꼭 뭐 안해도 그냥 추억 쌓는거 좋아함
-그리고 누구한테 미움 받는거 진짜 싫어 아무리 내가 싫어하는 사람이여도 그사람이 나 싫어하는건 싫어 ,,  싫어하는 사람한테도 잘해주고 신경쓰고 챙겨줌 ,, 그래서 그 사람은 내가 자기 싫어하는지 불편해하는지 모름  장점이자 단점 ,, 친구가 오해해서 나때문에 기분 상하면 오해 받은것도 억울한데 친구가 이제 나를 아예 안볼까봐 마워할까봐 그 걱정이 더 크고 다른 친구 앞에서는 괜찮은 척 금방 풀수있는 척 하는데 집가서 친구랑 제대로 이야기 하기 전까지 하루종일 걱정하고있음 ,, 마음이 타들어감 ,, 그래서 누가 오해해서 연락 안받으면 몇일동안 걱정이 떠나질 않아서 스트레스 엄청 받고 끙끙대는 스타일 ,,  유미님이 디저트 먹으면서 기분 좋아졌다가 화해할 계획 생각한것도 괜찮은척 하면서 속으로는 화해할 계획 계속 생각하고 있었던고 ,, 
-ESFJ의 무서운점은 내사람이라고 생각할때는 한없이 맞추려하고 배려하려하고 그 관계에 대해 할수있는 만큼 최선을 다하지만 참다참다 못견뎌서 그 사람을 마음속에서 정리하는 순간 가차없어집니당 ,, 모든 관계에 신중하고 정이 많아서 좀 깊어지면 정을 왕창 주지만 더이상 그사람에게 노력하고싶어지지 않아졌을땐 그 관계는 끝 ,, 상대방이 눈치채서 자기가 무슨 잘못했냐고 물어봐도 말 안합니다 주절주절 말하기도 싫고 더이상 그사람이 어떤 인생을 살아가든 알빠가 아니기때문,, MBTI를 막론하고 곁에 있는 사람에게 잘합시당 
-모든 사람들에게 사랑받고 싶어하는 ESFJ  주변에 있으면 많이 사랑해쥬세요옹 
-너무 공감가서 주저리주저리 유튜브 하면서 처음으로 길게 써봤눙데 관심 안주면 삭제할고야 ,,,,,</t>
-  </si>
-  <si>
-    <t>친구들끼리 놀러갔다고 하면 괜찮은 척하지만 표정관리 못해서 섭섭함 뚝뚝 보임••• 포커페이스 못하는 내가 미울뿐…..</t>
-  </si>
-  <si>
-    <t>부정할 수 가 없네…애엄마 되고나니까 다른 집 아이들까지 뭘 포장해서 챙겨주는 기쁨이 있어요…할로윈 같은거…그리고 컴플레인 거는 사람들 이해 못하고 둥글둥글…뭔지 알지 이 말 너무 자주 쓰는데… ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>친구들 고민 상담 진짜 많이 들어주는데 막상 난 내가 얘기한다고 내 고민이 해결 되는건 아니라서 난 알아서 해결 
-그리고 친구들 사정이 더 딱해서 내가 말할게 없음</t>
-  </si>
-  <si>
-    <t>13:27 이거 라스에 나온 유미님 얘기ㅋㅋㅋㅋㅎㅋㅋㅋ본인 등판ㅋㅋㅋㅎㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅇㄴ 청천벽력 뒤에 효과 넣는 거 진짜 뒤집어지게 웃겨요 언니ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 동공지진... 슬픔과 당황스러움과 서운함이 표정에서 다 드러나고,,,,, 속마음은 너무 슬퍼..</t>
-  </si>
-  <si>
-    <t>ESTJ와 FJ가 번갈아 나오는 나는 존멋이야. 절대 바꾸고 싶지 않아</t>
-  </si>
-  <si>
-    <t>엣프제에게 한번 원수는 영원한 원수</t>
-  </si>
-  <si>
-    <t>와 진짜 대박... 손뜨개, 십자수에 미쳐서 실만 20만원어치 사서 사람들한테 만들어서 선물한 나의 모습이 저기있다!!!! 게다가 리액션이 너무 공감ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>친구들끼리만 놀러갔다고 할때 번개치고 건물 부서지고 하는거ㅋㅋ 이거 하나만으로도 엣프제의 성격을 알겠음ㅋㅋ</t>
-  </si>
-  <si>
-    <t>나는 놀거나 여행갈때 계획진짜 확실하게 세우고 메모장에 얼마나 돈을 쓸건지도 씀
-자기전에 알람 항상 확인함 혹여나 알람이 꺼져있진 않겠지??이생각도 하고 내일은 좀 빨리 일어나야겠다하고 매일매일 내일에 맞춰서 알람 바꿈 근데 막상 아침에 일어나기 싫어서 바로 십분 뒤로 맞추고 다시 자는거ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>3:45 너네 나빼고 놀러간거야….? 이순간 마상 입음 ㅠㅠㅠㅠ 어덕케그랄수가잇어ㅜㅜㅜㅜㅠ</t>
-  </si>
-  <si>
-    <t>만나자마자 포옹하기 ㅋㅋㅋㅋㅋㅋ
-별명 리액션부자에  취미부자 집에서도 가만히 안있고 뚝딱뚝딱 사서고생하는st  저 맞구욬ㅋㅋㅋㅋㅋ 또 주변에 선물하기 좋아해서 맨날 보부상인거 ㄹㅇ 
-16:26 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ
-속마음 들킴 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>역시 esfj의 특징을 소름 돋을정도로 똑같이 연기하시는...</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅋ 하 너무 우리엄마같아요 ㅠㅠ 초중고 모든 학부모회에서 리더(근데 반장은 아니고 항상 부반장 포지션).. 맨날 도마 뜨개질 가방 이런거 만들어서 학교축제하면 어머니회 작품에 무조건 걸려있고 사람들한테 나눠주는거 좋아하고 .. 학부모회같은거 안하는 친구 엄마들 엄청 꼬셔서 기여코 가입하게만들어요..  매주 빠짐없이 모임다니고 아빠 장례식에 진짜 수도없이 몇십명이 왔다갔는데 다 엄마 지인임…  전 intp라 가끔 아니 많이 기빨릴때도 많고 안맞는 부분도 정말 많지만.. 어쨋든 이 영상 보면 엄마 전화하는거 몰래 듣는 느낌임 하 갸웃겨 ㅋㅋㅋㅋㅋㅋㅋㅋ 너무 똑같아요 ㅠㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>인프핀데 내 영혼의 단짝들 다 esfj야 … 너무 잘 맞음</t>
-  </si>
-  <si>
-    <t>ㅌㅌㅋㅋㅋㅋㅋ아16분내내 인간관계 내용인거 너무 정확하면서 웃겨요ㅠㅠ나랑 맞지 않은 친구 은근슬쩍 언급했다가 그거 관련해서 얘기하는 감정도 공감되고 마지막에 온라인에서는 아싸인 엣프제..걍 다웃기네요 이것도 엣프제라서 그런가요 암튼 걍 다웃겨요 엣프제 다뤄준것만으로도 웃겨요 강유미언니 짱짱띠!!!️️</t>
-  </si>
-  <si>
-    <t>엣프제 너무 귀엽다.. 사랑스러워...♡♡♡
-어떻게 사람이 이렇게 겉과 속 둘다 해맑지ㅜㅜ
-귀여운와중에 멘탈이 타고나게 건강한느낌
-(지나가던 엥뿌삐...)</t>
-  </si>
-  <si>
-    <t>울 엄마가 엣프젠데 코로나 때문에 밖에 못나가니까 그대신 집에서 취미만 느는 거랑 여행 계획 대표로 짜는 거랑 사교적인 거랑 싹 다 개똑디ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>3:40 하 존나 나갈네 ㅋㅋㅋㅋ 보면볼수록 겁나 잘 살렸넼ㅋㅋㅋㅋㅋㅋ 천둥 개 웃긴다 존나 우울햐 ㅠㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>이거 다음 estj도 해주세여ㅋㅋㅋㅋ넘 웃기네여 저희집 가족 두 명 + 지인이 esfj인데 성격좋은 참 찐인싸들ㅋㅋㅋㅋ알파벳 하나 다른데 참 다른 성격이라 갠적으로 부러운 엠비티아이에요ㅠ</t>
-  </si>
-  <si>
-    <t>아 진짜 댓글 보면 다 나같은 사람들이라서 너무 친근하고 소름돋고 나 자신을 객관화시켜서 다 말해주는 것 같아서 너무 신기해요ㅠㅜ ESFJ해주셔서 감사하구 사랑해요♡♡</t>
-  </si>
-  <si>
-    <t>오랜만에 친구들만날때 빈손으로안가는거공감 ㅋㅋㅋㅋㅋ나한테말안하고 뭐하는거 개빡치지만 속으로만 부글댐 ㅜㅜㅋㅋㅋ그러고 좀 잘해주면 금방풀림 ㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>엄마가 엣프제신데 저 텐션은 정말 언제봐도 부담스럽고 부담스럽고 부담스럽고..</t>
-  </si>
-  <si>
-    <t>즉흥적으로 하고싶은거 백만개 인간비글인 엥뿌삐로서 리액션장인 엣프제 너무사랑해요ㅠㅠㅠ 엣프제랑 맨날맨날 먹으러다니고 수다떨러다니면 그것이 참행복=♡</t>
-  </si>
-  <si>
-    <t>어디선가 본 친구상 .. 이제 13개 올라왔으니 인내로 잇프피 존버합니다 ,, 마지막이면 ...? 오히려좋아</t>
-  </si>
-  <si>
-    <t>이런 유형의 사람 만날때마다 나랑 진짜 다르다..고 생각했는데 esfj 유형의 성향이었구나 신기하다 뭔가 따뜻해보여서 좋네</t>
-  </si>
-  <si>
-    <t>우아.. 선물 주는 거,, 생각해서 주는 거잖아.. 진짜 배려에 착하다..ㅠㅠ 와,,,, 맛있는 거 사주고 싶어지네,,ㅠㅠ 스윗걸~~</t>
-  </si>
-  <si>
-    <t>리액션 부자에 공감 잘 해주고 고민 잘 들어주고 지인들 필요한 거 원하는 거 기억했다가 선물하고. 누구 소외되는 거 잘 못 보고. 지인들 사이에서 배려쟁이 센스쟁이로 인식됨. 난 내가 엣프제라서 좋아 나랑 친구해주는 지인들도 너무 고맙다</t>
-  </si>
-  <si>
-    <t>️사교적 외교관들 사랑해️</t>
-  </si>
-  <si>
-    <t>우리 엄마 esfj인데 ㄹㅇ 저러심..ㅋㅋㅋㅋㅋㅋㅋㅋ 진짴ㅋㅋㅋㅋㅋㅋㅋ 엄마랑 같이 걷고있으면 내가 모르는 분아는분 한두분은 꼭 만나서 인사하는거보면 진짜 매번 놀람…내가 아는 사람중에 제일 인싸..</t>
-  </si>
-  <si>
-    <t>저 ENTJ인데 ESFJ랑 제일 잘 맞고 같이 있으면 힐링됩니다ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ESTJ 인줄 알고 앗차한 엣티제,, 오늘도 존버합니다,,</t>
-  </si>
-  <si>
-    <t>아 누가 서프라이즈 해주면 일단 울어 제끼는 거 똑같아요 미쳐 진짴ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ️️️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엠비티아이 수십번 해봐도 esfj 랑 isfj 를 매번 반복해서 나오는데 강유미님꺼 보니 계속 반복해서 나오는 이유가 있는거같음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ둘다 나 보는거같음 </t>
-  </si>
-  <si>
-    <t>저는 그냥 이세상 모든사람들이 다 좋은사람들이었으면 좋겠고 모두모두 다같이 행복하게 친하게 잘 지냈으면 좋겠어요 엣프제들 저같은사람 있나요 혹시?</t>
-  </si>
-  <si>
-    <t>친구들이랑 여행가면 여행 계획 짜는 사람은 나.
-여동생이 저랑만 여행가면 새벽 스케쥴에 코피를 쏟습니다ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ
-식당 및 코스, 가는 방법까지 나의 노트에 모든 정보가 있습니다ㅋㅋㅋㅋ 심지어 영어로 말하는 표현 어려운 부분이 있으면 미리 공부해 가는 나는야 ESFJ.....
-남들 선물 주는 거 좋아하고, 집에서 못 쉬고 일벌리는것도 완전 나같아요 ㅋㅋㅋㅋㅋ 기다린 보람이 있네용</t>
-  </si>
-  <si>
-    <t>와 ㅋㅋ 드디어 엣프제!!! 고마워요!!
-유미님이 구현한 엣프제의 모습은 진짜로 찐친(내 사람이라고 생각하는)이라고 생각하는 사람들에게 하는 행동들 같아요 ㅎㅎ 
-그것도 어려서부터 나를 잘 알아서, 내 어떤 모습도 인정해주고 좋아해주는 오래된 친구여야 가능 할 것 같은 ㅋㅋ 
-너무 오바하면서 인사하고 막 좋아하면, 사람들이 쟤 오바한다, 쟤 왜저렇게 나대? 이렇게 생각할까봐 ㅠㅠ 보통은 저렇게 못하거든요.
-눈치 드릅게 봅니다 ^^하하 ㅋㅋ 
-저같은 경우에는, 많이 친하지않으면, 친절과 배려를 베풀기는 하되, 남들이 느낄만큼 …벽을 좀 쳐요.
-친구마다 나름대로의 등급?이라고해야하나(제가 뭐라고 등급을 매기나 싶긴한데, 나름의 단계가 있거든요)그런게있어요.
-10%만 보여줄 친구, 50%만 보여줄 친구 뭐 이런식으로 ㅋㅋㅋ 
-생각없고, 늘 즐겁고, 늘 퍼주며 다소 가벼운 모습으로 사람에게 다가가도, 실상 제가 하는 말과 행동들은 사실 치밀하게 계획된거예요.ㅋㅋ
-그렇게 생각이 없지도, 늘 즐겁지만도, 늘 퍼주지만도, 늘 가볍지만도 않거든요ㅎㅎ 
-사람은 좋아하지만 혼자 있는걸 누구보다 좋아하고, 퍼주는 것을 좋아해도 ‘내 것’은 완벽하게 챙겨놓은 후 라는 것! 
-세상의 중심은 나로 돌아간다!!를 늘 마음 속으로 생각하면서, 겉으로는 사람들을 위하며 살아요 ㅋㅋ
-그게 스스로 뿌듯하고 행복하거든요. 아이러니하죠ㅎㅎ
-이게 제가 느끼는 제 유형의 모습이예요! 굉장히 제 안에는 다양한 모습들이 있답니다!
-댓글 안달기로 유명한 엣프제님들 댓글들은 이곳에서 많이 볼 수 있어 너무 좋네요^^
-종종 출몰합시다 ㅋㅋ 엣프제에 관한 영상에도 엣프제 댓글이 거의 없는 경우가 너무 많은 ㅋㅋ (저역시도 잘 안달아요)
-엣프제 친구나 연인을 두고 계신 분들에게 참고가 될 만한 것들 적어놓고 갈게요!
-- 소외감을 갖게 하지말아주세요. (추측하지 마시고 한 번이라도 물어봐주세요 ㅠㅠ)
-- 오해하지 말아주세요, 엣프제는 거짓말을 못합니다. 비꼬아서 얘기할 줄도 몰라요. 문자 있는그대로 받아들여주세요. 오해할 만한 말을 혹시나 했다면 즉시 물어봐주세요.그러면 바로 본인의 의사를 정확히 전달해 줄거예요! 
-- 믿어주세요. 아끼는 사람들을 절대 실망시키고 싶지않기에, 늘 생각하고 생각하는 엣프제입니다. 서툴고 답답한 부분이 있더라도 조금만 기다려주시고 믿어주세요.
-- 표현해주세요. 만약 20을 표현해주신다면 엣프제는 70,80을 표현해 줄거예요! 조금만이라도 표현해주시면, 엣프제는 고마워서 어쩔 줄 모를 것입니다.
-- 불만이있다면 바로 말해주세요. 위에 말했듯 오해받는 것을 정말 싫어합니다. 그리고 그 오해가 기정사실화 되는 것도 너무 싫구요. 항변할 기회를 주세요.
-반드시 어떤 문제라도 좋은 방향으로 풀 자신이있습니다. 
-- 엣프제가 베푼 친절과 배려를 당연히 생각하지 말아주세요. 그대로 받고 싶기때문에 하는 것은 아니지만, 적어도 무례함을 당하고 싶지는 않거든요. ㅎㅎ
-MBTI를 알고, 제 자신에 대해, 또 타 유형에 대해 보다 더 알게되는 좋은 경험들을 하며 살게된 것같아요!
-즐겁고 행복한 밤이네요 ㅎㅎ 
-오랜만에 너무 신나서 와다다 댓글을 썼네요 ㅎㅎ 
-즐겁게 봤습니다!! 감사합니다^^</t>
-  </si>
-  <si>
-    <t>엣프제를 제일 좋아하는 잇팁입니다… 엣프제들 하나같이 다 포근한 느낌이라 너무 좋은데 친해지긴 힘들더라고요 ㅋㅋㅋ 항상 엣프제 애인이 있으면 좋겠다 생각만 합니다</t>
-  </si>
-  <si>
-    <t>자꾸 스킨십하는거 너무웃곀ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 전 정말 친구랑 팔짱끼고 안고 팔쓰다듬고 이런거 너무좋아하는데 인팁친구는 늘 목석이고 불편해해서 못함 ㅠㅠㅋㅋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우와 남편도 저도 ESFJ 라서 엄청 기대하고 있었어요! 선물 마음에 안들어도 리액션 열심히 하고 각종 클래스 신청해서 열심히 배우러 다니는 것 넘나 저. 그런데 친구들에게 서운함이 느껴져도 삐졌다고 말을 못해요. 내가 그렇게 말하면 불편할 상대방의 감정을 못 견뎌요. 근데 어쩜 이렇게 연기도 기획도 잘 하시는 거예요 </t>
-  </si>
-  <si>
-    <t>Isfp가 마지막 피날레인가,,후후 두근거려</t>
-  </si>
-  <si>
-    <t>우리 모두 자책하지 말아요.. 그치만 너무 어려운 일...</t>
-  </si>
-  <si>
-    <t>쟨 대체 왜저럼. 아진짜? 화해해? 그래? 니들이 그렇다면 그런거지. 근데 화해 어케해? 아 머리아파. 갑자기 맛있는거 먹고싶다. 으헤헿헤 맛있다. 기분좋아짐. 화해방법도 생각남 ㅋㅋㅋㅋㅋㅋㅋㅋ 
-여기까지 꽤 그럴 듯 한데 근데 집에가서 다시 화해려고 하면 내가 생각해낸 그거 넘 귀찮고 하기 싫고 어차피 나랑 잘 안맞는데 굳이 화해가 필요한가 아 귀찮아, 하면서 뜨개질이나 할거임.</t>
-  </si>
-  <si>
-    <t>악 너무 귀엽고 겉과 속이 똑같네요 퓨 사랑스러운 엣프제.. 친해지고파.. 그 와중에 부지런해</t>
-  </si>
-  <si>
-    <t>과연 마지막은 누가 될것인가....... ISFP는 끝까지 존버탑니다</t>
-  </si>
-  <si>
-    <t>1:38 취미재벌 미쳨ㅋㅋㄱㅋㅋㄱㅋ이것저것 배우는거 개재밌어서 자격증 한 보따리 그리고 꼭 친한친구들한테 말하고 싶어서 입 근질근질하다가 ㅋㅋㅋㄱㅋㅋ안물어봐도 그냥 말함ㅋㅋㅋㄱㄱㅋ</t>
-  </si>
-  <si>
-    <t>와 인스타랑 유튜브 하는 지인 만나면  호들갑떠는 반응 똑같아요...... 
-계획짤때 역할나눠서 짜는것도... 
-싸울때 중간에서 화해시키려고 막 설명하는거도..
-진짜 소름....</t>
-  </si>
-  <si>
-    <t>드디어 ESFJ!!! 처음에 반기는 것부터 저네요...재밌게 볼게요ㅎㅎㅎㅎㅎㅎ</t>
-  </si>
-  <si>
-    <t>와 이거 완전 난데요?? 일년에 한두번씩 검사해도 항상 엣프제인 여자사람인데요!!
-유미언니 이거 대체 어떻게 캐치하신거에요 대박ㅋ
-어제도 칭구들한테 키링 만들어서 나눠주고 뿌듯했는데헿
-취미도 운동 베이킹 키링만들기 요리 등등 엄청 광범위하구 꼭 그런거 인스타에 자랑하거나 칭구들한테 보여주고 뿌듯해해여
-자격증도 이것저것 항상 관심 많고 
-요즘 유행하는 건 다 한번 해보고싶은 욕심ㅋㅋㅋㅋㅋㅋ완전 대공감</t>
-  </si>
-  <si>
-    <t>내 짝남 엣프제 당신 너무 철벽이야ㅠㅠㅠ 근데 또 착하고 난리;;</t>
-  </si>
-  <si>
-    <t>내가 상대방한테 필요한 사람인줄 알았는데 그게 아니란걸 느낌적으로 알았을때 상처 오지게 받습니다 말은 못하고 끙끙..엣프제입니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">엔프제가 엠비티아이 시리즈의 마지막을 장식하는 걸까 ··· 언니 엔프제는 여전히 존버하고 있습니다 둑흔  전,, 뼈엔프제이지만 엣프제도 가끔 나오는... 오늘도 잘 볼게요!! </t>
-  </si>
-  <si>
-    <t>보면서 완전 공감됐던 대사들
-- 너네 어디 놀러갔어? 뭔 소리야. 단톡에 그런 얘기 한 적 없는데... &lt;-찐으로 속상해서 입밖으로 말 못 함 ㅠㅠㅠㅠ
-- 그래도 친구들의 정성이 너무 소중하지!️️️
-- 아 내 친구들이 아는 거 나도 다 알아야 된다고</t>
-  </si>
-  <si>
-    <t>아놔 손목에 검정색 머리고무줄 끼고 다니는것까지 소름돋네.. 그냥 나잖아?</t>
-  </si>
-  <si>
-    <t>같이 일하는 직장동료가 본인 esfj라고 했는데 진심 거의 맨날 부딪혀요;; 너무 제멋대로에 툭하면 징징 거리고 삐지고 삐진 티를 내려고 말을 걸어요;; 오디오 비는거 싫어한다면서 진행 하려고 하는 진행병있고 굳이 오버 리액션하고 계속 요즘 재밋는거 없냐고 계속 물어봐요 상대방 지쳐가는게 눈에 안들어오는지... 잘못을 본인이 해놓고 남탓 오지게 하고 누가 지적하면 객관적으로 못알아듣고 자기 비난한다며 서운해하면서 상처 받았다며 또 징징거리는데 정말 꼴보기 싫어요... 이거 esfj 단점 맞나요?? 저는 entp인데 진짜 이해가 안돼요</t>
-  </si>
-  <si>
-    <t>난 엣프제들의 사회성과 리액션을 정말 배우고싶음!!
-지나가던 entp</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ첫인사부터 그냥 오랜만에 보는 친구들을 대하는 나ㅠㅠ 보자마자 빵터지고 영상속의 언니가 막 저처럼 보이고 댓글보고 또 공감하고 ㅋㅋㅋㅋㅋㅋㅋ 유미언니 천재세요... ️</t>
-  </si>
-  <si>
-    <t>댓글들 읽으면서 그냥 제가 공감가는거 정리해보려구요!
-공감 잘함, 리액션 잘해줌
-인생에서 제알 중요한건 나니까 나를 힘들게 하면 칼같이 손절
-도덕적 잣대가 높고 내가 생각하는 선을 넘으면 화남
-안 친한 사람(마음에 쏙 들지 않는 사람)이랑 노는거 불편
-주관이 뚜렷하게 있지만 허용 못하는 범위가 아니면 그냥 남들에게 양보
-'굳이'라는 말 많이 씀, 좋게좋게 넘어감
-쇼핑할 때 꼼꼼함
-여행갈 때 계획짜는거 재미있음(즐김ㅎㅎ)
-빈말 안 함, 실행력 좋음
-수다떠는거 좋아함
-친구와 친구아닌 사람의 구분이 확실히 있음
-다른 사람 소외 절대 안 시킴, 다 챙기려고 노력함
-책임감이 엄청남 그래서 내가 날 엄격하게 대함
-심리적으로 힘들면 속앓이 많이 함(전 불면증에 시달렸어유ㅠㅠ)
-*난 왜 주변에 엣프제가 없는가,,,,ㅠㅠㅠㅜ</t>
-  </si>
-  <si>
-    <t>저렇게 사람을 좋아하는데 코로나 때 진짜 엣프제들 힘들었겠다..ㅠㅜ</t>
-  </si>
-  <si>
-    <t>나빼고 놀면 왕섭섭한데 내 선물 사주면 다 풀리고 ‘사진찍어줘’ 대박ㅋㅋㅋㅋㅋ 단순해서 금방 풀림</t>
-  </si>
-  <si>
-    <t>아 이 영상을 지금 보다니ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ저랑 남편 둘다 ESFJ인데 넘 비슷해여ㅋㅋㅋㅋㅋㅋㅋ
-제가 가장 많이 하는 말 
-”헐~대박 맞아맞아, 난 상관없어~, 미친 진짜로?“ 등등...
-남들과 부스럼 생기는 일이 제일 싫은 엣프제들ㅋㅋㅋㅋㅋ눈치 많이 보는 해맑고 긍정적인 댕댕이 너낌,,
-근데 내 자신한테 상처주는 일은 절대 용서 못함 ㅎㅎㅎㅎㅎ 내 자신 사랑해~~~</t>
-  </si>
-  <si>
-    <t>연기력 무엇이야,,, 내가 스테파니 된줄알았어,, 나도모르게 대답 지어서 하게 돼,,</t>
-  </si>
-  <si>
-    <t>시작부터 제 찐친생각나서 깜짝놀랐어요 ㅋㅋㅋㅋㅋㅋㅋㅋ 만나자마자 포옹하는 유일한 친구 ㅋㅋㅋㅋㅋㅋ
-따뜻하고 밝고 리액션도 장난아니고 관심사 많고 행동력 강하구 ㅋㅋㅋㅋ 엣프제가 많은 세상이면 좋겠다...♡ (저는 잇프피에요)</t>
-  </si>
-  <si>
-    <t>무례한 언행이나 말투 제일 싫어하는 사랑둥이 엣프제..</t>
-  </si>
-  <si>
-    <t>우리엄마 esfj 인데… 너무 알겠다 저 모습…….. 가식인줄 알았는데 또 진심이기도 한 저 모습…
-너무 익숙해서 esfj 편은 보지도 않았는데 관심남 esfj 라 보는데 알 거 같네 하핫</t>
-  </si>
-  <si>
-    <t>ENFJ 언제나와앙아악 !!!!!!!
--지나가던 ENFJ … -</t>
-  </si>
-  <si>
-    <t>12:11 오해받는거 진짜 너무 상실감 크고 스트레스임  진짜 최선을 다해서 배려하고 관계에 애쓰는 엣프제에겐.... 이보다 큰 시련은 없어...</t>
-  </si>
-  <si>
-    <t>나랑 4글자가 전부 다르면 어떤 모습일까 궁금해서 봤다가 정말 완벽하게 겹치는거 없이 너무 너무 달라서 더 놀랐다. ㅋㅋ</t>
-  </si>
-  <si>
-    <t>esfj 사람 자체는 너무 좋은데 나같은 사람은 저런 사람 못받아줘서 부담스러움</t>
-  </si>
-  <si>
-    <t>남편리 엣프제 인데요 ㅎㅎ 공감능력 짱이고 친구도 많고 다 해줄거처럼 자기가 한다고 하고 ㅋㅋ 그런데 자기 손해 입히는 사람이나 일은 칼같아요</t>
-  </si>
-  <si>
-    <t>intj : 정말 좋은 아이인 것은 알겠고 좋은 사람이라고 생각합니다만 저는 그냥 혼자 지내겠습니다.... 보고 10분이 지났는데 벌써 기가 빨립니다....</t>
-  </si>
-  <si>
-    <t>썸네일이 넘 강력해서 들어와봄ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ보기만해도 웃음나게 하는 매력인 엣프제 국룰인듯</t>
-  </si>
-  <si>
-    <t>진짜 영상보다가 댓글에 더 이입해서 본…신기하다 어쩜 댓글들 내 성격 복붙…귀엽고 웃기고 신기해</t>
-  </si>
-  <si>
-    <t>ESTJ입니다.. 제 말을 오해하지 않고 본질을 찾아서 들어주는 ESFJ 언니와 영혼의 친구 되고싶어서 치대는중입니다...ㅠㅠ 이런사람 또없어..</t>
-  </si>
-  <si>
-    <t>좋아하는 사람이 엣프제인데 은근 성실하고 성격 진짜 순둥하고 싫은 소리 안하고 눈치 겁나보고 친절한데 친구랑 노는걸 세상에서 제일 좋아하는듯 ㅋㅌㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>진짜 지나가던 esfj 거울보는줄 ㅠ.. 누가 나빼고 뭐하면 서운하고 친구들끼리 싸우면 누구보다 열심히 중재하지만 속으로는 기빨리고 지쳐갑니다.. 억울하면 누구보다도 열심히 해명하고, 오해로 친구랑 싸우면 세상 무너진것마냥 힘들어해요,, 인간관계에 매번 피곤함을 느끼지만 그래도 사람좋아, 친구좋아 인간들 esfj 사랑해요ㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>와 진짜 친구나 인간관계 때문에 내 기분이 좌지우지 되는거 킹정...</t>
-  </si>
-  <si>
-    <t>뭐야 여기 내 친구들 엄청많잖아..
-친구가 딱 너 그대로라고 추천해줘서 봤는데
-진짜 내가 고스란히 영상에 있고 나랑 비슷한 결의 사람들이 많아서 뭔가 위로받고감니다...!
-세상 모든 esfj 너희들도 나랑 같다면 활발하지만 속으로는 되게 소심해서 아직도 겉으로는 표현 못하는 응어리진 일들이 하나쯤은 있을거같은데 우리 걱정없는 오늘내일을 살자!! 진짜 평생 행복하자 엣프제️</t>
-  </si>
-  <si>
-    <t>estp인데요 제거보다가 여기와봤는데 정말 따듯한 곳이네요 ㅋㅋㅋ 댓글창 차이ㅠ ㅋㅋㅋㅋㅋㅋㅋㅋㅌ</t>
-  </si>
-  <si>
-    <t>댓글 읽고 나의 엣프제 특징에 대해 훨씬 더 자세하게 알게됨ㅋㅋㅋ 글고 칭찬해주는 댓 많아서 뭔가 자존감 올라감ㅎㅎㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>최근에 엣프제 형 만나본 잇팁인데 성격 너무 잘 맞네요 ㅋㅋ 제 베프도 엣프제인데 공통점은 공감도 잘 해주고 자존감 높여주는 말도 잘 해주네요. 저는 공감을 잘 못하는데 이해도 해주시고 그러니까. 저도 마음을 열게 돼서 영혼 없는 칭찬 많이 해주고 왔습니다. 엣프제 내 인생에 많이 좀 나와줘 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>개인적으로 이들이 추상적이고 깊은생각을
-잘 안하려하는것 같아서 난 좀 힘들었다.. 지나가는-entp-</t>
-  </si>
-  <si>
-    <t>현재 엣프제 남친이랑 사귀는중인데 넘 댕댕이같고 커여워요ㅋㅋㅋㅋ-잉뿌삐-</t>
-  </si>
-  <si>
-    <t>어후 estj인데 지금보니까 친하고 좋아하는사람들 앞에서의 내모습이네 깨발랄하고 활기참ㅋㅋㅋㅋㅋㅋㅋㅋㅋ어우 공감돼</t>
-  </si>
-  <si>
-    <t>4:00 이펙트 너무 웃기잖아요️</t>
-  </si>
-  <si>
-    <t>전 인팁이고 엄마가 엣프제인데 공감하면서 봤네요..ㅋㅋ 어릴때부터 성격이 너무 안맞아서 갈등이 많았는데 여기 댓글들 보니까 그나마 엄마가 이해가 갈거 같기도 하고요</t>
-  </si>
-  <si>
-    <t>댓글쓸까말까 고민하다 씀. ㅋ 
-여긴 엣프제 판이니 맘놓고 쓰기로 결정
-눈치가 빨라서 눈치껏 캐치해서 할거 다함. 
-관종맞음 모임에서 특히 더 관종ㅋㅋ 
-대한민국 엣프제 거의 다 모인듯. 
-내주변 엣프제 나밖에 없음 ㅎㅎ
-그래서 여기 왠지 모르게 반가우ㅠ. 
-여기도 엣프제 한명더 추가♡</t>
-  </si>
-  <si>
-    <t>나 빼고 놀러가면 안그런척 하지만 멘탈 와장창되고 마음에 계속 담아둠 그리고 누가 나한테 이거 너지? 너 이랬어? 이러면 안그랬어도 눈동자 흔들리고 머리속에서 지진이러나고 난리남 ㄹㅇ</t>
-  </si>
-  <si>
-    <t>오오 엥뿌삐랑 되게 잘맞을것 같은 엠비티아이군요!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Istp 인데 esfj 랑 조합이 좋다해서 보러왔어요 너무 귀엽고 매력적이고 제가 좋아하는 성격 맞네요……………….. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ㅋㅋㅋㅋㅋㅋㅋ 난가..? 이게 난가? 하고 긴가민가 하면서 보다가 영희랑 싸울 때 이입해서 나도 눈물날뻔 ㅠㅠ ㅋㅋㅋㅋㅋㅋ 진짜 너무 웃겨요 ㅜㅜ 나야..이건 나인거같아.... ㅠㅠ 엣프제 화이팅 ! 내일도 열시미 살아가쟈 </t>
-  </si>
-  <si>
-    <t>귀여워ㅠㅠㅠㅠㅠㅠㅠ 엣프제 엔프제 내꺼하자 이 인프피제 짬뽕 인간을 받아주라ㅠㅠ</t>
-  </si>
-  <si>
-    <t>내 기준 엣프제 특
-인간 관계를 중요시 생각해서 싸우거나 불편한 상황을 보지 못함.
-중재자 역할은 하고 싶지 않은데, 불편한 상황을 싫어하다보니 어느새 중재 역할을 하고 있음. (근데 이것도 남을 위한게 아니고 순전히 나를 위함.)
-집순이 경향 많음. (밖에 나가면 신경써야할게 많으니까 걍 피곤해서 집에 있는 경우 많음.)
-인싸되고 싶지 않은데 어느새 인싸가 됌. (어색한 걸 싫어해서 주변 사람들과 말 많이 하다보니 자연스레 모임의 중심이 됌.)
-그렇다고 엄청 인싸는 아님.. 분위기를 잘 읽고 상대방을 공감해주며 적당히 치고 빠지다보니 많이들 좋아해줌.
-하지만 이러한 노력에도 나랑 안 맞는 친구랑은 바로 손절침. (내 에너지를 낭비하고 싶지 않기 때문.)
-엣프제는 특히나 사람을 잘 보는 듯 함. 처음 보는 사람이라도 그 사람이 하는 말투, 행동 등만 봐도 나랑 잘 맞을지 안 맞을지 구별 가능.
-리액션 봇임. 별거 아닌거에도 박수 많이 침. (사소한 얘기에도 공감을 잘 하며 상대방이 무안하지 않게 편안한 분위기를 만드려고 함.)
-단점 : 내 에너지를 많이 쓴다. 고로 나는 집순이가 될수 밖에 없음. (나를 지키기 위해.. ㅋㅋ)
-우유부단함.(결정장애) 살짝 오지라퍼 될수 있으니 주의해야 함.(너무 깊게 공감하다보면 쓸데 없는 것을 걱정하게 됌.)
-연애 : 나와 반대인 사람에게 끌림.(결정 잘하고 휘둘리지 않는 성격 선호)</t>
-  </si>
-  <si>
-    <t>엣프제랑 사귀는 잇프피인데 엣프제 너무 귀여워……️️️ 다들 행복하세요</t>
-  </si>
-  <si>
-    <t>잇프핀데 엣프제 분들 너무 사랑해요..♡</t>
-  </si>
-  <si>
-    <t>4:56  킹받으면서 넘나
-귀엽구 사랑스러움 
-진심 감동동 일때 웃픔 넘나 행복한눙물
-ESFJ 아내(본인)   INTJ 남편</t>
-  </si>
-  <si>
-    <t>몇년간, 엥뿌삐인줄 알았던 제가
-작년부터 엣프제 나온
-순간 유미 언니 영상 보는순간
-더 와닿고 이해가가서 진짜 늘 볼때마다 소름 돋아요 진짜 제 모습을 진짜로 보는건.. 유미언니가 처음이에여ㅠㅠ 친구들이 나빼고 놀러가는거
-친구들이 싸우는거 친구의 진실을 알게된거 진짜 엣프제에게 친구란 행복 그 잡채에요 그리고 현실적이면서 차분하게 계획짜는거
-보면 전 정말 엥뿌삐인줄 알았는데 검사 끝나고 결과가 엣프제니까 흔한? 엠비티아이는 아니라고 하더라구요(?) 그래도 늘 엣프제 영상은 늘 항상 공감하면서 봅니닼ㅋㅋㅋ
-심지어 옷도 저렇게
-입어서 소름돋았어욬ㅋ</t>
-  </si>
-  <si>
-    <t>강유미님 대단하네요 mbti 모든 성향 파악 제대로 하고 연기 하시는게.....</t>
-  </si>
-  <si>
-    <t>와 소름돋넼ㅋㅋㅋㅋㅋ주변 esfj 한명 있는데 모자에 머리스타일에 말투, 행동, 표정 다 똑같음ㅋㅋㅋㅋㅋㅋㅋㅋ음식 해주고 뭐 나눠주는것까지ㅋㅋㅋ대박이다....</t>
-  </si>
-  <si>
-    <t>성격 젤 좋은 mbti 같다</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋ 아 취미부자에서 취미재벌이 됐다는 말에 ㅋㅋ 저도 팬데믹동안 수세미 뜨고. 가방뜨고. 피아노연습하고 배드민턴하고 악세사리 만들구 그랬던게 완전 동감이네요 ㅎㅎㅎ ㅋㅋㅋ 이 영상 넘 제 모습을 보는 것 같네요.</t>
-  </si>
-  <si>
-    <t>2:55 너무 내 모습 내 멘트랑 똑같아서 소오름…🫢</t>
-  </si>
-  <si>
-    <t>핰ㅋㅋㅋ 넘 귀엽다 엠비티아이중에 가장 속으로만 하는 생각이 없는 유형인듯 ㅋㅋ</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋ 와 대단하네요 에너지가 많은가봐요. 온갖 신경 다 씀 ^^ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>엔프제 입장에서 엣프제는 진짜 최고의 친구들 같음ㅜㅜㅜ 공감 잘해주고 말 잘통하고 마음 따숩고 도덕적인 사랑둥이들</t>
-  </si>
-  <si>
-    <t>내동생 보는 줄 ㅋㅋㅋㅋㅋㅋ
-이것저것 그지 같은거 잘만드는거 똑같네
-니트 짜는거 ㅋㅋㅋㅋ 겁나 똑같 ㅋㅋㅋ
-거지같은 실찾는 얘기도 똑같앜ㅋㅋ
-징그럽다 진짜 밥맛 떨어져 ㅋㅋㅋ
-난 intj 인데 내동생 하는짓 다 싫음 ㅋㅋㅋ
-내동생 모든 음식을 일식 처럼 달게해서
-토나오는데…미쳤다 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>안녕하세요 intp인데 정반대 성향 궁금해서 와봤습니다... 사회화 잘된 인팁이라 생각하고 살았는데 영상보고 난 역시 아직 인간인척하는 기계구나 싶어짐.</t>
-  </si>
-  <si>
-    <t>진짜 매력적이다 ESFJ</t>
-  </si>
-  <si>
-    <t>Esfj 친구 만날 때 첫만남 딱 저럼 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅌㅋㅋㅋ 개소름</t>
-  </si>
-  <si>
-    <t>이거 섬넬 저만 너무 귀엽나요?ㅋㅋㅋㅋㅋ표정ㅋㅋㅋ넘 귀요미</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋ 넌 언제끝나? 넌? 
-난 상관없어 ㅋㅋㅋㅋㅋ 나보는줄</t>
-  </si>
-  <si>
-    <t>ESFJ인 걸 오늘 알고 몇 개 찾아 보다 여기 왔는데..
-댓글들이 너무 나랑 비슷해서 ㅋ
-아, 나만 그런 게 아니라 요 유형의 사람들이 다 비슷하구나 싶어서 재밌기도 하고 안심되기도 하네요.
-초등학교 때 전학간 첫날이 반장선거날이었는데 반장이 되서 집에 가면서 애들이 왜 날 찍었지?하고 스스로도 이해 안 되었고
-어른되서도 문화센터나 취미로 뭔 클래스 듣거나 직장 내에서도 꼭 친목모임 총무, 심지어 외국나가 ESL 반에서도 돈 걷어 선물사고 주소록 만들어 돌리고 하는 일 나더러 하라고 함.
-솔직히 늘 그래오니까 이젠 어딜 가서 그런 거 뽑을 때 그냥 먼저 ‘총무 제가 할께요’ 하고 맙니다 ㅋ
-스스로도 내가 총무처럼 생겼나, 왜 어딜가나 날 잘 모르는 사람들이 날 꼭 총무로 뽑지?, 거절을 내가 못 해서 그런가 생각해 본 적도 있어요. 
-사실 거절도 잘 안하는게 사실인데 이유가 그게 하고 싶어서가 아니라, 돈 걷고 쓰고 기록하고 모임있을 때 준비하고 연락하는 귀찮은 일이라 남들 안 하려 하니까 그냥 내가 하자 하는 마음이 커요. 
-그리고 이것 저것 다 만들고 잡기 배우러 다니는 것도 ESFJ 특징이라는 게 너무 웃기고 재미있어요.
-정말 온갖 잡기는 다 배우러 다니고 혼자 유튜브 보고 배우고 했는데 ㅋ
-리본, 비누, 화장품, 선물포장, 뜨개, 비즈, 제과, 제빵, 떡, 커피, 냅킨 공예, 꽃꽂이, 재봉, 심지어 술, 된장, 간장, 고추장까지… 
-뭐 하나 특히 잘 하는 건 없고 직업으로 하는 것도 아닌데 그냥 시간나면 심심풀이로 배우러 다니고 만드는 것 같아요. 그래서 남들 다 한 두 개씩 주고.
-나도 왜 그러는지 몰랐던 일들의 이유가 한번에 풀려서 속이 다 시원하네요.
-그냥 이 유형의 사람들이 그런 거네요 ㅋ</t>
-  </si>
-  <si>
-    <t>전 인프피에 부모님 두분다 이 유형이신데 말투부터 행동까지 완전 똑같아욬ㅋㅋㅋㅋㅋ만나면 일단 포옹부터하는게 저희가족 룰이예욬ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저 이영상을 마지막으로 mbti과몰입 끝내려했거든요 원래 안그랬는데 갑자기 제 mbti가 별로인거같아서 다 관두려했는데
-여기 댓글에 써진 특징들과 다같은 엣프제들의 댓을 보니 갑자기 또 좋아지네요 ㅠㅋㅋㅋㅋㅋ 엣프제 최고 </t>
-  </si>
-  <si>
-    <t>인팁인데 ptsd오네요 기빨려ㅜㅡ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오~~ 나 I 아닌가? 라고 생각하는게 esfj의 특징이었다니 ㅠㅠ 그것은 바로나..... 
-손절이야기가 나와서 말인데.. 
-섭섭한거 있으면 잘 말 못하고.. 속으로 담아두고. 카운트 하다가 여러번 쌓이면 손절 ㄱㄱ.. 하지만 손절당한사람은 눈치못채게 나만혼자 손절하고. 그 사람한테 다른 기대 일절안함. 마음의 문 닫음... 
-이것도 저만그런거 아니고 다들 그러신가요 </t>
-  </si>
-  <si>
-    <t>많은 엣프제들 여기 댓 읽고서 왕공감하면서도 막상 댓쓰기보단 공감되는 댓 써준 다른 엣프제에게 고마워하며 열심히 좋아요 누르고 있죠?ㅋㅋㅋㅋ 그러고 있던 엣프제 씀</t>
-  </si>
-  <si>
-    <t>진짜..다 필요없고 내 행동 하나하나 눈치보는거..</t>
-  </si>
-  <si>
-    <t>ESFJ : 음 맞어맞어, 핵공감   
-어쩜이리 비슷하지다들?  계속 끝까지읽느라 시간다감..ㅋㅋㅋ 댓글 쓰는것도 엄청 조심스럽고 귀찮아하는데  어느새달고있음</t>
-  </si>
-  <si>
-    <t>아니 말투랑 ㅋㅋㅋ 제스처 없이 말 못 하는거 진심 나랑 똑같네 ㅠㅠ소름돋아 유미언니 천재다 진짜</t>
-  </si>
-  <si>
-    <t>헐 엄마가 엣프젠데 진짜 시선처리부터 리액션 하나하나 소름 돋을 정도로 똑같아요....ㅎㄷㄷ</t>
-  </si>
-  <si>
-    <t>성격 너무 좋다.....헐 ㅠㅠㅠㅠㅠㅠㅠ친구하고파</t>
-  </si>
-  <si>
-    <t>여태 isfj 잇프제인줄 알고있었는데 왜 isfj영상보다 esfj영상에서 더 공감을하고 재밌어할까요ㅋㅋㅋㅋ 나 엣프제인가?ㅋㅋㅋ 엣프제 댓글들 다 공감가네</t>
-  </si>
-  <si>
-    <t>소오름 겉모습 스타일이 딱 저에요..</t>
-  </si>
-  <si>
-    <t>엣프제 넘 조음. 한국사회가 바라는 인재상 아닐까 ㅋㅋㅋㅋㅋㅋ 지나가는 잇프피</t>
-  </si>
-  <si>
-    <t>와 ㅇㅈ... 그래서 친구들이 제가 오버 액션한다 뭐라뭐라 얘기할 때나 노래방에서 시끄럽다고 귀 막는거 너무 상처였었던 기억이 나네요,,</t>
-  </si>
-  <si>
-    <t>본인 인프피인데 내 주변은 왜 엣프제 없냐. . 엣프제 인프피 찰떡이라던데 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>주변에 나랑 같은 esfj 친구 있으면 좋겠다 ㅠㅠ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESFJ 천국이다! 씬난당 </t>
-  </si>
-  <si>
-    <t>썸네일보고 전여친이 살찌고 유튜브 찍었나 싶을 정도로 옷 톤이랑 헤어스타일까지 존똑.
-선물받고 울다가 웃는거랑 고민상담하다가 갑자기 케익 먹고 기분좋아져서 마이쪙 연발하는 것까지 다 똑같아서
-PTSD 오짐.</t>
-  </si>
-  <si>
-    <t>엣프제인데 댓글보고 넘자신감얻고갑니당ㅎㅎ</t>
-  </si>
-  <si>
-    <t>억울해 하는 게 진짜 찐이네... ㅠㅠㅠㅠㅠㅠㅠ 그러다가 마지막에 '내 친구들이 아는 거 내가 다 알아야 된다고'에서 빵터짐 ㅋㅋㅋㅋ 친구한테 유툽/인스타그램에서 뭐 보냐고 물어봄 ㅋㅋ</t>
-  </si>
-  <si>
-    <t>엣프제 너무좋아 내가 좋아하는 사람들 다 엣프제</t>
-  </si>
-  <si>
-    <t>Esfj 넘 좋아용 ㅋㅋㅋ 분위기 메이커에 사랑스러움</t>
-  </si>
-  <si>
-    <t>와아 mbti 검사해보고 여기저기 찾아봤는데 다 나랑 똑같아서 신기하네요ㅎㅎ 강유미님 영상도 똑같아서 웃겼 ^^</t>
-  </si>
-  <si>
-    <t>남들 신경 많이 쓰지 말고.. 인간관계에 상처받지 말자!!! 나보다 짱인 사람 없다!!</t>
-  </si>
-  <si>
-    <t>아 말투까지 비슷해서 진짜 킹받아요...️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이거보고 알았어요. 아 나 엣프제였구나 ㅋㅋㅋ
-어릴땐 잇티제나와서 아무리봐도 나랑은 많이 달랐는데 이제야 찾은 나 
-친하든 안친하든 남이 하는 고민듣고 공감해주다가 정작 내 약속 늦는 거 혹시 이것도 엣프제인가여 ㅋㅋㅋ
-취미부자에 여행계획세우는거랑 넓고 깊은듯 얕은듯한 인간관계까지  너무 딱이에여 </t>
-  </si>
-  <si>
-    <t>와... 진짜 진짜 진짜 너무 소름이예요... 와 진짜 제 엄마랑 정말 정말 똑같애요!!!!!!!!!!!!! 진짜 미세한 리액션이랑 표정 하나까지 다 똑같애!!!!!!!!! 오마이갓.. 난 진짜 우리 엄마 같은 사람 이 세상에 하나뿐인  줄 알았는데... 강유미님...... 제 엄마랑 혹시 만난 적 있으세요? 와..... 진짜 계속 입가리고 봤어요... 진짜.. 와............. 너무 너무 너무 소름이다 진짜...... 와.. 아직도 안 가시네 소름이..... 와........어떡해... 진짜 충격이다....
-.... 아니 진짜 속상한 일 있으면 진짜 하루 종일 울고 괴로워하시다가 맛있는 거 배달시켜서 먹고 나 이제 기분 좋아졌어.. 하.. 이제 그런 사람이랑 거리를 둬야 될 것 같애... 하는 거랑
-여행 계획 짤 때 누구는 뭐하고 누구는 뭐하고 딱딱딱 정하는 거랑.... 제일 소름인게 핸드폰으로 뭐 검색할 때 입모양으로 읊으면서 검색하는 거 그 부분 말투랑 표정 진짜 너무 똑같애요..
-진짜 영상이랑 99.9% 똑같아요... 어떡해ㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>아 영희랑 어긋날때 내 심장도 같이 뛰어 어떡해</t>
-  </si>
-  <si>
-    <t>지나가던 인팁인데 나랑 정반대 어떤지 궁금해서 들어와봄 엣프제 성격너무 좋다ㅋㅋㅋ 부러워 엣프제 리액션 외워두고 따라해서 사회화된 인팁이되겠음</t>
-  </si>
-  <si>
-    <t>마지막 유튜브 알고리즘보는 부분잌ㅋㅋㅋㅋㅋㅋㅋㅋ진짜 개공감,,
-- 댓글 안달려던 엣프제</t>
-  </si>
-  <si>
-    <t>왠지 개귀차니즘 끝판왕 isfp는 제일 마지막에나올거같아욬ㅋㅋㅋㅋㅋ닥쳐서하는스타일</t>
-  </si>
-  <si>
-    <t>드디어 내 엠비티아이구만 너무 오래 기다렸더ㅏㅏㅏㅏㅏㅏㅏ 히히ㅣ힣</t>
-  </si>
-  <si>
-    <t>정반대INTP이에욬 옛날에 같이 검사햇던 친구가엣프제나와서 어떻게 하.나.도.안겹치는데 우리가친구지? 근데 원래도 서로 너무다른 스타일이란걸 알아서 그래 넌 원래 그렇잖아. 그렇게지내다보니 한차례의 다툼도없이 벌써십수년이지났습니다. 물과기름같지만 그렇게계속붙어서말이죠.</t>
-  </si>
-  <si>
-    <t>사실 나말곤 관심 없었는데 궁합보고 신기해서 계속 보는 중입시다 맞을리도 없는 엠비티아이 보고 재밌어하기</t>
-  </si>
-  <si>
-    <t>헐 집에 있으면서도 이것저것 강의듣고 뭐 만들고 하는거 엣프제 특이에요?? 공감</t>
-  </si>
-  <si>
-    <t>엣프제 특
-1.툭 누르면 툭 하고 움
-2.사람을 개좋아함
-3.다재다능 오짐
-4.감정기복 개오짐
-5.싫어하는 사람 분명함
-6.고민상담 개잘해</t>
-  </si>
-  <si>
-    <t>아진짜 소름돋아....ㅠㅠㅠㅠ완전 내가 칭구만나는 너낌이자나ㅠㅠㅠ 친구들 만나면 뭐 주는 것도...</t>
-  </si>
-  <si>
-    <t>여기서 esfj좋다고 와 너무 좋은성격이야 인싸지 눈치빠르지 근데 공감잘해주지 라고 막 esfj 예찬하는사람들 제가볼 때 진짜 찐친 esfj가 없는사람들이라고 말해주고 싶음 ㅋㅋㅋ
-esfj를 까는게 아니라 esfj를 만능으로 추종하는 그런 사람들을 까는글이라고 해야겠음
-일단 가족2명 사촌 esfj , 친구 esfj 가 다있는 입장으로서...
-피곤함....
-인싸력이 있어서 훅들어오는데 은근 현실주의라 
-잔소리 밥먹듯이하고 여기서 esfj추종자들이 esfj가 공감을 잘해준다고 하는데 공감은 잘하는데 그걸 받아주지는 절~~~대 아님...
-이게 더큰 문제같음.... 사실 문제는 아닌ㄴ데 징징이들 여기서 먼가 이상함느낄거임 (사실나도 징징이라 하는말임)
-애초에 estj entj 이런사람들은 처음부터 징징이 안먹혀서 공감얻을생각도 안하고 선그엇을텐데
-esfj는 일단 잘들어는 줘서 자기도모르게 징징수치가 일정수준을 돌파함.... 거기서 esfj는 자기같으면 절대그렇게 안할거같아서 끝까지 듣게되고 현실 팩폭으로 영혼까지 털릴 수 있음...
-참고로 그럼에도 esfj가 말도안되는 공감을 해주고 있다면 그건 esfj가아니라 당신이 문제일거임 당신이 거기서 공감안해주면 싸움나는  x랄맞은 성격이기 때문일거임~ 
-아무튼 주변에 너무 가까운?esfj가 많아서 환상갖지 말라는 esfj에게 배운 현실로 하는공격임 ㅎㅎ</t>
-  </si>
-  <si>
-    <t>강유미 울때 눈물 찔끔..^^ㅠㅠ... 소외감 넘 싫음..</t>
-  </si>
-  <si>
-    <t>영상 너무 재밌어요! 근데 보다보니 계속 짜증나는게 난 ㄹㅇ 파워istp이구나</t>
-  </si>
-  <si>
-    <t>ESFJ인 사람으로써 진짜 궁금해서 그러는데 다른 유형 MBTI는 자기 빼고 놀아도 안서운 한가요 ? 저는 정말 그것만큼 서운하고 눈물나는게 없어서 하루종일 그 생각만 나요…. 내가 뭘 잘못했나 ….?  나한테는 왜 말 안해주지 ㅠㅠ 이런 생각 그래서 어럈을때 친구들이랑 많이 다퉈서 이제는 겉으로는 괜찮은 척 하고 속으로 넘 섭섭해해요 ㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>??! 너무 내얘기.... 뭐만들어서 다 나눠주고 취미겁나많고 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>아니, 진짜 저 같아서 소름돋아요 ㅋㅋㅋ ㅜㅜ</t>
-  </si>
-  <si>
-    <t>소름  ESFJ사람들은 다 비슷비슷 하다는것을 다시한번 느낌</t>
-  </si>
-  <si>
-    <t>아 ㅋㅋ유미님ㅋㅋㅋ진짜 천상
-연예인</t>
-  </si>
-  <si>
-    <t>엣프제는 보고 소름돋고 갑니다...!</t>
-  </si>
-  <si>
-    <t>나는 인팁이고 남친이 엣프제인데 항상 뭔가 안타까움..
-나도 나름의 최선을 다하는데 남자친구가 늘 뭔가 땀흘려함..미안해..</t>
-  </si>
-  <si>
-    <t>친구가 몇명이예요 ㅋㅋ 에코백 나눠줄때 보니 한 10명은 되겠는데여 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ESFJ도 직장인버전 뽑아주세요옹️️️️</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅋ걸스데이 혜리 esfj인데 혜리랑 똑같은것같아요 진짜ㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>댓글부터가 긍정에너지뿜뿜이네 엣프제♡</t>
-  </si>
-  <si>
-    <t>남자 버전도 해주면 안됩니깡 ㅋㅋㅋㅋㅋ 여자 버전이라 이입이 어려워염 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESFJ zzzzzzzzzzㅋㅋㅋㅋㅋㅋㅋ기대에 부응해야할것같은느낌 완전 맞아여;; ㅠ </t>
-  </si>
-  <si>
-    <t>귀여운 엣프제 전 인프제인데 절친이 엣프제에요 ㅎㅎ 믿음직스럽고 사려깊고 공감도 잘해줘서 좋아요</t>
-  </si>
-  <si>
-    <t>이렇게 세심하게 디테일들을 다 잡아내시다니,, 진짜 천재,,,멋져.. 대단해.,,,♡
-엔프제 존버합니다...</t>
-  </si>
-  <si>
-    <t>ISTP인데 사람들 이랑 별로 섞이고 싶지 않은 성격탓에 사회생활하기 힘들때 ESFJ 보면서 리액션 학습합니다.</t>
-  </si>
-  <si>
-    <t>서비스가 진짜 핵공감이네여ㅋㅋ 언니 자주 놀러올게여ㅋㅋ</t>
-  </si>
-  <si>
-    <t>맨날 보러와야지..엣프제 화이팅...!</t>
-  </si>
-  <si>
-    <t>13:28 아 개웃곀ㅋㅋㅋㅋㅋㅋㅋㅋ 이거 본인이잖아욬ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 영희가 유미였다니ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>동생이 esfj인데 비슷한 분위기라 신기해요 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESFJ 만만세 </t>
-  </si>
-  <si>
-    <t>인사할때부터 어제만난 엣프제 친구랑 같아서 그냥 서름...</t>
-  </si>
-  <si>
-    <t>귀여웤ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>╥﹏╥ 너무 귀엽당..</t>
-  </si>
-  <si>
-    <t>삐졌다가 우는 거 너무 귀엽다…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">최애 MBTI ESFJ </t>
-  </si>
-  <si>
-    <t>성격 넘 조으시당ㅜ! 저는 다시 죽엇다 깨어나야 가능할 텐션ㅎ</t>
-  </si>
-  <si>
-    <t>ISFP....들락날락...</t>
-  </si>
-  <si>
-    <t>엣프제 생각보다 눈치 빠름.. 진짜 없을때도 있기는 한데 눈치 없는 척 할때 꽤 있는 것 같음 (본인 엣프제)</t>
-  </si>
-  <si>
-    <t>댓글로 ESFJ 뭐 때문에 손절했다 이거 자체도 남까는거 아닌지?ㅋㅋㅋㅋㅋㅋㅋ 본인들은 남을 안 까고 다닌다고 착각하시는듯.. 그런거 애초에 싫어하는 사람들은 그런 댓글 조차도 안 달고 남들한테 얘기도 안 하고 혼자 조용히 손절했겠죠 ㅋㅋㅋㅋ 본인들부터가 일단 뒷담, 앞담 좋아하시는 것 같네요~ 내로남불</t>
-  </si>
-  <si>
-    <t>미쳤나봐 나 mbti인가 먼가 안믿는데;;;:ㅋㅋㅋㅋㅋ  개소름돋았잖아요...뭐야 믿어져...
-그럼 어쩔수없지
-그럴수도있지
-그래 보통그러지않나?~~~
-구독할래 ,,, 좋아요 다 눌러야지,,,
-카메라 다 가꾸와;;;
-말할때마다 잉 힝 하는거
-친한친구면 아아아앙아~ㅠㅠㅠ하는거 ㅋ
-친구 남자친구 얘기할때 친구들 싸울때 너무공감ㅋㅋㅋㅋㅋㅋㅋ 근데 막상 내 말이 맞다 ㅎ 그냥 니넨 공감하고 지적하디만~싸우면 제대로 기 쌉 죽이러 달려드는 서타일,,,
-킹받고 갑니다.</t>
-  </si>
-  <si>
-    <t>호오...entp인데 역량검사로 esfj로 나와야해서 성격 분석 중인데 저랑 진짜 반대라서 신기해요...</t>
-  </si>
-  <si>
-    <t>아놔...ㅜㅜ내모습이지만 보면서 피곤하네요. 근데 또 어쩔수 이렇게 사는 나..ㅋㅋㅋㅋ를 깨닫네요</t>
-  </si>
-  <si>
-    <t>취미부자 공감 못하다갘ㅋㅋㅋㅋㅋㅋ 생각해보니 취미로 타로 배우고 언어배우고 운동배우고 근데 오래 못가요ㅠㅋ</t>
-  </si>
-  <si>
-    <t>중간에 세상무너지는거 개웃기네ㅠㅠㅜㅜ</t>
-  </si>
-  <si>
-    <t>엔프제인데… 엔프제는 유미님 강요하고 싶지 않아서… 그리구 엔프제가 수가 적으니까 영상 수요가 적을걸 이해해서 얌전히 기다리구 있어욥… ㅎㅎ</t>
-  </si>
-  <si>
-    <t>ESFJ 상사를 둔 INFP 신입이에요.. ESFJ분들이랑 일적으로 잘 지내려면 어떻게해야하죠
-너무 숨막혀요ㅠㅠ
-울 상사분 이 영상 보니 더더 ESFJ 맞는거같아요
-사람들이랑 말하는게 자연스럽고, 또 그걸 좋아해서 극인싸인데
-F라 세심해서 다른 사람들이 원하는걸 챡챡 잘 챙겨주는...
-근데 이러한 이슈들을 일로 얽히게 되는 전 너무 어려워요
-INFP인 저는 개인적으로 일하고 싶고, 나 자신을 드러내는게 어려운 사람인데
-ESFJ인 상사는 자꾸 제 업무적인 의견이나 개인적인 생각을 물어봐요
-근데 또 ESFJ라 제가 내는 생각이 자기의 높은 (사회적&amp;현실적)기준에는 안맞기 때문에, 
-"니 의견에는 ~~~~한 헛점이있어. 왜 이걸 고려 못해?? 좀만 생각해보면 알 수 있는거 아냐?" 이런 식으로 돌아오니까
-저는 더더 말을 안하게 돼요
-사람들과 소통이 숨쉬듯 자연스러운 ESFJ의 사회적/전통적 기준과,
-나름대로의 세상이 확고한 INFP인 저의 소통력은 하늘과 땅 차이거든요..
-그걸가지고 "넌 왜이렇게 센스가 없어"라는 식으로 말할 때 마다 너무 주눅들어요
-또 전 저를 다른 사람(특히 안전하지도 않은 직장 사람)한테 드러내는 것 자체가 어려운 사람인데
-ESFJ 상사를 겪으면 겪을수록 더 믿을만한 사람은 못 된다는 걸 느끼거든요
-ESFJ가 사회적으로 인싸고, 다른 사람이랑 상호작용도 활발히 하는데다가, 센스도 좋지만
-그 이면에서 다른 사람을 계속 판단하고, 뒷담화도 많이 하거든요
-앞에서 다른 사람 실컷 도와줘놓고, 뒤에선 "어휴 걔는 왜 이렇게 인생 어렵게 사냐...걔도 참ㅉㅉㅉ" 이렇게 혀를 차더라구요
-INFP 입장에서는 '아, 이 사람은 겉과 속이 다른, 못 믿을만한 사람이구나'라는 생각이 들거든요
-초반엔 둘이 서로의 단점을 보완해줄 환상의 짝꿍이라 생각했는데 갈수록 서로가 답답해지기만하는 조합이에요..</t>
-  </si>
-  <si>
-    <t>사업하는 언니엿는데 진짜 이 유형인가봐 다 퍼지고 큰손이여는데 맘도따뜻</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유미님 영상도 공감가지만… 댓글이 완전완전 공감갑니다 ㅎㅎㅎ 제 얘기인줄 ㅎㅎ </t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅋ 나 ESFJ인데 며칠전에 친구들 목도리 3개 만들어줬는데 소름 ㅋㅋㅋㅋㅋ 
-집에서 미니어처 집도 만들고 뜨개질하고 그러는데 ㅋㅋㅋㅋ 타로도 배워사 하고 ㅋㅋㅋ 미쳐</t>
-  </si>
-  <si>
-    <t>이게 뭐라고 눈물이나고 같이 웃고 너무 나같아서 소름</t>
-  </si>
-  <si>
-    <t>만나는 사람이 esfj라 탐구하려고 왔는데 다른 세계 행성에 도착한것 같아 기빨리고 갑니다. -지나가던 estp</t>
-  </si>
-  <si>
-    <t>진짜 내 자신과 대화하는 줄 알았어요~~!!</t>
-  </si>
-  <si>
-    <t>초반에 나 보는줄 알았어요 진짜!!!!!!!!엣프제 특징 1도 없는데 그걸 또 잘잡으셨네</t>
-  </si>
-  <si>
-    <t>아 intp인데 스트레스받아여ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>나 저모자 있는데.. 나도 맨날 상추 키웠다 파 키웠다 빵 구웠다 뜨게질 했다 취미생활 너무 많은데.. 친구들이 나 빼고 모여 커피 라도 마시면 억장 무너짐 난리남..</t>
-  </si>
-  <si>
-    <t>와 이런 모두를 통제하는 이느낌!!!!!!!!!!</t>
-  </si>
-  <si>
-    <t>취미부자ㅋㅋ미치겐눼..... ..만든거선물ㅋㄱㄱㅋㅋㅋㅋ나냐곸ㅋㅋㅋㅋ
-나빼고 놀러간거 아는순간 그 담부터 얘기안들림... .ㅋㅋ그리고선물받으면 졸라 움...감동.미안함. 서러움. 자괴감.고마움ㅋㅋㄱㄱㅋㄱㄱㅋㄱㄱ</t>
-  </si>
-  <si>
-    <t>그저 소름입니다.. 저 자신을 돌아봤어요ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>아 ㅅㅂㅋㅋ애기강아지마냥 끙끙대는거 시발 ㅋㅋㅋㅋㅋㅈㄴ 웃기네
-나잖아..?</t>
-  </si>
-  <si>
-    <t>느낌 뭔지 알지? 이거 ㄹㅇ이다..</t>
-  </si>
-  <si>
-    <t>이 유형 은근히 사람 까는 거 잘해서 오히려 내가 손절함</t>
-  </si>
-  <si>
-    <t>5:40
-선물 열어볼때 정말 저래요? ㅠㅠ 으으..</t>
-  </si>
-  <si>
-    <t>나 intp인데 진짜 보는 내내 “뭐지?” “왜이러지?” “이거찐텐인가?” 이생각만 함.. 너무 신기해요ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>진짜 거울을 보는 듯한 느낌…</t>
-  </si>
-  <si>
-    <t>? 제 일상 훔쳐보신건가요? 진자 와 보는동안 하는 말이랑 제스쳐 개똑같아요 진짜 와 대박 미ㅕ쳣나봐 언니 진짜 개천재 ....</t>
-  </si>
-  <si>
-    <t>지나가던 인팁인데 ㄹㅇ보는 내내 신기했어요</t>
-  </si>
-  <si>
-    <t>미띤 인팁인데 영상만봐도 기빨리네</t>
-  </si>
-  <si>
-    <t>Estj 언제 나와요 언니?.. 현기증 나요… 매일 새로고침 하고있는데 대체 언제…️️️️</t>
-  </si>
-  <si>
-    <t>3:22 갑분파이리 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>최근에 회사 후임으로 왔는데 열심히 하고 진정성 있고 좋더라구요!! 안 좋아할 수 없는 유형 같아요 ㅎㅎ</t>
-  </si>
-  <si>
-    <t>매우 비슷하다.. 나도 엣프제인데 너무 비슷해</t>
-  </si>
-  <si>
-    <t>엔프제…기다린다구요.. 현기증</t>
-  </si>
-  <si>
-    <t>ENFJ 도 해주세요!!! 제바알</t>
-  </si>
-  <si>
-    <t>3:15 마지막 파이리ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㄱㅋㅋㅌㅋ  내 귀를 의심했다</t>
-  </si>
-  <si>
-    <t>친구들 mbti 좀 더 알고싶어서 보는 중인데
-Esfjㅋㅋㅋㅋ친구네 강아지 이름도 토리인데,,,,,
-너무 웃기다,, 언니 isfp가 마지막인가요?! 피날레를 장식하는거 같아서 은근 기분 좋은 잇프피  댓글남기고 갑니다 총총</t>
-  </si>
-  <si>
-    <t>남편이 엔팁인데 이거 보여줬더니 어딜감히 내유형을 연기해 라네요...</t>
-  </si>
-  <si>
-    <t>정반대 인팁인데 엣프제는 단점이 있긴 한가요? 진짜 닮고 싶음! 넘 조음...♡</t>
-  </si>
-  <si>
-    <t>뒤에 무너지는 cg 놀램 ㅋㅋㄱㅋㄱㅋ</t>
-  </si>
-  <si>
-    <t>으앙ㅋㅋㅋㅋㅋㅋ 진짜 너무 저랑 똑같아서 계속 빵빵 터졌어요ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>아진짜 ㅋ 넘우껴  특히 빼고 놀러간거알고 멘붕온거</t>
-  </si>
-  <si>
-    <t>엣프제 건드리지마라 안건드리면 쭉~천사♡</t>
-  </si>
-  <si>
-    <t>ENTP 임다 호감가는 사람이 ESFJ라고 해서 들어와봤슴다 
-가끔 보이는 광기까지 비슷하군요ㅋㅋ</t>
-  </si>
-  <si>
-    <t>제일 되고싶은 유형..</t>
-  </si>
-  <si>
-    <t>저는 infj 인데 어머니가 esfj여서 넘 좋아요!  항상 격려해주시고 배려해주시고 제가 생각이 많아서 이런저런고민 말하면 정리해서 해결방안을 플랜1,2 로 만들어주세요 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>귀여워요,,</t>
-  </si>
-  <si>
-    <t>ㅎㅎㅎㅎㅎㅎ와.. 마지막 서비스부분 소름.. 내 머릿속 들어갔다가 나온 줄 ㅎㅎㅎㅎ</t>
-  </si>
-  <si>
-    <t>혹시 esfj분들중 영업직 종사하시는분 계신가여? 본인이랑 맞으신가요? 내근직 너무 지루해서 영업직 도전해볼려는데 잘할 자신은없지만 최소한 못하진 않을거같거든여 타고난 친화력때문에 ㅎㅎ</t>
-  </si>
-  <si>
-    <t>담배드립에서 못받고 아니라고 하는것도 완전 엣프제</t>
-  </si>
-  <si>
-    <t>저러다가 집에서는 가마니처럼 가마니 있어야함 ㅋㅋ 충전이 가끔필요함</t>
-  </si>
-  <si>
-    <t>나는 세상에서 젤 싫은게 소외감임 진짜 제발 살려주라 .. 진짜 너무싫다</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋ 댓글 젤 적은 엣프제..</t>
-  </si>
-  <si>
-    <t>난 인프피인데 엣프제 오빠가 있는 난 너무 행복해 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>아 취미 헐 어찌 아셧지 ㅡ 만들어서 다 줘버림</t>
-  </si>
-  <si>
-    <t>너무 똑같아섴ㅋㅋㅋㅋㅋㅋ소름돋아요</t>
-  </si>
-  <si>
-    <t>ESFJ 남자친구에 대한 생각 (본인 INTJ)
-: 따뜻함이 넘쳐흘러서 진국이다.
-웃는 얼굴이 이미 사람 좋아 보인다.
-감정적이다. 다혈질이다.(보통 화 잘 안내는데, 얘가 화났을 경우 100% 내 잘못이다.)
-짖궃은 농담을 해도 다 받아준다. (마상이 누적됨.)
-이성으로 움직이지 않는다.
-가족을 소중히 여긴다.
-잘 운다. (특히 가족, 친척과 관련된 일.)
-지식이 없고 머리를 잘 안 쓴다. 몸으로 때운다.
-그러나 눈치가 빠르고 일머리가 있다.
-음식을 좋아한다.
-직장에서 잘 맞춰준다.
-자기 주장을 기피한다.
-동성에게 인기가 많다.
-다쳤을때 괜찮아?라고 말해주길 원하고, 아니면 삐친다.</t>
-  </si>
-  <si>
-    <t>엣프제는 여기에 있는 댓글로 힐링을 하기도 합니다....^^     -엣프제</t>
-  </si>
-  <si>
-    <t>2:59 소름이야 𐨛 𐌅 ࠅ ヲ ㅋ꙼̈ 𐨛 𐌅 ࠅ ヲ ㅋ꙼̈ 𐨛 𐌅 ࠅ ヲㅋ  ㅋ꙼̈ 𐨛 𐌅 ࠅ ヲ 𐨛 𐌅 ࠅ ヲ 나도 저러는뎈ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>개친한언니 딱저렇게생김ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ아니생긴건아닌데 스타일이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ반지하며 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>귀여우셔</t>
-  </si>
-  <si>
-    <t>11:15 나? 갑자기? 이거완전 나랑 똑닮 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>자연스럽게 이거는 파이리 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>나는 이런친구 사랑함 나랑 반대인 것 같아서 ㅎㅎ</t>
-  </si>
-  <si>
-    <t>나도 굳이 겁나 많이 하는뎈ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 굳이........? 넘나리 신기한것</t>
-  </si>
-  <si>
-    <t>팩폭을 잘하시네여 제가 엣프제여서..(•ㅅ•)</t>
-  </si>
-  <si>
-    <t>나랑 엠비티아이 정반대는 정말 성격도 정반대가 맞앗다.... 신기해</t>
-  </si>
-  <si>
-    <t>엣티제는 빛좋은 개살구 그 자체임 .. 특히 애인으로는 진짜 별로 입니다.</t>
-  </si>
-  <si>
-    <t>Entj인데 F들어가는 mbti들을 이해하고 싶어서 억지로 다보고 있어요. 확실히 공감이 되지 않네요.^^;;</t>
-  </si>
-  <si>
-    <t>머해주는가좋아함. 인간은 나누는거지 내가 다갖고살면 머하나위주긴해.</t>
-  </si>
-  <si>
-    <t>저 머리길이에..저 모자 있다규....</t>
-  </si>
-  <si>
-    <t>나 esfj인데 칼단발 10년째인데 개소름 돋는다</t>
-  </si>
-  <si>
-    <t>13:28 이거 유미님 얘기자나욬ㅋㅌㅋㅋㅌㅌㅋㅋㅋㅋㅋㅋㅋㅋㅋㅌㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 혼자 딴데 가고 있어서 어디가? 했더니 난 돈까스 먹을래 하며 유유히 갔다던ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>외모부터 무슨일이야... 저모자 저모자 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>엣프제님들,, 엣프제 꼬시는 법 좀 알려주세요,, 참고로 제가 짝사랑하는 분이 남자인데 인스타로 팔로우 걸어서 먼저 말 거는 거 안 불편해하나요? 어떻게 해야 그 사람이 저를 이성으로 좀 관심잇게  생각하나요? 단순히 친구로 아는 동생느낌으로 생각하는 거랑 썸녀로 생각하는 거랑 어떤 차이가 있나요? 참고로 저는 estp인데 엣프제 짝사랑하는데 어떻게 해야 썸에서 연인까지 가나요? 저 아직 아무 시도도 안해봣어요ㅠ 일단 꼬시게 계획을 짜려구여</t>
-  </si>
-  <si>
-    <t>우리 엄마 esfj인데 성격 좋음 인싸재질</t>
-  </si>
-  <si>
-    <t>나 훔쳐보고 가신 것 같네… ㅋㅋ</t>
-  </si>
-  <si>
-    <t>로보트 팀장닙 ㅋㅋㅋㅋ 떠오르는 엠비티아이.....</t>
-  </si>
-  <si>
-    <t>개웃겨 완전 나 잖아..</t>
-  </si>
-  <si>
-    <t>esfj남편, isfh아내 부부 입니다 ㅋㅋㅋ
-너무 좋아요
-esfj는 육아 할 때 아이한테도 엄청 자상합니다</t>
-  </si>
-  <si>
-    <t>엣프제여친입니다 캡모자에 깔맞춤 스포티의상 재생도 안했는데 터졌습니다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>엣프제…….. 뭐 그냥 어디를 돌아다니지 못함 왜냐? 1보 1아는 사람……….. 우리 엄마….</t>
-  </si>
-  <si>
-    <t>intp이다… 다 다르다… 엠비티아이는 과학이다..</t>
-  </si>
-  <si>
-    <t>말 한마디도 안해봤는데 진짜 엄청 좋아하게 된 사람이 esfj인데 어떻게 해야 친해지고 사귈수 있나요?? intp인데 처음으로 좋아한다는 느낌이 생긴거라 꼭 사귀고 싶어요ㅜㅜ esfj이상형이 뭔가여</t>
-  </si>
-  <si>
-    <t>9:17 엣프피 친구 옆에 있는줄 알았음...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esfj 남편 너무 힘들어요 자꾸 밖에 나가서 사람 만나고 싶어해요 외로워요 </t>
-  </si>
-  <si>
-    <t>4:01 눈물날거같아 ㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>ESFJ 성격 되게 좋닼ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>왤케 착하냐 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>앗 나네 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ미쵸</t>
-  </si>
-  <si>
-    <t>주변사람 잘 챙긴다는 소리 많이 듣지만..그만큼 눈치도 빠르고 배려하는 마음이 커서 상처도 잘받는…ㅎ</t>
-  </si>
-  <si>
-    <t>이상해보이는거 아니겠지? 격공 ㅠㅠㅠㅠㅠㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>섬네일 너무 내 ESFJ 친구네 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>3:10 웃참뭔뎈ㅋㅋㅋㅋㅋ앜ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>아 시작부터 나여서 개놀랬네 아 웃겨 ㅋㅋㅋㅋ쿠ㅜㅜㅠㅠ</t>
-  </si>
-  <si>
-    <t>저기요 돈까스혼자먹으러간거 유미님 본인 일화
- 아닙니까ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>우와~! 진짜 울언니랑 딱이다!!</t>
-  </si>
-  <si>
-    <t>엣프제가 좋아하는 말 같은 거 있나요ㅠㅠㅠ 손편지 써줄려고 하는데 엣프제분들 댓글로 좀 알려주세요ㅠㅠ</t>
-  </si>
-  <si>
-    <t>뒷담 때문에 엣프제 손절친다는 사람들 있는데 그건 뭐 그분들이랑 성향이 다르니까 그렇게 된거겠죠? 안 그러시는 분들도 있겠지만 솔직히 저도 1년전까지만해도 뒷말 하긴 했음.. 근데 손절한 사람들한테 물어보고 싶은 게 그래서 엣프제가 그사람을 억지로 까내렸나요? 뭐 말도 안되는걸로 그부분은 좀 그렇더라~ 했던가요? 제가 볼 땐 절대 아님. 엣프제는 눈치도 빠른 편이고 그 사람이랑 대화를 하다보면 그 사람의 성격같은거를 대강 알 수 있음. 가식 진심 구분 개잘함. 그래서 가식으로 나를 대하는 사람한텐 나도 가식으로 대하고 나를 진짜로 좋아해주고 생각해주면 나도 똑같이 그 사람 챙겨주고 잘하는편임(그래서 내 사람 구분 한다는거)  손절했다는 사람 보면 자기 성격가지고 뒷말한 엣프제였다거나, 본인은 사람한테 관심이 전혀 없는.. 그런 사람이겠죠? 근데 엣프제는 사람한테 관심이 많고 모두에게 친구 가능성을 열어두기때문에 친해지려고 노력하고 근데 얘기하다보면 나랑 안맞거나 성격이 좀 이기적인게 보이거나 그러면 그땐 아 안되겠다 포기하고 거리를 둠. 그리고 웃긴게 뒷말도 본인이 먼저 꺼내지도 않음. 그저 친구들이랑 얘기하다가 어쩌다 나온 그사람 얘기에 얘기를 듣다가 근데 그사람 이런면은 나랑 안맞는것같더라라고 하는거지 ㅋㅋㅋ 앞뒤가 다르다고 하는것도 뒤에서 만약에 진짜 다시는 안볼것처럼 욕했다? 근데 앞에선 웃으면서 얘기한다? 그런적은 없지 않나요? 엣프제가 그정도로 욕하는거면 그냥 손절하는거지 안그럴 사람한테는 뒷얘기 해봤자 그때 갑자기 화내더라.. 정도지 선 넘을 정도로 욕 안함; 엣프제는 그저 마음에 안드는 면이 하나있더라도 그래도 그사람 이런면은 좋으니까 그사람 자체를 이해해주자 하고 만나게 되면 만나는대로 지내는거지..  아무튼 저도 여태까지 그랬었는데 제 지인분중에 한분은 저랑 다른 성향인데 얘기가 나와서 저도 평소에 그사람에 대해 생각했던거 얘기를 하다가 아 이분은 별로 타인에게 관심이 없구나 정말 친한 사람들 생각만 하는구나 싶어서 뒷얘기 안한지 반년정도 됐습니다...... 근데 진짜 이기적인건 자기가 싫어하는 사람 얘기할땐 공감 안해주면 서운해하고 싫어하고 하다가 엣프제가 공감해주고 같이 욕해주면 신나서 더 욕하다가 자기가 관심없는 사람 얘기한다고 공감 안된다고 엣프제를 손절하는 사람 아닐지..ㅋㅋㅋㅋ 본인이 그러지는 않았는지 본인은 얼마나 착하게 사시는지 본인은 정말 살면서 남얘기를 안하고 사는지 되돌아보세요..</t>
-  </si>
-  <si>
-    <t>언니 달러구트 꿈 백화점 알아요??ㅎㅎㅎ 백화점에서 꿈 사고파는건데 언니가 asmr해줫으면 좋겟어용 ㅠ</t>
-  </si>
-  <si>
-    <t>어릴 때 사귄 남친이 엣프제였는데 그 애가 헤어지자 했고, 친구로 지내자했는데 그 뒤로 너무 어색하게 지내고있어요. 돌아보니깐 제가 너무 상처준게 많더라구요.. 사과하고싶지만 그 애한테 더 상처만 줄것같고, 애들한테 제 이야기가 안좋게 들리는 거 보니 제가 너무 그애에게 큰 잘못을 한것같아서 미안하네요.. 댓글 이천개를 거의 다 보면서 그 애가 얼마나 상처받았는지 알게됐어요
-헤어진 뒤에 엣프제분들은 어떻게 행동하거나 생각하나요?</t>
-  </si>
-  <si>
-    <t>언니 isfp도 해주세요♡</t>
-  </si>
-  <si>
-    <t>와 제가 아는 엣프제랑 진심 닮아보여요</t>
-  </si>
-  <si>
-    <t>5:10 아 졀라 기여웈ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>Estp인데 Esfj가 되고 싶어요.. tp 사회생활 넘나 힘든 것^^..</t>
-  </si>
-  <si>
-    <t>ISFP 언제 해주세여 ㅠㅜㅜ ISFP는 본인 MBTI도 관심이 없어서 그런가요? 맞아요. 저희 남편이예요.</t>
-  </si>
-  <si>
-    <t>아.. 이게 나의 이상형이란 말이지?</t>
-  </si>
-  <si>
-    <t>잠깐 놀러 온 istj인데 사람 성격이 너무 귀엽네요ㅎㅎ 동생이랑 찰떡이라 한참동안 웃었어요!</t>
-  </si>
-  <si>
-    <t>나 엣팁인데 너무착하고완벽주의라짜증나...친구도많고흑슈밤밤</t>
-  </si>
-  <si>
-    <t>근데....esfj분들은 보통 모자를 좋아하시나...?? 내가 좋아하는 esfj분들은 모자를 너무 좋아해♡</t>
-  </si>
-  <si>
-    <t>친구들 만날때 껴안는 그순간부터 난데</t>
-  </si>
-  <si>
-    <t>와 2급 땄어 표정이 너무 똑같아서 소름돋음</t>
-  </si>
-  <si>
-    <t>대웃곀ㅋㅋㅋㅋㅋㅋㅋㅋㅋ개기엽넼ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>난 언제… 엔프제 기다린다</t>
-  </si>
-  <si>
-    <t>드됴 엣프제 ♡ 알라뷰♡♡</t>
-  </si>
-  <si>
-    <t>아호 피곤해</t>
-  </si>
-  <si>
-    <t>나다!!누가 나 도촬했다!!</t>
-  </si>
-  <si>
-    <t>뭔지알지? 하는거 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ깜놀</t>
-  </si>
-  <si>
-    <t>저는 인프피인데 엣프제랑 결혼하길 잘했다 생각해요 ㅋㅋ</t>
-  </si>
-  <si>
-    <t>내가 esfj라고..? 했는데 이거보니 저 맞네여..</t>
-  </si>
-  <si>
-    <t>제가 아는 esfj랑 완전 똑같아요 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아 넘 웃기다요</t>
-  </si>
-  <si>
-    <t>Enfj언제나올지 기다리구있습니당!!</t>
-  </si>
-  <si>
-    <t>ㄹㅇ estp 여자버전 만드러주세여</t>
-  </si>
-  <si>
-    <t>앜ㅋㅋㅋㅋ그럴수있짘ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ진짜 공감이닼ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>사랑해</t>
-  </si>
-  <si>
-    <t>Esfj 왓서효</t>
-  </si>
-  <si>
-    <t>누가 나 여기 박제 해놧냐..</t>
-  </si>
-  <si>
-    <t>Esfj로서 외로움을 너무 많이 탐 ㅠ</t>
-  </si>
-  <si>
-    <t>남자인데 똑같은거 같네요 개웃김ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ나얔ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>몇번해도 엣프제 나오는 사람인데 주변에 엣프제가 없어요 원래 다들 그런가요 ?????????</t>
-  </si>
-  <si>
-    <t>언니 엣트제도 해줘ㅓㅓㅓ</t>
-  </si>
-  <si>
-    <t>얼른 엣티제 올리세요</t>
-  </si>
-  <si>
-    <t>나는 내가 엣프제라서 좋당️️️</t>
-  </si>
-  <si>
-    <t>근데 저렇게 턱 괴고 머리 만지작거리는 것도 엣프제 특징이에요? 난데</t>
-  </si>
-  <si>
-    <t>싱기해….</t>
-  </si>
-  <si>
-    <t>소오름 ㅎㅎㅎㅎ내가 한 행동들</t>
-  </si>
-  <si>
-    <t>말투랑 리액션 나랑 똑같아...........</t>
-  </si>
-  <si>
-    <t>ESFJ가 리액션 거의 없는 경우는 상대가 마음에 안들때인가요??ㅠㅠㅠ 엣프제분들 좀 도와주셍뇨ㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅋㅋ아 내 말투ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아 이런사람 있음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>엣프제 본인..개공감</t>
-  </si>
-  <si>
-    <t>나만 빼고 놀러가면 잇프피도 화 남.</t>
-  </si>
-  <si>
-    <t>내가 아는 엣프제랑 눈빛이 비슷해...</t>
-  </si>
-  <si>
-    <t>남친 ESFJ인데 INTP인 나랑 너무 잘 맞음</t>
-  </si>
-  <si>
-    <t>잇팁인데요 엣프제 있긴 있나요 친구하고 싶은 스타일인데 내 주변엔 왜 없지</t>
-  </si>
-  <si>
-    <t>정반대인 인팁이 절반보고 느낀것
-‘왜 저렇게 물어보지?’
-‘정신사나워’
-‘하 꺼야겠다 벌써 기빨려’</t>
-  </si>
-  <si>
-    <t>헐 진짜 내친구랑 완젼 또카테</t>
-  </si>
-  <si>
-    <t>만인의 로망이 ESFJ 아닐까 싶음. 다른 유형은 특정 유형이 바라는 상이라면 ESFJ는 모든 유형이 다 바라는 모습임.</t>
-  </si>
-  <si>
-    <t>내가 엣프제인지라 공감100%미쵸땨ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>와ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ나네</t>
-  </si>
-  <si>
-    <t>내가 제일 좋아하는 ESFJ♡♡</t>
-  </si>
-  <si>
-    <t>너무 똑같아서 창피할지경 ㅋㅋㅋ큐큨큐큐큐ㅠㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>와 소름이다 ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 미치겠네</t>
-  </si>
-  <si>
-    <t>야 구미현 누가 강유미언니인척 연기하래</t>
-  </si>
-  <si>
-    <t>esfj는 istj(estj)랑 천생연분임</t>
-  </si>
-  <si>
-    <t>성 붙여서 말하는 것 진짜 싫어함</t>
-  </si>
-  <si>
-    <t>인팁인데 40초 정도 보다가 기빨려서 끔 ㅋㅋㅋㅋㅋㅋ.... 제일 기빨리는 엠비티아이..</t>
-  </si>
-  <si>
-    <t>비즈반지 만들어준다고 스토리에뿌린 나 자신 반성해</t>
-  </si>
-  <si>
-    <t>이거만들때마다 연습을어느정도하시는건지...ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>아 ㅋㅋㅋㅋㅋ 내 동생아 왜 여기있니!!!!</t>
-  </si>
-  <si>
-    <t>Enfj 존버중…</t>
-  </si>
-  <si>
-    <t>와우리할머니 esfj인데 진심비슷해</t>
-  </si>
-  <si>
-    <t>배경효과 좀미웃기누</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅎ효과무엇</t>
-  </si>
-  <si>
-    <t>ㅠ ESFJ 힘얻구 갑니다</t>
-  </si>
-  <si>
-    <t>세상에 나랑 말투부터 똑같네..</t>
-  </si>
-  <si>
-    <t>esfj 남자가 화났는데 제때 사과안해서 저 싫어하는거 같은데 제가 정신이 들어서 구구절절 사과했는데 읽고씹어요 .. 구구절절 계속 사과할까요? 아니면 그냥 기다릴까요 ..?
-세번 사과했는데 읽고씹어요...
-더 연락하면 더 싫어질까요 ..?</t>
-  </si>
-  <si>
-    <t>제유형이군요</t>
-  </si>
-  <si>
-    <t>뭐임.. 걍 나임.. ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>내 몰카 보는 줄...</t>
-  </si>
-  <si>
-    <t>나다,,,미친,,,</t>
-  </si>
-  <si>
-    <t>내 esfj친구랑 옷차림 카피하셨나...옷 새깔도 똑같은데</t>
-  </si>
-  <si>
-    <t>애봉이 닮았어요 ㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>우리언닠ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅌㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>처음과 두 번째 검정시 esfj 가 나왔었는데 요샌 
-enfj 만 나와요. 
-사람이 변하나요?</t>
-  </si>
-  <si>
-    <t>isfp해주세오,,,</t>
-  </si>
-  <si>
-    <t>아니 맨 마지막 달락 왜 나냐고</t>
-  </si>
-  <si>
-    <t>엣프제 안아주고싶다ㅜㅜㅜ</t>
-  </si>
-  <si>
-    <t>연느 엠비티아이가 엣프제라면서요..?</t>
-  </si>
-  <si>
-    <t>오빠그래서 내가 친구랑 부산갓다니까 그렇게 실망했구나............</t>
-  </si>
-  <si>
-    <t>아 미친 연예인들이 자기 나온 나혼자산다 보면 이런 기분이려나</t>
-  </si>
-  <si>
-    <t>전 초등학생,중학생때 학교에서 mbti 검사한적이 있는데 esfj 였다가 20대 후반되고 mbti가 유행이길래 오랜만에 검사해봤더니 estj로 바꼈더라고요. 흑화된건가요...?</t>
-  </si>
-  <si>
-    <t>엣프제 성격 좋은 유형이었구나… 같이 다니던 애 중에 엣프제 있었는데 대가리 꽃밭 그 자체에 말하는 거 애 같아서 싫어했는데… 사실은 성격 좋은 유형이었군요</t>
-  </si>
-  <si>
-    <t>진빠 나 보는줄... 소름...</t>
-  </si>
-  <si>
-    <t>남자가연기하는 엠비티아이도 보고싶당</t>
-  </si>
-  <si>
-    <t>전 enfj esfj왔다갔다 합니다 공감ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>estj 는 언제 나오나용 ㅜㅜㅜ</t>
-  </si>
-  <si>
-    <t>저와 완전히 반대인 엠비티아이를 가진 사람들은 어떻게 살아가나 궁금해 한 번 들어와봤습니다. 역시 이해는 안 가네요 수고하세요</t>
-  </si>
-  <si>
-    <t>ESFJ특징ㅋㅋ다른유형보다 댓글 길게 쓴다</t>
-  </si>
-  <si>
-    <t>앗시.. 약간 나같은데.. E랑 I 왔다갔다 해서 그런가</t>
-  </si>
-  <si>
-    <t>원래 댓글 안 달고 하는데… 여기 댓글들 다 넘 공감이라 하트박고 갑니다</t>
-  </si>
-  <si>
-    <t>내가 엣프제인데....난줄 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>뭐야 말투부터 졸라 나임</t>
-  </si>
-  <si>
-    <t>와...그냥 난데?</t>
-  </si>
-  <si>
-    <t>enfp는 esfj 를 사랑해ㅠㅠ</t>
-  </si>
-  <si>
-    <t>엇 내꺼 올라왔었네</t>
-  </si>
-  <si>
-    <t>텐션 저거곱하기1000</t>
-  </si>
-  <si>
-    <t>전 정권에 대해서는 정치적으로 노골적으로 친문 성향띄고 보수에 대해 비판하더니 이번 정권에 대해서는 아무말도 안하네요???? 정말 이중성에 어이가 없네요</t>
-  </si>
-  <si>
-    <t>추진력하난끝내줌ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>아 진짜 존나웃기다 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>제가 좋아하는 오빠가 ESFJ인데 다들 공략법 하나씩만 말해주세요...힝구르르</t>
-  </si>
-  <si>
-    <t>대박 나인줄 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>저두esfj입니다.</t>
-  </si>
-  <si>
-    <t>저희 엄마 보는줄..</t>
-  </si>
-  <si>
-    <t>헐..니네진짜..</t>
-  </si>
-  <si>
-    <t>Mbti  남자버전궁금요~~</t>
-  </si>
-  <si>
-    <t>영희는 에코백 들고갔을까?</t>
-  </si>
-  <si>
-    <t>은숙아 너 T야?</t>
-  </si>
-  <si>
-    <t>enfj인데 왜 이거 나같지</t>
-  </si>
-  <si>
-    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㄴㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>ENFJ-T 는 안해주시나요?</t>
-  </si>
-  <si>
-    <t>이거 esfj 남자도 해당하나여?ㅋㅋ</t>
-  </si>
-  <si>
-    <t>보다 20 초 만에 꺼버림 난 estj</t>
-  </si>
-  <si>
-    <t>다시보니 울엄마… 아웅 피곤해</t>
-  </si>
-  <si>
-    <t>이누나는 살쩌도 이쁘네</t>
-  </si>
-  <si>
-    <t>언니 plz estj..️</t>
-  </si>
-  <si>
-    <t>내가 이래???? 부끄럽네</t>
-  </si>
-  <si>
-    <t>근데 짐 Edfj유형 흉내내는건가요? ㅋ</t>
-  </si>
-  <si>
-    <t>우리엄마랑 똑같애 진 ㅈ자 웃겾죽음</t>
-  </si>
-  <si>
-    <t>ㅅㅂ 이 유형이랑 조별과제 했는데 손절함
-INTP</t>
-  </si>
-  <si>
-    <t>내 워너비 성격</t>
-  </si>
-  <si>
-    <t>아 나 esfj인데 저 모자 있음.....</t>
-  </si>
-  <si>
-    <t>그럼 얘네는 단점이 모임? Intp랑 궁합어떰?</t>
-  </si>
-  <si>
-    <t>ㅋ 나도 엣프제인데 ㅎ</t>
-  </si>
-  <si>
-    <t>그래서 영희 mbti는 뭔가여?ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>언니 죄송한데 저 아세요 아님 미행하셨나요</t>
-  </si>
-  <si>
-    <t>스테파니가 누구죠?!</t>
-  </si>
-  <si>
-    <t>이제 ASMR 부탁드려요 ㅠ ASMR때가 넘 그리워용 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>내여자친구같다...</t>
-  </si>
-  <si>
-    <t>esfj 남자가 바람 잘 핀다는데 진짜인가요..ㅜㅜ?</t>
-  </si>
-  <si>
-    <t>술은 왜 안마시죠?</t>
-  </si>
-  <si>
-    <t>와 울엄마랑 비슷행 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>나네ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>광희 그 자체</t>
-  </si>
-  <si>
-    <t>※       유    투       브        ...   회    개   와    거    룩   함    사    역     회     .....  검      색.....        하     세    요 ...........!</t>
-  </si>
-  <si>
-    <t>나야?</t>
-  </si>
-  <si>
-    <t>영희 INTP임?</t>
-  </si>
-  <si>
-    <t>나</t>
-  </si>
-  <si>
-    <t>난가</t>
-  </si>
-  <si>
-    <t>※   유 투  브,  트  우 ㅣ  ㅌ  ㅓ (호 ㅣ  개   오 ㅏ  ㄱ   ㅓ    룩       함    ㅅ ㅏ 역 호 ㅣ) 검   색............!</t>
-  </si>
-  <si>
-    <t>조금..답답해</t>
-  </si>
-  <si>
-    <t>무슨 성격이 평생 중학생이냐?  아무이 살갑고 내게 잘해줘서 남에게 너무 의존적이도 집착하는 이런 성격 피곤함.</t>
-  </si>
-  <si>
-    <t>유미님 
-살찐건가요 ㅜ
-아님 성형하신건가</t>
-  </si>
-  <si>
-    <t>esfj 갠적으로 별로다</t>
+    <t>아니 esfp 중에 외향형 반 내향형 반인 사람은 없냐고,,,,나보다 텐션 높은 사람 앞에선 한없이 기빨리고 집가면 현타옴 근데 나보다 말없는 사람 앞에선 분위기 띄울라고 광대짓함;; 집에와서 현타오는건 똑같음 ㅋ 또 약속 정확하게 잡는거 개시러함 걍 귀찮음 나가기 싫어짐 근데 막상 나가면 존나게 잘놈</t>
+  </si>
+  <si>
+    <t>esfp댓글보다 다른 mbti댓글이 많은이유
+esfp는 밖에서 활동적으로 노는걸 더 좋아함
+이거 보고있어도 귀찮아서 댓글 안담</t>
+  </si>
+  <si>
+    <t>Esfp 말 많고 항상 하이텐션에 노는거 좋아하고 이런 면들 때문에, 파티피플 대가리꽃밭 이런 별칭?때문에 가벼운 이미지로 생각하시는 분들이 많아 속상해요 ㅜㅜㅜㅜ 겉으론 그래보일지 몰라도 (밝고 에너지 있는 모습으로 비춰지고 싶은 마음 때문인지) 속으론 정말 현실적인 고민도 많이 하고 생각 많고 걱정 많고.. 진지할 땐 진지한 사람입니다 ㅠ 가볍다고 생각하시는 분들이 많아 속상ㅜㅜ esfp라면 공감할 듯</t>
+  </si>
+  <si>
+    <t>ESFP들은 다 목소리가 크구나... 나만 큰게 아니구나....헿ㅎ헤헿 목소리크기까지 구분하는 미친 과학... 그것이 MBTI</t>
+  </si>
+  <si>
+    <t>거기..esfp 댓글쓰긴귀찮고 영상틀어놓고 댓글읽는거 다 안다!</t>
+  </si>
+  <si>
+    <t>게으름의 끝판왕 ISFP 기대할게요</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ아 댓글 보고 보니 진짜 속마음 토크가 없네요 엣프피 본인으로서 정말 말하는게 다 그대로 속마음이라고 보면됩니다 아주 투명해요!! 주변 사람들한테 얘는 속으로 뭔생각할까 싶었다는 말 많이 들었는데 전혀 다른 생각 없고 속마음 없음ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>엣프피는 정말 초현실적임. 추상적 개념 이론 이런거 듣는것까진 오케인데 깊이 파고들면 머리아픔. 당장 내일 혹은 가까운 미래에 대해 깊은얘기하는건 좋아함. 현실적인 고민, 아픔, 행복 등등. 만약 우리가 초능력이 생긴다면? 이런 고민이 흥미가없는거임. 왜 이런걸 상상하고있어야되지? 너무 시간낭빈데? 싶음
+다들 말 많다는데 찐친들이랑은 오히려 말 거의 없음. 걍 리액션 담당임. 어색하거나 첨본사람 혹은 덜친한 사람들 앞에서 수다쟁이가 되는거임. 왜? 어색한거 죽어도 싫거든... 그 잠깐의 침묵의 1초가 목을 죄여온다
+분위기메이커인건 ㅆㅇㅈ 어딜가나 엠씨역할. 암튼 분위기 주도권잡고 휭휭 휘두르다가 다들 좀 달아오르면 슥 하고 빠짐. 안친한 애들끼리 친구 맺어주는거 좋아함. 
+사람 좋아하는거 맞고 노는것도 좋아하지만 은근 집순이임... 만사가 귀찮음 연락와도 거의 다 씹고 혼자만의 시간을 즐김. 근데 한번 나간다? 저세상 텐션으로 하얗게 불태우고 오는것임
+엣프피 파티피플 멍텅구리 이미지로 많이들 보던데 진심 현실주의자라 실속있고 이득없음 행동하지않음. 일도 빠릿하게하고 눈치 개빨라서 할짓 안할짓 잘 구별해서 능구렁이같이 잘 살아남음. 워커홀릭 기질도 약간 잇음. 여러가지 일을 한번에 하는거 좋아함. 한개 진득하니 하는건 지루해.. 
+글고 갠적으로 전화통화 너무 싫음 ㅠㅠ 문자로해라 (근데 문자도안봄 ㅋㅎㅋㄹㅋㅋㅎ) 
+여기서 반전: 난 엣프피가 아님</t>
+  </si>
+  <si>
+    <t>이 시리즈가 총 16개...? 너무 설렌다...</t>
+  </si>
+  <si>
+    <t>Asmr 제목때문에 의무적으로 계속 하는 탭핑 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>영상 시작하자마자 건들건들 몸 흔드는 거 보고 빵터짐ㅋㅋㅋㅋ
+ESFP인데, 학생 때 밴드부/댄스부 활동 오지게 하고 29살된 지금도 거리에서 신나는 노래 나오면 주변에 누가 있든 둠칫둠칫 시작함ㅋㅋㅋㅋㅋ술 자리, 유흥 개좋아함^-^ 어색한 거 못 참아서 TMI 오지게 남발하고, 누가 혼자 짱박혀 있는 거 못 봄. 누구도 소외되지마ㅡㅡ
++esfp 컨텐츠 별로 없는데 이 영상 나와서 넘나 기분 좋음♡♡</t>
+  </si>
+  <si>
+    <t>Esfp는 대화하다보면 잡지식 즉은 아는게 엄청 많음 그래서 공감대 형성하기도 좋고 친구들이랑 친해질때도 잡지식 이용해서 말주변잡고 어떻게 하면 상대방을 대화에 잘 끌어들이고 빠져들게할지 너무 잘 아는 것 같음 그냥 대화기술이 타고난 인싸고 눈치도 너무 빨라서 내 얼굴표정만 봐도 바로바로 캐치하고 그냥 하날 알려줘도 열을 앎 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>Esfp가 기분 나빠하는 얼마안되는 이유: 사람 만나는거 자체에 기쁨 느끼는 사람이고 사랑받는거 좋아하는데 나 만나러 나오기 귀찮아한다는걸 티내면 갑자기 상처받음 ㅠㅠ..</t>
+  </si>
+  <si>
+    <t>생각없고 말만 많은거 esfp 그 자체ㅋㅋㅋㅋㅋ 술도 개좋아함 낮술 가리지않음 + 와중에 댓글에 몇명 있지도 않은것까지 완벽</t>
+  </si>
+  <si>
+    <t>제가 이 영상 보면서 제가 ESFP라 공감 하는건지 모르는겠지만 친구들은 다 저희가 상처 안 받아 보이고 밝아 보이지만 상처도 되게 잘 받구,,,,밝긴 밝지만 정말 진지 할 땐 진짜 진지해요,,,그렇게 오해 하는 사람들 많아서 적습니다,,,,
+ESFP분들은 공감 할 꺼에요!!</t>
+  </si>
+  <si>
+    <t>엣프피는 마냥 해맑아서 보는사람도 에너지 올라감ㅎㅎ 현실적이라 자존감도 다들 왠만해선 높고 솔직함 자격지심 없어서 정말 좋음 누구나 좋아할 인기많고 매력있는 유형임</t>
+  </si>
+  <si>
+    <t>인팁이 만난 상대가 엣프피 일지는 전혀 몰랐습니다 ,, 이렇게 이어지는 거였군요</t>
+  </si>
+  <si>
+    <t>엣프피,, 자기가 할 말이 한보따리라 상대방이 말이 없어도 괜찮은 아이들ㅋㅋㅋㅋ 친구 만나서 노는 게 너무 좋은 활발하고 해맑고 목소리 큰 수다쟁이들ㅋㅌㅌ 약간 반전매력이라고 느낀 부분은 생각보다 현실적이고 성실함</t>
+  </si>
+  <si>
+    <t>친언니가 엣프피인데 해맑고 솔직하고 꼬인거 절대 없고 완전 리액션도 크고 밝고 이런거 완전 똑같아요 ㅋㅋㅋㅋ 진짜 성격 너무 좋음</t>
+  </si>
+  <si>
+    <t>ESFP는 따로 속마음 목소리가 없는거보면 보이는 그대로를 믿으면되는건가요 ㅎㅎ좋다</t>
+  </si>
+  <si>
+    <t>esfp 특
+관심없는 얘기라도 들어주려고 노력함 근데 텅빈 눈빛까지 숨길순업음ㅋ</t>
+  </si>
+  <si>
+    <t>급약속 좋아함 + 꾸미는거 좋아함 + 아무랑 잘친해짐 + 어색한사람이랑은안만나고싶음 근데 막상 만나면 잘놈 + 말 두번씩 하기 + 싫은소리에 솔직하게 받아치기 + 약간의 오지랖 + 말할때 안면근육 많이사용^^… 전화통화 안좋아하는데 그거 말곤 비슷하네요^^…. 똥고발랄 ESFP !!!!!!호ㅓ이팅 !!!!!</t>
+  </si>
+  <si>
+    <t>이런 부류….같이 있다보면 오지게 기빨림.. 기 빨려서 한 마디하면 서운한거 바로 티나고 달래주면 풀린 거 바로 또 티남 ㅋㅋㅋㅋ그거 계속 보다보면 귀여워서 결국 웃음 나옴ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ무해한 해맑음이라서 너무 좋음 
+집에 오면 3일 정도 쉬어줘야하지만..</t>
+  </si>
+  <si>
+    <t>30초반 ESFP는 이런텐션 없지만 술마시면 이런모습나옴ㅋㅋㅋㅋ 친구 만나고오면 목이 쉬어서 그담날 목소리 안나옴.. 심지어 영상 업로드 된 것도 알았지만 이번주 약속 풀이라 이제서야 보는ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋESFP 해줘서 너무 고마워요 유미온니</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ똑같은말 여러번하는거 ㅋㅋㅋㅋㅋ진짜 저래요 "네네" "아뇨아뇨" "응응" "모해모해모해" "어디야어디야" "뭔ㄷ뭔데뭔데" "진짜진짜?"</t>
+  </si>
+  <si>
+    <t>INTJ인데 인사보자마자 얘는 나랑 안맞을 거 같은데.. 했다가 참고 보는데 또 옷사러 가재 
+아.. 집인데 집에 가고 싶네요</t>
+  </si>
+  <si>
+    <t>엣프피들아 ... 너희들두 어딜가든 다 밝고 잘 웃고 리액션이 너무 좋다는 소리 듣니 ????? 나만 그러는거 아니지 ?????</t>
+  </si>
+  <si>
+    <t>21:50 와 제가 맨날 하고 다니는 말... 듣자마자 소름....</t>
+  </si>
+  <si>
+    <t>언니의 3주 공백은 이 mbti 대하드라마를 위한 준비기간이였군뇨 진짜 개천재만재인프제의자랑윰언니</t>
+  </si>
+  <si>
+    <t>ㅁㅊㅁㅊ 갑자기 약속잡기 + 즉흥적으로 술마시기 + 개그욕심 + 오디오 빌 틈 없이 떠드는 것까지 그냥 전데요…..?? 그나저나 엣프피가 무려 세번째라니 감동ㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>엣프피ㅠㅠ 다른 곳에서는 자기 tmi 엄청 늘어놓기만하고 눈치없이 자기 얘기만 하는 사람으로 그려지기 십상인데 사실 상대에 대해 물음표도 많고 남얘기 제일 잘 들어주고 리액션 좋아서 사람들이 은근 의지 많이 한답니다 누구보다 남들 감정캐치에 예민한 사람들이라 눈치도 빨라요... 잘 표현해줘서 감사해요!!</t>
+  </si>
+  <si>
+    <t>ISTP는 댓글이 하나도 없네ㅠㅠ 유미언니가 잇팁 해주는 그날까지 존버탑니다...ㅠㅠ</t>
+  </si>
+  <si>
+    <t>미친 esfp라는거 듣고 개처럼 바로 달려왔어요 언니!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>엣프피 인팁 기다리느라고 올리브영에서 화장하며 기다린 디테일 ㅋㅋㅋㅋㅋㅋㅋ 카페가면서 눈화장된거 고증오지네여 ㅋㅋㅋㅋ역시 유미님</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반쯤 인팁인데 이런친구 좋아해요. 가끔 만나면 기빨리긴해도 반면 리프레시되는 기분? 재밌어요. 친구가 잘돼도 시샘안하고 진심축하해주는것도 좋고...윰님진짜 찰떡연기 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제가 esfp 인데요.... 평소에 그... 유형분석을 읽어보면 너무 시끄럽고, 나대는 성격으로 나오는 것 같아서 아.... 부정하고 싶었는데.... 진짜 유미님 연기를 보니 너무 제 모습이라 부정할 수가 없네요 ㅋㅋㅋ 
+너무 20대의 나야 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ
+지금은 나이를 좀 먹어가지고... 저기서 열정이 좀 빠졌어요. 에너지 빠지고 퐈이팅 빠진 30대 esfp가 재밌게 보고 갑니다 </t>
+  </si>
+  <si>
+    <t>와 esfp 인터넷에서 잘 안다루는데 세번째라니 생각지도 못한 순서에 놀라버리고만 엣프피
+근데 e 60% i 40%라 그런가 나도 저 텐션은 감당안된다ㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>20:47 세상에 개소름... esfp들 추상적이고 지적인 대화에 절대 관심없음.  또 약간 하루살이 기질?있어서 '먹고놀고마시고죽자'나 '오늘만살자' 이런 마인드 강함ㅋㅋㅋㅋㅌㅌ 아무튼 엔프피랑은 성격 확실히 다름</t>
+  </si>
+  <si>
+    <t>인프제는 솔직하고 말 많은 엣프피가 참 좋다 복잡한 나를 단순하게 만들어준달까 정말 흥미로운 솨람이야</t>
+  </si>
+  <si>
+    <t>친구야 가끔 너 만나서 얘기하면 너 표정 변하는것도 신기하고 남 얘기하는 거에 관심 많은 것도 신기하고
+나 챙겨주는거 은근 고맙고, 사심 없이 툭툭 나한테 자존감 높여주는 얘기도 해주고 그래서 참 좋다
+이 영상은 5번에 나눠서 봤지만
+뭐 대체적으로 좋은 친구야! 가끔씩 보자-인팁이가</t>
+  </si>
+  <si>
+    <t>나 개 환장 esfp인데, esfp가 원래 이런지도 모르고 세상 나만 유독 개 하이텐션인줄 알았는데 나같은 사람 많았구나ㅠㅠㅠㅠ!!!! 하루종일 놀고와도 밤새 또 혼자 놀다 자야 에너지 다쓰고 잠들어… 내나이30인데도 이래</t>
+  </si>
+  <si>
+    <t>아 진짜 점점 인프피가 더 기대된다. 너무 기대된다. 너무 너무 기대된다. 그전까진 우유부단한 네일샵 직원으로 대리만족...
+그 사람은 무조건 인프피라구</t>
+  </si>
+  <si>
+    <t>esfp중에 영상 끝까지 못보고 끄는 사람 많을 듯해요 esfp는 하이라이트. 딱 핵심만 알고 싶어해요..</t>
+  </si>
+  <si>
+    <t>앜ㅋㅋㅋㅋㅋㅋ͟͟͞͞개=͟͟͞͞웃=͟͟͞͞겨 진짜 시작부터 야모해모해모해모해&lt;~~~~~~ ㅋㅋㅋㅋㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬</t>
+  </si>
+  <si>
+    <t>esfp 다뤄주는거 별로 없다고 느끼는건 다 똑같다니 ....홓ㅎㅎ
+24분 내내 오디오 안비는거 소름...ㅎㅎㅎ
+친구들 좋아하고 중간중간 아무생각 없이 말하고 후회하고...말 반복하고 ㅎㅎㅎ 상처잘받음...
+사람이 제일 소둥.. 상처받아서 우울했다가 회복될일 있으면 금방 회복....</t>
+  </si>
+  <si>
+    <t>내가 본 esfp느낌. 엄청 두루두루 잘지내는 성격
+만드는거 좋아하고,오감의 자극을 아주 좋아함
+야물딱진 느낌도있음. 정보력도 좋은거같음(특히 맛집,할인,핫플레이스 잘알음),나혼자만의 느낌인데 속얘기
+잘안하고 약간 다 맞춰주는 페르소나있는거 같기도 했음</t>
+  </si>
+  <si>
+    <t>완전 인팁인데.. 이런유형 인간적으로 너무 호감이에요 사람 안가리고 친화적이고 솔직하고 텐션 높고 말 많은게 너무 신기하고 귀여움ㅋㅋ 약간 다른종족 보는 기분... 한번 대화하면 기 다빨려서 일주일은 쉬어야하지만 좋긴함.. 근데 워낙 주변에 사람 많고 내가 재밌게 못해주는거 아니까 친해질수는 없는 그런...ㅎ</t>
+  </si>
+  <si>
+    <t>엣프피야말로 진짜 대표적 인싸..</t>
+  </si>
+  <si>
+    <t>주변에 ESFP 친구 있는데 진짜 똑같아요;; 카페 사장님한테 겁나 친한척 하는게 진짜 소름끼치게똑같아요 오바스럽긴해도 보고있으면 웃기고 좋은거같아요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>엣프피는 볼때마다 느끼는데 진짜 씹인싸임 친ㄹ화력이 개쩜... 인싸중에 인싸 그 자체</t>
+  </si>
+  <si>
+    <t>인팁하고 세계관 이어지는거 미쳤다 진짜ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>만날때마다 피곤하지만 행동력은 있어서 도움받고 그 기억에 고마워서 밥한끼 사려고 만나면 다시 피곤해지는.. 그런 좋은 친구..◠‿◠..</t>
+  </si>
+  <si>
+    <t>역시 인프제 댓이 제일 없어ㅠ 만나는 사람마다 인격 바뀌는 사람들ㅠㅠ 존버탑니다 INFJ</t>
+  </si>
+  <si>
+    <t>ESFP가 말하는 ESFP특징
+1.눈치가 없어보이지만 눈치 꽤있음 상대방기분 캐치 ㅈㄴ잘함
+2.애들말 잘들어줌 고민상담하기좋은타입
+3.멘탈 약함
+4.적응 ㅈㄴ잘험
+5.잡지식많음 쓸데없는거부터 꽤 도움되는거꺼지 알고있는경우많음 ㅋㅋ
+6.했던말 계속함
+7.내가좋아하는거 전파
+8.솔직함
+10.자존감높고 주변사람 자존감올려주는것도 잘함
+11.맘 약함 싫던사람이라도 갑자기 잘해주면 좋아짐(사기잘당하는타입...)</t>
+  </si>
+  <si>
+    <t>회사 직원이 엣프피인데… 영상 틀자마자 건들거리며 머해머해머해머해 같은 말 반복하는 거 보고 퇴근했는데도 다시 회사 온 줄 알았네요… 유미님 연기 왜케 잘 하세요…… 진짜 포인트 하나하나 똑같아……
+같은 말 반복하는 거… 머쓱할 때 괜히 머리 만지고… 말할 때마다 몸 들썩거리는 거 너무 똑같아……</t>
+  </si>
+  <si>
+    <t>I.S.F.J. !!!!!!! 오늘도 존버합니다..</t>
+  </si>
+  <si>
+    <t>본인 엣프피
+통화하는건 싫어하지만 만나서는 저렇게 가능함
+나가기는 귀찮은데 나가면 집에 오기싫어함
+시도때도없이 노래부름
+억울한일 있으면 여기저기 말함
+몸쓸 드립 많이 침
+고민 잘들어줌</t>
+  </si>
+  <si>
+    <t>intj인데 보다보다 기빨려서 30분은 지났나하고 시간보니 5분 지나있음 ㅋㅋㅋㅋㅋㅋㅋ 내 주변에 저런 친구들 있는데 만나고 오면 앞에서 티는 안내지만 일주일은 요양해야됨 ㅋㅋㅋ 진짜 연기 잘하시는 유미님 감탄하고 갑니다 ( 더는 못봅니다 크흡)</t>
+  </si>
+  <si>
+    <t>엔프피인데 esfp가 짱친인데 진짜 오디오 안비고 만나면 너무 재밌음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ텐션 너무 높은게 흠이긴하지만 만나면 너무너무 즐거움ㅠㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>여기서 목소리크고 말 진짜 대따 많으면 완벽 
+제가 ESFP라 공감이 너무 되네요..</t>
+  </si>
+  <si>
+    <t>INTP인데 이 영상보고 현실로 앓아누웠어요 10분만 누워있을게요.....</t>
+  </si>
+  <si>
+    <t>ESFP를 엄마로 둔 ISTJ입니다. 엄마가 저한테 주로 많이 혼나긴하는데 엣프피는 엄마가 되고 나이가 들어도 사랑스럽고 귀엽답니다ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>제 동생 엣프피인데  카페가서 맥주 마시는 거 보고 진짜 웃었네요 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ
+일본 여행가서도 맛집 도장 깰때마다 "비루 쿠다사이" 쉬지 않던 내동생</t>
+  </si>
+  <si>
+    <t>인팁이랑 엣프피가 만난거였다니ㅋㅋㅋㅋㅋㅋㅋ 실제로 내가 인팁이고 친한 친구가 엣프피인데 옆에서 보면 진짜 신기함.... 어떻게 저렇게 인간관계를 많이 만들지....</t>
+  </si>
+  <si>
+    <t>헐...esfp 솔직히 유형 특징도 잘없어서 안해주실줄 알았는데 이렇게 바로 해주신다고요???? 와...저 댓글도 원래 안다는데 좀 신나서 댓글달아봅니다.. 와...</t>
+  </si>
+  <si>
+    <t>지나가던 엔프피 너무 즐겁다.. 주변 엣프피들이랑 놀면 너무 재밌고 웃느라 정신이 없음️</t>
+  </si>
+  <si>
+    <t>와 살면서봤던 이런친구들 몇명이 스친다ㅋㅋㅋ
+완전 매력있어요</t>
+  </si>
+  <si>
+    <t>7:25 정색하자마자 안광사라지는거 개무서움ㅋㅋㅋㅋㅋㅋ진짜 갓유미ㅠㅠ</t>
+  </si>
+  <si>
+    <t>'아..기빨린다.. 얼른 헤어지고 혼자 노래들으면서 집가고싶다ㅜ' 라고 생각하면서도 맞장구쳐주고 같이 저녁까지 먹고 집에가는 isfj입니다. 존버합니다️</t>
+  </si>
+  <si>
+    <t>보자마자 박나래 생각남ㅋㅋ intp인데 esfp가 주변에 없는게 기빨리는건 둘째치고 술과 모임 좋아하는거 때문에라도 가깝게는 못지냄...
+근데 영상보니 esfp 사람 자체로는 순수하고 정많고 좋아보임...그러나 가까이 하기엔 너무 먼 당신ㅎ</t>
+  </si>
+  <si>
+    <t>아 저(esfp)한테 저희 친언니(intp)가 회사에서 힘든 일 있어서 나름 고민 상담 한다고 했을때 제가 정확히 했던 말이 21:50 이었습니당..ㅎ
+자꾸 언니가 저한테 와서 철학적인 얘기하는데 그만 했으면 좋겠습니다ㅎ 
+반대로 언니는 저한테 자꾸 쓸모없는 얘기만 하면 대체 그게 대화에 무슨 유익이 있냐고 따집니당ㅎ</t>
+  </si>
+  <si>
+    <t>엣프피들 나쁘게 말하면 가볍고 생각이 좀 없지만... 엄청 밝고 사람 좋아하는 친구들ㅋㅋ근데 또 은근 디게 실속있음.. 뭔가 한국에서 인싸로 살기 제일 좋은듯한 성격..ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>개빡치면 기분 가라앉힐생각안하고 바로 관련된 사람불러내는거 ㅋㅋㅋㅋㅋ 일 났으면 바로 해결해야 직성풀림 하던 일 제치고 달려감 ^^...기분 다 표정에 드러나고,, 급발진하고 손짓발짓 다하면서 개빡쳐하는거 와중에 얘기하면서도 계속 tmi 말함 ^^... 부가설명 필수 ㅋㅋ 관심없는얘기하면 듣긴하고 맞장구는 치는데 속으론 어느새 딴생각하고있음 ...,, 술마시면 텐션 졸라 오름... 엣프피 그자체</t>
+  </si>
+  <si>
+    <t>본인 엔팁이고 엄마가 엣프핀데 일단 사람이 너무 여림… 한도 끝도 없이 베풀기 좋아하고 물욕이 없는듯. 근데 또 옷은 엄청 잘 입고 많으심 ㅋㅋㅋ 단순하고 정이 많고 붙임성이 좋은듯 ㅎㅎㅎ 정말 툭하면 눈물 주루룩임. 진짜 친구 같은 엄마임 낙천적이고 밝고 여린 사람… 나보고 맨날 넌 진짜 나쁜년이야… 또라이야… 하는데 거마움 ㅎ</t>
+  </si>
+  <si>
+    <t>아 진짜 esfp 너무좋아 ㅠㅠㅋㅋㅋㅋ걍 존재자체가 웃곀ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>아 까비 ENFP 줄 알고 심장 터질 뻔 그래도 첫부분 부터 심장 벌렁벌렁 웃었네요ㅎㅎㅎㅎㅎㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>아씨 처음부터 나잖앜ㅋㅋㅋㅋㅋㅋ리액션 많은거랑 그 모든 리액션이 진심인거랑 표정 다양한거랑 오바쌈바 호들갑떠는거랑 엣프피 그자체</t>
+  </si>
+  <si>
+    <t>악의없는 솔직하고 활달한 친구인데...너무..너무 피곤해...하(!)</t>
+  </si>
+  <si>
+    <t>울 엄마 엣프피신데 영상 틀자마자 통화하시는겈ㅋㅋㅋㅋㅋㅋ 진짜 매일매일 집에서 친구랑 통화하시고 전화 안하시면 톡하시고 톡 안하면 홈쇼핑 보시고 홈쇼핑 안보면 저랑 수다떠셔요 그리고 웬만한 일 아니면 유머 포기 못하시구</t>
+  </si>
+  <si>
+    <t>INFP 존버들 하자,,,</t>
+  </si>
+  <si>
+    <t>ISFP 존버합니다</t>
+  </si>
+  <si>
+    <t>인팁인데 너무 힘들었습니다... 후아... 여전히 사이먼은 가평 부분 웃기네요.. 빵 터졌습니다... 가평사는 싸이먼이야 라니.. ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>Isfp 인데 esfp친구 진짜 성격 너무 좋고 완전 웃기고 티키타카 잘 되고 넘좋아요 ㅠㅠㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>무해한 밝음 인팁이지만 사회생활 오래해보니 이런성격이 더 편해요. 말하는 보이는 그대로인거 진짜 좋음. 갈수록 기피하게 되는건 겉과 속 다른 타입. esfp와 intp가 둘이 만나서 2차까지 가도 싸움날일은 없는 이유-둘다 솔직함</t>
+  </si>
+  <si>
+    <t>인팁인데 이렇게 기빨리는 영상은 처음이야 
+집인데 집에 가고 싶어요</t>
+  </si>
+  <si>
+    <t>Esfp가 tmi 맨날 말하니까 걔를 다 아는것 같겠지만 엣프피가 진짜 고민하고 있는건 아무도 모름 혼자 이겨냄 ㅎ</t>
+  </si>
+  <si>
+    <t>isfj인데 esfp 극호호호호호호호호호호홓호호♡
+텐션높고 공감잘해주고 최고야 짜릿해</t>
+  </si>
+  <si>
+    <t>여기서 빠진 한가지 포인트: 목소리 개큼</t>
+  </si>
+  <si>
+    <t>역시 만남은 즉흥이 최고
+역시 술은 낮술이 최고
+한 번 먹으면 2차는 필수••
+별별 사람들과 연락하는 거 못참즤
+우울해도 뮤직이즈마이라이프</t>
+  </si>
+  <si>
+    <t>엣프피 아는사람많고 이사람저사람 잘 챙기고 그 사람들 나랑 진짜 친한거 맞는데 지이이이잉이인짜 친한 사람은 없다고 생각하거나 둘셋? 정도만 있는거 저만 그런가요? 생각외로 진짜 나에대해서 아는 사람은 없는 느낌? 나에대한 tmi를 남발하지만 그냥 얘기거리로 쓰는거지 진짜 그게 얼마나 내가 힘들고 상처받는지 까지는 얘기 안하게되더라구요ㅋㅋㅋ 주변에 엣프피들 진짜 그사람 고민이나 힘든게 뭔지 알고 있는 분이면 엣프피 최전선 바운더리의 사람이고 엣프피에게 진짜 미친듯이 소중한 사람일 거에용</t>
+  </si>
+  <si>
+    <t>INTP로서 ESFP가 너무 귀엽네요..... 어찌하여 같은 인간인것인가
+유미님은 정밀 천재인거같습니다</t>
+  </si>
+  <si>
+    <t>내 앞자리 칭구 esfp인데 개똑같다… 진짜 겁나 활발함 어떻게 항상 그렇게 하이텐션인지 모르겠음 내 기준 enfp보다 더 활발함… 라고 estj가 말했다</t>
+  </si>
+  <si>
+    <t>왘ㅋㅋㅋㅋ드는 생각 바로바로 말하는거랑 잉,힝,엥 이런거많이 쓰는거 완전 esfpㅋㅋㅋㅋㅋㅋㅋㅋㅋ  약간 공감성수치가 느껴지네..헿
++순간순간 잘빡도는거랑, 안물어봤는데 말해주는거랑 술좋아하는데 잘취하는거까지.. 아니 윰언니 인류학자 즁말 인정이요....</t>
+  </si>
+  <si>
+    <t>엣프피 친구가 있는데 진짜 세상귀엽고 해맑아서 좋아해요ㅋㅋㅋㅋㅋ진짜 만날때마다 하고싶은 말이 어떻게 그렇게 한가득인지 전 가만히 듣고만 있어도 시간이 후딱 지나가는 게 넘 신기한ㅋㅋㅋ 밝고 사람좋아하고 저한텐 제일 부러운 성격이에요ㅎㅎ</t>
+  </si>
+  <si>
+    <t>esfp-t 인 나는,
+상대방이 먼저 말 걸 때까지 말 잘 안 검
+음식 주문 잘함 
+음식에 뭐가 나오거나 너무 짜거나 암튼 오류나면 상대방이 말 잘 못하면 대신 해줌
+남 자존감 높여주는 말 잘함
+얘기 잘 들어주긴 하는데 본인 할 말 준비하려고 드릉드릉 중
+상대방 리액션 큰 거 좋아 죽음
+내가 맛있게 먹은 음식 세상에 널리 알려야 함 
+호들갑 개 쩖
+기분 나쁘거나 안 좋은 일 있을 때 자고 일어나면 고민 해결
+멀티 잘 안 됨
+산만함 (인정하기 싫었음 27년 산 결과 끝내 인정함)
+자기 지적 받거나 싫은 소리 들으면 아닌 척 하는데 심장 뛰고 절망적임
+첫 시작은 좋은데 마무리가 엉성함
+우주 철학 개나 줘 관심 없음 내가 제일 싫어하는 영화가
+인터스텔라 벤자민시간꺼꾸로어쩌구
+망상 좋아함 ex. 로또에 당첨되면 뭐 사야지~ 내가 연예인이었으면 여기 들어가야지~ 
+내가 먼저 다가간 애들 성향은 isfj 었음
+나 싫어하면 나도 너 싫어 ㅋ 해 놓고 집에서 지가 뭔데 날 싫어해? 신경 오지게 씀
+맨날 하는 말 = 헐 대박;; 헐 진짜? 헐 미친;;; ㄹㅇ.. 에바..
+유튜브 넷플 꽂히는 거 아님 진득하게 못 봄 꽂히는 것도 정적있거나 별 내용 아니면 10초 뒤 누름
+열린결말 극혐 무조건 착한 사람이 이기고 잘 살아야 됨
+그래서 마블영화 사랑함
+싸울 때 그 상황보다 그 사람이 말하는 단어에 상처받고 화나함
+친구들끼리 어디 간다하는데 난 못가 하면 옆에 친구가 아 왜! 아 가자 하는 애한테 내 평생을 바침
+단순함 복잡한 거 싫어함 
+티는 안 내는데 질투 오지게 심함
+관심 엄청 받고 싶다가도 아무도 날 몰랐음 좋겠음
+남 얘기 관심 많음 
+미움 받는 거 엄청 싫어함
+입이 무겁다기 보단 나한테 피해갈까봐 얘기 안 하는 게 큼
+엠비티아이 사주 타로 보는 거 좋아함 (삘 받을 때만 평소엔 귀찮)
+나에 대해 관심 있는 질문 해주는 거 좋아함 
+유행에 민감 뒤처지는 거 싫어함 그렇다고 남들 다 하는 거 하진 ㄴㄴ 맘에 들어야 함
+사실 이영상 끝까지 안 봄 짤막하게 끊어서 대충 이렇구나 하고 봄
+이거 보고 나 아닌 거 같은데 하는데 친구들은 처음에 나랑 통화 하는 줄 알았다고 함 ㅋ
+이 댓글도 귀찮아서 안 쓰려다가 각 잡고 씀 
+빠잉</t>
+  </si>
+  <si>
+    <t>진짜 댇댕이같애 귀여운 엣프피!!!!!!!!!!!!!!!!!!ㅋㅋㅋㅋㅋㅋ 흥ㄴㅏ는거 + 배려심 돋는거 완전 친구생각나는ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>순풍산부인과에 선우용녀님이 esfp였구나 ㅋㅋㅋㅋㅋ 모야모야모야~~~ 존똑ㅎㅎㅎㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>INFJ들 물러설순 없다..</t>
+  </si>
+  <si>
+    <t>본인은 esfp인데 esfp가 가벼워보인다고 느껴지는 건
+엣프피들은 상대방이 어떤 감정 상태인지 이미 캐치완료 상태임 그러니까 일부러 더 밝은 텐션 가져가려고 하고
+응원의 말도 서슴치않게 해주는 거(그렇다고 속이랑 다르게 행동하는건 아님 ㄹㅇ 꾸밈없는 칭찬임)</t>
+  </si>
+  <si>
+    <t>ESFP인데 난 나보다 말 없는 애들한테는 노잼드립도 졸라 많이 하고 시끄럽고 미쳐 날뛰는데 나보다 시끄럽고 말 많은 애들 앞에선 말도 먼저 잘 안 꺼내고 그냥 들어주기만 함 ISTP되는 느낌…..</t>
+  </si>
+  <si>
+    <t>esfp 다뤄주는 곳 많이 없어서 한참 기달려야 될 줄 알았는데 ㅜㅜㅜㅜㅜ 사랑해요 ㅠ</t>
+  </si>
+  <si>
+    <t>INTP편 보고 바로 ESFP편 보는 중인데 정말 숨 막히고 신기하다…….. 나오자 마자 ㄹㅇ 5분만에 집 가고 싶었을듯</t>
+  </si>
+  <si>
+    <t>저 intp 남편 esfp 둘 궁합 은근 좋습니다 그런의미에서 유미님 두 유형 세계관 연결해준거에 카타르시스 느끼고 갑니다 총총</t>
+  </si>
+  <si>
+    <t>intj 안맞을거 같지만 이런친구랑 있으면 편해서 좋음 생각을 잠시 꺼둘 수 있음 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>진짜 이언니는 인류학자다</t>
+  </si>
+  <si>
+    <t>️ esfp 힘차게 등장!!!! ️</t>
+  </si>
+  <si>
+    <t>반복해서 말하고 호들갑떠는거부터 완전 똑.. 첫 대사부터가 완전 간파하셨어..</t>
+  </si>
+  <si>
+    <t>esfp와 intp가 친하게 지낼수 있는 이유 intp는 관심없는 얘기에 리액션없고 스몰톡에 약하지만 끝까지 잘 듣는 스타일이고 esfp는 상대방이 듣든말든 개의치않고 내 할 얘기만 하면 만족하는 스타일이라서? 댓글들 쭉 보고 제 지인이랑 저랑 생각해보니까 그래요 그래서 intp랑 esfp랑 만나는 세계관 설정한거 보고 통찰력이 대단하다고 갑자기 느끼는 중 ㄷㄷㄷ</t>
+  </si>
+  <si>
+    <t>와 세계관 연결 미쳤닼ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅌㅌㅌㅌㅌㅌㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>미친 나왔다 다음은 엔팁이지 언니?</t>
+  </si>
+  <si>
+    <t>친구랑 대화하고 싶을때 이 영상 봐야겠어요  오늘 너무 외로웠는데 눈물나네요 친구랑 이렇게 대화하고싶은날인데 오늘</t>
+  </si>
+  <si>
+    <t>어딜가나 성격좋다는 말 듣고 삽니당 훌훌훌 사실 내가 사람마다 다 맞춰주는건데 훌훌훌 esfp/isfp
+Isfp 존버합니다아아</t>
+  </si>
+  <si>
+    <t>보는데 개 기빨려…. 인팁입니다… 집에서 보고있는데 집에 가고싶네요….</t>
+  </si>
+  <si>
+    <t>아 진짜 냅다 얼굴보자는거 완전 ESFP잖아요ㅠㅠㅠ 심지어 말 한번씩 안 하고 여러번 반복하는 것도, 혼잣말하는 것도 소름돋게 나야.… 아직 초반부밖에 안 봤는데도 소름돋아요 ㅜㅜ</t>
+  </si>
+  <si>
+    <t>인팁인데 다른 MBTI 유형에 대해 처음부터 끝까지 다본거 이게 처음이에요
+너무 귀엽다</t>
+  </si>
+  <si>
+    <t>마음이 편안해지는 영상... 소리좋은 asmr도 많은거 사실인데 마음이 이상하게 불안할때 유미언니 목소리랑 말투 태핑 뭐먹는소리 로 달래고싶을때가 꼭 있어요 ㅠ 마력이야...진짜 감사합니다</t>
+  </si>
+  <si>
+    <t>INFJ 기다리는 사람 없는지,, 존버합니다,,️</t>
+  </si>
+  <si>
+    <t>정반대 intj로서 esfp 성격에 매우 놀라고갑니다ㅋㅋㅋㅋ핵인싸 자유로운영혼들 멋지네요ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>전직ESFP로서 과거의 삶을 돌아보게되었다ㅋㅋㅋㅋㅋ100%똑같진 않아서 인정하기 싫었는데 누가봐도 안웃을것 같은 포인트인거 아는데 강유미 웃을때 나 똑같이 웃고있을때 웃고나서 소름 돋아버림ㅋㅋ모르는 사람이랑 대화하다 공통관심사 찾아버려서 친근해져버리기.. 말투도 행동거지도 비슷하고ㅋㅋㅋ인간관계 핵 넓어서 연락만하면 약속잡혀서 1일4약속까지 해보고 약속끝나고 집오면 사람들 둘러쌓여있다 혼자되서 급 센치해지고 외롭고ㅋㅋ또 사람찾고 무한반복ㅋㅋㅋㅋㅋESFP는 앵겔지수 쩌는 삶을 살게됨</t>
+  </si>
+  <si>
+    <t>울다가 노래 부르고 잠드는거 왤케 웃곀ㅋㅋㅋㅋㅋㅋㅋㅋ 생각 많은 인프피로써 엣프피 성격 너어무 부럽다ㅠ</t>
+  </si>
+  <si>
+    <t>ISTJ는 보면서 환장할 포인트..
+1. 당일약속, 심지어 당장 만나자고 함.
+2. 본론 말 안하고 자꾸 딴 얘기함.
+3. 대놓고 옷, 외모 지적함.
+4. 혼자 술취해서 텐션올라버림.
+5. 이상한 장난침.
+6. 앞에 사람두고 통화함.
+너무 리얼해서 괴로워요..</t>
+  </si>
+  <si>
+    <t>ESFJ 존버합니당ㅎㅎ 엠비티아이 시리즈 넘 잼나게 보고있어용 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>ESFP 저희 엄만데 맨날 전화하는 거 소름 돋게 똑같아요ㅋㅋㅋ 인싸여서 아는 사람 너무 많아ㅋㅋㅋㅋ목소리도 짱크고 ㅋㅋ 넘 엄마 보는 거 같아서 웃겨 죽겠어용ㅋ크크킄ㅋ</t>
+  </si>
+  <si>
+    <t>바로 본론으로 절대 안가 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아 진짜 미워할수없다</t>
+  </si>
+  <si>
+    <t>"칭따오가 있어 커피숍에 광고 아니고서야 이게 무슨 억지 설정이냐고"래 아ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>이런 성격이 엣프피구나 ... 주변에 없어서 엣프피가 어떤 성격인지 몰랐는데 내 주변에 왜 없는지 알겠음. ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>유미님 영상을 계기로..
+인간을 싫어하지 않게되고
+이해할수 있는 계기가 되었으면
+합니다.
+아멘. ENFP /A형</t>
+  </si>
+  <si>
+    <t>아 .. isfp인데 어쩜 이렇게 다르지 ••? 잇프피는 갑작스런 약속 정말 싫고 그냥 집구석이 최고임 ㅠㅜ
+사람 만나는것 보다 집에서 뒹굴 거리는게 좋은데 막상 만나면 신나게 놀고 기 다 빠져서 후반부엔 정신은 이미 집에있는 ㅠㅠ i랑 e 하나 차이인데 이렇게 다르다니 싱기 ••</t>
+  </si>
+  <si>
+    <t>난 E가 맞긴 하구나 이 텐션 정말 편안하다ㅋㅋㅋㅋㅋ 제 모습 보는거 같네요....너무 재밌어요</t>
+  </si>
+  <si>
+    <t>영상 시작하자마자 모해모해뭐해무해모해몽해 하는거부터 엣프피다</t>
+  </si>
+  <si>
+    <t>솔직하게 말하자면.. ESFP 인데도 너무 기빨려서 끝까지 못보겠음...ㅜ 말 개많은거랑 전화&amp;대화 오래하는거, 리액션 크고 한번만나면 집에 잘 안들어가는거, 기분나쁜거 다 표현하는거 ㅇㅈ 근데 너무 심하게 하이텐션인듯 해욕.. 애기어도ㅜㅜ</t>
+  </si>
+  <si>
+    <t>엣프피는 사실 저러지 않습니다… 사람을 너무 조아하는 엣프피는 집에서 출발할때 전화를 먼저 다 돌립니다.. 모든 애들한테 전화한번씩 걸고 받는 애 잇으면 걔랑 수다타임..ㅎ</t>
+  </si>
+  <si>
+    <t>인팁인데 보고있으니 급 피곤해져서 2차가자는 말 뿌리치고 탈주합니다.......</t>
+  </si>
+  <si>
+    <t>이거 세계관연결되는거라니ㅜㅜ 가슴이 웅장해진다… 나중에 같이 합쳐 편집되겠징! ㅎㅎ</t>
+  </si>
+  <si>
+    <t>13:17 ENFP 토크 취향 여기서부터 슬슬 입꼬리 승천하다가 두루마리 휴지 나올 때 배 잡고 땅 구름 아
+너무웃겨ㅠㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인팁인데 보는 내내 계속웃었음 ㅋㅋㅋㅋㅋㅋㅋ 진짜 현실에서도 이런 친구들이랑 너무 잘맞는듯</t>
+  </si>
+  <si>
+    <t>마지막 취해서 신세한탄+내옆에아무도없다고 우는거 개똑같네 진짜;;;</t>
+  </si>
+  <si>
+    <t>엣뿌삐들 모여!!!!!공감 하고가!!!!!!!
+-사람 좋아함 솔직히 친구가 나랑 약속에 허락없이 다른 친구 데리고 나와도 기분 별로 안나쁨 바로 친해질수 있음 (오히려 좋아)
+-즉 흥 조 와
+-사람 만나는거 좋아하고 노는거 좋아하지만 집에서 쉬는것도 좋아함(침대는 나의 소울메이트)
+-게으름..ㅋㅋㅋㅋㅋㅋ
+-게으른데 또 부지런함 마음 먹은일은, 하고싶은 일은 무조건 반드시 해냄
+-의외로 머리써야하는 영화라던지 과학 분야 유튜브 좋아함 (양자역학 상대성 이론 너모 흥미로워,,,️‍)
+-스트레스 잘 안받음
+-자존감 높은편인듯(주변에서 많이들 그럼)
+-간zi나는거 짱조와함
+-꾸미는거 좋아함
+-하고싶은건 다 하고살아야하고 하기 싫은건 죽어도 안함..(못함)</t>
+  </si>
+  <si>
+    <t>나만 그런지 모르겟는데 엣프피 다 친구 많다는 소리 듣냐 ? ㅋㅎㅋㅎㅋㅎㅋ 근데 막상 내가 생각하는 진ㄴ짜 친구는 몇 없음 정 없게 들릴 수 있지만 그냥 그 분위기가 신나서 잘 노는거지 한 사람 한 사람이랑은 그냥 그럼 그리고 안 맞아도 걍 참고 그 분위기에서는 싫은 티 안 내고 노는데 개인적으로는 안 지냄 약간 겉인싸 느낌 다들 나한테 인싸라고 하지만 내가 생각하는 진짜 친구는 세명뿐 ,,,</t>
+  </si>
+  <si>
+    <t>저도 수년동안 ESFP 인데 맞는것도 많고 틀린것도 많습니다
+같은 유형이여도 사람마다 천차만별 이예요</t>
+  </si>
+  <si>
+    <t>ESTP인데 21:46 얘기도 감동이긴한데 뒤에 나오는 능력얘기 듣고 디지버져서 눈물샤워할뻔 했음...지대 최고....개짜릿해,,..난 최고..,,난 짱이야..,,,</t>
+  </si>
+  <si>
+    <t>신나서 달려왔는데 영상 틀자마자 5분도 안 돼서 동족혐오 느끼는 esfp... 이게 거울치료인가 그건가요 ㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>같은 말 두세번씩하는 것도 개공감ㅠ</t>
+  </si>
+  <si>
+    <t>예전 ESFP 남친 생각나서 웃었다가 울적해졌다가 
+저리 좋은 사람을.. 
+그 사람의 밝음과 따뜻함으로 어두웠던 내 삶이 밝아지고 처음으로 행복함을 배웠었는데..
+계속 함께 했다면 내 삶은 지금과 많이 달랐겠다 라고 생각.. ^^ 
+에이.. 어서 잡념과 공상에서 벗어나야지..</t>
+  </si>
+  <si>
+    <t>ENFJ 존버!!!!!</t>
+  </si>
+  <si>
+    <t>진짜 저게 날것의 엣프피이긴 한데ㅠ 실제로 절케까지 무례한 엣프피는 별로 없어요 물론 있긴 한데 어느정도 사회화가 됐다면 속으로 삼키는 법을 배우게 됩니다...</t>
+  </si>
+  <si>
+    <t>영혼없는데 영혼담긴 말투 개똑같다</t>
+  </si>
+  <si>
+    <t>정말 제 옆에 왜 없는 제 알것같아요 정말 의미없는 이야기들만 가득... 그냥 재미있는 모임에 한명쯤있으면 좋은 느낌이네요!  그 모임에 나는 없겠지만 ..</t>
+  </si>
+  <si>
+    <t>어떡해.. 눈알 반짝거리고 헛소리 사족 많이 드는 거.. 세상 쿨녀 유쾌한 척하는 거... 과장 심한 거... 완전 나인 거임 ㅜㅜ</t>
+  </si>
+  <si>
+    <t>esfp인데 첨에 영상보고 읭 내가 이랫나햇다가 상대mbti영상보니까 속으로 여기 대사랑 똑같이 생각하고 잇엇음ㅋㅋㅋㅋㅋㅋㅋㅋㅋ포인투 진짜 잘 집으신다</t>
+  </si>
+  <si>
+    <t>esfp가  istj랑 궁합이 좋다는데 지나가는 istj 이거 보고 기빨리긴 하는데 이런 친구들이 있어서 그나마 밖에 나가서 놀고 먹고 웃고 하는듯 악의 없고 밝고 쾌활한 esfp 친구들 보면 흥미롭고 재밌는듯. 즉흥적인 esfp가 계획적인 나랑 진짜 반대되는 성격이라 오히려 끌리는 걸까? esfp친구들 사랑해요♡ _istj가</t>
+  </si>
+  <si>
+    <t>10년전부터 검사할때마다 esfp인데ㅋㅋ
+댓글들보고 소름돋은게
+1.남의 감정변화 겁나캐치잘하고
+2.상대에 대한 물음표가 많고 잘들어주고
+3.얕은 잡지식이 많고(호기심많음)
+4.한 말 또하고
+5.좋은건 널리 알리고
+6.외로움은 잘타지만 금새 적응하고
+7.보이는모습이 그대로인..
+이거 맞아여ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ친화력이랑 텐션 오지는 엣프피들 넘 사랑스러웤ㅋㅋㅋㅋ같이있으면 재밌움...이라고 같이 텐션 맞추다 집오면 방전되어있는 잇프피가 말했다.</t>
+  </si>
+  <si>
+    <t>항상 알딸딸하게 취해있는 텐션이랄까... 인프제인 입장에선 엣프피의 텐션이 항상 신기합니다</t>
+  </si>
+  <si>
+    <t>intj인데, 정말 악의없이 좋은 사람인것도 알겠고, 나를 좋아해주는 것도 알겠는데, 만나기만하면 내가 너무 힘든 분이 ESFP라길래 그 분을 이해하고 싶어서 봤음.
+결론은 역시나 선하고 사랑스러운 분들이다. 그러나 나는 영상도 한번에 볼 수 없을 정도인데, 이 분을 만나면 나는 저걸 하루에 다 받아내야한다.
+포기하자(유미님 연기 정말 잘하시네요).</t>
+  </si>
+  <si>
+    <t>ESFP분들..넘나 귀엽네요. 쭈물쭈물
+저는 INFJ인데, 언제쯤 올리실지 모르지만 부디 건강 잘 챙기시며 찬찬히 하세옹️</t>
+  </si>
+  <si>
+    <t>아니..ESTP들 또 귀찮아서 댓글안다는거봐..^^
+ESTP도 해주세열~~존버존버</t>
+  </si>
+  <si>
+    <t>esfp 술 좋아하는거 개인정.. 짜증나는 일 있으면 주변 동네방네 다 말하는거 국룰</t>
+  </si>
+  <si>
+    <t>esfp 갈수록 너무귀엽닼ㅋㅋㅋㅋㅋ매력에 빠져버렸네</t>
+  </si>
+  <si>
+    <t>3:59  갑자기 사장님 or 종업원 붙잡고 tmi 남발 및 감사인사.... 저인줄..... ㅋㅋㅋ 진짜 잘보고 갑니다 유미언니 사랑해요</t>
+  </si>
+  <si>
+    <t>ISTP 존버합나당… (귀찮은 마음을 무릅쓰고)</t>
+  </si>
+  <si>
+    <t>예전에 손절했던 친구가 딱 이랬는데 100% 리얼이라 미쳐버리겠어요··· 유미님 정말 인간분석기~!! ^_^ㅠ</t>
+  </si>
+  <si>
+    <t>저 INFJ인데 레알 기 빨려요ㅋㅋㅋㅋㅋ
+심지어 손절 각도 한 두개가 아님…
+그렇지만 나랑 안 맞을 뿐 밝고 친화력과 행동력 넘치는 점이 부럽네용ㅎㅎ</t>
+  </si>
+  <si>
+    <t>저 완전 찐 인프피인데,, 옆에 있을 때 대화 보따리 가득 풀어줘서 너무 고마운 엠비티아이 중 하나에요... 가끔 기 빨리긴 하지만...🥹</t>
+  </si>
+  <si>
+    <t>광고를 위한 빌드업이 있었단 말이야 ..? ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 윰언니 스토리 구상 노트가 궁금할 지경</t>
+  </si>
+  <si>
+    <t>아 근데 사실 저 mbti 성격 같은 거 하나하나 잘 모르는데 언니 영상만 보면 그 mbti가 어느 성격인지 너무 잘 알겠어요ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인프제인데요 댓글 열심히 썼다 지웠다 반복하다 갑니다.
+인프제 존버  다음엔 또 어떤 유형일까 기대기대  윰언니 천재 아니냐구 </t>
+  </si>
+  <si>
+    <t>무례, 손절 댓 많은듯... 
+극강의 인팁인데, 자의로 만나서 시간까지 보낼 정도라면 표면적으로 무례해보이는 언사라 할지라도 관계성에 기반한 솔직한 말로 받아들이고 인정하지 기분나쁘게 생각하지 않음
+진짜 손절각은 민폐짓에 대한 자아성찰 한번 없이 거듭하는 사람들  또는 인성파탄자임
+그 외엔 나의 마이너스 내지 흑화 부분을  빠르게 찾아보고, 그 사람들 역시 그럴 수 있지 라고 생각하며 넘어감
+결 : 이번  편 귀여운 유형인듯</t>
+  </si>
+  <si>
+    <t>일단 지각은 했지만 세상 억울해서 얘기할 때 말까지 살짝 더듬는것까지 디테일 연기.. 세상 천재다</t>
+  </si>
+  <si>
+    <t>Mbti 특집 너무 좋은것 같아요!! 자기 mbti가 아니더라도 재밌게 볼수있고, 자기 mbti는 언제 나올지 기대도 되구요 ㅋㅋ 근데 제목에 ASMR은 ㅇㅖ의상 붙어있는 거 같은 느낌이 ,,,ㅋㅋ</t>
+  </si>
+  <si>
+    <t>기분 바뀔 때마다 모자 챙 올렸다 내렸다 하는 거ㅋㅋㅋㅋㅋ 귀여웡</t>
+  </si>
+  <si>
+    <t>말이 많음
+인싸 중의 아싸 아싸 중의 인싸
+'내가 인싸라고?'
+긍정적임
+그럴수도있지 라고 말많이함
+덜렁대고 저지름
+어색함 풀려고 말 자주함
+스포 안싫어함
+미래 걱정하면서 오늘만산다
+웃음이 많음</t>
+  </si>
+  <si>
+    <t>우와 드디어 내 MBTI로 무언가를 해주는 영상이 있구나,, 언니 진짜 사랑해요 내 마음을 읽었어</t>
+  </si>
+  <si>
+    <t>아 엣프피 기다려쨔나!!! 너무조아!!! 엣프피 손들어!!
+무야호!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>1:18 이게 디테일이지... 사는 곳도 모르는데 도움 요청할 수 있음 엣프피한테 세상은 돕고 도는 아름다운 공동체임 처음보는 사람과도 정서적인 공유 가능함</t>
+  </si>
+  <si>
+    <t>표정관리안하는거 속과겉이투명한거 레알ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인팁인데 이 영상을 보고나니 지난번 나온 인팁은 꽤 사회적인 인팁 같네요.. 반도 못보고 기빨리고 왜 불렀지? 싶고 집에 가고싶음 향후 연락 안할듯</t>
+  </si>
+  <si>
+    <t>하 intp인데,, 인팁 편 보면서 상대방은 도대체 무슨유형이길래 인팁이 저렇게 마른넙치가 되었을까 ㅈㄴ궁금했는데,,,,,, 이번 편 보면서 저도 모르게 마른넙치가 되어버렸어요,,,,</t>
+  </si>
+  <si>
+    <t>친구가 많아도 약속이 금방 잡혀도 밖에서는 신나게 즐겁게 놀지만 집에 오면. 찾아오는 공허함 외로움 엄청 잘 느낌
+사람 좋아하는 사람들이라 그런지
+그 어떤 것보다 인간관계를 중요시 여김
+친구들 많지만 그래도 진짜 친하지 않으면 먼저 연락 잘 안 함(만약 예외의 경우 친해지고 싶은거임) 어디서나 잘 친해지는데 팩트폭력하는 사람 공감능력 떨어지는 사람하곤 친구하기 힘듬... 맞는 말이라 해도 듣고 싶지 않음</t>
+  </si>
+  <si>
+    <t>Esfp친구 있는 entj인데요..
+정말 진지해야할 때조차도 무계획에 (사실 계획은 있어보이는데 entj입장에서 볼땐 무계획에 가까움. 어떻게든 되겠지&lt;- 이생각이 더 커보여서..)
+생각없어보일때가 있고 허당끼에.. 진짜 답답해 미칠 것 같아서 때려버리고 싶은데 무해한 해맑음에 결국 웃음터짐ㅋㅋㅋㅋㅋ카톡하면 넘 재밌음ㅋㅋㅋㅋ
+이것저것 도와주고 싶어서 알려주면 밑빠진 독처럼 보람은 없지만 그래도 힘든일 있을때마다 날 찾는다는건 의지가 된다는 거겠지요? 하ㅋㅋㅋ
+내 인생도 바쁘지만 내 친구가 잘 되는 것도 행복이여서 될 수 있는대로 챙겨주고 싶음.</t>
+  </si>
+  <si>
+    <t>티엠아이 개쩔고 감정표현 개쩔고 리액션 최고좋은 엣프피 최고!!!!!! ㅋㅌㅌㅋㅋㅋㅋ친구한테 니가 최고라고 다 꺼지라고 말해주는것도 나고 전화해~ 하는 것도 나고 당장 놀 친구없어서 슬프지만 금방 잊고 흥얼거리고 단순하게 걱정잊어버리고 잠드는 내 모습도 똑같다,,, 
+유미님 천재이신가여....???? 엣프피들 다 모여라~~~ 댓글 다는거 귀찮아서 숨어있는거 다 안다</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ인팁이랑 용케 어떻게 대화를 이어가나 했더니 그 상대가 엣프피였군요
+- 한때 인팁이엇던 사람 -</t>
+  </si>
+  <si>
+    <t>+) 엣프피 온라인상 특징은 ㅋㅋㅋㅋㅋㅋ 겁나마니씀!! 아니 나는 친구들이랑 카톡할때 ㅋㅋㅋ 안쓰면 너무 답답하고 내 감정 전달이 안되던데 ISTP 나 ISFP 이런애들은 진짜 안쓰던데.. ㅋㅋ 안쓰고 어떠케 그러케 얘기하져..? 나만큼 ㅋㅋ 마니쓰는 ESTJ 는 그걸 단축키로 등록해놓고 써서 겁나 웃엇음 ㅎㅎㅎㅎ 
+언니 엣프피 영상 만드러조서 고마워여! 헤헷</t>
+  </si>
+  <si>
+    <t>엔프피로써 엣프피와의 차이라면,,
+뭔가 엔프피는 다소 예민하고 섬세한 골든리트리버라면 
+엣프피는 그냥 단순하게 해맑은 골든리트리버랄까,,
+엔프피편도 기대할게요!!!</t>
+  </si>
+  <si>
+    <t>23:20 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ진짜 슬픈 노래 부르다가ㅋㅋㅋㅋㅋㅋㅋ
+술 먹다가ㅋㅋㅋㅋㅋㅋㅋㅋ급 포에버영~~~빰빰빰빰빰ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그러다가
+또 신세 한탄ㅋㅋㅋㅋㅋㅋㅋㅋ무한반복하다가 취침ㅋㅋㅋㅋㅋㅋㅋㅋㅋ개욱곀ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인팁인데 가끔보면 좋은친구 ㅎㅎ 먼저 다가와줘서 좋긴한데.. 원하는 리액션을 못해주는거같아서 미안해져요ㅋㅋ 자주 만나기에는 공통관심사가 없는편ㅎ
+와 21:40 이 부분이 정말 똑같아요 ㅋㅋㅋ 지나치게 솔직한듯 무례한듯 하지만 쓸쓸할때 전화해라+상대 장점 숨김없이 칭찬하는 거ㅋㅋ 이런점 때문에 미워할 수 없는듯</t>
+  </si>
+  <si>
+    <t>이거보고 저희 엄마 (esfp) 이해하게됐어요 엄마 맨날 전화와서 바쁘시고 저한테 이얘기 저얘기 의식의 흐름대로 계속 말씀하시고 정작 제 대답은 잘 안들어주셔서 안맞다고 생각했는데
+이영상보고 엄마가 이해되고 귀엽게 느껴지기 시작했어요
+저희엄만 술은 안드시는데 완전똑같아요 쓸데없이 진지한얘기 안좋아하시고 친구 많으시고 늘 휴대폰에 전화 많이 오고 제가 힘든일 이야기하면 다른사람들이 다 질투하는거라며 신경쓰지 말라고 하시죠…. 존똑….. 엄마 사랑해 ㅠㅠ️ (저는enfp입니다..)</t>
+  </si>
+  <si>
+    <t>지붕킥 황정음이 딱 esfp라고 생각함ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ돈 맨날 우당탕탕쓰고 ㅠㅠ계획없이.. 우울한일 있어도 금새 기분 풀리고 뀽~ ㅋㅋ 하고있고 그냥 일상이 시트콤
+그리고 좋은거있으면 나혼자 못참아
+이건 널리알려야돼 홍익인간의 실사판
+좋은거 다소문내 다영업해 !!!!!!!ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ESFP인데 말투 나랑 똑같음ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 근데 저렇게까지 눈치 없이 굴진...않아요...ㅎ</t>
+  </si>
+  <si>
+    <t>헐 INTP-INTJ-ESFP 이순서라면 다음이 ESFJ인데..? 엣프제 축배를 들어라️</t>
+  </si>
+  <si>
+    <t>저기더 더 행동이 과장되고 ㅇ말할때마다 웃으면 완전 진짜 전데요? ESFP현실고증 너무 연기잘해서 계속 감탄하면서봤어욬ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ짱</t>
+  </si>
+  <si>
+    <t>ESFP인데 자존감도 높은편이고 남이 날 칭찬해주는건 좋아하는데 내가 내 입으로 내자랑하는건 진짜 못하겠음...</t>
+  </si>
+  <si>
+    <t>INFJ 존버 합니다...☆ 근데 요번 영상도 고렇고 다른 엠비티아이 특성 이렇게 잘 살리시는 거 대단해요ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>시작부터 기빨려서 영상 멈추고 댓글 봤더니
+댓글에 인팁인데 .. 로 시작하는 사람들 다 흐물감튀 되어있음 .. 애초에 나같으면 발신자 확인하고 전화 끊길 때까지 기다렸다가 30분 뒤에 왜 전화했냐고 카톡이나 보냈을 듯 (+ 이유는 궁금한데 만나기는 싫어서 침대에 누워서 유튜브 보고 있었으면서 전화받을 수 없는 상황이라고 대충 둘러대기)</t>
+  </si>
+  <si>
+    <t>진짜 esfp 특: 이 영상 너무 길어서 첨부터 끝까지 다 못보고 다른 사람이 스크랩 걸어놓은거 누르면서 띄엄띄엄 보다가 댓글 몇개 보다가 끔</t>
+  </si>
+  <si>
+    <t>사람들 다들 이렇게 살지 않나 생각했는데.. 딴거보고오니까 확실히 다르네 첨부터 끝까지 너무 내 모습이라… 어쩐지  익숙하다</t>
+  </si>
+  <si>
+    <t>약간 ,,, 우리 엄마 이 유형인거 같음 전화 2시간 신나게 하고 바로 다음 전화 받아서 한 얘기 또하는 재주가 있으심</t>
+  </si>
+  <si>
+    <t>Mbti 유형별로 성격 파악해서 표현하는게 쳐돌이인 나도 텍스트로만 보고서는 겉핥기식 밖에 모르는데.. 이렇게 긴 시간 디테일하게 표현하시는 유미언니는 대체,,,, 와,,,, 진짜 넘 멋있어여,,,,
+주변에 유형별로 사람 다 인터뷰하시나여????? 진짜 궁금해욬ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와 이거 intp 영상이랑 이어지는 거 천재같다 유미쨩 진짜</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ감정적이고 쉽게 상처받지만 막상 그 사람 만나면 모질게 안함.. 다른사람 대할 때처럼 웃고 떠듦 진짜 엄청난 앙금이 쌓이지 않은 이상? 미움이 사라졌다기 보다는 그냥 인간관계 망쳐지는 게 더 힘듦.. 스트레스 받으니까.. 그냥 넘어가는 게 나음!</t>
+  </si>
+  <si>
+    <t>와 진짜 끊임없이 말하는구나 왕신기ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>염치 없지만...ISTP 존버타봅니다...역시 잇팁들 귀찮아서 댓글안단게 눈에 보이는군요</t>
+  </si>
+  <si>
+    <t>시작할때 왼편에 enfp 줄쳐있는거보니 담번 영상은 엔프피군요!!! 꺄 벌써부터 오도방정 떨 준비 완료</t>
+  </si>
+  <si>
+    <t>다 됐고 우리가 세번째라 넘 행복한 엣프피!!!!! 항상 어딜가나 우리 분량이 적어서 섭섭했는데 ,, 최고  귀찮지만 댓글 써봅니다 
+그리고 진짜 어딜가나 밝고 성격 좋고 이ㅣ런 칭찬 많은 거 좋은데 사실 우리가 사람마다 맞춰주고 또 상대방 따라  리액션 반응 이야깃거리 이런거 눈치 엄청 보고 맞춰서 하는 건데 다들 나만 그런가여 ??? 와중에 문장 문맥 안 맞고 그런것도 엣프피 특징인듯  ㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋ 하고싶은 말이 너무 많은 걸 어째 !! 다른 사람 감정 기분 젤 많이 생각하는 유형인듯. 오늘도 친규들이 이거 꼭 봐라 완전 너다 해서 왔는데 댓글 보면서 친구유형들(잇프제, 인티제) 마음 알고 살짜쿵 속상했지만 '그럴수도있지~'하고 자러가는 엣프피 올림</t>
+  </si>
+  <si>
+    <t>아앀ㅋㅋㅋㅋㅋㅋ 처음부터 뭐패뭐해뭐해뭐해 무ㅜㄴ데뭔데뮤ㅓㄴ데 이거 완전 나라구욬ㅋㅋㅋㅋㅋㅋ 유미님 저 몰래 훔쳐본 거 아니져..?ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ
+사장님한테 하는것도 진짜.. 완전 존똑 와 대박이다~!~ 최고에요~!~!~</t>
+  </si>
+  <si>
+    <t>가게사장님이랑 얘기하고있는거 놈흐웃기네ㅋㅋㅋㅋ 
+인프피 기대합니다..개인적으로 인팁이상으로 재밌을거 같음</t>
+  </si>
+  <si>
+    <t>엣프피는 우울한것도 금방 잊고 털어버려서 행복하게 살수있는거같음ㅋㅋㅋㅋ 난 그런 내가 좋음 단순무식해보일수도 있지만 행복하면 그만이라고 생각함</t>
+  </si>
+  <si>
+    <t>4:52 봄이든 여름이든 가을이든 겨울이든 내가 모든 사람들이랑 말 시작할 때 하는 말 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>매일 남의 발톱 섭취하시는 듯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">꺄륵 ESFP 입니다 ㅎㅎ 지금은 나이가 좀차서안저러긴하는데 이십대 초반의 저의 모습을 보는것 같네요 . 더이상의 댓글은 귀차나서생략 
+재밌게 잘봤습니다 </t>
+  </si>
+  <si>
+    <t>생각없이 말 많고 오디오비는 거 싫고 하루종일 이야기하다가 집오는 길에, 집에서 내가 오늘 무슨말을 했더라 하고 후회하는 esfp... 모르는 애들 앞에서 나대기 잘하고 말거는거 제일 잘하는 esfp 난 T가 되고싶다....</t>
+  </si>
+  <si>
+    <t>와 지각 변명하는 모습 진짜 제 지인이랑 소름돋게 일치하네옄ㅋㅋㅋㅋㅋㅋㅋㅋ
+그리고 그 지각할 수 밖에 없는 이유도 구구절절 설명하는 것돜ㅋㅋㅋㅋ
+그리고 그얘기 들으면서 딴생각하고 요점이 먼지 빨리 간단하게 끝났으면 하는 나 intp…</t>
+  </si>
+  <si>
+    <t>엣프피 나온 이유가 칭따오 광고 때문이 아닐까 생각합니닼ㅋㅋㅋㅋ 술하면 엣프피인 것.. 엣프피 인생에서 술 절대 못 빼~!</t>
+  </si>
+  <si>
+    <t>0:02 다음은 ENFP인가보다ㅋㅋㅋ ENFP도 같이 형광펜 표시돼있네요</t>
+  </si>
+  <si>
+    <t>저 인팁인데 너무 탈주하고 싶어요… 자꾸 그래서…뭐가…문젠데…? 라고 대답하고 싶어요…아직 10분밖에 안봤는데 너무 탈주하고 싶어서 그만 좀 보겠습니다… 언젠가 꼭 다 볼게요 하지만 지금은 no…</t>
+  </si>
+  <si>
+    <t>보는것만으로도 존니 기빨림... 개힘들다</t>
+  </si>
+  <si>
+    <t>와 진심 내동생 esfp인데 투머치토커,오지랖,리액션은 당연하고 마지막 엔딩에서 터져땈ㅋㅋㅋㅋ 우울하다고 하자마자 노래부르고(심지어 노래도 똑같) 옆에 아무도 없어서 슬프다고 하자마자 잠들고 ㅋㅋㅋㅋㅋ 미쳐 esfp ㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>정말 인팁과는 다르구나를 느끼는중</t>
+  </si>
+  <si>
+    <t>엣프피라서 영상 봤는데
+이정도면 차분한거 아닌가..? 하고 댓글봤는데
+다들 기빨린다고 그래서 오..??진짜? 했네요 확실히 느끼는게 다른가봐요</t>
+  </si>
+  <si>
+    <t>제남편이 esfp 라서 봣는데 진짜 내남편 보는거같다...일단 말이 많음..리액션도 많음.. 특히 드라마 보면서 혼자 난리임.. 어머님도 제발 조용히좀 하라고 할정도ㅋㅋㅋ 어중간하게 친한 사람하고 이야기 할때랑 편한사람하고 이야기 할때랑 조금 다른데 옆에서 보면 너무 웃김. 사람 만나는거 좋아하고.. 어제는 개빡쳐도 다음날은 다 잊어먹는건지 화풀려서 그런건지 다시 먼저 와서 앵기거나 기분 풀려있음. 말할때 굳이 돌려 말하지않고 할말 다 함. 저는 istp 인데 남편이랑 잇다보면 기빨림</t>
+  </si>
+  <si>
+    <t>아니 mbti 영상들 댓글 보면 항상 esfp만 없어서 진짜 외로웠는데 여기에 esfp가 다있네ㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>intp과 esfp는 갈등관계로, 한번 친해지면 절대 갈등이 없는 관계라고 한다. (갈등이 없어서 이름이 갈등 관계) 근데 이렇게 한번 친해지기가 어렵다고..ㅋㅋㅋ 그래도 이 조합 재밌다. 켄마와 히나타같은</t>
+  </si>
+  <si>
+    <t>엣프피친구는 나에게 없어선안될 벗임.. 음식점에서 주문하나 잘 못하는 극성I_F_인 나에게 한줄기 빛과 같은 존재… ㅠ ㅜ</t>
+  </si>
+  <si>
+    <t>일단 엣프피는 옷 더 화려하게 입어요 ㅋㅋㅋㅋㅋㅋㅋㅋ 검은 색 잘 안입음</t>
+  </si>
+  <si>
+    <t>아 누르자마자 재밌다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>차가워보이고 융통성없다고 생각하지만 사실상 내사람한테 잘해주고 규칙좋아하는  ISTJ 기다릴게요ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>사람 좋아하고 행동력쩌는거 진짜 우리오빠네 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ ㅠㅠ</t>
+  </si>
+  <si>
+    <t>Esfp인데 친구 or 모임에서 생각해보니 나만 말하고 있다는걸 알게됨. 그래서 일부러 작정하고  말 안하니깐 ㅋㅋㅋ 뭐 기분 안좋은거 있냐? 오늘 피곤하냐? 사람들이 걱정해줌  ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>감정 솔직한거랑 생각 단순한게 인팁에게 끌리는 듯. 그래서 거절 못하고 결혼한건가... (나 intp, 남편 esfp)
+장황한 설명을 듣고 있으면서도 정확히 뭘 말하고 싶은지 요점을 물어보는 나와 그런 나를 섭섭해하는 남편의 일상을 보는 것 같네요. ㅎㅎ
+아, 술 쟁여놓는거랑 나 이상하다고 하는 것도 존똑.</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ엣프핀데 자기랑 개안맞는ㄷㅏ는 댓글 보고 먼가 속상함 ,,,, 나도 너네랑 안맞아 시벌,,,,</t>
+  </si>
+  <si>
+    <t>와...istj는 보는 것만으로도 기빨리고 갑니다..집에 가고싶어지는 영상이네요.,,</t>
+  </si>
+  <si>
+    <t>어딜가나 주인공되야하는데 안되면 우울해여 ㅜㅜ</t>
+  </si>
+  <si>
+    <t>엔프피 너무 보고싶어서 발가락 긁었는데 움찔 하고 반응했어요 이 다음편 엔프피인가봄 ㅋ ️‍️‍️‍️‍</t>
+  </si>
+  <si>
+    <t>와 언니.. 진짜 표정 연기 대박인 것 같애요..
+항상 느끼지만 매일 새로운 사람이 업로드하는 것 같은 강유미 유튜브... 언니 몸 속엔 도대체 몇 명이 살고 있는 건지..</t>
+  </si>
+  <si>
+    <t>울 엄마 암만봐도 esfp인데, 나만 보면 옷이 맘에 안든다고 옷 사주겠다고 함. 매우 즉흥적임. 공부하고있으면 갑자기 티비 재밌는 거 나온다고 보라고 방문 두들김. 엄마랑 전화하면 엄마 얘기만 하는데 수다가 길고 얘길 엄청 재밌게 함. 얘기하다 내가 말실수하면 갑자기 빡쳐서 혼냄. 집에도 오늘 오라했다가 당일 갑자기 오지말고 담주에 오라고 함. 양말 두짝이 제대로 짝지어진 적이 없음. 진지하거나 어두운 분위기 못참고 농담함. 타고난 입담과 공감력으로 사람들에게 인기만점. 취미가 피아노 중국어 영어 등 수시로 바뀜. 타고난 현실감각으로 기억력과 암기력이 뛰어남. 집 꾸미기를 좋아해 집이 엄청 이쁨. 여행 좋아하고 긍정적 낙천적. 사람에 대한 관찰력이 뛰어남.</t>
+  </si>
+  <si>
+    <t>모자까지 존똑 ESFP 만세 ~️</t>
+  </si>
+  <si>
+    <t>아 ESFP 개조아요!!!!!!!! 과몰입중인 엣프피라 언제 나오나 기다리고 있었는데 넘넘 행복해용 사랑해요요오오 ㅠㅠ 넘 설레서 영상 보기 전에 댓글부터 쓰는 엣프피</t>
+  </si>
+  <si>
+    <t>16:15 ㅋㅋㅋㅋㅋㅋㅋ유미언니한테 광고 넣어준 칭따오 센스~~ 오늘 혼맥은 칭따오다~~~!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESFP와 연애하는 INTJ입니다 ㅋㅋ 성격이 정말 극과 극을 달리는데 반면에 서로 보완하고 플러스 되는 점도 많아서 재밌는 거 같아요. </t>
+  </si>
+  <si>
+    <t>인프제이지만 술자리는 너무 좋아해서ㅋㅋ엣프피 친구 있으면 방 빌려서 새벽까지 마시고 싶네요ㅋㅋㅋ직장에서 회식 하고 술 취해서 다들 집에 간다길래 벌써 가냐고 펑펑 울었던 기억이ㅋㅋㅋ암튼ㅋㅋ 너무 귀여운 엣프피예요ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>원래 진짜 댓글 안달지만.... ISTJ 완전 기대합니다.. 오늘도 영상 잘 봤어요....</t>
+  </si>
+  <si>
+    <t>우리아들이 ESFP인데 시작부터 빵터짐 강유미씨 진짜 천재 INFP도 해주세요~</t>
+  </si>
+  <si>
+    <t>4:10 친구들한테 소개한다고 하는거 개똑ㅋㅋ</t>
+  </si>
+  <si>
+    <t>infp인데 esfp 친구들한테 뜬구름 잡는 개소리 하지말라고 매일 같이 들었어요ㅋㅋㅋㅠㅠㅠ재밌게 보구가요오 !</t>
+  </si>
+  <si>
+    <t>닮고싶지만 닮을 수없는유형..
+저번부터 이 시리즈보는데
+공부 진짜 많이하시나봐요 말투 표정 제스처 옷차림
+악세사리ㅜㅜ유형별로 다 다르다니..
+멋있어요ㅜㅜ</t>
+  </si>
+  <si>
+    <t>선의의 옹호자 INFJ 존버</t>
+  </si>
+  <si>
+    <t>Mbti 진짜 과학이다,,, 이 영상 시리즈 보면서 다 너무 공감되서 소름...</t>
+  </si>
+  <si>
+    <t>21:46 INTP 찐 감동 받았어요ㅠ</t>
+  </si>
+  <si>
+    <t>나중에 교차편집 편 올려주실거죠?! ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아 이 미친 세계관....</t>
+  </si>
+  <si>
+    <t>저번편 INTP 만난얘가 ESFP였구낰ㅋㅋㅋㅋ반대편입장에서 보니까 또 개웃기넼ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>아니 이게 진짜 보다보니까 잠이 오네요.. 에에셈알이 맞긴 맞나보ㅓ요.. 영상이 재미없다는 말 아니구 진짜 톤이나 이런게 듣기가 너무 편안해요 컨텐츠와 에에셈알 둘 다 잡은 천재 유미언니</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ인팁보다 넘어왔는데 역시ㅋㅋㅋㅋ 회사동료관계였군ㅋㅋㅋㅋㅋ 그러지않고서야 섞이기 힘든 엠비티아이들ㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFP 유형인 사람인데 존버 탑니닷,,,,,,,, </t>
+  </si>
+  <si>
+    <t>유미누나는 진심 천재다... 같은 시대 사는 게 너무 좋다</t>
+  </si>
+  <si>
+    <t>악세사리 빡세게 한거두 엣프피 고증ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와 인팁인데 너무 기빨리고 피곤하고 집인데 집 가고 싶어서 영상 4번정도 나갔다가 가시 꾸역꾸역 다 봤어요 휴</t>
+  </si>
+  <si>
+    <t>-아.. 이 영상보기 저만힘든게 아니었던 것 같습니다.. ㅋㅋㅋㅋㅋㅋㅋ
+원래좀 그런거라고 생각하면 훨씬 나은것 같네요.
+-역시 자기와 다른 정신세계에서 살아가는 이들의 세계를 안다는건 서로를 이해하고
+상대하는데에있어서도 의미있는 일인것 같습니다~</t>
+  </si>
+  <si>
+    <t>INTP 편 볼때는 이왕 친구랑 놀러나왔으면서 왜 저렇게 행동하지 생각했는데
+ESFP 편을 보고나니 들숨 날숨과 동시에 숨 쉬듯이 무례를 범하는 느낌이라 너무 기빨림 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>esfp 말많고 공감잘해주는 좋은 친구</t>
+  </si>
+  <si>
+    <t>제 친구 esfp인데 그냥 제 친구 그 자체네요 ..
+의리있고 단순하고 착하고 귀엽고 좋아하는걸 숨기지 않는데 기빨려요 
+가끔 전화오면 안받아요 .. ㅎ 그 날 하루가 지치거나 힘 든날엔... ㅋㅋㅋㅋㅋㅋ 친구야 미안하다 ㅠㅜㅠㅠ</t>
+  </si>
+  <si>
+    <t>진짜 무해하고 성격 좋고 모임에 하나씩 있으면 텐션업되고 좋지만 1:1로 만나기 부담스러운 친구ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>16:15 유미언니 섭외 센스 진짜 끝내죠~~~</t>
+  </si>
+  <si>
+    <t>Esfp 외톨이라고 생각했었는데 의외로 많네 ㅠㅠ 반갑다</t>
+  </si>
+  <si>
+    <t>단점
+1.솔직히 너무 감성적이고 너무 쉬움 ( 생각이 안깊음 ) 그래서 속편한 친구로는 좋지만 사실 esfp한테 깊은 이야기는 일부러 안함... 
+2. 너무 쉽게 판단 쉽게 포기 쉽게 결정...
+장점
+1. 친구를 마음으로 좋아하지 머리로 좋아하지 않음 ( 있는 그대로 봐줌) 
+2. 사람을 좋아해서 늘 자기 일처럼 아파하고 공감해줌.</t>
+  </si>
+  <si>
+    <t>이정도의 세계관이면 도믿걸은 무슨 엠비티아이일까... ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>esfp 희망편 분위기 메이커 발랄함 긍정적 
+절망편 대화의 90프로 뒷담화 아는 사람얘기 중2감성</t>
+  </si>
+  <si>
+    <t>진짜 보고만 있어도 기빨리는 intp…. 갑자기 연락해서 약속잡고… 사실 누가 내 뒷담화 했을 때 별로 화가 안남… 세상엔 별 미친사람들이 많기때문에.. 감정을 낭비하고싶지 않음… 근데 계속 해결할 수 없는 일에대해서 감정을 소비하는 게,좀 기빨리고 어떻게 반응해야할지 모르겠음,, 뒷담화 한 건 이미 어쩔 수 없는 사실이고… 그걸 없앨 수 있는 방법이 있으면 해결하고 없으면 미친사람이라고 생각하고 하는 거 열심히 하면 되는 거 아닌가.. 사실 느가 내 뒷담까능게 그렇게 싫지 않음.. 그것도 관심이고 정성이잖앙..</t>
+  </si>
+  <si>
+    <t>같은말 두번하는거 넘 찐이얔ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ오키오키 기둘기둘</t>
+  </si>
+  <si>
+    <t>이번엔 심지어 밖에서 시작 ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>이번편도 최고에요 살아있는 인류 관찰보고서엔티제도 존버합니다</t>
+  </si>
+  <si>
+    <t>저도 esfp 인데ㅋㅋ 영상의 유미님만큼 하이텐션은 아닌데 댓글의 esfp는 진짜 맞는것같아요.. 혹시 다른 esfp 분들은 친구로 어떤 mbti 좋아하시나요? 저는 제가 간택하는 사람들 보면 모조리 isfp isfj 더라구요ㅋㅋㅋ진짜 한결같은 소나무 취향인데 다른 esfp분들도 궁금해요</t>
+  </si>
+  <si>
+    <t>인팁편과 이어져서 더더 재밌어여ㅜㅠㅠ</t>
+  </si>
+  <si>
+    <t>같은 말 반복하는거 진짜 소름 돋았어요</t>
+  </si>
+  <si>
+    <t>ENFP존버..잠깨우는 에셈알이 될지라도...존버...이세상 엔프피들 다모여</t>
+  </si>
+  <si>
+    <t>엣프피 왜이렇게 귀여웤ㅋㅋㅋ큐ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>헐 esfp인데 esfp는 멀었겠지? 했는데 일찍 올려주셨다 ㅎㅎ재밌게 볼게용</t>
+  </si>
+  <si>
+    <t>그러고보니..ㄹㅇ 내 주변에 없는 mbti였음... 어쩐지 낯설고.. 조금 기빨리고.... 근데 또 성격은 되게 좋아보여(?)</t>
+  </si>
+  <si>
+    <t>대한민국에서 제일 잘 살아남는 성격 유형 ESFJ 기대할게요</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ꼭 반복해서 모해모해 그래그래 하는 거 공감...ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>아니 미친 ㅋㅋㅋ은근히 계속 보게 되네 이 매력 무엇? ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아침에 친구 패션지적하던 제가 생각나네여 ㅋㅋㅋㅋ
+그리고 직업특성상 말 많은거 시러하지만 막상 일자리에선   말수가 적어도 사적인 공간에서 편한사람앞에선 발동 걸리면 오디오 빈틈없이 오지게 말 많이함 ㅋㅋㅋㅋㅋㅋ
+그리고 몇몇분들 기빨린다는데 나만 기 안 빨리나ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>미쳤다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 친구 중에 ESFP 있는데 너무 똑같애 ㅠㅠㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋ 같은 말 반복하는 것도 존똑</t>
+  </si>
+  <si>
+    <t>진짜… 천의얼굴… 미친재능… 유미님이랑 동시대에 살아서 행복합니다</t>
+  </si>
+  <si>
+    <t>ESFP 저희 엄만데 맨날 전화하는 거 소름 돋게 똑같아요ㅋㅋㅋ 인싸여서 친구 아는 사람 너무 많아ㅋㅋㅋㅋ목소리도 짱크고 ㅋㅋ 넘 엄마 보는 거 같아서 웃겨 죽겠어용ㅋ크크킄ㅋ</t>
+  </si>
+  <si>
+    <t>Esfp 나와서 넘 좋네요 강유미 짱️</t>
+  </si>
+  <si>
+    <t>세계관이 이어져..? 인티제 재밌다고 보고 인팁은 대충보고 넘겼는데 ㄹㅇ 정주행각이다.</t>
+  </si>
+  <si>
+    <t>오...의외로 I분들이 기빨려하는구나. 엔팁인데 엣픕한테 전혀 기빨리는 거 못 느끼고 같이 방방 뜸. 저런 얘기하면 나는 험담한 애 심리분석 오지게 해주고. 그러면 엣픕이 "그치? 그치? 니가 봐도 개호로시끼지?"이러면서 의외로 죽이 잘 맞음. 이론적이거나 추상적으로 깊이 있는 얘기는 좀 살짝 핀트가 어긋나지만 맨날 킬링타임하며 잘 다녔음. 그리고 나란 엔팁은 엣픕이 저런 얘기하는 말투와 제스처와 얘가 겪고 있는 감정의 격동이 재미져서 관심가짐. 관심없는 것이 아님. 정말 관심없는 건 근거도 없이 뇌피셜로 남 뒷담 까거나 숟가락 수 세면서 개인의 자유인 문제 가지고 트집잡는 얘기들임. 그런 얘기는 듣는 자체가 시간낭비, 뇌가 썩는 기분으로 극혐하는데 내 엣픕 친구는 너무 웃기고 뇌피셜로 그러는 애가 아니라서 ㅋㅋㅋ 항상 신나서 들음. 감정표현이 솔직하고 뒤틀린 구석이 없어서 그게 엔팁인 내가 엣픕 친구에게 아주 좋은 점수를 주는 부분이지.</t>
+  </si>
+  <si>
+    <t>estj인데 이런 스타일 보며 참 인싸같다.. 생각은 하지만 성향이 너무 안맞고 기 다빨림.. 자주 안 만나게 됨..</t>
+  </si>
+  <si>
+    <t>40후반 인팁여자입니다.인팁보면서 현재의 저와 같아 웃었어요.  그런데 저는 정리는 잘해요.ㅋ
+과거 20대에는 esfp였죠.
+그땐 내가어땠나 esfp도 찾아보게 됐네요.
+이거보니 진짜 젊은날 그져 명랑하고 말많고 깨발랄 제가 생각나네요.
+살다보니 성격도 많이 변하네요.
+지금은 그져 옆에있는 남편만 친구고. .   혼자하는거 엄청좋아하고, 인간관계 엉키는것도 귀찮고. . .
+과거의저와 esfp
+현재의제가 intp가
+딱 나오니 엄청신기하고
+재밌네요.
+이걸보면서 느끼는건
+과거의 esfp안에  인팁이기질이 있었고.
+지금의 intp안에 가끔씩 esfp가 스물스물 나올때가 있다는것.</t>
+  </si>
+  <si>
+    <t>Esfp 진짜 잠시도 가만히 못 있는 모션이 너무 웃김ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ENTP 특징잡기도 쉽고 되게 재밌을것같아요 언니 ~</t>
+  </si>
+  <si>
+    <t>사람 개좋아하고 약속잡는거 개좋아하고 사람 잘 안가림..새학기 되면 난 반에 처음보는 새로운 친구가 많으면 좋겠음 빨리 사귀고싶고 친해지고싶어서 개설렘 처음보는 친구랑 친해진지 하루도안되서 노래방가는거 쌉가능 자기애가 흘러넘침 시험망해서 우울한것도 잠시.. 맛있는거 먹으면 언제 그랬냐는듯 바로풀림 ~~</t>
+  </si>
+  <si>
+    <t>INTP 편이랑 연결되는 세계관 무엇 ㄷㄷ 갓유미...!!!</t>
+  </si>
+  <si>
+    <t>아니 네이년이 무슨 말인가했는데 인팁이 너무 말을 애껴서 거기 입사한줄도 몰랐넼ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>“참을 수 없는 존재의 가벼움”</t>
+  </si>
+  <si>
+    <t>Intp인데 고등학교 친구 생각난다...정말 좋아하고 가끔 생각나지만 막상 만나면 집에 가고 싶어지던...</t>
+  </si>
+  <si>
+    <t>술취해서 찡얼대는거 너무 귀여워용..</t>
+  </si>
+  <si>
+    <t>와 ㅋㅋㅋㅋㅋㅋ 제 가장 친한 친구 중 한명이 esfp인데 전화받자마자 뭐해뭐해뭐해뭐해 어어어어어 이런식으로 말 엄청 빨리 많이 하는거 개똑같아서 영상 시작하자마자 소름돋았어요 ㅜㅜㅋㅋㅋㅋ아개웃김</t>
+  </si>
+  <si>
+    <t>유미님!! 안그래도 enfj인 사람이 너무 없어서 너무 서러운데ㅠㅠ enfj 한번만 부탁드려용 ㅠㅠ 유미님 mbti 시리즈 볼때마다 더 애타게 기다려지네요
++어머어머 좋아요 무슨일이야 혹시 다들 엔프제…? 생각보다 공감해주시는 분들이 많은것 같아 기분이 좋으네요</t>
+  </si>
+  <si>
+    <t>인팁을 집까지 데리고 가서 놀아주는 엣프피 너무 존경스럽다.
+나라면 그렇게 면전에서 썩은 표정 짓고있는데 ㅋㅋㅋㅋㅋ 2차 가자는 말 절대 못할 듯
+그냥 차만 마시고 각자 갈 길을 갈 것 같다는
+ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>앜ㅋㅋㅋㅋㅋ마지막에 체념부르는것까지 완벽하게 저를 표현해주셨어</t>
+  </si>
+  <si>
+    <t>엣프피 댓글반응도 하이텐션이야 ㅋㅋㅋㅋ 미친 개웃겨 ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>좋아요만 누르고 튀려가가 자기 전에 댓글쓰는 esfp인데요, 
+다른 건 모르겠고 마지막에 갑자기 노래부르는 거에서 터졌네요ㅋㅋㅌㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>듣기만해도 이렇게 기가 빨릴줄이야.....지나가는 intj...저는 이만...</t>
+  </si>
+  <si>
+    <t>디테일 미쳤어 진짜ㅋㅋㅋㅋ 미친사람같음 너무 세심하게 디테일해ㅋㅋ</t>
+  </si>
+  <si>
+    <t>그리고 인팁은 이 친구를 다시는 만나지 않았다고 한다……..ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인팁 정확히 4분에 한계 왔어요 사장님한테 말거는 순간 댓글씁니다 나머지는 내일볼게요
+사실 모레일수도..
+담주일수도…
+어쩌면</t>
+  </si>
+  <si>
+    <t>Esfp 수다타임(심지어 연기)을 보며  집중 안하고 잡생각하는 infp...
+ (유미언니 스타일링 잘한다... 진짜 캐릭터성 연구는 어떻게 하는거지)</t>
+  </si>
+  <si>
+    <t>인팁인데 보기 힘들다..ㅋㅋㅋㅋㅋ실제로 오래된 친구가 엣프피인데 진짜 잘 챙겨주고 애가 정도 많고 굉장히 고마운 친구이지만 만나면 좀 시간 낭비처럼 느껴질 때가 있음ㅋㅋㅋ 다 같이 모일 때 이 친구 없으면 분위기 허전해질 정도로 핵인싸.... 하지만 나는 가끔 보는 게 좋음 어쨌든 장점도 많고 사랑은 한다 친구야</t>
+  </si>
+  <si>
+    <t>제 주변에 ESFP 한명도 없어서 몰랐는데 저랑 안맞는다 라는 것을 경험하게 해주셨네요ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인프제 왠지 제일 마지막에 해줄 것 같아ㅋㅋㅋㅋㅋㅋ큐ㅠㅠㅠㅠ 다른 유형 다 해놓고 인프제가 다른 유형 대하는 거 나오면 존잼이겠다 유형 달라질 때마다 가면 바꿔 쓰는 인프제</t>
+  </si>
+  <si>
+    <t>전편이랑 이어지네요???헐…. 빌드업 대박ㅠ</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ사장님한테 너무 맛있다고 친구 다 데꼬온다고 말하는거 인정 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와 ㅋㅋㅋㅋ esfp 텐션 장난 아니네욬ㅋㅋㅋ 같이놀기 재밌을 거 같아욬ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>헐 인팁이한테 고민상담한 개 엣프피였구만ㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>근데 esfp는 논쟁을 싫어해서 적이 많이 없는뎈ㅋㅋ</t>
+  </si>
+  <si>
+    <t>Esfp 한 번 댓글 쓰려면 지웠다 썼다 오지게 함.. 그러다가 됐다 하고 댓글 달기 포기함... 근데 또 댓글 한 번 달면 할 말이 너무 많아서 구구절절 오짐... = 나</t>
+  </si>
+  <si>
+    <t>Esfp 좋다 .. 무해한 밝음이 날 잠시 기쁘게 해줄거같음 ㅋㅋ (지나가던 infp)</t>
+  </si>
+  <si>
+    <t>아무튼 엣프피는 댓글은 잘 안달고 눈팅만 하다가 내얘기다싶은거 좋아요만누르고 튀튀함....</t>
+  </si>
+  <si>
+    <t>친구 잘된거 진심으로 축하해주고 표정 솔직하고 다채롭고 사람좋아하는 성격 보고만 있어도 힐링되네 ㅎ</t>
+  </si>
+  <si>
+    <t>esfp  술, 모임 좋아함.  연애인 유형이라 그런지 매력있음.
+   -- esfp앞에 두고 술 안먹는.. 지나가는 intp</t>
+  </si>
+  <si>
+    <t>어디가서 사장님 배우신분이라 하고 뭐 먹으면서 무슨무슨 재료가 신의한수라고 하는거 소름돋아욬ㅋㅋㅋㅋㅋㅋㅋesfp인데 찐으로 제가 하는 워딩 그대로랔ㅋㅋㅋㅋ역시 칭다오 광고를 하려면 시도때도 없이 술먹고 싶은 esfp를 택해야져 암... 맞은편에 있는 인팁 성격 좀 특이하다 생각하지만 은근 정들기도 한다고요...왠지 내가 옆에 있어줘야 될것같자나요 필요없겠지만ㅠㅠ♡</t>
+  </si>
+  <si>
+    <t>아닠ㅋㅋㅋㅋㅋㅋ 인팁한테 상담했던 친구가 이 친구였냐고요 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 너무 웃겨</t>
+  </si>
+  <si>
+    <t>와 진짜 댓글 어떻게 잇프제가 하나도 안 보이지... 
+조용하고 게으른 완벽주의자에 매일 계획세우고 근데 그걸 하나하나 다 지키진 않고 그래놓고서 후회하는 소심한 성격인데 미래 걱정보단 현실 먼저 생각하고 전화보단 문자 선호하고 욕 입에 안 달고 살고 시끄러운 거 싫어하고 은근 고집있고 친해지면 잔소리 꽤나 하고 집순이라서 밖에 나가자 하면 좀 귀찮은데 막상 나가면 잘 놀고 의도치 않은 몸개그 하고 다니는 항상 말 끝에 ... 붙어있는 잇프제 존버...!</t>
+  </si>
+  <si>
+    <t>ESFP ㅋㅋㅋ 웃는 얼굴로 촌철살인 날리는 거 진짜 ㅇㅈㅋㅋㅋㅋ근데 딱히 계산하고 하는 건 아닌 것 같은 게 함정임...</t>
+  </si>
+  <si>
+    <t>ESFJ도 꼭 해주세요ㅠㅠㅠ 엣프제가 꽤 보편적인 유형이라고 하는데 아직까지 엣프제를 잘 나타내주신 분이 없어요ㅠㅠㅠ 기대할게요</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아 코로나 땜에 esfp에서 isfp 됐는데 너무 웃기닼ㅋㅋㅋㅋㅋ 이 영상 보니까 전 esfp랑 isfp 섞인 것 같아요 ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>아..지나가던 ESTP이라 알수없는 MBTI 중에 ESFP ENFP라서 찾아보는데 왜 항상 제가 기빨리는 지 알 거 같은 감정의 흐름을 쫓아가질 못하겠다...ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>isnfp가 본 esfp의 장점은 사람이 참 긍정적임! 내가 고민 얘기하면 연관된 웃긴 얘기 해서 웃겨줌! 내 고민이 별거 아니게 만들어버림! 
+정신건강에 참 이로운 친구들임ㅎㅎ</t>
+  </si>
+  <si>
+    <t>윰언니 ESFJ도 부탁드려여,, 기다릴궤여,,</t>
+  </si>
+  <si>
+    <t>ISFJ 존버 합니다요</t>
+  </si>
+  <si>
+    <t>아씨 ㅋㅋㅋㅋ 현실고증.. 이런 에쎔알 안보는데 엣프피 첫 장면부터 너무 찔려서 동공지진 오지게하면서 보는 둥
+와 여기 댓글 다 보는데 엣프피가 16유형 중 젤 별로라는 댓 보고 혼자 상처받아서 나감ㅋㅋㅋ 댓 보지말걸 하</t>
+  </si>
+  <si>
+    <t>영상 보고 하… 나 저정돈가? ㅋㅋ… ㅠㅠ 성격을 좀 고쳐야겟다… 이러면서 슬펏는데 댓글 보니까 기분 좋아짐 ㄷ 나 정말 엣프피구나!!</t>
+  </si>
+  <si>
+    <t>ENTJ 꼭 나와라나와주라나와주세요</t>
+  </si>
+  <si>
+    <t>아진짜 이 시리즈 개재밌다 ..</t>
+  </si>
+  <si>
+    <t>왘ㅋㅋㅋㅋintp로써 영상보는뎈ㅋㅋㅋㅋ정말 esfp점점 만취되어가는 거 보며...정말 영상속 인팁은 열심히 최선을 다해 엣프피를 놀아주었다....인팁의 한달치 기력에 해당하는 최고의 사회성을 발휘하였다고 평하고싶네요</t>
+  </si>
+  <si>
+    <t>무슨 얘기를 시작할때 저렇게 상황 설명 천호동부터 나오는거...지루해요
+인팁인데 진짜  잘 참은거였네요</t>
+  </si>
+  <si>
+    <t>주변에 엣프피 친구가 없어서 그런데 원래 저렇게 다소 적극적…인가요…?ㅋㄱㅋㅋㅋㅋㅋㅋㅋㅋ I 는 상상도 할수 없는…</t>
+  </si>
+  <si>
+    <t>카페에서 맥주 파는거 보고 사장님 배운 분이라고..... 엊그제 제모습 보고 찍으신줄ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>헐 내꼬가 이러케빨리올라와?우앙 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ댓글도신기해 엣프피 나왓지만 나만저러는줄아랏는뎈ㅋㅋㅋㅋㅋㅋㅋㅋㅋ
+집순이엣프피도 한번나가면 집가는거싫어함
+술빠질수없음….무조건2차!!!3차!!!ㅋㅋㅋ
+친구집에간다하면 서운함 ㅜㅜ
+나아직놀수잇어ㅠㅠ 집에가서혼자라도 놀아야하고 막판 신세한탄ㅋㅋㅋㅋㅋ 드르렁
+ㅋㅋㅋㅋ,,,통화도 평소엔별로안조아하는데 한번전화통화하면 존나오래함ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>isfj 인데 보고만있어도 힘들다 ....</t>
+  </si>
+  <si>
+    <t>INFJ..... 기다리고 있겠습니다..⌯’ㅅ’⌯</t>
+  </si>
+  <si>
+    <t>Esfp 남친이 있는 intp로서 이전 영상만 보고도 상대가 esfp일것이라 짐작은 했지만 정말일줄은….ㅋㅋㅋㅋㅋ 대화패턴이 나랑 남자친구여서 익숙했음…</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋ식당 카페 직원 배달 직원 아무나 사람한테 말잘걸어요 ㅋㅋㅋㅋㅋ 저 부분 공감공감 나머지도 댓글도 공감가요</t>
+  </si>
+  <si>
+    <t>엣프피들은 살면서 무조건 말 많다는 소리 들어본적 있을듯 별명은 아가리파이터도 항상 친구들이랑 떠들면 목소리 크고 말 많아서 나만 혼나…</t>
+  </si>
+  <si>
+    <t>14:42 내가 좋아하는 아티스트 무시할때부터 가슴이 먹-먹해서 탈주하는 INFP</t>
+  </si>
+  <si>
+    <t>esfp 넘 귀엽고 재밌어서 조아 옆에서 내가 많이 웃어줄수 있어</t>
+  </si>
+  <si>
+    <t>근데 알고보면 잡생각많은 도라이예요…
+사랑스런 도라이…
+그치만 내색하는걸 진짜 진짜 잘 안하는 편이고 내색하면 바로 울어요..</t>
+  </si>
+  <si>
+    <t>아니 진짜 언니 천잰가봐</t>
+  </si>
+  <si>
+    <t>본인 엣프핀데 인팁 진짜 집가고싶겠다... 갑자기 미안해지네...</t>
+  </si>
+  <si>
+    <t>보고있는 엣팁들을 위해 7:30 본론</t>
+  </si>
+  <si>
+    <t>5600만명ㅋㅋㅋㅋ 아는 언니두 esfp인데 손님많으면 맨날 3억명왓다그럼 긔여움 최고ㅠ</t>
+  </si>
+  <si>
+    <t>미치겠다 e성격들 너무 부러워 나도 저렇게 밝고 활기차고 솔직한 성격 갖고싶어</t>
+  </si>
+  <si>
+    <t>14:16 안영미님이 이건가보네..ㅋㅋ</t>
+  </si>
+  <si>
+    <t>잇프피 존버합니다 일단 누워서 시작할듯</t>
+  </si>
+  <si>
+    <t>ESFP 중1 딸들 키우는 ISFJ 엄마인데 크면 이렇게 되나요 ㅎㅎ 
+갑자기 뜬금없이 근본없는 춤을 춰대서 온가족을 웃게 만들고 
+샤워할땐 꼭 노래를 불러요 ㅋㅋ
+민폐끼치는거 너무 싫어하는 저는 층간소음땜에 "10시 넘었으니 노래는 부르지말자." 하면 
+"네~~~" 대답하고는 2분뒤에 또 노래불러요. ㅠㅠ 
+인생이 그냥 즐거운듯 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>힘들어 죽겟는데 나의 리엑션을 요구하는 반짝이는 눈 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 미치겠다ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 난 isfj ㅜㅜ</t>
+  </si>
+  <si>
+    <t>역시 밖순이 esfp는 잘 안보이네요….ㅎ</t>
+  </si>
+  <si>
+    <t>언니 엔프제 한번만 해주세요….맨날 고민상담소 여는 1인…얼마 없지만 그만큼 소즁한 엠비티아이에욥…</t>
+  </si>
+  <si>
+    <t>아 esfp 너무 귀엽다..</t>
+  </si>
+  <si>
+    <t>사바사지만 무례, 손절 얘기 있길래 
+인팁 영상 보고왔는데 인팁이 먼저 말 딱딱하게 하고 기분 상하게 말하는데ㅠㅠ
+엣프피는 기분 좋게 친구니까 농담 섞어서 말하는거고 
+물론 영상이라 지나치게 과장한거라 이 영상을 
+엣프피가 봐도 왜 저렇게까지 말하나 불편했지만
+일단 인팁 영상 보니 인팁 반응이나 말하는게
+상처네요 안맞는 듯</t>
+  </si>
+  <si>
+    <t>자리 앉자마자 집에가고싶어진 INTJ
+아 내주변 ESFP랑 진짜 똑같다… 나랑 관련 1도 없고 정보성도 없고 쓸데없는이야기를 딱 이런 텐션으로 존나 진지하게 맨날 반복적으로 말함 ㅠㅠ 대체 나와 뭔상관인지… 진짜 격렬하게 알고싶지 않음 ㅋㅋㅋ ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>다음은 esfp 뒷담한 애 입장에서 나오려나...</t>
+  </si>
+  <si>
+    <t>엔프제도 꼬옥,, 해줘야해요 유미님,, 전세계적으로 엔프제가 별로 없어서 영상도 한줌인데 유미님의 날카로운 분석 너무너무 보고싶어요 엉엉ㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>esfp패션 너무 같네요 ㅎㅎㅎㅎ 친구좋아하고 말 잘하고 귀엽고 사랑스러운 사람</t>
+  </si>
+  <si>
+    <t>infp도 부탁드려요♡♡♡♡♡
+나중에 사장님과 배달부도 나오길.......</t>
+  </si>
+  <si>
+    <t>남친이 이 유형인데 진짜 개똑같아요ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>저가 infp인데 갑자기 피곤해지네요 굿밤</t>
+  </si>
+  <si>
+    <t>지금까지 나온 mbti들 영상 댓글 보면서 보고 왔는데 여기는 댓글창부터 하이텐션에 시끌버쩍이 느껴지네 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 여기 보다가 istj 영상 댓글 가면 되게 정숙 그 자체임</t>
+  </si>
+  <si>
+    <t>엔프피 할 때 무지개 옷 입으시면 웃기겠닼ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>엣프피 영상인데 엣프피 얘기는 저 밑에 내려가야 있고… 다른 mbti 만화에서도 잘 없어서 속상한 엣프피… 여기 에프피 없나요…?</t>
+  </si>
+  <si>
+    <t>ESFP와 ENFP 확실한 차이는 그거 같음 S랑 N 때문인지 엔프피들은 좀 더 미래를 보고 싶어하고 그래서 미래의 자신에 대한 몽상을 자주 해서 자신의 내면, 자아 이런 걸 엄청 중요시함 엣프피는 혼자 있는 걸 좀 못 참는 정말 파티피플? 이라면 엔프피는 혼자만의 조용한 시간이 한 번씩 꼭 필요함 텐션이 극과 극인 것 같음 저런 엣프피 옆에 있으면 기빨려서 조용해지지만 인팁 인티제 인프피 사이에선 내가 제일 신남 텐션 업 다들 대가리 꽃밭이라는데 오히려 남의 감정에 예민하고 눈치 많이보고 생각이 너무 많아서 생각이 없는 척 하는 사람들...엔프피 뇌 자체가 감정이 우울하지만 않으면 무조건 긍정회로로 도는 편이라 더 그런 것 같기도 함</t>
+  </si>
+  <si>
+    <t>ISTJ인데 이 영상 한 20분 본 줄 알았더니 5분 지나있음 ㅋㅋ 그리고 처음 1분 봤을 때 부터 그냥 기가 쫙쫙빨림... 이런 유형의 타입이 지금 당장 만나자고 해도 핑계대면서 일단 절대 만나지 않음.....</t>
+  </si>
+  <si>
+    <t>INTP - INTJ - ESFP - ESFJ루트 존버합니다</t>
+  </si>
+  <si>
+    <t>동생이 엣프핀데...너무 소름돋네요
+인프피 언니는 기빨리고갑니다아..</t>
+  </si>
+  <si>
+    <t>걍 진짜 도망가고 싶다</t>
+  </si>
+  <si>
+    <t>저도 전화통화 안 좋아해요. ㅋㅋ
+노는거 술마시는거 위로 받는거 좋아하는뎅 진짜 특징 잘 잡아서 쵝오</t>
+  </si>
+  <si>
+    <t>ENFJ는 존버타도 안나올 것 같다... 슬퍼</t>
+  </si>
+  <si>
+    <t>다음은 entp바로가시죠</t>
+  </si>
+  <si>
+    <t>진짜 소름 돋는게…..
+저도 몰랐는데 손가락으로 토로록 토로록 치는 행위를 제가 하고 있더라구여…ㅈㄴ 자주^^..
+그리고 항상 술 먹고 있는 내 자신…
+짠해 짠해 그만하자….. ㅋㅋ……… 내 자신 ……^^…
+술 끊어 제발 ~~~</t>
+  </si>
+  <si>
+    <t>앜ㅋㅋㅋㅋㅋㅋㅋㅋ잠깐 톡하느라 백그라운드 재생하고 소리만 나오는 순간 “음모?” 이거 듣고 나도 아래 내려다 봤는데 다시 돌려보니까 유미언니도 아래 내려다봤엌ㅋㅋㅋㅋㅋ 울언니 천재야️ 최고 mbti시리즈 존잼 다른것도 다 존잼 적게 일하고 돈 많이 벌어요️️‍️</t>
+  </si>
+  <si>
+    <t>ENFP 존중하며 버티는 중!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>아 진짜ㅋㅋㅋㅋㅋ 인팁 술 취한 상대한테 신나게 얘기했던 거였어?!ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>넘 매력있고 재미있는 친구 스타일이네요ㅎㅎ 기가 좀 빨릴거 같긴 하지만.. 그리고 전 ISFJ라 이 타입이랑 겹치는 일이 거의 없는것 같은ㅜㅠㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인팁인데 이렇게 속 편한 성격 부럽고 저녘 하루쯤은 만나서 놀아도 재밌을거같아ㅋㅋㅋㅋ 대신 다음날은 쉬어야 함</t>
+  </si>
+  <si>
+    <t>혹시 ISFJ도 해주시나요? 아직 계획에 없으시다면 다른 유형 순차적으로 찍고서 여유있을때 찍어주셔도 됩니다~ 헤헷 (눈치눈치)</t>
+  </si>
+  <si>
+    <t>Esfp인데 intp 친구가 공감 못하고 관심 없는게 보이니까 유독 걔한테는 나도 무덤덤하게 대하고 3년 친구인데도 사이에 벽이 항상 느껴짐..</t>
+  </si>
+  <si>
+    <t>0:01 헐ㅇ 나 여러번 보다가 지금 알았는데 이거 다음 ENFP이려나!? 제일 처음 카세트 테이프 돌아갈 때 왼쪽에 노트에다가 MBTI 16가지 다 써놨는데 지금까지 올라온 영상은 형광펜 표시 칠해지네요!? 우아우아 INTP 영상엔 INTP만 형광표시 //
+INTJ 영상에는 INTP이랑 INTJ만 표시돼있었고 //
+ 오늘 영상엔 ESFP도 추가되고 근데 ENFP까지 같이 표시돼있으면... 다음은 ENFP 영상이려나요!?
+우아우아 깨알 디테일 ~~~ 쩔어요 유미언니 ~~~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">인프피에게 밀려 존재감이 적은 잇프피,, 유미님이 하면 어떨지 너무 궁금해요 </t>
+  </si>
+  <si>
+    <t>ENFP이자 INFP인 사람으로써.. 둘 다 존버합니다..</t>
+  </si>
+  <si>
+    <t>실제로 저건 엣프피들 중에서도 얌전한 편임.. 저게 실제였으면 한쪽에 술병 들고 한쪽에 피자들고 나혼자 섹시댄스 골반쉐낏쉐낏</t>
+  </si>
+  <si>
+    <t>esfp는 뭔가 이성관계 안좋을거같은 편견이 있음... 주변에있는 esfp다 뭔가 그랬어...파트너있고...</t>
+  </si>
+  <si>
+    <t>대체적으로 .... 어 생각없어보이는... 연기력 대박이다..</t>
+  </si>
+  <si>
+    <t>인티제 곽희연님이 포기하신 분 엔프피 조심스럽게 예상..</t>
+  </si>
+  <si>
+    <t>헐헐 온라인에서 거의 보이지 않는다는 엣프피를 해주시다니 감사해요 ㅜㅜㅜ 엣프피 도대체 다들 어디서 뭐하세요~~~~~??</t>
+  </si>
+  <si>
+    <t>Esfp 아니라고 생각했는데 낮술 한잔 콜 ? 할때 대박 ㅋㅋㅋㅋㅋ빵터졌어여 ㅋㅋㅋㅋㅋㅋㅋㅋ아 웃겨</t>
+  </si>
+  <si>
+    <t>ENFJ어딨니…. 역시 1%밖에없어서 그런가
+댓글도 졸라없어 엔프제… ㅠㅠㅠㅠㅠ
+엔프제 영상 나오는 그날을 기다리며..</t>
+  </si>
+  <si>
+    <t>마지막까지 완벽한 영상 잘 봤습니다. 기획력이 정말 짱입니다.</t>
+  </si>
+  <si>
+    <t>엣프피는 좀더 착한느낌일것 같은데 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>카메라 초점 풀리는거 이후에 엣프피가 지루하냐고 얘기 하던데 인팁이가 졸린거에요? ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>울 엄마의 mbti를 유미 언니 통해 알게 됐네요 ㅋㅋㅋㅋㅋㅋㅋㅋ어찌나 말이 많은지 ㅋㅋㅋㅋㅋㅋ2분 만에 질려여ㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>INTP언니와 ESFP동생... 부모님은 우릴 어떻게 키우신걸까</t>
+  </si>
+  <si>
+    <t>세계관까지 연결되는거였다니,,,뭔가 엔프피는 인티제랑 연결되는 세계관에 등장할덧!</t>
+  </si>
+  <si>
+    <t>mbti 영상 정주행중이였는데 인팁이 만난 칭구가 esfp였군요ㅋㅋㅋㅋㅋ 영상 연결 된거(?) 대박이에요..</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ아 진짜 너무 똑같고 … 댓글들 세번째라 감동적인 것도 엣프피ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ저 너무 좋아서 캡처해서 카톡프로필로 해놧어요… 너무 행복해</t>
+  </si>
+  <si>
+    <t>ENFJ 는 지독하게 계획충으로 해주세여,, 제가 그렇거든요ㅋㅋㅋㅋㅋ 극 P랑 J랑  같이 여행가는것도 재밌을 것 같아요!</t>
+  </si>
+  <si>
+    <t>ENFP 존버들 모여라
+(1/100000000)</t>
+  </si>
+  <si>
+    <t>전 인티제인데 저희 어머니가 엣프피..거든요 근데 진짜 서로 너무 안맞아서 죽을거 같고 둘 다 이제는 해탈한 상태에요ㅋㅋㅋㅋㅜㅜ 무슨 대화를 하던 서로 핀트가 안맞고 서로 상대를 이해 못해요…ㅎ 그래서 서로 진지한 얘기 웬만해선 안하려고 하고 장난섞인 말들만 오고가서 화목함을 유지한달까요 정말 모녀관계가 아니였으면 절대 서로의 인간관계에 들어오지 못했을 관계.. 저만 그렇게 생각하는 줄 알았더니 어머니도 그렇게 생각하고 계셨어요 그치만 엄마와 딸인지라 서로 엄청 사랑하긴 하고.. 조금 놀랐던건 어릴 때부터 아무리 생각해도 난 엄마랑 사람대 사람으로서 정말 안맞는다 성격이나 생각하는 게 완전 반대다 생각해왔는데 정말 정반대였던거,, 조금만 진지한 대화여도 결국 서로 상처랑 답답함만 가져가더라구요 정말 이해하려고 노력하지만 이해해도 인정할 순 없어요 어머니도 항상 말하시지만 그냥 그런가보다 하는게 제일이더라고요</t>
+  </si>
+  <si>
+    <t>나 생각해주고 내 동네까지 와주고 반가워해주는 거 너무 고마운데 사실 텐션 벅차고 말투 부담스러워서 기빨린걸 여기서 느낄 줄이야.. 1:15부터 기빨려요....ㅎ</t>
+  </si>
+  <si>
+    <t>엔팁 엣프피 상담 개잘해줌ㅋㅋㅋㅋㅋㅋㅋ 미친 개소름 개웃기다ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㄱ</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아 진짜 이 시리즈 최고예요 ㅠㅠ인프피 존버중,,,</t>
+  </si>
+  <si>
+    <t>Isfj인데 너무 힘들어서 6분까지만 봤어요…</t>
+  </si>
+  <si>
+    <t>아니 펑펑 울다가 노래 부르다 흥 나고 그러다 다시 질질 짜다가 갑자기 꿀잠.... 정말 기 빨린다 ㅋㅋㅋㅋㅋㅋㅋㅋ밉진 않아</t>
+  </si>
+  <si>
+    <t>잇팁 I S T P 존버합니다 게으름을 무릅쓰고 댓을 달아봤어요 잇팁들의 힘을 보여줍시다</t>
+  </si>
+  <si>
+    <t>24분동안 말도 많은 캐릭터로 혼자 떠그룽ㅌㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>이거이거 무조건 자기 유형은 보게되는 컨텐츠 아닙니까 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>0:30 진짜소름돋았네요 ㅋㅋㅋ 제가자주쓰는말투가 그대로나와서 진짜 .. ㅋㅋㅋㅋㅋ 대박이네용</t>
+  </si>
+  <si>
+    <t>INFP 제발...
+나는 지금까지 ENFP인줄 알고 친화력 있게 지냈는데 INFP여서 소심하게 지내는 나로써 제발제발제발</t>
+  </si>
+  <si>
+    <t>ENFJ 모여라!!!!! 언니 ENFJ 존버할게요!!!!!!!</t>
+  </si>
+  <si>
+    <t>아 인팁 영상 보고 넘어왔는데 개웃겨요 진짴ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아 그 날 상담한 친구가 엣프피였냐고 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>진짜 제 친구랑 똑같아요… 특히 앞부분 소름 돋았어요 그머냐 맨날 말할때 같은말 여러번씩 하고 애가 막 날라댕겨요 저도 엔프피긴 한데 옆에서 귀가 아픔.. 근데 저기압일땐 ㄹㅇ 조용함…</t>
+  </si>
+  <si>
+    <t>대한민국에 거의 없다던 ENTJ는 언젠가 나오겠지 하면서 기다리겠습니다.. ^,^</t>
+  </si>
+  <si>
+    <t>주변 엣프피랑 똑같다 진짜.....</t>
+  </si>
+  <si>
+    <t>아진짜 프로필부터 말 개많은 내친구랑 개똑같이 생겨서 너무 웃김ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아너무웃겨 엣프피 유형 진짜 좋은거같음 내 엠비티아이랑 궁합이 좋은건지 내 주변 친구들이 엣프피가 많은데 성격이 너무 내스타일..  털털한데 외향적이고 웃기고 또 꾸미는거 관심많아서 멋지게 하고다님. 가끔이지만 내가 스스로 별로라고 생각하고 있으면 오글거리지 않는 방식으로 자존감 높여주고 대화하면 예상치 못하게 나한테 관심이 많다는 느낌이 들음. 불같은 성격이어서 그거 구경하는 거도 너무 재미있음. 말도 좀 편하게 하게되고 여튼 진짜 좋아 내가 되고 싶은 유형이기도함..</t>
+  </si>
+  <si>
+    <t>ESFP동생둔 INFJ인데욬ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아진짜 말투넘나 똑같 ㅠㅠ 유미님 고증은 대체어디까지인가....ㅠㅠㅠ 강같은채널</t>
+  </si>
+  <si>
+    <t>엣프피 특 : 목소리 자체가 엄청 커서 귓속말해도 평상시 말하는 것 처럼 다 들림</t>
+  </si>
+  <si>
+    <t>아,, 인프제인데,, esfp 어느부분은 맘에 드는데 어느부분은 진짜 싫다ㅋㅋㅋㅋㅋㅋㅋ 귀여운데 짜증나고 속시원한데 찝찝해,, ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>내 경험상 공감킹임 그리고 ㄹㅇ 겉속 같음 투명함 근데 그게 가끔 사람 빡치게 함 적절한 필터링은 필요하다고..</t>
+  </si>
+  <si>
+    <t>절친과 남편이 esfp 인 intp으로서 너무 찰떡입니다.... 영상에서 intp 이랑 티키타카 붙여놓으신것도 소름이네요</t>
+  </si>
+  <si>
+    <t>어떻게 비슷하지 ...? 진짜 ㅋㅋㅋㅋㅋ 너무 잘하셔 ㄴㅋㅋㅋㅋㅋ 제 친구도 esfp인데 
+넘 똑같앜ㅋ</t>
+  </si>
+  <si>
+    <t>앜ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ엣프피 너무 좋아옄ㅋㅋㅋㅋㅋㅋ기빨리지만 너무 즐거웤ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인팁인데 틀자마자 피곤해지는 영상은 처음이에요</t>
+  </si>
+  <si>
+    <t>엣프피 특: 애들이 항상 좀 작게 좀 말해 이럼
+내 입장에선 진짜 작게 말한건데……</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ와 쉐도우 핑크색인 것까지 똑같아요 진짜 나 보는 줄 아랐네 은근히 너무 똑같다 짱신기해서 계속 웃었넼ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>엣뿌삐 눈치없는 애로 여겨지는 거 너무 속상함 ㅠㅡㅠ 은근 생각많고 워낙 덤벙덤벙인 거 잘 알아서 민폐 안 끼치려고 노력함
+그리고 intp infj enfj 좋아함!! 잘맞음
+entp친구는 많은데 조오온나 안맞음 ㅠㅠ 근데 그냥 막상 만나도 나쁘지 않고 가끔 나의 뼈를 때려주는 친구임ㅎㅎ(친구중에 엔팁이 젤많음 신기 근데 진찌 안맞는다고느낌… 옆에서 보고잇으면 자기주장 뚜렷한 게 신기)
+안맞는 앰벼는 infp isfj ㅎㅎ… 후자는 전남친이고 전자는 그냥 먼저 내적 손절 당해버림 인사도 안해봤는데ㅠㅡㅠ
+estj entj는 옆에서 보고있으면 할일하는모습이 멋진데 접점이 별로 없음
+intj는 무난하게 잘 지냄 서로에게 관심끄면 상생하는 관계 ㅆㄱㄴ
+isfp는 그냥 사랑임 따로 잘맞눈다는 느낌은 없는데 일단 같이 있으면 편안함 생각하는 방식이 비슷비슷해서 대화잘통함
+istp esfj는 주변에 표본이 ㅂㄹ없어서 모르겠음~
+댓글에 인팁들이 엣팁 좋다고 해주는 댓글보여서 너무기분좋음 ㅎㅎㅎㅎ 나도너네좋아 너네 관심사에 대해 알게되면 그걸로 토크하는것도 좋아</t>
+  </si>
+  <si>
+    <t>Esfp인데  제 성대모사인줄 알았어요..동화구연하는듯한 말투,,</t>
+  </si>
+  <si>
+    <t>아무생각없이 너는 그러면 사회생활 하긴 그른거같다 하더니 다시 다 븅신들이야 하는게 진짜 무례하게 병주고 약주는 느낌이라 견딜수가없다.... 내 주변에서 이런 사람이 없어서 그런가 견디기 힘든 타입....</t>
+  </si>
+  <si>
+    <t>제 친구ESFP는 I랑 반반쯤 되는데
+고민이나 인간관계 문제 생기면
+최소 1시간 반~2시간은 카톡으로 하소연하고
+INFP인 저는 기 다 빨리지만 끝까지 들어주고 같이 욕해줍니다 ㅎㅎㅎ
+ESFP 고민 하소연 하는 모습이 딱 그 친구 떠올라서 공감하고 갑니당 ㅎㅎ
++말 웃기게 하고
+술 좋아하는것도 제 친구랑 딱</t>
+  </si>
+  <si>
+    <t>30대 여자 찐 ESFP 입니다.ㅋ
+반전은 찐INTJ 남편을 만난것. 
+넘나넘나 정반대라 서로의 일에 크게 관심없어 불화가 일어나지않아(?) 
+무탈하게 잘 지내고 있어욬ㅋ
+진짜 맞는게 하나도 없는데 잘 지냄ㅋㅋㅋ
+뮤튼  20대의 저를 보는것 같아서 흐뭇하게 봤네옄ㅋㅋ 30대가 되니 현실살이 하느라 약간 텐션이 빠진거 말고는 여전히 비슷해옄ㅋㅋㅋ .</t>
+  </si>
+  <si>
+    <t>진짜.... 이렇게 기 빨리는 영상 처음봐요 -infj</t>
+  </si>
+  <si>
+    <t>소개남이 esfp인데 약속시간 삼십분 남겨놓고 약속 시간 삼십분씩 두번 미뤘는데 esfp 많이들 이런가요..? 원칙주의자로써 정말 어이없었음..</t>
+  </si>
+  <si>
+    <t>ENFP 기다립니다요  세상 시끄러운 엔프피를 어떻게 asmr로 하실지 궁금씈ㅋㅋㅋ 왜냐면 내가 ENFP라섴ㅋㅋㅋ 개 정신 없는 asmr궁금행</t>
+  </si>
+  <si>
+    <t>인팁인데요.. 억지로 미소 짓고 있어서 입에 경련 일어날거같아여…집에가고싶어여..</t>
+  </si>
+  <si>
+    <t>엣프피 특 했던말 두번 세번 함 특히 맞아, 그니까 이런 단순한 말 한번씩 절대 안하고 두세번은 함 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>istj인데ㅋㅋㅋㅋ보다가 넘 매력있고 웃겨서 걍 사랑스러워요ㅋㅋㅋㅋ내가 노잼이라서 그런지 넘 귀여움</t>
+  </si>
+  <si>
+    <t>아니 설마 이런 가상적인 asmr에 기가빨릴까 했는데
+정확히 8분부터 기빨림 ㅠㅠinfp임</t>
+  </si>
+  <si>
+    <t>저 intp인데 갑자기 몰랐던 룸메의 mbti가 뭔지 알게 됐어요</t>
+  </si>
+  <si>
+    <t>진짜 개안맞는데 보고있으면 세상근심걱정 없어보여서 묘하게 카타르시스느낌 자주보면 기빨리니까 1년에한번씩만보자함ㅋㅋ
+아왜에??나시로??이래놓고 막상 보자면 매주약속있어서 최소한달반후봐야함...어쩌라고친구야.....(지나가는intj)</t>
+  </si>
+  <si>
+    <t>엣프피가 예술성있는사람이 많아서 연예인이 많대요</t>
+  </si>
+  <si>
+    <t>기빨리긴 하는데 귀엽다 ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인프피인데 신기해여 엣프피 실친이 없어서 영상으로 경험하는 중인데 이런 느낌이구나 하는 중... 약간 기는 빨리는데 듣고있음 재밌어욬ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와 나 ESFP인데ㅋㅋㅋ 통화할때 초반에 하이하이하이하이 모해모해모해모해모해 심심심심심심심심해애애애애애액 이러는거 나만그러는줄 알았는데 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>해맑은 정신없는 강아지같다</t>
+  </si>
+  <si>
+    <t>infp인데 친구 못할것같아요...너무 기빨려ㅋㅋㅋㅋㅋㅋ 특히 나랑 만났는데 전화로 다른 친구랑 떠드는 모습 몇번보이면 얘는 나랑 있기 싫은건가? 싶어서 티는 못내도 나중에 다시 전화오면 일부러 늦게받거나 안받게됨,,</t>
+  </si>
+  <si>
+    <t>ESFP 여친을 둔 남자입니다...
+참고로 저는ISFP 입니다 나무위키피셜
+서로 가장 잘맞는 타입 이라는데
+한명은 저지르고 한명은 치우는...그래도 큰 사고는 안칩니다 작은 사고를 많이쳐서 그러지</t>
+  </si>
+  <si>
+    <t>저 엣프피 남편 인팁 정말 조화롭죠 ㅋㅋㅋ
+너무 다르지만 안싸워요</t>
+  </si>
+  <si>
+    <t>저 이제 알았는데 이거 인팁 편이랑 연결되고 있네욬ㅋㅋ
+넘 재밌다ㅋ</t>
+  </si>
+  <si>
+    <t>1:27 지나가던 esfp 인데요…미친 나다.</t>
+  </si>
+  <si>
+    <t>Intj가 분석한 esfp는 어떨지, 그리고 intj(나)가 느끼는 esfp는 어떤 느낌일지, isfj라고 말하고 다니는 유형 esfp는 어떤 사람인지 이해를 하고싶어서 들어왔습니다... 벌써 기빨림</t>
+  </si>
+  <si>
+    <t>남자친구가 esfp인데 사장님한테 말거는거 개공감 맛있으면 개극찬을 하고나옴</t>
+  </si>
+  <si>
+    <t>진짜 거의 민간 사찰수준으롴ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 제말투 어떻게 베껴가신거에요 ㅋㅌㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>소개팅 주선하러 가서 같이 수다파티 밥먹고오고
+목소리 크고 끊임없이 말하는 제가 아는 esfp랑 너무 똑같네요…</t>
+  </si>
+  <si>
+    <t>Intp가 보고있자니....ㅎㅎㅎ 쓸데없는 수다....정말 유미씨 intp 그모습이 제모습이네요...ㅋㅋㅋ 완전 굿 컨텐츠예요~~♡</t>
+  </si>
+  <si>
+    <t>어머왠열이얔ㅋㅋㅋㅋㅋㅋㅋㅋ저보는줄 알았어요^^^^^^울다가 웃다가 노래하다가 맥주마시고,잠들기ㅋㅋㅋㅋㅋㅋㅋ말많은거 웃는거 친화력 아 웃겨 감사합니다.</t>
+  </si>
+  <si>
+    <t>저도 엣프피인데 일단 표정에서부터 감정이 다 들어나는 거 완전 공감이여ㅠㅠ</t>
+  </si>
+  <si>
+    <t>Esfp estp 나오는데
+저뒷담깐 친구얘기 하는부분
+말투 제스처 핵소름이네요
+완전 싱크로율백퍼ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>제 주변 엣프피랑 말투가 진짜 넘 똑같아서 소름돋았어요 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>관심없는얘기 한귀로듣고 한귀로 흘리는거 인팁영상이랑 같이보니 저 반응이 이해가 가네요 ㅋㅋㅋㅋㅋㅋㅋ
+흥미없어..그냥 가벼운얘기해.. 깊게파고들지마 제발 ㅋㅋㅋㅋㅋㅋㅋ
+그리고 어딜가도 내가 그쪽으로 가고 내가 데려다주고 데리러가고.... ㅋㅋㅋㅋㅋㅠㅠㅠ나도누가좀 데리러와줬음 좋겠는데 성격상 데리러오면 또 미안해서 뭐라도 더해줘야됨..</t>
+  </si>
+  <si>
+    <t>카페에서 술보고 난마셔야징&gt;&lt;~~~~ 여기 진짜 소름ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 걍 저인줄...... 표정이랑 말투도 너무 비슷해요ㅠㅠㅠ친구들 만나면 말 좀 줄여야겠어여............</t>
+  </si>
+  <si>
+    <t>INTP보다가 왔는데 인팁이랑 댓글창 분위기 완전 달라ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>제 절친 엣프피인데 비슷ㅋㅋㅋㅋ제가 보는 친구 특징은 해맑음 눈치없음 사람한테 악의없음 그래서 미워할수가 없음 술꾼 판깔아주고 이야기들어주면 아주 신나함 정도~~ㅋㅋㅋ전 인팁인데 친구 성격이 좋아서 그런지 다른애들은 다 떨어져 나갔는데 이친구는 항상 먼저 연락옴요 ㅋ사람 너무 좋아하고 잘믿는 친구.....저는 이 친구가 약간 1차원적이라 느끼지만요ㅋㅋ</t>
+  </si>
+  <si>
+    <t>자초지종 썰풀고 있는거 벌써 흐린귀 하는 intp..</t>
+  </si>
+  <si>
+    <t>댓글안달려다가 밀크티 나왔뜹니다 하는거랑 커피숍에서 맥주먹으면서 사장님께 감사인사하는거 미쳤다 ㅎㅎㅎ손으로 캔 따닥따닥 하는거랑 ㅎ</t>
+  </si>
+  <si>
+    <t>estp도 길게 해주세요 ㅠㅠㅠ 현기증나요 너무 잘해..... estp는 왜 짧아요 ㅠㅠ 아수워서 10번 돌려봄</t>
+  </si>
+  <si>
+    <t>아 나 esfp인데
+나랑 많이 다르네ㅜㅜ
+난 술못먹이라..ㅜㅜ
+사람좋아하고 노는거 좋아하는건 맞지만.</t>
+  </si>
+  <si>
+    <t>… 초반 듣는 것만으로도 기빨려서 피곤해진 인프제는 자러갑니다..</t>
+  </si>
+  <si>
+    <t>Esfp본인 등판..제 이야기 잘 보고 감미당..</t>
+  </si>
+  <si>
+    <t>오랜만에 연락해서 나오라 그래서 귀찮은 거 다 티냈는데도 인팁이가 나온다는 건 ㄹㅇ… 그래도 엣프피랑 인팁이랑 사이 좋은 거임,,, 그리고 솔직히 내심 편함 오랜만에 만나는 사람이랑은 어색하니까 무슨 말이라도 해야 할 것 같은데 엣프피는 내가 말 안 해도 오디오 안 비어서 개좋음 ㅋㅋㅋㅋㅋㅋㅋㅋ큐ㅠㅠ</t>
+  </si>
+  <si>
+    <t>주변에 엣프피 많은데 ㄹㅇ 개똑같네 영상보는데 기빨린다 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와 infp는 어떻게 신랄하게 하시려고 이렇게 리얼하게..</t>
+  </si>
+  <si>
+    <t>진짜 웃기네요ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>좋아하지만 어느정도 이상은 가까워지기 힘든타입ㅋㅋㅋ
+암튼 나랑은 다른 장점을 가져서 좋아하긴 함.
+사람이 버블리함</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋ와~시작 14초만에 기빨려요~ㅋㅋ그런데 참 귀여웁당  전 isfj  ㅎ</t>
+  </si>
+  <si>
+    <t>같이 일하기 싫은 mbti유형 통계자료1위 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>지나가던 intj...
+텐션 안맞아서 초반부터 기가 다 빨렸어요;;;;
+(마음의 소리 : 얘는 같은 말을 왜케 여러번 반복하는거여. 지금 당장 만나자는 거도 당황;;)</t>
+  </si>
+  <si>
+    <t>아니 엣프피는 좋아하는 노래도 똑같나.. 체념 포레버영 ㅡㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인팁인데 7분까지 못듣고 끌거같은데...
+영상보는것만으로도 완전킹받음...</t>
+  </si>
+  <si>
+    <t>와ㅋㅋㅋㅋㅋㅋ미친ㅋㅋㅋㅋㅋESFP인데 걍 내말투 복제다ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ오늘 내가 한 말들 다 복사붙여넣기한 것 같다ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>E중 가장 E 
+ESFP !!!!! 위드코로나 얼마 안 남았으니
+좀만 버티자고요들</t>
+  </si>
+  <si>
+    <t>흥분하면 말 조리있게 못함 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>나도 엣프피지만 실제로 인간관계에 크게 신경 안 쓰는 편… 친구야 사귀면 되니까 라는 생각하면서 삶 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>내 mbti다 .., 사랑해 언니</t>
+  </si>
+  <si>
+    <t>지나가는 INTJ. 다음주말 ESFP만나기로 되어있어서 성향 대충 보려고 보는데 벌써 기빨린다;;</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 강유미님 연기 넘 잘하시네요 지나가는 esfp 잼나게 보고갑니다 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>혼자 감정이입해서 말하다가 나만 너무 흥분해서 표정 관리하고 목소리톤낮추는 것까지 똑같다..</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ.... 진짜 존나 특이하다 이런 사람들은 본 적이 없서</t>
+  </si>
+  <si>
+    <t>액정나가있는 디테일보소ㄷㄷㄷㄷ</t>
+  </si>
+  <si>
+    <t>제가 인팁이고,신랑이 esfpㅎㅎ 내눈에 신랑은 철부지 멍멍이가 노래부르고 술마시고.칭찬 원하고 자뻑이고 친구좋아하고 기분파고 신상템광이고 곧죽어도 멋쟁이고 그러면서 거침없는 솔직뒤끝없고 바로표현해서 성질욱하고, 자기가 기분상하게 당하고온날은 딴사람 얘기하면서 죽여버릴꼬야 이러고..또 나보고 재미없음 인생 뭐로사나? 이러고, 항상 술한잔하고  흥얼거리면서 뭐라뭐라면서 자는거 찐찐~
+가끔 신랑이 내말 못알아듣고 영어단어나 한자단어 엉뚱하게 얘기하면 전 진짜 몇날몇일을  웃겨죽습니다.몇년이 지나도 생각하면 웃낌ㅋㅋ
+그리고 난 영성이랑 변이랑 백신음모 얘기하고 신랑은 실세계의 현실적이고.맛난음식에 진심이고.
+ 실생활 자질구레한 사소한 물건같은거 챙겨주려하고 난 그런물건 별 관심없고ㅎㅎ.
+음식도 그냥 살아야되니카 되는대로 먹는거지 별흥미없고 
+진짜 똑같네요!</t>
+  </si>
+  <si>
+    <t>으흐흐흐 저 ESFJ인데 다른편 영상 너무 재밌게 보고 있어서 ESFJ 편이 너무 기대되요!!!</t>
+  </si>
+  <si>
+    <t>미치겟다 ㅋㅋㅋㅋㅋㅋ 맥주 팔면 혼자서라도 마시고 ㅋㅋㅋㅋ 메뉴 나온거 건네주면서 ㅇㅇ 나왔습니다~~하면서 알바인척 하는거 넘 똑같ㅋㅋㅋㅋㅋ아 ㅋㅋㅋㅋ 억울한거 말할때 말 빨라지고 분통터져하는거까지 똑같음ㅌㅋㅋㅋ케</t>
+  </si>
+  <si>
+    <t>퍼즐조각이 맞춰지는게 정종연피디님 저리가라네요b</t>
+  </si>
+  <si>
+    <t>저 ENFP 남친ESFP 인데 만나면 하루종일 뚜샤뚜샤 춤추고 노래하고 트월킹하고 난리</t>
+  </si>
+  <si>
+    <t>지나가던 INTJ는 그저 놀랍네요...리액션...표정..말투 목소리톤...모든게 다</t>
+  </si>
+  <si>
+    <t>인팁영상보고 ㅋㅋ하다 댓글에 이거랑 보면 딱이라길래 클릭했는데ㅜ 20초까지 보긴봤어요
+유미씨 인팁누설 그만하시고,, 엣프피로 전직 추천드립니다</t>
+  </si>
+  <si>
+    <t>정말 천재같네요
+대단하세요</t>
+  </si>
+  <si>
+    <t>ESFP 사랑스럽네</t>
+  </si>
+  <si>
+    <t>5:57 내친구 엣프피 술자리에서 지가 광대라고 그러는데 댕똑이네</t>
+  </si>
+  <si>
+    <t>esfj도 빨리해줘용온니~~~~~ 기다리는중&gt;&lt;</t>
+  </si>
+  <si>
+    <t>와;; 인프제인데 진짜 같이 있으면 기빨리고 힘들었던 애가 esfp인데 똑같다..</t>
+  </si>
+  <si>
+    <t>빅이슈 인터뷰 하신 거 보구 왔어요~!ㅋㅋㅋesfp 완죤 공감</t>
+  </si>
+  <si>
+    <t>istj인데 이번 asmr은 웬지 보면 경미한 스트레스를 받을것 같아 못보겠네요. 첫 화면만 봐도 어떤 분위기인지 느낌이 오게 특징 잘 잡아서 잘 만드신 듯.</t>
+  </si>
+  <si>
+    <t>하 진짜 이시리즈 너무 좋아해여어엉어ㅓ ENFP인데 다른 유형은 이렇고나 웅오와왕아아 씐기해 재미나다 이러면서 보고이쒀영!!!ㅎㅎㅎㅎ엔프피 기다리고 있숨다!!!!ㅎ힣힣힣ㅎ히히히힣ㅎ힣</t>
+  </si>
+  <si>
+    <t>고증 오져따...내가 아는 ESFP랑 말투부터 쓰는 단어, 많이 얘기하는 주제 등등 다 똑같애...</t>
+  </si>
+  <si>
+    <t>지나가던 인팁 혹시 지금 당장 볼수가 있을까 &lt;&lt; 여기서 기절함 일단 전화번호 있는지 없는지도 모르는 엣프피한테 전화오는 것부터 심장 떨림</t>
+  </si>
+  <si>
+    <t xml:space="preserve">난 잇팁이었다가 엣프피가 됐음!
+활동적이긴 한데, 새학기 같은 상황에선 좀 다른 것 같음
+모두가 서로를 잘 모르는 상황에서는 평소보다 비교적 조용하게 지내면서 애들 성격을 파악하는 편임
+대충 안정기 되면 그때부터 성격 맞는 애들 찾아서 친해지는 편 (˵ ͡° ͜ʖ ͡°˵) 
+보통 어느서든 사람들이랑 두루두루 얘기하고
+리액션이 좋은 편임
+그러나 엣프피가 안 좋아하거나 어중간한 사이인 사람이랑 있으면 오히려 조용해지고,, 
+기 잘 빨리고 .. 
+리액션도 잘 못함 (영혼 탈탈 털려있음)
+또 좋아하고 친한 사이인 사람들과 놀다오면 오히려 집에 와서 에너지가 넘치는데, 잘 안 맞는 사람이랑 이야기하거나 놀고 오면 기가 많이 빨려서 우울해지고 조용해지는 경향이 있음. (예민해지기도 함)
+엠비티아이가 같아도 
+사람마다 다 다를 수 있는데
+나 같은 경우는 위에 썼던 것들이 해당되는 것 같음 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:21 땡큐베리망치 너무 공감 ㅋㅋ 신기방귀 </t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ술자리 한번 하고 프로게이머라는 별명 얻은거 생각나네ㅋㅋㅋ 먹고나서 칭구가 그담날 아는사람이야? 물어보길래 아니? 첨보는데?했더니 그 다음부터 만나기 전에 텐션 어느정도인지만 미리 말해달라고 하는 내칭구 잇티제...역시 계획적인 내친구</t>
+  </si>
+  <si>
+    <t>mbti 학생 편도 괜탆을 거 같아여</t>
+  </si>
+  <si>
+    <t>엣프피 너무너무 기대했는데 역시 ㅋㅋㅋㅋㅋ
+제가 엣프피인데 너무 공감 가네요</t>
+  </si>
+  <si>
+    <t>아 엔프핀데 엣프피 동기 생각나서 지금 하 .... 기빨리는중ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ.... 와 어케 이렇게 똑같짘ㅋㅋㅋ진짜 같이 있으면 시도때도없이 연락오고 전화오는거 너무 똑같아요....... 어떻게 저렇게 친구가 많지 싶은.....  그리고 집에 붙어있지를 않는다는것돜ㅋㅋㅋㅋㅋㅋ하ㅏㅏㅋ ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그리고 옷도 은근 잘입는것돜ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ하아ㅓㅓㅓ!!!!!!! 와 진짜 그친구를 똑 떼다놓은것같다 .. . . .저도 진짜 어디서 입다무는 스타일 아닌데 엣프피친구랑 만나면 그냥 들어주다와요. .. . 진짜 엣프피랑 만나면 내가 t였나??? 이생각하는ㅋㅋㅋㅋㅋ근데 또 생각없는 스타일은 아니고 좀 똑똑하고 할일을 다해서 오?? 싶을때가 종종있어요 . .</t>
+  </si>
+  <si>
+    <t>왜 화가 났냐니 앞에 얘기했잖아 뭔 개소리야 &lt;&lt; 이거 너무 저예요 아 ㅋㅋㅋㅋㅋㅋㅋ ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>잇프제인데 한마디 한마디에 상처받고 가요...</t>
+  </si>
+  <si>
+    <t>intp으로서 상당히 버겁고 빨리 집 가서 혼자  있고 싶어지는 영상이었다 특히 배달부한테 자기소개하라는 거..'윽 시발' 하면서 이마 짚었다</t>
+  </si>
+  <si>
+    <t>6:08 아 미친 공감ㅋㅋㅋㅋ 윗분들 기분맞추고 장난치는거 내담당임 ㅠㅠ 대학교때부터 지금까지 ㅠㅜ</t>
+  </si>
+  <si>
+    <t>언니 엔팁도 언니가하면 특징 잘 잡으셔서 엄청 재밌을거 같아요!!</t>
+  </si>
+  <si>
+    <t>유미 선생님 제가 isfj인데 이 유형이 저랑 잘 맞는다 해서 보러 왔습니당!! 다음에는 isfj도 하주세용 플리스!!!</t>
+  </si>
+  <si>
+    <t>오와.. INTP 친구가 만난 친구인가요??! 이제야 알고 하나씩 보는데 너무 재밌네용</t>
+  </si>
+  <si>
+    <t>아니 엣프피가 벌써 올라오다니 너무 신나네</t>
+  </si>
+  <si>
+    <t>intp이고 나랑 반대되는 엠비티아이는 어떤가 해서 봤는데 ㅋㅋㅋㅋ 정말 뭐랄까 상상도 못할 걸 봐버린 느낌 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>평소엔 infp인대 작정하고 놀면 esfp되는듯... 나 인프인데 놀때 말투랑 행동 esfp랑 완똑이라 놀라고감..ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>저는 ESFP 입니당
+️내가 적는 유미님과 내적친밀감 느끼기 탐라️
+ 둠칫타치 룰루누눈 내적댄스
+ 난 전화가 너무 좋아
+ 눈알 나오겠소. 억울한일 못참지
+ 인생피곤하다. 인생에대한배신감느끼고
+ 같이일했으니까 공감잘할꺼같고 내편들어줄것같은 인팁이. 우리성격에 지금바로봐야지 무적권
+ 우는 소리 기본 패시브
+ 영혼없음. 기본 스킬같은 거
+ 속으로 얘기해라ㅋㅋㅋㅋㅋ남방이ㅋㅋㅋㅋ
+ 일단 공감대형성
+굉장히 너가 나를 무안해 만들었다
+ 방심한 사이 인내심이 루즈해짐
+ 다시 정신차리고
+ 엥 왠열
+ 피곤하다 증말
+ (대박 이건 걍 쓰니가 맨날자주하는 말)
+ 걍 기본스킬
+ 사장님과 우정나누기 기본패시브
+ 생활말투 소름
+ 거짓말아님. 거짓말은 안하는 엣프피
+ 나도 못따라가겠는 화제전개
+ 말하면서 다시 화나는 중
+ 억울억울 이해하지????이런느낌
+ 사실은~ 너무좋죠
+ 불성실... 저런말들으면 화병나....
+ 난 안그러는데ㅜ앞에 사람두고 전화금지ㅠ
+ ㅋㅋㅋ맞지 내편인줄알았는데
+ 사람앞에두고ㅋㅋㅋㅋㅋㅋ저런다고?ㅋㅋㅋㅋ
+ 기분안좋으면 전화해야하긴해
+ 급화제전개 222
+ 질척....맞아 난 질척대.. ㅇㅈ..
+ 갑자기 취하는거 나만그런거아니엇나.. 유미쌤어떻게알았어요?....
+ ㅋㅋㅋㅋ왜저래ㅋㅋㅋ나야?ㅋㅋㅋㅋ
+ 왜 우리엄마말 따라하는 나 보여?
+ 저 개그 분명 재활용. 웃음이 찐이 아니거든ㅋ
+ 맞지 관심없는분야 1도모르지
+ 드릉드릉 웃긴거말할꺼니까 웃어 드릉드릉
+ ......할말않하.....ㄹ....
+ 북유럽좋고, 여행좋고, 친구좋고 무조건가지
+ 좌욕을해서가아니라, 인팁이도 특이한친구일듯
+ 난 취하면 처음본사람한테는 낯가리는데
+ 아니 못받았어..
+ 급화제전개 3333
+         근데 안주잘먹은것도 엣프핀가요..저 잘먹는데..
+ ㅋ... 내 친구들 고생많네
+ 맨정신에 음모들어도 그거? 생각함
+ 또 모른다. 공부좀하자 우리
+ 바보맞는데, 자꾸 웃으면 좀 울컥함. 근데 신경쓰지들 않으셔도됨. 엣프피가 더 사람들 잘 놀리니까.
+ 인팁도 대단해... 술마신사람앞에 두고 맨정신으로 딥토크가 가능한게.... 상대방은 관심도 없는 분야를..
+ 근데 엣프피도 고민없음. 생기면 거의바로 해결됨
+ ㅋㅋㅋㅋㅋㅋ근데 왜 우리랑은 친해?ㅋㅋ
+ 이것도 나 진짜 많이 하는 말.
+ 전화 참 좋아한다
+ ......술마시면 우는 소리 많이 내지..맞지..
+ 에구 많이 서러웠네 우리엣프피ㅠㅠ
+ 오늘 하루종일 한 말
+ 미치겠네. 혼코노까지 완벽 갓벽
+ 맞지 갑자기 댄스곡도 한번해줘야지
+나 진심 저말하면서 혼술하면서 운적몇번있는데
+ 굿-나잇- 너의 고민은 이제 끝-</t>
+  </si>
+  <si>
+    <t>사랑스럽다 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와중에 피자먹는 소리 너무 좋다ㅠㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>영상한테 두들겨맞는 느낌 - INTJ</t>
+  </si>
+  <si>
+    <t>3분15초에서 한 번 끊고 내일 마저 볼게요...아니 기빨리는 건 아니고 좋아서 아껴보려고 그러지...</t>
+  </si>
+  <si>
+    <t>미친 짠하면서 계속 쳐마시는거 너무 공감되고 그걸 내가 멱잡고 데리고 나가야된다니 인팁이 걱정됨</t>
+  </si>
+  <si>
+    <t>유미언니가 먹는 나쵸 올라간 피자 어디꺼에요? 먹고싶다...</t>
+  </si>
+  <si>
+    <t>귀찮은 빨간남방 인팁이를 끌어낸 친구가 이친구였군요</t>
+  </si>
+  <si>
+    <t>남들이 봤을때 esfp 이렇게 생각없는 너낌인가..? esfp인데 다른거 재밌게보다가 슬퍼짐 ^_T...</t>
+  </si>
+  <si>
+    <t>저 ENTP 인데.. ESFP 친구가 저를 너무 좋아해서 맨날 괴롭혀요 ㅠㅠ
+만나자마자 밑도 끝도 없이
+Esfp : 넌 왜 그래 진짜?
+나 : 뭔 또 헛소리 할려고 그래..
+Esfp : 아니 너는 맨날 그런식이야~
+나 : 솔직히 말해. 할 말 없잖아 ㅋㅋ
+Esfp : 난 일단 지르고 시작해
+조잘조잘 주절주절
+나 : oo야!  oo야!
+Esfp : 어! 왜? 왜?! 
+나 : 제발 10분만 닥쳐줘..
+Esfp : 응 ~ 시른데~</t>
+  </si>
+  <si>
+    <t>와 진짜 유튜브 댓글 첨써봐요 진짜 전줄 알았어요ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 소름  mbti는 과학이군요..</t>
+  </si>
+  <si>
+    <t>포에버 영 저거 내가 우울할 때마다 부르는 노래인데....ㅋㅋㅋ 소름...ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>제가 esfp인게 넘 행복해요....</t>
+  </si>
+  <si>
+    <t>아 미쳐.....똑같........ 특히 마지막</t>
+  </si>
+  <si>
+    <t>0:14 뭐해뭐해뭐해뭐해.. 개똑..ㄹㅇ…</t>
+  </si>
+  <si>
+    <t>원레 대화 이렇게 않 하는 사람이 있나싶을 정도로 저렇게 말함 말못할땐 입에 단내가남..
+상대 칭찬 많이 하는거 넘 똑같네 ㅋ ㅋ
+칭찬하면서 자연스럽게 살짝 까는것두 ㅋ
+영상인데두 친구 만난듯 편안 ....
+넘재밌엉 지루하지않구 ㅋㅋ
+넘 재밌게 말하다보면. 술도 않마셨는데 술마셨냐는 소리 나올정도로 기분 하이텐션
+전화받고 우는거 개웃겨 ㅋ ㅋ ㅋ ㅋ 
+붙잡는거 ㅋ ㅋ ㅋ ㅋ ㅋ
+노래왜불 어 ㅋ ㅋ ㅋ ㅋ ㅋ
+너무 쥬아 개쥬아 ㅋ ㅋ ㅋ ㅋ ㅋ</t>
+  </si>
+  <si>
+    <t>ENFP 기대합니다</t>
+  </si>
+  <si>
+    <t>옛날에는 소심 했다가 요즘은 당당해져서 좋음</t>
+  </si>
+  <si>
+    <t>아 씨 너무 저같아서 소름돋아요 ㅠ 말하는 거 너무 난데..? 갑자기 말하다가 급발진 화나서 말하는 것도 너무 .. 엣프피의 나…</t>
+  </si>
+  <si>
+    <t>mbti 시리즈 재밌어여ㅋㅋㅋㅋㅋ
+기다린 보람이 있네요</t>
+  </si>
+  <si>
+    <t>스타일링도 찰떡임ㅋㅋㅋㅌㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>유미언니 !!!! 립 섀도우 블러셔 정보좀 알여주세요 ㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>정말귀엽고 ..정말해맑고 다 좋은데 조금 지치네.... Istj</t>
+  </si>
+  <si>
+    <t>인프피랑 자기추측 엣프피 나와서 긴가민가했는데 이거보고 내가 인프피임을 확신해ㅛ슺니다 감사합니다</t>
+  </si>
+  <si>
+    <t>안희,,,, 저 검사하면 인팁이나 엔팁 나오는데
+윰언니의 엣프피는 저같은뎅….? 신기하다 ㅋㅋㅋㅋㅋ 반반섞였어요</t>
+  </si>
+  <si>
+    <t>ESFP 는 시작부터 일터가 아니네 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>세상에 … 내가 찍은 줄…. 말투 너무 똑같아서 어이없어요 ㅋㅋㅋ 신기해서…. 최애맥주 칭따오 등장해서 더 놀람ㅋ 맨날 친구들한테 천재소리 하고 뭐뭐했지 뭐야~~~ 이거 성향때문이엇아</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ아 주변 엣프피랑 존똑이얔ㅋㅋㅋㅋㅋㅋㅋㅋ 인팁 영상 보면서 상대방 친구 엣프핀가 했는데 역시 였음 ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>esfp 절친친구랑 너무 똑같아서 진짜 소름 돋고 울면서 봤어요 ㅠㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>엔팁 너무 기대됩니다</t>
+  </si>
+  <si>
+    <t>진짜 숨쉬듯이 무례해ㅠㅠ내친구랑 똑같아 하ㅠ</t>
+  </si>
+  <si>
+    <t>최근에 esfp 친구를 사귀게 되었는데 맨날 즉흥적으로 만나자고 해서 맨날 거절하는 istj ,,</t>
+  </si>
+  <si>
+    <t>공감받기 위해 태어난 엣프피</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅠㅠㅠㅠㅠㅠ 한마디로 안 끝나는 거 넘 똑같 어어어어어어 네네네네네네 모해머해머해해해해ㅐ 어어엉 뭔데ㅝㄴ데뭔데</t>
+  </si>
+  <si>
+    <t>14:00 아 진짜 이부분 존웃이에요 -esfp</t>
+  </si>
+  <si>
+    <t>아니 여기서도 세계관 이어지는거 개좋앜ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ESFJ 사교적인 외교관 해주세여,,,,,,</t>
+  </si>
+  <si>
+    <t>언니 진짜 미취게따!</t>
+  </si>
+  <si>
+    <t>infp인 내 주변에 절대 없는 유형..기빨린다 ㅠ</t>
+  </si>
+  <si>
+    <t>하...진짜 재미로 보다가 너무 너무 나보는듯해서 정색하고 봤다 대박쓰</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋ방금 인팁보고와서 대화가 이어졐ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">엔프피 많이 나오다가 최근에 첨으로 엣프피 나온 사람인데 공감하실지는 모르겠지만 나는 내가 그리 외향적이라고 생각이 들지가 않음 친구 둘이 있을 때 말 많이 하는것도 어색하기 싫어서 할때가 많고 생각보다 조용함 (?) 어쨌든 그래 </t>
+  </si>
+  <si>
+    <t>이런거 너무 좋아 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>0:15 아니 진심으로 틀자마자 제 엣프피 친구인줄 알고 소름돋았어요.....ㅋㅋㅋㅋㅋㅋㅋㅋ소리지름 말투랑 대사랑 말여러번씩 하는거까지 개똑같앜ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>기 빨리는 isfj… 다 들어줘야 하눙대 웅웅웅 마쟈</t>
+  </si>
+  <si>
+    <t>23:11  너무웃겨</t>
+  </si>
+  <si>
+    <t>신기하게도 내친구 엣프피는 너무 다르다.,,,,,,, 말로 표현학 너무 어려운데 인터넷 나처럼 열심히 하고 약간 주접떠는 것도 없고 점잖으면서도 같이 웃긴얘기할땐 엄청 웃고 웃겨줌ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>썸네일만 봐도 기가 빨리는 인팁...</t>
+  </si>
+  <si>
+    <t>인팁 세계관이라 이어진다길래 보러 온 인팁인데 여기 댓글들도 약간 기빨리네요.. 대부분의 댓글들이 파이팅 넘치는 모습..</t>
+  </si>
+  <si>
+    <t>인티제인데 8분까지 보고 기빨려서 속으로 (앞으로 엣프피랑 말 섞을 일 없겠다) 생각함 ️</t>
+  </si>
+  <si>
+    <t>엣프제존버합니다!!!!</t>
+  </si>
+  <si>
+    <t>똑같다 진짜 내친구같아</t>
+  </si>
+  <si>
+    <t>하.. 왜이렇게 보는데 힘들지 아무이유없이 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>esfp 초등 아들둔 엄마라 궁금해서 들어왔어요~  저희 아들 isfj인 저로서는 이해 안되는 부분도 많지만 마냥 사랑스럽고 맑은 영혼입니다.</t>
+  </si>
+  <si>
+    <t>정말 끝까지 못보겠어요… 죄송합니다…(INFJ…)</t>
+  </si>
+  <si>
+    <t>제가 맨날 듣다 잠들어섴ㅋㅋㅋㅋㅋ 내용을 잘은 모르는데 혹시 이 캐릭터 그 한국 기념품 판매샵 직원 캐릭터인가요..?
+아니 썸네일이... 너무 그 때 그 모습이랑 똑 닮았어요.....</t>
+  </si>
+  <si>
+    <t>와 아는 사람이랑 너무 똑같아서 기절ㅋㅋ</t>
+  </si>
+  <si>
+    <t>ㅠㅠ 귀엽다</t>
+  </si>
+  <si>
+    <t>나 인팁인데 피곤해서 이거 끝까지 못 봄. 집가고 싶다</t>
+  </si>
+  <si>
+    <t>엣프피들...씬난 강아쥐들같아</t>
+  </si>
+  <si>
+    <t>istj이고 동생이 esfp라 빨리빨리빨리보라고 링크보내줘서 보고있는데 기빨려서 중간에 스탑....  내 동생이 여기있네...........</t>
+  </si>
+  <si>
+    <t>와...손절한친구랑너무똑같아서소름...
++전 ENFJ 인데 참다가참다가 손절..</t>
+  </si>
+  <si>
+    <t>내가만난 저유형은 뭐랄까 똥고집이잇다랄까 그런 성격인거같음 이상한 똥고집잇구
+나의문제는 정말백년이지나도 이야기할것같은데 자신의 문제만 나오면 숨어들어감</t>
+  </si>
+  <si>
+    <t>제 친구 엣프피인데 학교에서 노래를 진짜 계속 불러요 근데 이제 나도 즐기는중</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ 되게 솔직하고 귀여운 타입이긴 한데 일대일로 만나기는 조금 부담스러운 타입이야 엣프피랑 엔프피 ㅠ ㅜ</t>
+  </si>
+  <si>
+    <t>카페와서 맥주파는 거 알아? 대박이다 하는 것 까지 똑같냨ㅋㅋㅋㅋㅋ아 진짜 소름돋아 낮에 카페에서 맥주는 못 지나치지 ㅠ</t>
+  </si>
+  <si>
+    <t>악 점점 더 엔프피가 넘 궁금해옄ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ESFJ도 부탁드려요!!! 넘 기대즁입니당♡</t>
+  </si>
+  <si>
+    <t>인팁이가 만난애가 얘였구나 ㅋㅋㅋㅋㅋ
+텐션 장난 아니네요 ㅋㅋㅋㅋㅋㅋ
+누구 만났는지 엄청 궁금했는데 위에 올라와있을 줄이야</t>
+  </si>
+  <si>
+    <t>내아는 esfp 언니랑  존똑.
+주변인들과 트러블나는거까지 존똑.</t>
+  </si>
+  <si>
+    <t>인프피인데 너무 스트레스받아서 계속 끝까지 못보겠어ㅠㅠ 인팁이었다 인프피된거라 그런건지 이런 유형 너무 스트레스 …</t>
+  </si>
+  <si>
+    <t>I는 영상 초반부터 기빨리는중</t>
+  </si>
+  <si>
+    <t>전 ESFP가 나오는데 전부다 맞지는 않는것 같아요 ㅎㅎ 성격이니까 그런건가싶기도하고 남녀에 차이가 좀 있나 싶기도하고 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>인프피 기대하겠습니댜!!</t>
+  </si>
+  <si>
+    <t>본인 ISFP인데 남자친구가 ESFP라 이해해보려고 영상 들어갔다가 기 빨려서 2분만에 끔 ,,  𐨛 𐨛 𐨛 𐨛 𐨛 𐨛 𐨛 𐨛 𐨛 𐨛</t>
+  </si>
+  <si>
+    <t>전남친 esfp인데 뭔 술을 5시부터 밤 12시까지 마심. 그것도 12시 제한 풀리면 밤새 마실듯. 나 intj 그 시간 너무 아까워… 난 그동안 운동하고 씻고 식단하고 인터넷 쇼핑으로 필요한 물건 사놓고 방 청소까지 싹 했는데 전남친은 다음날 숙취로 하루종일 아무것도 못하는거 보면 좀 한심해보였음… 맨날 운동 한다해놓고 작심삼일. 근데 그런 전남친은 나보고 숨막힌다 했으니까 그냥 서로 안맞았던걸로…</t>
+  </si>
+  <si>
+    <t>내친구중에 esfp 많은데 뭔가 간접적으로 만난 기분이다 ㅎㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>이분이 러쉬알바직원이신가?  전직하신거인 모양?^-^;;</t>
+  </si>
+  <si>
+    <t>엣프피 이런 이미지였어? 나 저렇게… 시끄럽고 항상 신나있는 이미지였니 친구들아…? 부정할래요 저는 차분하고 조용한… 엣프피입니다…</t>
+  </si>
+  <si>
+    <t>친구들이 내친구랑 같이 만나도 될까..? 묻지도 않고 같이 나옴 ㅋㅋㅋㅋㅋㅋㅋ̆̈ㅋ 다같이 베프됨 
+다른학교 모임갔는데 카톡 단체방에 껴서 그 학교 나온줄 알고 너는 학교다닐 때 본적없는 거 같다고 ㅋㅋㅋㅋㅋㅋㅋㅋ̆̈ㅋ 파티?? 가야지 어딘데 어딘데 
+사람 좋아하는데 상처도 잘 받아요 
+코로나가 힘든 ESFP 하아…….</t>
+  </si>
+  <si>
+    <t>저 엣티제 남편 엣프피  연애때 무계획으로 즉흥 약속때문에 엄청 싸웠는데 10년지나니 남편이 스케쥴 짜서 미리 컨펌 받더라구요ㅋㅋㅋ 서로 보완중입니다. 저에게없는 남편의 밝은 기운과 무한긍정 에너지 받고 남편은 계획해야하는 재정 큰방향 저에게 맡기구요 굳죱</t>
+  </si>
+  <si>
+    <t>ㅋㅋ 언니 너무웃경 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>언니 ㅋㅋ뼈 맞는기분이에여,,</t>
+  </si>
+  <si>
+    <t>0:12 인프제인데 이런 호들갑 왜케 웃기죠 ㅋㅋㅋㅋㅋㅋ 아</t>
+  </si>
+  <si>
+    <t>20:16 머리 탈부착..(?) 하실 때 진심 개놀랬는데 20:27에서 피자 광고하는 거 마냥 까리해지셔서 당황… ͡° ͜ʖ ͡°</t>
+  </si>
+  <si>
+    <t>ESFP모여</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋ사장님한테 말하는거 ㄹㅇ 나 같네 가는 음식점마다 단골쌉가눙이얌~☆☆</t>
+  </si>
+  <si>
+    <t>언니 혹시.. 립 정보좀 알수있을까요ㅠㅠㅠ 넘 이뻐효</t>
+  </si>
+  <si>
+    <t>헐 나 엣프피인데 너무 똑같다</t>
+  </si>
+  <si>
+    <t>내일 일 마치고 칭따오 한 캔 해야겠는데요...ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ESFP 제목 보고 들어왔는데 
+나말고 다른 엣프피 있냐 좋아요 눌러봐바</t>
+  </si>
+  <si>
+    <t>맥주귀씬ㅋㅋㅋㅋㅋ 옷도 까만옷 입었엌ㅋㅋㅋㅋㅋㅋㅋ 나름 꾸안꾸 ㅋㅋㅋㅋㅋㅋㅋ 앜ㅋㅋㅋㅋㅋ저도 맨날 까만옷입고 다니는데 와후 나름 옷 신경 많이 쓴다구요
+헐 지금 보고 있는데 맨날 늦는거 어케 알았지…</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ보다가 너무 나랑 똑같아서 친구한테 링크보내줬는뎈ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ배터져 죽는줄알았어욬ㅋㅋ마지막에 노래부르는것도 그렇곸ㅋㅋㅋㅋㅋㅋㅋ야 다꺼지라그래 며, 복사한줄ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 처음부터 끝까지 난데..?</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ아 말 쉬지않고 하는거 너무 똑같애ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>다른 엠비티아이 관심 없어서 어떤 성격인지 몰랐는데 이 기회에 알게 되네요ㅎㅎ 나랑 진짜 안맞는닼ㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>영상 보고 느낀 점
+1. 나도 발랄하고 오디오 안 비는 재주를 갖고 싶다.
+2. 자기 개성에 맞게 잘 꾸미는거 신기하고 부럽다
+ 저런 악세사리는 어디서 사는걸까.
+3. 피곤해서 누워야겠다......
+istj 올림</t>
+  </si>
+  <si>
+    <t>INFP 존버합니다</t>
+  </si>
+  <si>
+    <t>인싸중에 인싸 mbti아님!?</t>
+  </si>
+  <si>
+    <t>음 주변에 엣프피가 없어서 몰랐는데 정말 저랑 안맞네요 저는 인프피인데..</t>
+  </si>
+  <si>
+    <t>맨 마지막 전화받고 갑자기 울면서 서럽다할때, “아! 왜 저래~!” 육성터짐.. 보기만 해도 기빨린다..지나가던 Intj</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 사람, 술, 쇼핑 좋아하는 엣프피들... 저렇게 무슨 일 있으면 조잘조잘 몇 시간이고 잘 떠들더라... 그리고 인프피라 뭔 일 있으면 내내 잠 못 이루고 밤새 우는 나완 다르게 겁나 잘 잠... ㅋㅋㅋㅋㅋㅋㅋ 공감 안 해 주면 이상해하고 하는 말도 이상해서 웃겨 진짜 소름 ㅋㅋㅋㅋㅋㅋㅋㅋ 그리고 진짜 진지한 얘기 하려고 하면 말 안 통함 ㅠ 평소에는 이상한 얘기 해서 웃긴데 진지한 얘기 할 땐 미치겠음 ㅋㅋ 자존심 건드리는 거 개싫어하고</t>
+  </si>
+  <si>
+    <t>와 ESFP가 INTP 친구랑 만난 거죠 대박</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋ 신기한 유형이네요 어쩌다 만나서 술마실땐 재밌겠네요</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋ동생이 esfp고 내가 intp인데 너무 공감가서 웃김ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와 … esfp인 내 친구랑 개똑같다 맨날 집오라 그러고 힘들면 전호ㅓ라라 그러고..</t>
+  </si>
+  <si>
+    <t>본인 INTP이고 동생이 ESFP인데 아.......ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ결 고증이 대단하시네요..</t>
+  </si>
+  <si>
+    <t>같이 일하는 선배들유형을 파악하기위해 이 영상을 보고있습니다. 선배들과 술먹는건 자제해야겠습니다.  -지나가던 ISTJ</t>
+  </si>
+  <si>
+    <t>Istp estp infj enfj도 해주세요</t>
+  </si>
+  <si>
+    <t>짐짜천재같아요 ㅎㅎㅎ 친구랑 똑갗음 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>저모자 쓰고 패션유지해야지하다가 맨날 계속올리는데 개존똑 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ얘기하다계속올림ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그러고 얘기털다가혼자몰입함 ㅋㅋㅋㅋㅋ그러다 상대지루한거같으면꼭 무러봄ㅋㅋㅋㅋㅋㅋ그래도말함ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>07:32 정화씨 infj편에서 3분쯤인가 본거같은데 ㅋㅋ여기도 나오네요 ㅋ ㅋ ㅋ 인프제는 정화 마음도 이해된다했는뎈ㅋㅋㅋㅋ 엣프핔ㅋㅋㅋ아 귀여웤ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ연기 쩐닼ㅋㅋㅋㅋㅋ
+제작년까지 ESFP였는데 I랑 반반이였어서 좀 다르긴하다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENFP , ESFP 는 대가리꽃밭은 맞음ㅋㅋㅋ </t>
+  </si>
+  <si>
+    <t>아진짜?? 우와 진짜ㅋㅋㅋㅋ 대박이다 (아 집에 가고싶어....)(엔프피) (빨리 들어주고 내 이야기해야하는데 틈을 내놓아라... 어떻게 그걸 다 말하지? 사회생활을 못할것 같다니 상처 받는거 아냐? 나였으면 상처였다) 대충 이런 흐름임 친구 만날때는 기분 엄청 좋은데 집에 돌아오면 흠 내가 뭐 실수한건 없나</t>
+  </si>
+  <si>
+    <t>4:20 친구들한테 다 소개한다는 말 진짜 ㅋㅋㅋㅋㅋ씨 ㅋㅋㅋ아 갱 다 그냥 내가 하는짓 말 다 똑같당 
+나 진짜 Esfp네</t>
+  </si>
+  <si>
+    <t>Intp 내용이랑 연결되는게 왜케 웃기지...ㅋㅋ</t>
+  </si>
+  <si>
+    <t>INTJ 기 다 털리고 갑니다… 유미언니 짱…🫠</t>
+  </si>
+  <si>
+    <t>인프피도 해주세용</t>
+  </si>
+  <si>
+    <t>아.....기빨려......보다가 기빨려서 그만둔건 처음인듯......</t>
+  </si>
+  <si>
+    <t>보자마자 기빨려요</t>
+  </si>
+  <si>
+    <t>자유로운 영혼 ESFP 입니다 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>술취한 연기 귀엽다 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>Intj인데 딱 저런 친구 있었는데 뭐하냐고 전화 자주 하고 급 만남도 자주 하고 통화도 5시간씩하고 귀염귀염 편하고 인기도 많았어요 한국에서 적응해서 살기 젤 좋은 타입이 아닐까 싶네요 ㅂㅁㄴ야 잘 지내니? ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>좌우지간에 피자 어디피자임?맛나보여유</t>
+  </si>
+  <si>
+    <t>Entj는 보자마자 피곤해져서 인팁한테 전화 걸자마자 영상 정지했습니다…</t>
+  </si>
+  <si>
+    <t>3:52 가게 마음에 들면 사장님한테 가서 스몰톡 오지게 거는것도 나잖아.......???? ㅋㅋㅋㅋㅋㅋ너무 나라서 소름돋아 내친구 다데꼬올거라곸ㅋㅋㅋㅋㅋ무조건 말하는데,,</t>
+  </si>
+  <si>
+    <t>나도 e로 시작해서 외향이라고 생각했는데 친구중에 esfp있으면 내가 다 어..응..그치 이렇게 됨ㅋㄱㅋㄱㅋㅋ 너무해맑고 귀여운데 가끔봐야함 자주보면기빨려 그래도 착하고 퐁실퐁실하게 귀여움 그리고 술먹으면 개관종되서 목소리커지고 하는짓 어려짐ㅋㅋㅋ귀여운데 한 이미터 뒤에서 보고싶음</t>
+  </si>
+  <si>
+    <t>넘 웃겨 ENFP 기다릴게요!!!!!</t>
+  </si>
+  <si>
+    <t>저 인팁이고 제 남친 잇프피인데...ㅋㅋㅋㅋㅋㅋㅋ 안 맞는 부분도 있지만 대부분 같이 있으면 재밌어요</t>
+  </si>
+  <si>
+    <t>인프피..존버합니다..</t>
+  </si>
+  <si>
+    <t>0:13 아제발 진짜 기절할거같음.......</t>
+  </si>
+  <si>
+    <t>인팁... 상대방이라길래 보는데 자꾸 답답해서 2배속으로 듣는중..</t>
+  </si>
+  <si>
+    <t>미안해오 ㅠㅠ 보는데 기빨렸어요…</t>
+  </si>
+  <si>
+    <t>esfp,,, 다음은 isfp를 기대해봐도 되나요,,,,,,?!</t>
+  </si>
+  <si>
+    <t>20대의 제가 영상보다 더 심했던거같지만 (한달약속이 다 있어서 일요일 약속이 10개인적이 있었음ㅋㅋㅋㅋㅋ)40대가 되고 자영업을 시작하고 에너지가 빠졌어요~그래도 보통 사람들 만나면 기운이 생깁니다ㅋㅋㅋ아직도 술먹으면 텐션 심하게 업됨. 사람들이랑 노는게 너무 신남. 영상이 너무 제 어릴적같네요 ㅋㅋㅋ 오빠가 대답할때까지 반복적으로 계속 불렀었어요 왜 주변사람들이 딱 esfp라 했는지 영상보고 깨닫고 갑니다</t>
+  </si>
+  <si>
+    <t>강유미 그녀는 진정한 인류학자다</t>
+  </si>
+  <si>
+    <t>짧게 찍으면 넘 좋으겠다~~ㅎㅎ</t>
+  </si>
+  <si>
+    <t>마자 내가본 인싸들 특징이다 대화중에 전화졸라 마니오고 말투도ㅜ저래 신기하다!!!</t>
+  </si>
+  <si>
+    <t>남친…남편으로 만나면 각오 해야함.. 개념있는사람들에겐 너무힘든 상대들..주둥이만 예술 노답들 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>하.. .이제 인류제조기 급의 섬세한 묘사능력 칭찬도 지겨우네요</t>
+  </si>
+  <si>
+    <t>인티제는 전화 받는거 보자마자 기 빨리고 갑니다…</t>
+  </si>
+  <si>
+    <t>속으로 얜 좋은애다란 생각들면 반응 안해줘도 말 많이 함ㅋㅋㅋㅋ 근데 싫은애는 상종안함 뒷담까는거 싫어하고 위로보단 아무말 없이 계속 옆에 있어주는게 더 편함 억지로 헐 고ㅙㄴ차모아??? 갠차아???? 하는거 싫어함..</t>
+  </si>
+  <si>
+    <t>나 인팁인데 진심으로 이 영상에서 하는 말 하나도 귀에 안 들어 옴ㅋㅋㅋㅋㅋㅋㅋ 앞에 15분 정도는 무슨 말 했는지 기억도 안나</t>
+  </si>
+  <si>
+    <t>6:27 갑자기 꼽주는거ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ내가 3년째 같은옷을 입든말든ㅜ</t>
+  </si>
+  <si>
+    <t>남친이 ISFP인데 다운텐션의 좋은성격이라 E성향은 얼마나 해피에너지가 있는 사람일까 ㅋㅋㅋㅋ너무 좋을것같다</t>
+  </si>
+  <si>
+    <t>진짜 내친구 그자체....!! 너 이상해~ 하는부분 진짜 소름ㅠㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>친구가 썸네일 표정부터 저라고 ㅋㅋㅋㅋㅋㅋ 보니까 저 맞네요 
+그리고 저는 애주가인데 다른 엣프피님들도 애주가인가요..??ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인팁인데 영상튼지 4분만에 기존나빨림ㅋㅋ큐ㅠㅠㅠㅡ</t>
+  </si>
+  <si>
+    <t>아닠ㅋ 미친 내 친구랑 똑같네 아 벌써 친구 다 만난거 같다 아 기빨린다 아 빨리 버스타고 집 가고싶다 아 맞다 지금 집이지</t>
+  </si>
+  <si>
+    <t>본인은 esfj라 인팁 영상 볼 때 어떤 식으로 얘기를 하길래 반응을 저렇게 하지 라고 생각하고 (인팁 관련 영상을 처음 봄. 그런 사람이란거 보고 충격먹음) 
+이 영상보니까 정화가 잘못했네 원서 쓰고 있는데 뒷담화를 까면 어쪄!!</t>
+  </si>
+  <si>
+    <t>아... 억울해하는거 나같애서 머릿속 피빨린다 ㅋㅋ.... 거울모드 보는.기분이라 미치겠다^ㅠ</t>
+  </si>
+  <si>
+    <t>Istp 존버단</t>
+  </si>
+  <si>
+    <t>여기서 나오는 정화가 그 엣티제편에 말로만 나오는 퇴사한 정화씨 인가??ㅋㅋ</t>
+  </si>
+  <si>
+    <t>첫마디부터 기가빨렸다....</t>
+  </si>
+  <si>
+    <t>어디서 기가 빨린다는거죠?  걍 귀여운데~  매일 보면 좀 피곤하려나 -entj</t>
+  </si>
+  <si>
+    <t>저 엔뿌삐 남친이 esfp인데.. 싸울때 진짜 벽에대고 싸우는거같아요 뭔가 그냥 얼랑뚱땅 넘어가려하고 항상 회피하려고해요 어떻게해야 제말을 진지하게 전달할수있을까요? 일단 서로 뭔가 비슷한데 저같은 경우 내일 모래 나중 미래얘기하면서 신나고 설레하고 재밌어하는데 얜 지극히현실주의자에요 오늘이 제일 중요하고 내일? 내일일은 내일정하면되지 약간 이런식..
+근데 서로 즉흥적이고 충동적인건 비슷한데 얘기 조금더 자제하는스타일 쇼핑도 전 맘에들면 바로지르는데 남자친구는 생각 엄청 하고고민하고사는스탈이에여..</t>
+  </si>
+  <si>
+    <t>0:01 왼쪽에 색칠된 거 보면 담엔 엔프피인듯?!ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>엠비티아이 안믿는데… 인팁 듀번나왓엇고… 내 주변에 남은 친구들중에 이런 친구 절대 없고.. 영상보기만 하는데 개피곤</t>
+  </si>
+  <si>
+    <t>Esfp 만쉐~~!</t>
+  </si>
+  <si>
+    <t>인프피 시작한지 1분만에 진 빠졌어요...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTP 존버 합니당  
+빨리 보구시퍼용 </t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 아 징차 웃기다 리액션 개부자야</t>
+  </si>
+  <si>
+    <t>엔팁 기대돼요....... ^^ 역대급이 나올 것 같은 그런 느낌 설렌다,,,,</t>
+  </si>
+  <si>
+    <t>ㅇㄴ ㅋㅋㅋㅌㅌ 10:12 부터 표정 ㅋㅋ큐ㅠ 넘 나네~~</t>
+  </si>
+  <si>
+    <t>Istj인데… 제겐 신인류… 정말 이해를 못하겠어요ㅋㅋㅋㅋ 특징도 못찾아내겠고 종잡을 수 없네요…@.@ 어휴 힘들어</t>
+  </si>
+  <si>
+    <t>주변에 엣프피가 젤많은 인티제인데 와...소름돋아요..  친구들이 쫙 스쳐지나감</t>
+  </si>
+  <si>
+    <t>저 인팁인데 왜케 기빨리죠ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>나랑 친구될 일은 없다. 영원히 안녕 -infj
+살다가 마주칠때 싸우지만 말자.</t>
+  </si>
+  <si>
+    <t>지금 당장 만날수있을까에서 너무 당황해서 그 이후부터 머리가 진행을 따라갌수가없는 잇티제이…..입니다..</t>
+  </si>
+  <si>
+    <t>아니 진짜 내친구랑 존똑...소름돋아</t>
+  </si>
+  <si>
+    <t>ESFP 저희아들 너랑 똑같다고 이거 보여주니까 건들거리며 보다 8분쯤 나갔어요ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>소름끼친다 개똑같다 와...</t>
+  </si>
+  <si>
+    <t>가평 사는 싸이먼 ㅠㅠ 지대웃겨 ㅠㅠ -intp</t>
+  </si>
+  <si>
+    <t>estj인데 왜이렇게 기가 빨리지</t>
+  </si>
+  <si>
+    <t>인팁인데, 이거 듣고 있는 내 반응 보니 첫번째 인팁영상이 스쳐가네...ㅎ 인팁이 맞긴 맞네 내가. 초반에.. 기빨려서 약간 넋 놓고 봄.. 힘들다ㅎ 고된 영상이다. 아 근데 이름도 얼굴도 정확히 기억 안 나지만 저런 친구가 있었던 거 같은데....누구더라......</t>
+  </si>
+  <si>
+    <t>아 어색하고 당황스러울 때 티 다 내는 거 엣프피인 내 친구랑 너무 똑같음ㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>입술 뭐바르신거예요? 예뻐요 ㅜㅜ</t>
+  </si>
+  <si>
+    <t>제발 나쵸 토핑 올라간 피자정보 좀요 그것도 광고 아닌가요???</t>
+  </si>
+  <si>
+    <t>Infj두 제발 해듀세여
+세상 모든 인프제들 화이팅️</t>
+  </si>
+  <si>
+    <t>Entj 기다리고있어요ㅠㅠㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>인팁인데요, esfp를 더 이해할수 있도록 노력해보겠습니다.</t>
+  </si>
+  <si>
+    <t>ISTP 존버</t>
+  </si>
+  <si>
+    <t>Esfp는 일인극을 잘하나요? 도라이네 ㅋㅌㅌㅋㅌㅋㅋㅋ 젤웃겨 enfp 대기탑니다</t>
+  </si>
+  <si>
+    <t>엔프피랑 엣프피 다른 점이 몬가용?
+오히려 엔프피가 n이라서 더 수다스럽고 그럴줄 알았는데 엣프피가 더 그런거 같구ㅜ
+댓글로 알려주세요 바이 인팁</t>
+  </si>
+  <si>
+    <t>맥주대화 상대자가 잇팁이예요?ㅎㅎ 언능 잇팁 여성버전 부탁드려요 ^^</t>
+  </si>
+  <si>
+    <t>인팁 진짜 옷에 노관심 상의 하의 양말만 장착하면 잘입은거지</t>
+  </si>
+  <si>
+    <t>디게 귀엽땅 (엔팁이)</t>
+  </si>
+  <si>
+    <t>암만봐도 말투나 행동이 울엄마 판박이인데...저는 ENTJ거든요 엄마랑 제가 자주 싸우는 이유를 지금 알거같네요ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>친구가 추천해줘서 봤어요..2년만에 만난친군데 만나자 마자 너 esfp냐고 하길래 어떻게 알았냐고 개소름이다고 하니까 이 영상 보는데 딱 저를 보는거 같았다고 하더라고요 그래서 보는데 어..좋은거 맞겠죠^^</t>
+  </si>
+  <si>
+    <t>저 피자 어디브랜드예요....? 이거보면 저 피자 너무 먹고싶음 ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>Intp이 가평에 왜 웃었는지 이제 이해 완 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>정주행 중인 엔프피 인데 웃겨 죽을거 같아요</t>
+  </si>
+  <si>
+    <t>설마 다음은 엔프피인 거냐구효!!!!!!!!!!!!!!!!!!!!!! 기대하고이써야징  듁흔듁흔</t>
+  </si>
+  <si>
+    <t>유미님은 귀여운 엣프피인거고
+세상에 쩌들어 변형된 엣프피를 만난 인팁은
+너무 힘들어 손절했습니다.</t>
+  </si>
+  <si>
+    <t>지나가던 istj : 뭔가 정신없지만 귀엽다. 피곤할거 같지만 재밌다. 성격좋아보임</t>
+  </si>
+  <si>
+    <t>내남자친구 esfp인데ㅋㅋ빠꾸없는거 진짜똑같네ㅋㅋㅋ  성격도  유머러스하고 인간관계에서의 걱정1도없고 할말다하고 등치는 산적만한데 눈물도많음..</t>
+  </si>
+  <si>
+    <t>와…제 친구랑 지이인짜 똑같아요…ㅎ</t>
+  </si>
+  <si>
+    <t>내가 아는 ESFP 랑 의상 손톱까지 완똑</t>
+  </si>
+  <si>
+    <t>인프제인데 하..난 못 만나..</t>
+  </si>
+  <si>
+    <t>Estp도 부탁드려용!</t>
+  </si>
+  <si>
+    <t>헐 esfp ㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>유미님 ! Infj로서 infj 제대로 한번 해주세요!!! 헤헤</t>
+  </si>
+  <si>
+    <t>인팁꺼 먼저보고 이거보니까 존나웃기다 진짴ㅋㅋㅋㅋㅋ 하 가평,,,,,</t>
+  </si>
+  <si>
+    <t>인팁입니다. 다른건 몰라도 같은 말 반복하는 부분이 갱자외 킹받내욬ㅋ</t>
+  </si>
+  <si>
+    <t>저 엣프피에요 주변사람들이
+넌 나랑 있는데 왜케 연락오는데가 많냐 왜케 정신사납냐
+카톡대화 온게 왜케 많냐 그러시는데
+그런말 하는 님(들)아!  님이 나 누구랑 있는데도 연락자꾸 해대시니까 카톡대화창이 넘쳐나고 그러니까 정신없죠
+그래도 사랑해요 정신없어도 안귀찮아요
+사랑해요 여러분</t>
+  </si>
+  <si>
+    <t>잇팁인데 보면서 너무 스트레스 받음 왜케 징징대고 앞에 사람 놔두고 계속 통화하고 싫은게 너무 많아서 다 못 적겠네 그리고 3번이나 늦은 거는 잘못 맞지</t>
+  </si>
+  <si>
+    <t>ISTP인데 극초반 “뭐해 x n번” 부터 몹시 피곤</t>
+  </si>
+  <si>
+    <t>뭐야 피자광곤줄 알앗자누!!</t>
+  </si>
+  <si>
+    <t>엔프피도 존버탑니다..</t>
+  </si>
+  <si>
+    <t>우리 istp도 해주세요</t>
+  </si>
+  <si>
+    <t>ISTP 기대할게요..!!!</t>
+  </si>
+  <si>
+    <t>I/Esfp인데 둘 다 진짜 저네요...</t>
+  </si>
+  <si>
+    <t>esfp 친구 둘이나있는데 진짜 개똑같아욬ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>끼고 계신 게 혹시 진실반지인가요..? 색깔 변하는…</t>
+  </si>
+  <si>
+    <t>엔프피로써 엣프피랑 놀면 재밌긴한데 확실히 뜬구름잡는 소리나 가치관 얘기 이런 얘기할 때는 티키타카가 잘 안됨ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>아...esfp데리고 사는 intp같은 entp인데...시작하자마자 30초만에 기빨려서 힘들어요...집에서도 맨날 조용히 좀 있자고 넌 왜 가만히 있질 못하냐고 그러는데 하..</t>
+  </si>
+  <si>
+    <t>인팁때랑 댓글 분위기부터 다른게 재밌다</t>
+  </si>
+  <si>
+    <t>다른 엠비티아이 보면 정화가 이해간다는데 정화랑 ESFP 사이에서 있던일 자세하게 좀 부탁해요!</t>
+  </si>
+  <si>
+    <t>아 기빨려어어어어 그래도 솔직해서 좋다 - 지나가던 인팁</t>
+  </si>
+  <si>
+    <t>아무도 안 다뤄주는 ISTP 존버</t>
+  </si>
+  <si>
+    <t>이거 인팁 영상에 연장선이넼ㅋㅋㅋㅋㅋㅋㅋㅌㅌㅋㅌ 대화 두개 연결이자낰ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 인팁한테 고민상담한 애가 엣프피였어!!!! ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 겁나 웃곀ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>잇프피 엣프피 왓다갔다하는데
+ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 존똑</t>
+  </si>
+  <si>
+    <t>절반도 안봤는데 힘드네 끊어서 봐야겠다 _지나가던 isfj</t>
+  </si>
+  <si>
+    <t>entp도 해주세요..ㅠㅡㅠ</t>
+  </si>
+  <si>
+    <t>엣프피의 이야기를 듣고있는 사회화된 인팁 : 
+아 응응 그래서? 아 진짜~~? 그치..나같아도 그랬겠다.. 맞아맞아 (사실은 이야기 절반 이상 안듣고 대충 리액션만 해주는 중)
+미안하다 친구들아 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>내 주위 엣프피랑 겹쳐보인다… 세상 귀여운 종족</t>
+  </si>
+  <si>
+    <t>엔팁 ㅠㅠㅠㅠ 존버</t>
+  </si>
+  <si>
+    <t>저 용감한수호자는 넘나 피곤합니다.... 기빨려서 3번에 나눠서 봤네요...ㅌㅌ</t>
+  </si>
+  <si>
+    <t>3:19 내 친구랑 너무 똑같아서 소름돋음 뭐 나오면 저렇게 항상 상황극처럼 추임새같은거 넣음
+아니 보다보니까 술먹다가 급발진하는것ㄷ 똑같음</t>
+  </si>
+  <si>
+    <t>역시 난 천생 잇프피였어••</t>
+  </si>
+  <si>
+    <t>건강하세요</t>
+  </si>
+  <si>
+    <t>정반대인 INTJ로서.. 10분 만에 기 빨림ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>저 istj 신랑 esfp인데 성경궁합 천생연분 나오더라구요 신랑 보고있으면 걍웃끼고 산만함</t>
+  </si>
+  <si>
+    <t>엄청 강아지같다 ㅋㅋㅋㅋㅋㅋㅋ 귀여음</t>
+  </si>
+  <si>
+    <t>처음부터 저같으면 어떡해요,,,,</t>
+  </si>
+  <si>
+    <t>미친 너무 나같아서 소름돋고 부정하고싶지만 너무 나라서 부정할수가없는 그런ㅋㅋㅋㅋㅋㅋㅋㅋ보니까 낮술 땡겨 진짜</t>
+  </si>
+  <si>
+    <t>2:33 ㅅㅂㅋㅋㅋㅋㅋ 방금내기분도쓰레기같았는데 존나 노빠꾸 ㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>언니 다음엔 entp두 해줘 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>오늘도 유명하지 않은 유형인 ISFJ는.. 살포시 기대해봅니댜...</t>
+  </si>
+  <si>
+    <t>헉쿠쿠쿠쿠쿠ㅜ이잉 나왜 여잇지? 텐션 완전 나다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esfp 만나면 인격 변해서 열심히 리액션하고 드립치고 찐E처럼 놀다가 집으로 가는 길 나는 어떤 사람일까 고민하는 infj 존버합니다 </t>
+  </si>
+  <si>
+    <t>16:28 이거 ㄱ웃긴데 왜 아무도 언급 안하냐고요 ㅋㅋㅋㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ㅋ⫬ 우연히~ 눈을 떠보니 세상에 태어나 있었고!</t>
+  </si>
+  <si>
+    <t>제 남친 ESFP인데, 말투 존똑이에요...진짜...ㅋㅎㅋㅎㅋㅋㅎㅋㅎㅎㅋㅎㅋ</t>
+  </si>
+  <si>
+    <t>23분부터 시작되는 감정기복ㅋㅋㄱㄱㄱㄱ진짜웃기다 그러다 걍 자는거까지.. 너모 나야</t>
+  </si>
+  <si>
+    <t>난. 기다린다. 엔프피. 존버. 한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아 내가 기빨리는 유형이었구나 .. ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 자제해야지 </t>
+  </si>
+  <si>
+    <t>Estp두 해주세여 ㅜㅡㅜ</t>
+  </si>
+  <si>
+    <t>(엠벼 맞춰서 뿌듯...하나 영상 올라오고 며칠이 지나서야 오는 인팁)</t>
+  </si>
+  <si>
+    <t>우리엄마 esfp인데... 진심 너무 똑같다...ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ우리엄마만 저런줄알앗는데 esfp가 저렇구나....</t>
+  </si>
+  <si>
+    <t>유미언니 유형 궁금하다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 유미로 나와주세요</t>
+  </si>
+  <si>
+    <t>너무귀여운데 ㅋㅋㅋㅋㅋㅋㅋ친해지고싶음 난isfp</t>
+  </si>
+  <si>
+    <t>ESFP가 내 앞에 있는거같아ㅏ요..</t>
+  </si>
+  <si>
+    <t>Infj..기대돼욥 !!! ๑·̑◡･̑๑</t>
+  </si>
+  <si>
+    <t>나랑완전안맞네..</t>
+  </si>
+  <si>
+    <t>Enfp도 해주세요ㅠㅡㅜㅠㅠ️</t>
+  </si>
+  <si>
+    <t>놀러온다고..? 회사에..? 놀러...? 나 일하는데....???</t>
+  </si>
+  <si>
+    <t>언니 istj도 해주세요ㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>말 반복하는거 ㅠㅠㅠㅠㅠ아 현실 고증 오진다… 근데 말 반복하면서 살짝 나 너무 호들갑인가 항상 생각이 스치지만 늘 풍부한 리액션이 자연스레 나와서 말 반복함</t>
+  </si>
+  <si>
+    <t>착장도 진짜 ESFP같음.....</t>
+  </si>
+  <si>
+    <t>언니 엔팁 해주쉐야..</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋ 첫 시작부터 미치겠다 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>휴 ESFP인줄 알고 살고있었는데 이영상 보니까 기빨리네요... 집인데 집에 가고싶구요.. mbti 재검사 했습니다</t>
+  </si>
+  <si>
+    <t>질려버려 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>회사에서 만나면 옆사람한테 스트레스 오지게옴 ㅋㅋ 남 치켜세우고 잘해주다가도 괴짜다 어쩌다 본인하고싶은대로 말하고 행동하고ㅋㅋ 앞에두고 본인 전화받는둥 개인적인거 하고 무시하는거같음ㅋㅋㅋ 가스라이팅 인데이거? ㅋㅋ</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ진짜 딱 술도시녀 한선화 느낌이네</t>
+  </si>
+  <si>
+    <t>엔팁 영상 기다리고 있습니다요~~~^^♡</t>
+  </si>
+  <si>
+    <t>기빨려서 다 못보겠슴</t>
+  </si>
+  <si>
+    <t>Estp도 올려주세여</t>
+  </si>
+  <si>
+    <t>언니 인프피 엔프피!!!!</t>
+  </si>
+  <si>
+    <t>와진짜 신기하네요</t>
+  </si>
+  <si>
+    <t>Intj: 그래서 상담할게 뭔데..ㅠ</t>
+  </si>
+  <si>
+    <t>원래 MBTI별 신경안써서 이런거 안보는데 내려보다가 ESFP, ISFP 영상만 23분이상 넘는 게 너무 웃겨서 들어옴ㅋㅋㅋㅋㅋ 뭔지도 모르겠는데 나같아섴ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>Esfj 존버 …………️️️</t>
+  </si>
+  <si>
+    <t>INFP 존버중</t>
+  </si>
+  <si>
+    <t>이거보는 인팁인데 1:35 에서 벌써 집에가고 싶어졌다</t>
+  </si>
+  <si>
+    <t>영상인데..... 힘드네</t>
+  </si>
+  <si>
+    <t>enfp 해주세요</t>
+  </si>
+  <si>
+    <t>엔팁도 해주세요 ㅠㅋㅋ</t>
+  </si>
+  <si>
+    <t>와 인팁이 제일 싫어하는 애인데 걔랑 둘이 만난 거였네 어쩐지 인팁 때 좀 심하게 싸가지 없게 말하더라 ㅋㄱㅋㄱㅋㄱㅋㄲㅋㄱㅋㄱㅋ</t>
+  </si>
+  <si>
+    <t>entp 존버..</t>
+  </si>
+  <si>
+    <t>제가 이거 보다가 MBTI 해보고 싶어서 했는데
+ESFP 나옴 ㅎㄷㄷ</t>
+  </si>
+  <si>
+    <t>취해서우는것마저.... 저러다 생각없이 자버리는것마저 또캍아서 킹받는다... 뭐지...나인가...?</t>
+  </si>
+  <si>
+    <t>INFJ 용기내서 말해봄미다..! 해주시면 감사하겠습니다!!</t>
+  </si>
+  <si>
+    <t>와 나 내가 목소리 진짜 커가지고 학교에서 애들이랑 다같이 떠들어도 나만 쌤한테 혼나고 그랬는데 시부렐 ㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>와징ㅉㅏ똑같네… 주위 esfp들한테 이거랑 똑같다고 말해주고 싶은데 기빨릴까봐 못하겠어</t>
+  </si>
+  <si>
+    <t>엣프피 이(가) 난리칩니다.</t>
+  </si>
+  <si>
+    <t>엔프피 보다 더 씨끄러운 유형ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ISFJ인데 제 주변에 esfp 친구 없어요 이 영상보고 착하고 좋은 친구인것 같은데 좀 기빨리네요</t>
+  </si>
+  <si>
+    <t>와 진짜 소름돋는다 내가 술 마실 수 있으면 저렇게 살았겠다 하고 상상한 적 있는데 딱 이 모습이네 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>너무 똑같아요 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ESTP인 줄 알고 신나서 들어왔다가 F길래 하… 엣팁 인기 너무 없어</t>
+  </si>
+  <si>
+    <t>진짜 우리 큰누나인줄.. 저는 intj인데 틈만 나면 싸움</t>
+  </si>
+  <si>
+    <t>너 어디야?  내가 거기로 갈께ㅋㅋㅋ 미치겠다ㅋㅋ</t>
+  </si>
+  <si>
+    <t>랜선 기빨림체험</t>
+  </si>
+  <si>
+    <t>사람 불러놓고 전화만 하는 상대방하고 같이 있기 싫음 근데 또 끊고 전화 속 내용 얘기해주면 흥미진진 -intp</t>
+  </si>
+  <si>
+    <t>엣프피 눈치 빠릅니다…오늘도 친구가 집에 가고 싶은데 말 못꺼내고 있는거같아서 먼저 들어가자고 함 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ아근데 이분ㅋㅋㅋ 친언니asmr에 나오는 친언니랑 동일인물일것같아요ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>지나가는 인팁인데 귀찮아 하는거 아닌데 귀찮아 한다고 상처받는거 보면 좀 당황스럽네요.. esfp 연기하시는거 보니까 벌써부터 기빨리네요 ㅎㅎㅎ 그래도 엣프피 저런 밝은성격 싫어하진 않아요</t>
+  </si>
+  <si>
+    <t>온냐 entp의 인간화 저 여기이써여 엔팁회의껴주세야</t>
+  </si>
+  <si>
+    <t>잘려고 보려다가 시끄러워서 잘잤어요</t>
+  </si>
+  <si>
+    <t>아 일단 밖에서 시작하는구나</t>
+  </si>
+  <si>
+    <t>제발 INFJ도 해주세요ㅠㅠ</t>
+  </si>
+  <si>
+    <t>딱 나네... 숨길수 없어</t>
+  </si>
+  <si>
+    <t>난줄ㅋㅋㅋㅋㅋ아쉬워하는거까지 나야</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ나쟈낰ㅋㅋㅋㅋㅋ  음모 개웃기넼ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>처음부터 찢었다ㅋㅋㅋㅋ 모해모해모해모해모해 얼굴바얼굴바얼굴방ㅋㅋㅋㅋㅋㅋㅋㅋ 친구랑 개 똑같네</t>
+  </si>
+  <si>
+    <t>intj인데 기빨리는 건 둘째치고 혈육(esfp) 성격이랑 똑같아서 약간 혈압이..ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>처음 시작할때 16가지 mbti 올라온 영상이 체크돼서 나오는데 아직 나오지 않은 ENFP가 체크되어있다니.. 다음에는 엔프피인거겠죠??</t>
+  </si>
+  <si>
+    <t>언니 남자 mbti도 해주세요</t>
+  </si>
+  <si>
+    <t>2:25 ㅋㅋㅋㅋ왠지 어렷을때 들어본거같다ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>아... 합친거 보고싶다.....♡</t>
+  </si>
+  <si>
+    <t>엔팁 존버탑니다</t>
+  </si>
+  <si>
+    <t>Entp는 esfp를 만나면 가끔 벅찰때가 있습니다ㅋㅋ갑작스럽게 간다고 하면 당황;;
+막상 삘받으면 개신나게 놀기는 하는데
+가끔 이해가 안갈때가 있더랍니다ㅋㅋ</t>
+  </si>
+  <si>
+    <t>강유미씨 다스 누구껍니까 하셨으니 이제 화천대유 누구껍니까 하셔야죠???????? 
+사회정의구현 기대할게요?????</t>
+  </si>
+  <si>
+    <t>이엔티제이도 해주요ㅠㅠ</t>
+  </si>
+  <si>
+    <t>오늘도 인프피는 존버합니다</t>
+  </si>
+  <si>
+    <t>10년 알고 손절한 친구 이 mbti 인데
+사람 앞에 두고 전화하는 거 나올 때 소름돋음 .
+만나면 자기 이야기만 하고 뭐든 고민 할 때 자기가 원하는 답 나올때 까지 떠들음. 
+진짜 기빨려.</t>
+  </si>
+  <si>
+    <t>칭따오 마셔야될거같음 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>엔팁 언프피 너무 보고싶다 진짴ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esfp 기다리다가 까먹고 이제 보는 esfp 여기요 ️ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ내가봐도 기빨린다 </t>
+  </si>
+  <si>
+    <t>언니 ENFJ,,, 존버!!~~~</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ거의 술먹은 내모습이네.....ㄹㅇ자는것까지 완벽해</t>
+  </si>
+  <si>
+    <t>엄마 왜 여기있어</t>
+  </si>
+  <si>
+    <t>인프피 잇프피 기다리고 있습니다…….</t>
+  </si>
+  <si>
+    <t>잇..티…제…. 기다려요</t>
+  </si>
+  <si>
+    <t>내가 이 날을 위해 서브폰을 썼나보다 인팁편이랑 동시에 달린다</t>
+  </si>
+  <si>
+    <t>내 mbti만 기다리고있다....</t>
+  </si>
+  <si>
+    <t>인팁인데 30초만에 이미 기 다 빨렸어요 하하 개웃겨</t>
+  </si>
+  <si>
+    <t>나 중딩인데 나중에 커서 술마시면   저렇게…….</t>
+  </si>
+  <si>
+    <t>내 주변 esfp 특
+1) 어느 곳에서든 잘 녹아드는 편. 성격이 기본적으로 모나지 않고 좋은 듯.
+2) 말도 예쁘게 함. 잘 다듬어서 말한다고 해야 하나.
+3) 늘 기분 좋아보임. 이건 사바사가 심할 듯.
+4) 남친/여친한테 한 번 제대로 빠지면 절대 한 눈 안 팔 것 같아보임</t>
+  </si>
+  <si>
+    <t>intp인데 실제로 뒷담화부분 한쪽귀로듣고 한쪽귀로흘림 ㅋㅋㅋㅋㅋ 아 그리고 진짜 전화 왜케 마니해...</t>
+  </si>
+  <si>
+    <t>피자 어디거인지 너무 궁금하당,,,,,</t>
+  </si>
+  <si>
+    <t>이 영상에 entp 댓글이 없는 이유- 줘패고싶다고 멸시하고 싶은데 여기 이 유형 사람들 많아서 내가 상처주기는 싫고 댓글 먼저 달아놓은 놈 없나 찾아만 보고 있음</t>
+  </si>
+  <si>
+    <t>저기요 엣프피분들...제가 엄청 친했던 엣프피 친구랑 멀어졌는데 막 엄청 싸운게 아니라 그냥 어쩌다 제 잘못으로 서로 어색해서 말 안 하고 하다 보니까 멀어졌어요..
+3달 정도 됐는데 그 친구는 어떨지 모르겠지만 전 진짜 매일매일 생각하거든요 그래서 내일 용기내서 카톡 한 번 해보려하는데 조언 좀 해주세요 제발 저 진짜 우울합니다..</t>
+  </si>
+  <si>
+    <t>22:04 나잖아...?</t>
+  </si>
+  <si>
+    <t>이거 같이 대화한사람이 인팁이구나..영상봤는데 엣프피와 인팁은 친구하기 힘들같아요..ㅡ이상 엣프피ㅡ</t>
+  </si>
+  <si>
+    <t>극혐 - 인트제가</t>
+  </si>
+  <si>
+    <t>끝에만 하나 다른 ESFJ 존버중임다</t>
+  </si>
+  <si>
+    <t>인팁 영상이랑 같이 보니까 진짜 웃기다</t>
+  </si>
+  <si>
+    <t>0.75배 하니까 딱 좋네요 ^^*</t>
+  </si>
+  <si>
+    <t>아귀여워ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>Enfj 존버해야겟다...!!!!!!</t>
+  </si>
+  <si>
+    <t>대박ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>마이크 미친거아니냐고진짴ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ내 친구보는줄ㅋㅋㅋ 어쩜 이렇게 똑같지ㅠㅠㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>1:21 땡큐베리망치~</t>
+  </si>
+  <si>
+    <t>넘재밌당 ㅋㅋㅋㅋ저는 ENTP이고 남자친구는 ISFP인데 언젠간 반대버전도 부탁드려요️️️️</t>
+  </si>
+  <si>
+    <t>16:29</t>
+  </si>
+  <si>
+    <t>언니 나 INFP기대한다 정말로</t>
+  </si>
+  <si>
+    <t>와 나 인티젠데 내동생은 이거임 .. 집에서 시끄럽게 쉴새없이 말하면 그냥 한귀로 흘리고 개무시하는데 또 지혼자 웃긴거보면서 깔깔댐 ..</t>
+  </si>
+  <si>
+    <t>ㅎ.. 인프피인데 내가 별로 안좋아하는 사람 성격 모아놓은것 같냐..</t>
+  </si>
+  <si>
+    <t>나는 인프피인데 이런 친구 살짝 기빨리긴 하지만 인팁이나 인티제보단 편할거 같다</t>
+  </si>
+  <si>
+    <t>안녕하세요 inpt 입니다. 저와 상극이라는 mbti 를 찾아왔는데 이 성향이더군요..
+제가 왜 저희 언니와 사이가 안좋은지
+저는 알게 되었습니다.
+흐.. 방금도 영상을 통해.. 저보고 고민이 없어 보인다네요..후우.. 안녕히계세요..</t>
+  </si>
+  <si>
+    <t>아 기빨려</t>
+  </si>
+  <si>
+    <t>엠비티아이로 예능 만들면 재밋겟누</t>
+  </si>
+  <si>
+    <t>인프피 기다리겠습니다</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋ아 진짜 esfp 친구 떠올라..</t>
+  </si>
+  <si>
+    <t>시작부터 부담스러워요..ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>......왜 보기만 해도 피곤하고 기빨리냐...</t>
+  </si>
+  <si>
+    <t>지나가던 ISTJ입니다... 지나갈게요....</t>
+  </si>
+  <si>
+    <t>언니 미안한데 내가 엣프피를 몰라서 그런지 그냥 텐션낮은 이영지같아,,</t>
+  </si>
+  <si>
+    <t>나중에 놀러갈게 진짜로x3 하면 진짜로 놀러올까봐 좀 떨려요,,-INTP,,</t>
+  </si>
+  <si>
+    <t>정준하 mbti라는데 ㄹㅇ개똑같</t>
+  </si>
+  <si>
+    <t>남욕을 저렇게 발랄하게 하는데 ㅋㅋㅋㅋㅋㅋ 점점 기가빨리는 istp...... 남 욕하는 거 빼고는 들어줄만한데 하하...</t>
+  </si>
+  <si>
+    <t>나 isfj인데ㅋㅋㅋㄱㅋ말투 대화내용 나랑 진짜 개 똑같은거 신기ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>내가(esfp)가 보는 엣프피
+너 무슨생각하는지 다 알거든 흥칫 근데 우리 텐션 좀 잘맞는다?! 너 쫌 사회생활잘하네 나도 쫌 하는데. 싫어도 좋아도 우린 사람이면 다 좋아</t>
+  </si>
+  <si>
+    <t>잠시만,,, 나잖아????? 와 소름</t>
+  </si>
+  <si>
+    <t>ESTP 기다릴게요…</t>
+  </si>
+  <si>
+    <t>INTP인데 1인칭 시점으로 보기가 너무 힘드네요…
+상대방의 넘치는 에너지를 도저히 못 받아주겠음..
+죄송합니다. 먼저 귀가하겠습니다.</t>
+  </si>
+  <si>
+    <t>Estp도 해주면 조켓당</t>
+  </si>
+  <si>
+    <t>와 친구중에 이 유형인 애 있는데 진심 비슷하다...ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>나 애교 진짜 많음 ㅋㅋㅋ 말도 여러번 하고 공감도 자주 하고 내 tmi도 말하고 ㅌㅋㅋㅋㅋㅋ 대화 주도도 하곸ㅋㅋㅋㅋ 리액션도 풍부하고</t>
+  </si>
+  <si>
+    <t>지나가는 intj입니다.. 그냥 지나갈게요...(분석을 포기함)</t>
+  </si>
+  <si>
+    <t>와 우리 언니 보는줄..</t>
+  </si>
+  <si>
+    <t>엔프제 존버합니당…….ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와 언니 mbti infj는 어떻게 하실까 넘 궁금하다</t>
+  </si>
+  <si>
+    <t>하... 너무 피곤하네요 지나가던 INTJ</t>
+  </si>
+  <si>
+    <t>1:13 인트제한테는 지구멸망의 순간</t>
+  </si>
+  <si>
+    <t>무덤덤 노빠꾸 잇팁해주세요</t>
+  </si>
+  <si>
+    <t>유미님 활발한연기 안어울리시는것보니 E는아니시군요ㅋㅋ</t>
+  </si>
+  <si>
+    <t>내베프랑 남친이 esfp인데 텐션높은건 완전 ㅋㅋㅋㅋㅋㅋㅋㅋinfj인데 가끔 셋이서 보자그러면 식겁함 ㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인팁이 싫어하는 서론 긴 유형. . ㅋ ㅋ ㄱ ㅋ ㅋ ㅋ ㅋ
+젠장 빨리 본론을 이야기해. . . . ㅠㅠ</t>
+  </si>
+  <si>
+    <t>형제 관계 연인 관계로 mbti 풀어내도 재미있을 듯 ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>Infj 존버합니다</t>
+  </si>
+  <si>
+    <t>엣프피랑 나랑 진짜안맞는듯</t>
+  </si>
+  <si>
+    <t>ESFP 남자인데
+이정도는 아니라곸ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>저 ESTJ인데 상사분이 ESFP예요. ESFP가 제일 좋아하는건 어떤게있을까요?</t>
+  </si>
+  <si>
+    <t>와 옷얘기하는거진짜 개 소름이다</t>
+  </si>
+  <si>
+    <t>엔프피 존버ㄹㅇㅠㅠㅠㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>isfp 잇프피 존버합니당</t>
+  </si>
+  <si>
+    <t>ESFJ도 궁금 ️️️️️️</t>
+  </si>
+  <si>
+    <t>와 시작부터 개소름 엣프피 친구랑 똑같아</t>
+  </si>
+  <si>
+    <t>이거랑 정반대인 INTJ인데 ㅈㄴ 기빨리누 평생  친구 할 일 없을 것 같고 하고 싶지도 않을 것 같음</t>
+  </si>
+  <si>
+    <t>와 인프제인데 10초 보기만 했는데도 피곤하닼ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>언니 entj 언제 나와요 못 기다리겟슴</t>
+  </si>
+  <si>
+    <t>엣프피인데 친구관계땜에 넘 힘들어요 ㅠ</t>
+  </si>
+  <si>
+    <t>와 술먹고 블루투스마이크 들고 퍼레버영 부르는거까지 삽완벽 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>내 친구랑 진짜 똑같ㅋㅋㅋㅋㅋㅋㅋㅋ저 땅큐베리망치에 진짜 저항 못하고 웃음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>아니 2023년인데 이언니 왜케 칭따오ㅡ줌먹나 햇더니 광고엿여ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>이 분 안에 내 영혼이 들어있는 건가 ?</t>
+  </si>
+  <si>
+    <t>으악... 우리 작은고모 닮아서 피티에스디 온다..........</t>
+  </si>
+  <si>
+    <t>20:08 어딜 쳐다봐..</t>
+  </si>
+  <si>
+    <t>남얘기할 때 나같애 소오름</t>
+  </si>
+  <si>
+    <t>응응ㅇ 마저마저마저 ㄹㅇ ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ엣프피…응응 마저마저 그치 맞지 말할때마다 추임새 존나 많이 넣는 유형…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INFP 원합니다</t>
+  </si>
+  <si>
+    <t>6:51 반스한테 인샄ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>enfp 존버함다..</t>
+  </si>
+  <si>
+    <t>다맘에드는데  칭*오만 거슬려요ㅠㅜ</t>
+  </si>
+  <si>
+    <t>인팁인데 기 너무 빨려요... 무슨 의미가 있는 말인가요.....본론 말해주세요......................................</t>
+  </si>
+  <si>
+    <t>길거리에서 춤추는게 엣프피면 인프피가 그러는건 뭘까여~??</t>
+  </si>
+  <si>
+    <t>으트케 영상인데 기빨려ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ㅅㅂ 전화부터 개똑같음ㅋㅋ큐큨ㅋㅋ쿠ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>아 제일 친한언니가 esfp인데 ㅈㄴ 똑같애 진ㅁ자 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>12:12 진짜 궁금해서 그런데 이거는 왜 자꾸 하는거예요 근데? ㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋ 투투ㅜ투툳ㄱ투두툭ㄱ</t>
+  </si>
+  <si>
+    <t>언니 죄송한데 혹시 저 아시나요..? 
+제 말투 행동 다 똑같은데요 ...
+이거 민간인 사찰 하는거 아니에요..?
+고소하빈다,,,,,
+그동안 엔프피인줄알고 살아왔었거든요? 아니 근데 
+우연히 엠비티아이 검사 새로 리뉴얼 ㄱ됐다해서 다시 해봤는데 세상에 엣프피 나온거...
+그래서는 졸라 멘붕ㅇ와서 아 몇번을 해봤는데 계속 엣프피 나오는거에요 ㅋㅋㅋ
+그래서는 와 나 진짜 엣프피인가 ㅋ 이러고 있었는데 세상에 이거 보니까는 완전 나 잖아요 
+와 미친 .. 
+아무튼 진짜 강경대응 합니다 민간인 사찰죄..</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ아니 인팁이랑 대화하는거 이어지는거냐고 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>앜ㅋㅋㅋㅋㅋㅋㅋㅋ이게 그 인팁친구구나</t>
+  </si>
+  <si>
+    <t>아 그게 그 인팁이랑 연결되는 거구낰ㅋㅋ</t>
+  </si>
+  <si>
+    <t>엔팁인 저는 ENTP 존버 하겠슴닷-!</t>
+  </si>
+  <si>
+    <t>1:55초에서 하차합니다 재밌지만 피곤한 친구네요  ㅡINTP이가ㅡ</t>
+  </si>
+  <si>
+    <t>왜 없지 ENFJ............엔프제 존버해봅니닷.......</t>
+  </si>
+  <si>
+    <t>Estp해쥬새요~~</t>
+  </si>
+  <si>
+    <t>인팁보다 왔어요ㅋㅋ</t>
+  </si>
+  <si>
+    <t>아 앞구르기 뒷구르기 하면서 봐도 내모습...</t>
+  </si>
+  <si>
+    <t>엔프피들 드릉드릉하는 소리 여기까지 들림ㅋㅋㅋㅋㅌㅌㅋㅋㅋ 엔프피 언제 올라오나 하고 ㅋㅋㅋㅋㅌㅌㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>진짜 내 친구랑 개똑같애서 소름이 돋네 보고있냐 현진아</t>
+  </si>
+  <si>
+    <t>피자 어디껀가요...</t>
+  </si>
+  <si>
+    <t>와 기빨려</t>
+  </si>
+  <si>
+    <t>내 베프가 이랬는데..엣프피였나보다  
+내가 인팁이라 서로 힘들었지
+내가 맞는말만해서 =쳐맞는말!!..ㅠㅠ미안해</t>
+  </si>
+  <si>
+    <t>나 ISFP인데... 직장에 매일 같이 붙어서 일하는 상사가 ESFP임... 진짜 솔직히 사람 착한 건 맞고 붙임성도 좋고 잘 챙겨주는데 일적으로 만났을 땐 너무 최악임 나도 친해지면 말 많이 하는 편인데 상사 옆에만 있으면 기가 너무 빨려서 하루가 너무 피곤함 적당히 치고 빠져야 하는데 그게 없음 중간이 없단 이야기임 하루종일 하이텐션인데 남 생각을 너무 안 함... 그리고 남 이야기 하는 거 엄청 좋아하고 본인 기준에 다르면 그 사람은 좀 특이한 사람, 이상한 사람이 됨 남뒷담화 좋아함... 그리고 은근 게을러서 본인이 해야 하는 자잘한 일들 미룰 수 있을 때까지 미뤄서 상황 심각해질 때 닥쳐서 하거나 안 해서 다른 직원들이 함 ㅋㅋㅋㅋㅋ ㅋ ㅋ ㅋ ㅋ  ㅋ ㅋ  ㅋ 그리고 그 사람 속마음을 모르겠음 말로는 난 이렇고 ~ 저렇고 ~ 이야기 하는데 막상 그런 일이 닥치면 전혀 아님..... ㅜㅜ 누군가 본인 비판하거나 지적하면 절대 못 참고 자기가 하는 일에 대한 프라이드가 높은만큼 누군가 진지한 피드백 던져주면 그걸 받아들이지 못함 자존심 엄청 상해하고 본인이 항상 맞음.... 수다 엄청 좋아해서 일하는데 계속 틈만나면 말 걸고 갑자기 지인한테 연락하거나 연락 오면 수다 떨고... 하... 서비스업종이라 사람 계속 만나야 하는데 앞에서는 웃으면서 아부 떨고 이것저것 말하다 손님 없어지면 그 손님에 대해서 말하고 분석하기 좋아함 남 신경은 많이 써서 그냥 사소한 말이라도 본인은 엄청 진지하게 받아들이고 확대해석하고 어쩔 때 보면 피해의식 있나 싶음.... 처음에는 엠비티아이 별생각 없었고 나도 사람인지라 모순덩어리인 건 맞는데 그래도 선은 지키는데 이분은... 그게 없어 이 상사분을 만난뒤로 엠비티아이 맹신하게 되고 ESFP가 싫어짐 우리 직장에 부장님도 이 상사 때문에 ESFP를 싫어하게 됨... 심지어 같이 일할 때 너무 스트레스 받아서 퇴사하셨음... 영상 보는데 한 번씩 그 상사가 생각나는 포인트가 보여서 혈압 빡 오른다 와와... ㅜㅜㅜㅜㅜㅜㅜ</t>
+  </si>
+  <si>
+    <t>ENTP 기대만땅</t>
+  </si>
+  <si>
+    <t>ENFP랑 뭐가 다르지? 아 걍 존나 인싸넼ㅋㅋㅋ 난 기 빨린당..</t>
+  </si>
+  <si>
+    <t>infp존버!!</t>
+  </si>
+  <si>
+    <t>와... 나랑 똑같다,,,</t>
+  </si>
+  <si>
+    <t>전 enfp고 남자친구가 esfp인데 esfp들은 enfp 어떻게 생각해용?</t>
+  </si>
+  <si>
+    <t>ISTP 해주실까요.. 좀 관심 못받는 유형인거 같은데 아닌가</t>
+  </si>
+  <si>
+    <t>2배속으로 햇는데..왜 아직 반도 안지낫지..infj로부터..</t>
+  </si>
+  <si>
+    <t>미치겠다 인팁인데 벌써 피곤해</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ첫편 인팁한테 상담한게 얘엿누</t>
+  </si>
+  <si>
+    <t>나만 그런건지 모르겠는데 약간 엔팁이랑 안맞음,, 너무 자기주장 쎄고 자기 위주인게 눈에 보이면 저렇게까지 해야할까,,? 하는 생각</t>
+  </si>
+  <si>
+    <t>ENFJ 존버합니다..!ㅠ</t>
+  </si>
+  <si>
+    <t>아 피곤해ㅋㅋㅋ 나랑은 안맞 ㅎ</t>
+  </si>
+  <si>
+    <t>전화할때 처음에 나도 저러는데</t>
+  </si>
+  <si>
+    <t>..아 기빨려</t>
+  </si>
+  <si>
+    <t>인팁인데 머리 아프네요</t>
+  </si>
+  <si>
+    <t>그냥 난데… 미치겟닼ㅋㅋ</t>
+  </si>
+  <si>
+    <t>엔프피도 부탁 드립니다 엣프피랑 비슷합니다만..</t>
+  </si>
+  <si>
+    <t>INFJ 도 해주세용</t>
+  </si>
+  <si>
+    <t>내꺼만 신나게 보고 그 다음 친구들건 사실 잘 안보게돼.. 미안해 친구들아. IN... 그 다음은 생략할게</t>
+  </si>
+  <si>
+    <t>형~ 나 이런 사람 아니야ㅠㅠㅠㅠㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>난 ESFP인데 저거 맞는데 저기서 할 말 쫌 안하는 자격지심과...자존심 쎈 ESFP임ㅋㅋㅋㅋㅋㅋㅋㅋㅋ꙼̈</t>
+  </si>
+  <si>
+    <t>인프피인프피 인프피들은 어디갔노?언제 해주노?</t>
+  </si>
+  <si>
+    <t>intp이랑 만난게 esfp였네 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>INFJ 빨랑 해줘요~^#^♡
+내가 나를 보고싶어요 ㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>온니 안녕하세욤</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ이 mbti는 뭔데 술을 계속마셔 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>N이랑 S랑 반반인 사람 없나요 리얼 한끗차이로 엔프피인데 엣프피이기도함</t>
+  </si>
+  <si>
+    <t>어우 댓글창부터 말 너무많아 기빨려 ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와 내말투 그냥 여기 다있네 ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>엣프피도 귀엽네 -INTP</t>
+  </si>
+  <si>
+    <t>선생님 entj 기다리고있스어요</t>
+  </si>
+  <si>
+    <t>estp 부탁드려요!!!</t>
+  </si>
+  <si>
+    <t>isfp...누워서 기다리는중...</t>
+  </si>
+  <si>
+    <t>ESTP갑시다</t>
+  </si>
+  <si>
+    <t>우리회사 거의 IxTx 인데 나혼자 ESFP임 나보고 제발 제발 조용하랰ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ난그게안되는데어쩌지ㅠㅠㅠㅠㅠㅠㅠ그래서이젠 다들 들어주긴하는데 다들 할일함 'ㅁ' 믱</t>
+  </si>
+  <si>
+    <t>내가 기빨리는이유가.....너네들이엿어....지나가는 ESTP가..</t>
+  </si>
+  <si>
+    <t>헐…같다..</t>
+  </si>
+  <si>
+    <t>Esfp인데 기빨려서 영상보다가 찌부러져있음</t>
+  </si>
+  <si>
+    <t>intj랑 상극이겠는데...</t>
+  </si>
+  <si>
+    <t>아 스타일부터 전화할때 같은단어 반복하는거...너무 나라 소름</t>
+  </si>
+  <si>
+    <t>하 여기 댓글에 이런 저런 esfp유형도잇다고 알려주고싶은데 걍 귀찮으니까 알아서 보세요,,~</t>
+  </si>
+  <si>
+    <t>극단적인 ESFP는 본인이ESFP라는것도 모름..( 검사같은거 귀찮아서 안함) 억지로억지로 해서 결과나와도 ESFP 성격특징 한번대충보고 말음. 이런거떠도 안봄..</t>
+  </si>
+  <si>
+    <t>댓글들 속마음 없다는데 하나 찾음!!!! 
+21:05 (뭔 뜬구름 잡는 개소리야)</t>
+  </si>
+  <si>
+    <t>22:20 어! 전화다!</t>
+  </si>
+  <si>
+    <t>ISTP 와 상극이라 해서 어떤 스탈인지 보러왔어요 ㅋ</t>
+  </si>
+  <si>
+    <t>ENFP 기대즁~기대기대기대기대기대기대띵</t>
+  </si>
+  <si>
+    <t>나esfp인데 술마실때술게임 안하거나 너무 못하면 참으로 속상해 ㅠㅠㅠㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>예전 남친 생각나네요 이 유형이었네 ㅋ</t>
+  </si>
+  <si>
+    <t>인팁이 얘 만나러 갈거야?ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>예에엥 E나왔다!!!!</t>
+  </si>
+  <si>
+    <t>ㅁㅊ .. 거울 보는 기분이다</t>
+  </si>
+  <si>
+    <t>맥주 광고인거 말 안했으면 몰랐을듯 ㅋㅋㅋㅋㅋz</t>
+  </si>
+  <si>
+    <t>귀찮지만 궁금해서 나온 INTP랑 대화하는 거구낰ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>나 ESFP……..아직 술 먹어본적 없는데 마시면 저렇게 되는건가………</t>
+  </si>
+  <si>
+    <t>인프피로 오래 살았더니
+엣프피로 진화함</t>
+  </si>
+  <si>
+    <t>인팁편 상대가 esfp였어..ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>아하 mbti시리즈 이거 다 연결되는거였구나.......</t>
+  </si>
+  <si>
+    <t>이정도면 ㄹㅇ 너무 기빨리는데 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>인티젠데 왜케피곤하지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ENTP 해주세욤 !</t>
+  </si>
+  <si>
+    <t>인팁이랑 잘 맞다는거 듣고 온 인팁</t>
+  </si>
+  <si>
+    <t>나는 인티제 남편은 엣프피
+..사람살려ㅜㅜ</t>
+  </si>
+  <si>
+    <t>인팁이 만났던 유형이 얘였구나 ㅋ ㅋ ㅋ ㅋ ㅋ ㅋ ㅋ ㅋ ㅋ 아웃겨</t>
+  </si>
+  <si>
+    <t>진짜취한듯한연기?ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>선생님 인프제 해주세요!</t>
+  </si>
+  <si>
+    <t>와 intp 인데 찐 졸림 너무 스트레스받는다</t>
+  </si>
+  <si>
+    <t>인프제인데 s 랑 안맞다는게 기빨려 ㅠㅠㅠㅠ 1.5 배속</t>
+  </si>
+  <si>
+    <t>근데 나 esfp인데 나만 인싸 아님 .. ㅋ</t>
+  </si>
+  <si>
+    <t>ESFJ는 언제 올라올까용 ㅠㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>Esfp 지인있는데 잔소리 오지게함 진짜로.. 하..</t>
+  </si>
+  <si>
+    <t>뭐지 나 esfp인데 나랑 너무다르고 영상속 성격 내가 젤 싫어하는 사람 성격이다.. 으.. 못보겠어</t>
+  </si>
+  <si>
+    <t>똑같은 단어 반복해서말하는거 진짜 소름돋았닼ㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ENTP는 언제 올라와욧?ㅠ</t>
+  </si>
+  <si>
+    <t>이 피자 브랜드 이름 아시는분 ... 나쵸칩이 토핑 추가 가능한 ...</t>
+  </si>
+  <si>
+    <t>ENFP 존버중</t>
+  </si>
+  <si>
+    <t>ㅈㄴ싫다..전남친같애 하</t>
+  </si>
+  <si>
+    <t>와 미쳐따 존나 난데????????</t>
+  </si>
+  <si>
+    <t>와 전화받자마자 내 친구인줄 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>아쉬워요 한끝차이 ESTP</t>
+  </si>
+  <si>
+    <t>언 진짜 난 줄 알았어 저 말투 눈빛 존나 나같아 ㅋ ㅋㅋ  ㅋ애들이 이거 보여줬는데 걍 나래 와 ㅋ ㅋㅋㅋㅋ ㅋ ㅋ ㅋ 진짜 낵 와 씨 ㅋ ㅋㅋㅋ ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>보다가 지친다…ㅋ…_intp_</t>
+  </si>
+  <si>
+    <t>저 intp인데 10년사귄 남친 esfp네여 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>entp 도 궁금하다 ㅎ  ㅋ ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>주허니원허니~</t>
+  </si>
+  <si>
+    <t>왁 ㅋㅋㅋ 내 동생 ESFP인데 내 동생 보는 기분임 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와..... 딱 나인데..... ESFP....</t>
+  </si>
+  <si>
+    <t>난데.... 자꾸 내가 떠오르는데... 정말 영상으로 날 보니까^^;;; 내가 싫다</t>
+  </si>
+  <si>
+    <t>저래서 싫어했음 산만하고  정신없고 맨날 술에  자뻑에  나 인팁ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>아이씨 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ 나 그자체야 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>와... 잇프피 기빨려...</t>
+  </si>
+  <si>
+    <t>This is tooo accurated.. because my mom is ESFP ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>오 엣프피랑 친구하고 싶당</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E S F J 존 버 </t>
+  </si>
+  <si>
+    <t>인팁 소환 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>하하가 딱 이 유형 느낌 같은데 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>남친 엣프피라서 요즘 맨날 엣프피 특징 찾아봄.</t>
+  </si>
+  <si>
+    <t>infj 제발.....</t>
+  </si>
+  <si>
+    <t>모니터에 뭐 묻은 줄 알고 닦았더니 점이었네...</t>
+  </si>
+  <si>
+    <t>0:23 
+3:05 
+여기완전 ㅋㅋㅋㅋㅋㅋㅋ엣프피 친구랑 복붙수준. 친구보는줄알앗넼ㅋㅋㅋ 복장부터 손톱까지 똑가틈 ㅅㅂㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ESTJ는 어찌할지 너무너무 궁금해요 진짜</t>
+  </si>
+  <si>
+    <t>엔팁해주센요.</t>
+  </si>
+  <si>
+    <t>esfp 친구랑 넘 똑같아ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>광고아니라고 의심한 ㅋㅋㅋㅋㅋ 유료광고</t>
+  </si>
+  <si>
+    <t>INTP랑 만난거예요???
+이어지는건가요???ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>맨날 esfp로 오해받는 infp인데 당황스럽네요 사람들이 나를 이렇게 봤다니</t>
+  </si>
+  <si>
+    <t>혹시 e비율이 현저히 낮은 esfp 있나요? 유료 mbti를해도 esfp가 나오는데 거의 i랑 반반이에요 혼란스럽</t>
+  </si>
+  <si>
+    <t>전화받자마자 난줄 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>내가 왜 손절당한건지 알것같다 ㅜ</t>
+  </si>
+  <si>
+    <t>보는 esfp 기빨림</t>
+  </si>
+  <si>
+    <t>아 처음에 INTP가 만났던 사람이 이사람이었구나??????
+남방얘기하는거 보니까</t>
+  </si>
+  <si>
+    <t>언니 enfp해줘요ㅛㅛ</t>
+  </si>
+  <si>
+    <t>내 mbti여서 들어왔다가 놀라면서 나가는중ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>진짜 노력했는데 정말 안맞더라구요.. 기빨려요.. -infj</t>
+  </si>
+  <si>
+    <t>estp였다가 나이들어서 그런거지 모르겠는데 esfp로 바뀌었따</t>
+  </si>
+  <si>
+    <t>제가 ESFP인데 원래 ESFP가 이렇게까지 호들갑 떠나요..?</t>
+  </si>
+  <si>
+    <t>나 맞네 ㅋㅋㅋㅋㅋㅋ후 기빨리게 해서 미안해 얘들아,, ㅌㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>맥락업고 감정안통하고 산만한 내난편이랑  똑같네~ㅋ</t>
+  </si>
+  <si>
+    <t>이 분은 왜 속마음이 없어요?</t>
+  </si>
+  <si>
+    <t>ESTP 존버</t>
   </si>
 </sst>
 </file>
@@ -3075,9 +4117,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A625"/>
+  <dimension ref="A1:A1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -6206,6 +7248,2276 @@
         <v>624</v>
       </c>
     </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A626" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A634" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A635" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A636" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A637" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A638" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A639" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A640" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A641" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A642" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A643" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A644" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A645" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A646" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A647" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A648" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A649" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A650" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A651" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A652" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A653" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A654" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A655" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A656" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A657" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A658" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A659" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A660" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A661" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A662" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A663" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A664" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A665" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A666" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A667" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A668" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A669" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A670" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A671" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A672" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A673" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A674" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A675" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A676" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A677" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A678" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A679" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A680" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A681" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A682" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A683" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A684" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A685" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A686" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A687" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A688" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A689" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A690" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A691" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A692" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A693" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A694" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A695" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A696" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A697" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A698" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A699" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A700" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A701" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A702" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A703" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A704" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A705" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A706" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A707" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A708" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A709" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A710" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A711" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A712" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A713" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A714" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A715" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A716" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A717" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A718" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A719" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A720" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A721" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A722" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A723" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A724" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A725" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A726" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A727" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A728" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A729" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A730" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A731" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A732" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A733" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A734" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A735" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A736" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A737" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A738" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A739" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A740" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A741" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A742" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A743" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A744" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A745" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A746" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A747" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A748" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A749" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A750" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A751" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A752" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A753" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A754" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A755" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A756" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A757" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A758" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A759" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A760" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A761" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A762" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A763" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A764" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A765" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A766" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A767" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A768" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A769" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A770" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A771" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A772" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A773" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A774" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A775" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A776" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A777" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A778" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A779" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A780" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A781" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A782" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A783" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A784" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A785" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A786" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A787" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A788" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A789" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A790" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A791" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A792" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A793" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A794" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A795" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A796" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A797" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A798" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A799" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A800" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A801" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A802" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A803" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A804" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A805" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A806" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A807" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A808" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A809" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A810" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A811" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A812" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A813" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A814" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A815" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A816" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A817" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A818" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A819" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A820" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A821" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A822" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A823" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A824" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A825" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A826" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A827" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A828" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A829" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A830" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A831" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A832" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A833" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A834" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A835" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A836" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A837" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A838" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A839" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A840" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A841" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A842" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A843" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A844" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A845" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A846" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A847" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A848" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A849" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A850" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A851" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A852" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A853" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A854" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A855" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A856" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A857" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A858" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A859" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A860" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A861" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A862" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A863" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A864" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A865" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A866" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A867" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A868" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A869" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A870" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A871" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A872" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A873" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A874" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A875" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A876" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A877" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A878" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A879" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A880" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A881" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A882" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A883" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A884" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A885" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A886" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A887" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A888" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A889" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A890" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A891" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A892" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A893" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A894" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A895" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A896" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A897" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A898" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A899" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A900" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A901" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A902" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A903" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A904" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A905" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A906" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A907" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A908" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A909" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A910" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A911" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A912" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A913" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A914" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A915" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A916" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A917" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A918" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A919" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A920" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A921" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A922" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A923" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A924" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A925" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A926" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A927" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A928" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A929" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A930" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A931" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A932" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A933" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A934" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A935" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A936" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A937" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A938" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A939" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A940" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A941" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A942" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A943" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A944" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A945" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A946" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A947" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A948" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A949" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A950" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A951" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A952" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A953" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A954" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A955" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A956" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A957" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A958" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A959" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A960" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A961" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A962" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A963" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A964" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A965" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A966" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A967" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A968" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A969" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A970" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A971" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A972" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A973" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A974" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A975" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A976" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A977" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A978" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A979" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A980" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A981" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A982" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A983" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A984" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A985" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A986" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A987" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A988" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A989" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A990" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A991" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A992" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A993" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A994" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A995" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A996" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A997" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A998" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A999" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1000" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1001" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1002" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1003" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1004" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1005" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1006" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1007" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1008" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1009" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1010" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1011" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1012" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1013" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1014" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1015" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1016" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1017" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1018" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1019" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1020" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1021" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1022" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1023" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1024" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1025" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1026" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1027" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1028" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1029" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1030" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1032" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1033" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1034" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1035" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1036" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1037" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1038" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1039" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1040" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1041" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1042" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1043" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1044" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1045" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1046" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1047" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1048" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1049" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1050" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1051" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1052" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1053" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1054" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1055" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1056" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1057" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1058" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1059" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1060" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1061" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1062" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1063" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1064" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1065" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1066" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1067" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1068" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1069" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1070" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1071" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1072" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1073" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1074" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1075" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1076" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1077" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1078" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1079" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1080" t="s">
+        <v>1078</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
